--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="2580">
   <si>
     <t>Base Set</t>
   </si>
@@ -7748,6 +7748,30 @@
   </si>
   <si>
     <t>HL: Rupp Hangs On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Blanton 2009 Topps </t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-mGinmu0v5yg/V7ZbqmPoQAI/AAAAAAAAduU/subqRaqlaE0aUsVYzjDlZCVlp7w0T7GvgCLcB/s1600/2009%2BTopps%2BBlack%2BBlanton.jpg</t>
+  </si>
+  <si>
+    <t>Willie Hernandez 87 Topps</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-nnUcoxbaEuQ/V7Yvk39gEHI/AAAAAAABngQ/_dCPKrftiO0TI6G8Bgc8EDOSfDWf_I82QCLcB/s1600/c.a.-2.jpg</t>
+  </si>
+  <si>
+    <t>Richie Allen 1972 Topps</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-uw6CDWCu7KY/V7Y8NM-hqiI/AAAAAAABnhU/6HhTkmOoBpYaF9IJSKwYEPSBS-zbtPZdgCLcB/s1600/c.a.-6-6.jpg</t>
+  </si>
+  <si>
+    <t>Dick Allen 1973 Topps</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-fvpEHPG8_Wc/V7Y8Wuv0koI/AAAAAAABnhY/symLN0N71FwmhyzdOw2NrJs2neVjg2cNQCLcB/s1600/olympics-6-6-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -8115,10 +8139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9542,6 +9566,14 @@
         <v>2565</v>
       </c>
     </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2573</v>
+      </c>
+    </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2424</v>
@@ -10107,1469 +10139,1493 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>2484</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>2391</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B285" t="s">
         <v>2392</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B283" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1580</v>
+        <v>2409</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2410</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1582</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1585</v>
+        <v>1489</v>
       </c>
       <c r="B290" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="B291" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="B292" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1516</v>
+        <v>1585</v>
       </c>
       <c r="B293" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="B294" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1640</v>
+        <v>1589</v>
       </c>
       <c r="B295" t="s">
-        <v>1641</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1594</v>
+        <v>1516</v>
       </c>
       <c r="B296" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B297" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1598</v>
+        <v>1640</v>
       </c>
       <c r="B298" t="s">
-        <v>1597</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="B299" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="B300" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="B301" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="B302" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="B303" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B304" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="B305" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1422</v>
+        <v>1609</v>
       </c>
       <c r="B306" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B307" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="B308" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1619</v>
+        <v>1422</v>
       </c>
       <c r="B309" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="B310" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B311" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="B312" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="B313" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B314" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="B315" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="B316" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B317" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="B318" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="B319" t="s">
-        <v>1639</v>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B323" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B324" t="s">
-        <v>2513</v>
+        <v>1637</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B325" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="B326" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B328" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B329" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>2518</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B330" t="s">
         <v>2519</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1672</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1666</v>
+        <v>1554</v>
       </c>
       <c r="B344" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1675</v>
+        <v>1422</v>
       </c>
       <c r="B345" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="B346" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1485</v>
+        <v>1666</v>
       </c>
       <c r="B347" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1594</v>
+        <v>1675</v>
       </c>
       <c r="B348" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B349" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1683</v>
+        <v>1485</v>
       </c>
       <c r="B350" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1685</v>
+        <v>1594</v>
       </c>
       <c r="B351" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="B352" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="B353" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2185</v>
+        <v>1685</v>
       </c>
       <c r="B354" t="s">
-        <v>2186</v>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2429</v>
+        <v>1689</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1485</v>
+        <v>2185</v>
       </c>
       <c r="B357" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1692</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1693</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1694</v>
+        <v>1485</v>
       </c>
       <c r="B360" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1697</v>
+        <v>1481</v>
       </c>
       <c r="B361" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1673</v>
+        <v>1555</v>
       </c>
       <c r="B362" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1685</v>
+        <v>1694</v>
       </c>
       <c r="B363" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1675</v>
+        <v>1697</v>
       </c>
       <c r="B364" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1701</v>
+        <v>1673</v>
       </c>
       <c r="B365" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1194</v>
+        <v>1685</v>
       </c>
       <c r="B366" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1493</v>
+        <v>1675</v>
       </c>
       <c r="B367" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1422</v>
+        <v>1701</v>
       </c>
       <c r="B368" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1666</v>
+        <v>1194</v>
       </c>
       <c r="B369" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1554</v>
+        <v>1493</v>
       </c>
       <c r="B370" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1708</v>
+        <v>1422</v>
       </c>
       <c r="B371" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1711</v>
+        <v>1666</v>
       </c>
       <c r="B372" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1713</v>
+        <v>1554</v>
       </c>
       <c r="B373" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="B374" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1678</v>
+        <v>1711</v>
       </c>
       <c r="B375" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="B376" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1516</v>
+        <v>1715</v>
       </c>
       <c r="B377" t="s">
-        <v>1899</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>2187</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B381" t="s">
         <v>2188</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1722</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B386" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1725</v>
+        <v>1557</v>
       </c>
       <c r="B387" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1727</v>
+        <v>1558</v>
       </c>
       <c r="B388" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="B389" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1493</v>
+        <v>1725</v>
       </c>
       <c r="B390" t="s">
-        <v>1731</v>
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2431</v>
+        <v>1730</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1732</v>
+        <v>1493</v>
       </c>
       <c r="B393" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1764</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1765</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B396" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B397" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1737</v>
+        <v>1517</v>
       </c>
       <c r="B398" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1701</v>
+        <v>1734</v>
       </c>
       <c r="B399" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B400" t="s">
-        <v>1739</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="B401" t="s">
-        <v>1768</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1741</v>
+        <v>1701</v>
       </c>
       <c r="B402" t="s">
-        <v>1769</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B403" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B404" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1493</v>
+        <v>1741</v>
       </c>
       <c r="B405" t="s">
-        <v>1745</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1723</v>
+        <v>1742</v>
       </c>
       <c r="B406" t="s">
-        <v>1771</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B407" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1194</v>
+        <v>1493</v>
       </c>
       <c r="B408" t="s">
-        <v>1773</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
       <c r="B409" t="s">
-        <v>1747</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1730</v>
+        <v>1746</v>
       </c>
       <c r="B410" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1749</v>
+        <v>1194</v>
       </c>
       <c r="B411" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B412" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B413" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1558</v>
+        <v>1749</v>
       </c>
       <c r="B414" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B415" t="s">
-        <v>1778</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1754</v>
+        <v>1727</v>
       </c>
       <c r="B416" t="s">
-        <v>1753</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1755</v>
+        <v>1558</v>
       </c>
       <c r="B417" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
       <c r="B418" t="s">
-        <v>1756</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="B419" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="B420" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
       <c r="B421" t="s">
-        <v>1761</v>
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2432</v>
+        <v>1760</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1796</v>
+        <v>1762</v>
       </c>
       <c r="B424" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1799</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1904</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1906</v>
+        <v>1796</v>
       </c>
       <c r="B427" t="s">
-        <v>1905</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1567</v>
+        <v>1798</v>
       </c>
       <c r="B428" t="s">
-        <v>1907</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1194</v>
+        <v>1723</v>
       </c>
       <c r="B429" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="B430" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1911</v>
+        <v>1567</v>
       </c>
       <c r="B431" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1914</v>
+        <v>1194</v>
       </c>
       <c r="B432" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="B433" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1752</v>
+        <v>1911</v>
       </c>
       <c r="B434" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="B435" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1485</v>
+        <v>1915</v>
       </c>
       <c r="B436" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1921</v>
+        <v>1752</v>
       </c>
       <c r="B437" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="B438" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1925</v>
+        <v>1485</v>
       </c>
       <c r="B439" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B440" t="s">
-        <v>1928</v>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>2433</v>
+        <v>1925</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1195</v>
+        <v>1927</v>
       </c>
       <c r="B443" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1941</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1270</v>
+        <v>1195</v>
       </c>
       <c r="B446" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1442</v>
+        <v>1940</v>
       </c>
       <c r="B447" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
       <c r="B448" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>286</v>
+        <v>1270</v>
       </c>
       <c r="B449" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1221</v>
+        <v>1442</v>
       </c>
       <c r="B450" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="B451" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1215</v>
+        <v>286</v>
       </c>
       <c r="B452" t="s">
-        <v>1948</v>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2434</v>
+        <v>1272</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1949</v>
+        <v>1215</v>
       </c>
       <c r="B455" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1952</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="B458" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1957</v>
+        <v>1790</v>
       </c>
       <c r="B459" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="B460" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B461" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="B462" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1436</v>
+        <v>1959</v>
       </c>
       <c r="B463" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="B464" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="B465" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1970</v>
+        <v>1436</v>
       </c>
       <c r="B466" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1612</v>
+        <v>1968</v>
       </c>
       <c r="B467" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="B468" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B469" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1333</v>
+        <v>1612</v>
       </c>
       <c r="B470" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="B471" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B472" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1982</v>
+        <v>1333</v>
       </c>
       <c r="B473" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="B474" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="B475" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="B476" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="B477" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B478" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="B479" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1321</v>
+        <v>1990</v>
       </c>
       <c r="B480" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B481" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1537</v>
+        <v>1994</v>
       </c>
       <c r="B482" t="s">
-        <v>1998</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1999</v>
+        <v>1321</v>
       </c>
       <c r="B483" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="B484" t="s">
-        <v>2001</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>2004</v>
+        <v>1537</v>
       </c>
       <c r="B485" t="s">
-        <v>2003</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="B486" t="s">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="B487" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="B488" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="B489" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="B490" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B491" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B492" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>2016</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B494" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -16786,7 +16842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="2580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="2599">
   <si>
     <t>Base Set</t>
   </si>
@@ -7772,6 +7772,63 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-fvpEHPG8_Wc/V7Y8Wuv0koI/AAAAAAABnhY/symLN0N71FwmhyzdOw2NrJs2neVjg2cNQCLcB/s1600/olympics-6-6-2.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-XSDcZ8WSzvY/V7cqfM8xjWI/AAAAAAAAdu0/_0OufMQ-SgURELpPdmDAgobzn9TAN_7BgCLcB/s1600/1970%2BTopps%2B%2523220%2BCarlton.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-C9iz7B67QC0/V7cqj-Q6rjI/AAAAAAAAdu4/jWRZIuFNnbgRZ9To-7hBHf9WBA1IP2IVQCLcB/s1600/1970%2BTopps%2B%2523605%2BWise.jpg</t>
+  </si>
+  <si>
+    <t>Jerry Koosman</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-y1R77DQJxYE/V8CX2zfLxpI/AAAAAAAAdx8/QdqDti79eI03UJY8x_Q5YFj-VUTOQ3qPwCLcB/s1600/1970%2BTopps%2B%2523610%2BKoosman.jpg</t>
+  </si>
+  <si>
+    <t>Frank Herrmann</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-nbOLB8Cak0s/V7c2QLmgwJI/AAAAAAAAdvY/07b0Dfh3wdQVbpwv3G8YYmtJcWyspQBvQCLcB/s1600/2016%2BChachi%2B%252357%2BHerrmann.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-CiRdx0OghdM/V7pNrjl6oxI/AAAAAAAAdwo/nwB5Qa5tYIs2BhAnEfATUCvt9CiDk3-lACLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B%252316%2BHernandez.jpg</t>
+  </si>
+  <si>
+    <t>Tony Curry</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-hq_J13wlEg4/V7Hm_dwNUZI/AAAAAAAAIWk/ezOGy4KgLcIH_y_q0FE_Y84fuDTRY27dgCLcB/s1600/tony%2Bcurry.jpg</t>
+  </si>
+  <si>
+    <t>Chooch 2007 Topps</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-mC3KAHRqOMI/V8DIidQxcmI/AAAAAAAAdyk/BpJgPYA0P308Df6APO6veRygHp_Ew5t0QCLcB/s1600/2007%2BTopps%2BUpdate%2B%2523UH99%2BRuiz.jpg</t>
+  </si>
+  <si>
+    <t>Chooch 2008 Topps</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-MGQ6zHYCDow/V8DMcdZG4NI/AAAAAAAAdzE/PRCqSdcinDAmBLurg6MChNy_AQjM2D4bwCLcB/s1600/2008%2BTopps%2B%2523281%2BRuiz.jpg</t>
+  </si>
+  <si>
+    <t>Chooch 2009 Topps</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-ShJYa9iqlHw/V8DMcSThWeI/AAAAAAAAdy8/Gm81RZONoc42lK7lEXJXLMb_LF1H7hX5QCLcB/s1600/2009%2BTopps%2B%2523397%2BRuiz.jpg</t>
+  </si>
+  <si>
+    <t>Ryan Madsen 2004 Bazooka</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-AvVcQCgdF6M/V8DSvoonWMI/AAAAAAAAdzU/2LuClm5RPisUgxy5rc3Fsd8GY6Tk7tWzgCLcB/s1600/2004%2BBazooka%2B%2523259%2BMadson.jpg</t>
+  </si>
+  <si>
+    <t>A.J. Ellis 2014 Topps Heritage</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-9MBX49w7b_E/V8Cz4BReSsI/AAAAAAAAdyQ/qusG9Tyauv870NOtWP9HQW0Q1jSBEDnmwCLcB/s1600/2014%2BTopps%2BHeritage%2B%252322%2BEllis.jpg</t>
   </si>
 </sst>
 </file>
@@ -8139,10 +8196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+      <selection activeCell="A285" sqref="A285:B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8961,2671 +9018,2719 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>2280</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2458</v>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2596</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="B114" t="s">
-        <v>2284</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="B115" t="s">
-        <v>2286</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="B116" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="B117" t="s">
-        <v>2289</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="B118" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="B119" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="B120" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="B121" t="s">
-        <v>2453</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="B122" t="s">
-        <v>2455</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="B123" t="s">
-        <v>2454</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="B124" t="s">
-        <v>2299</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B125" t="s">
-        <v>2465</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
       <c r="B126" t="s">
-        <v>2466</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="B127" t="s">
-        <v>2467</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="B128" t="s">
-        <v>2468</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="B129" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="B130" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B131" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="B132" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B133" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B134" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="B135" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B136" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B137" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="B138" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B139" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B140" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="B141" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="B142" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="B143" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="B144" t="s">
-        <v>2464</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B145" t="s">
-        <v>2321</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="B146" t="s">
-        <v>2463</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="B147" t="s">
-        <v>2462</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="B148" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="B149" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="B150" t="s">
-        <v>2330</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="B151" t="s">
-        <v>2332</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2337</v>
+        <v>2324</v>
       </c>
       <c r="B152" t="s">
-        <v>2338</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2345</v>
+        <v>2327</v>
       </c>
       <c r="B153" t="s">
-        <v>2346</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2349</v>
+        <v>2329</v>
       </c>
       <c r="B154" t="s">
-        <v>2350</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2351</v>
+        <v>2331</v>
       </c>
       <c r="B155" t="s">
-        <v>2352</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2353</v>
+        <v>2337</v>
       </c>
       <c r="B156" t="s">
-        <v>2354</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2355</v>
+        <v>2345</v>
       </c>
       <c r="B157" t="s">
-        <v>2356</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2357</v>
+        <v>2349</v>
       </c>
       <c r="B158" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="B159" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
       <c r="B160" t="s">
-        <v>2366</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2367</v>
+        <v>2355</v>
       </c>
       <c r="B161" t="s">
-        <v>2368</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2369</v>
+        <v>2357</v>
       </c>
       <c r="B162" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="B163" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="B164" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="B165" t="s">
-        <v>2376</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2383</v>
+        <v>2369</v>
       </c>
       <c r="B166" t="s">
-        <v>2384</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2385</v>
+        <v>2371</v>
       </c>
       <c r="B167" t="s">
-        <v>2386</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2395</v>
+        <v>2373</v>
       </c>
       <c r="B168" t="s">
-        <v>2396</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2403</v>
+        <v>2375</v>
       </c>
       <c r="B169" t="s">
-        <v>2404</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2411</v>
+        <v>2383</v>
       </c>
       <c r="B170" t="s">
-        <v>2412</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2415</v>
+        <v>2385</v>
       </c>
       <c r="B171" t="s">
-        <v>2416</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2417</v>
+        <v>2395</v>
       </c>
       <c r="B172" t="s">
-        <v>2418</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2419</v>
+        <v>2403</v>
       </c>
       <c r="B173" t="s">
-        <v>2420</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2524</v>
+        <v>2411</v>
       </c>
       <c r="B174" t="s">
-        <v>2525</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2520</v>
+        <v>2415</v>
       </c>
       <c r="B175" t="s">
-        <v>2521</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2530</v>
+        <v>2417</v>
       </c>
       <c r="B176" t="s">
-        <v>2531</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2532</v>
+        <v>2419</v>
       </c>
       <c r="B177" t="s">
-        <v>2533</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2536</v>
+        <v>2524</v>
       </c>
       <c r="B178" t="s">
-        <v>2537</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2546</v>
+        <v>2520</v>
       </c>
       <c r="B179" t="s">
-        <v>2547</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2548</v>
+        <v>2530</v>
       </c>
       <c r="B180" t="s">
-        <v>2549</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2550</v>
+        <v>2532</v>
       </c>
       <c r="B181" t="s">
-        <v>2551</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2556</v>
+        <v>2536</v>
       </c>
       <c r="B182" t="s">
-        <v>2557</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2558</v>
+        <v>2546</v>
       </c>
       <c r="B183" t="s">
-        <v>2559</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2564</v>
+        <v>2548</v>
       </c>
       <c r="B184" t="s">
-        <v>2565</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>2572</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B189" t="s">
         <v>2573</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>293</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1538</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1541</v>
+        <v>1552</v>
       </c>
       <c r="B212" t="s">
-        <v>1539</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="B213" t="s">
-        <v>1542</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1548</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1569</v>
+        <v>1537</v>
       </c>
       <c r="B215" t="s">
-        <v>1570</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1571</v>
+        <v>1541</v>
       </c>
       <c r="B216" t="s">
-        <v>1572</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1811</v>
+        <v>1540</v>
       </c>
       <c r="B217" t="s">
-        <v>1812</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1932</v>
+        <v>1548</v>
       </c>
       <c r="B218" t="s">
-        <v>1933</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1934</v>
+        <v>1569</v>
       </c>
       <c r="B219" t="s">
-        <v>1935</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1644</v>
+        <v>1571</v>
       </c>
       <c r="B220" t="s">
-        <v>1643</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1648</v>
+        <v>1811</v>
       </c>
       <c r="B221" t="s">
-        <v>1649</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1652</v>
+        <v>1932</v>
       </c>
       <c r="B222" t="s">
-        <v>1653</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1650</v>
+        <v>1934</v>
       </c>
       <c r="B223" t="s">
-        <v>1651</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="B224" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2036</v>
+        <v>1648</v>
       </c>
       <c r="B225" t="s">
-        <v>2037</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2193</v>
+        <v>1652</v>
       </c>
       <c r="B226" t="s">
-        <v>2194</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2205</v>
+        <v>1650</v>
       </c>
       <c r="B227" t="s">
-        <v>2206</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2207</v>
+        <v>1654</v>
       </c>
       <c r="B228" t="s">
-        <v>2208</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2209</v>
+        <v>2036</v>
       </c>
       <c r="B229" t="s">
-        <v>2210</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
       <c r="B230" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2219</v>
+        <v>2205</v>
       </c>
       <c r="B231" t="s">
-        <v>2220</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2231</v>
+        <v>2207</v>
       </c>
       <c r="B232" t="s">
-        <v>2232</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2239</v>
+        <v>2209</v>
       </c>
       <c r="B233" t="s">
-        <v>2240</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2241</v>
+        <v>2211</v>
       </c>
       <c r="B234" t="s">
-        <v>2242</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2257</v>
+        <v>2219</v>
       </c>
       <c r="B235" t="s">
-        <v>2258</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2259</v>
+        <v>2231</v>
       </c>
       <c r="B236" t="s">
-        <v>2260</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2261</v>
+        <v>2239</v>
       </c>
       <c r="B237" t="s">
-        <v>2262</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2263</v>
+        <v>2241</v>
       </c>
       <c r="B238" t="s">
-        <v>2264</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1548</v>
+        <v>2257</v>
       </c>
       <c r="B239" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="B240" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="B241" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2277</v>
+        <v>2263</v>
       </c>
       <c r="B242" t="s">
-        <v>2278</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2377</v>
+        <v>1548</v>
       </c>
       <c r="B243" t="s">
-        <v>2378</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2379</v>
+        <v>2266</v>
       </c>
       <c r="B244" t="s">
-        <v>2380</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2381</v>
+        <v>2269</v>
       </c>
       <c r="B245" t="s">
-        <v>2382</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2359</v>
+        <v>2277</v>
       </c>
       <c r="B246" t="s">
-        <v>2360</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2361</v>
+        <v>2377</v>
       </c>
       <c r="B247" t="s">
-        <v>2362</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2333</v>
+        <v>2379</v>
       </c>
       <c r="B248" t="s">
-        <v>2334</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2335</v>
+        <v>2381</v>
       </c>
       <c r="B249" t="s">
-        <v>2336</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2339</v>
+        <v>2359</v>
       </c>
       <c r="B250" t="s">
-        <v>2340</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2341</v>
+        <v>2361</v>
       </c>
       <c r="B251" t="s">
-        <v>2342</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="B252" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2347</v>
+        <v>2335</v>
       </c>
       <c r="B253" t="s">
-        <v>2348</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2325</v>
+        <v>2339</v>
       </c>
       <c r="B254" t="s">
-        <v>2326</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2387</v>
+        <v>2341</v>
       </c>
       <c r="B255" t="s">
-        <v>2388</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2389</v>
+        <v>2343</v>
       </c>
       <c r="B256" t="s">
-        <v>2390</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2393</v>
+        <v>2347</v>
       </c>
       <c r="B257" t="s">
-        <v>2394</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2397</v>
+        <v>2325</v>
       </c>
       <c r="B258" t="s">
-        <v>2398</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
       <c r="B259" t="s">
-        <v>2400</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2401</v>
+        <v>2389</v>
       </c>
       <c r="B260" t="s">
-        <v>2402</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2405</v>
+        <v>2393</v>
       </c>
       <c r="B261" t="s">
-        <v>2406</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2407</v>
+        <v>2397</v>
       </c>
       <c r="B262" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2413</v>
+        <v>2399</v>
       </c>
       <c r="B263" t="s">
-        <v>2414</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1631</v>
+        <v>2401</v>
       </c>
       <c r="B264" t="s">
-        <v>2508</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2522</v>
+        <v>2405</v>
       </c>
       <c r="B265" t="s">
-        <v>2523</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2526</v>
+        <v>2407</v>
       </c>
       <c r="B266" t="s">
-        <v>2527</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2528</v>
+        <v>2413</v>
       </c>
       <c r="B267" t="s">
-        <v>2529</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2534</v>
+        <v>1631</v>
       </c>
       <c r="B268" t="s">
-        <v>2535</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2538</v>
+        <v>2522</v>
       </c>
       <c r="B269" t="s">
-        <v>2539</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2540</v>
+        <v>2526</v>
       </c>
       <c r="B270" t="s">
-        <v>2541</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2542</v>
+        <v>2528</v>
       </c>
       <c r="B271" t="s">
-        <v>2543</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="B272" t="s">
-        <v>2545</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2552</v>
+        <v>2538</v>
       </c>
       <c r="B273" t="s">
-        <v>2553</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2554</v>
+        <v>2540</v>
       </c>
       <c r="B274" t="s">
-        <v>2555</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2560</v>
+        <v>2542</v>
       </c>
       <c r="B275" t="s">
-        <v>2561</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2562</v>
+        <v>2544</v>
       </c>
       <c r="B276" t="s">
-        <v>2563</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2566</v>
+        <v>2552</v>
       </c>
       <c r="B277" t="s">
-        <v>2567</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2574</v>
+        <v>2554</v>
       </c>
       <c r="B278" t="s">
-        <v>2575</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="B279" t="s">
-        <v>2577</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2578</v>
+        <v>2562</v>
       </c>
       <c r="B280" t="s">
-        <v>2579</v>
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2577</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2484</v>
+        <v>2578</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2579</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2391</v>
+        <v>2597</v>
       </c>
       <c r="B285" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>2409</v>
-      </c>
-      <c r="B286" t="s">
-        <v>2410</v>
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2426</v>
+        <v>2391</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2392</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1489</v>
+        <v>2409</v>
       </c>
       <c r="B290" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1582</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1584</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1587</v>
+        <v>1489</v>
       </c>
       <c r="B294" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B295" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1516</v>
+        <v>1583</v>
       </c>
       <c r="B296" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B297" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1640</v>
+        <v>1587</v>
       </c>
       <c r="B298" t="s">
-        <v>1641</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="B299" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1596</v>
+        <v>1516</v>
       </c>
       <c r="B300" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="B301" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="B302" t="s">
-        <v>1599</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B303" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="B304" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B305" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="B306" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="B307" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="B308" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1422</v>
+        <v>1605</v>
       </c>
       <c r="B309" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B310" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="B311" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="B312" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1621</v>
+        <v>1422</v>
       </c>
       <c r="B313" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B314" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B315" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B316" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B317" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B318" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="B319" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B320" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="B321" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B322" t="s">
-        <v>1639</v>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2509</v>
+        <v>1636</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2510</v>
+        <v>1637</v>
       </c>
       <c r="B326" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B327" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B328" t="s">
-        <v>2515</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B329" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B330" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B332" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>2518</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B334" t="s">
         <v>2519</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1674</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1675</v>
+        <v>1554</v>
       </c>
       <c r="B348" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1678</v>
+        <v>1422</v>
       </c>
       <c r="B349" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1485</v>
+        <v>1673</v>
       </c>
       <c r="B350" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1594</v>
+        <v>1666</v>
       </c>
       <c r="B351" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="B352" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="B353" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1685</v>
+        <v>1485</v>
       </c>
       <c r="B354" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1687</v>
+        <v>1594</v>
       </c>
       <c r="B355" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="B356" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2185</v>
+        <v>1683</v>
       </c>
       <c r="B357" t="s">
-        <v>2186</v>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2429</v>
+        <v>1687</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1485</v>
+        <v>1689</v>
       </c>
       <c r="B360" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1481</v>
+        <v>2185</v>
       </c>
       <c r="B361" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1693</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1695</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1697</v>
+        <v>1485</v>
       </c>
       <c r="B364" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1673</v>
+        <v>1481</v>
       </c>
       <c r="B365" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1685</v>
+        <v>1555</v>
       </c>
       <c r="B366" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1675</v>
+        <v>1694</v>
       </c>
       <c r="B367" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="B368" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1194</v>
+        <v>1673</v>
       </c>
       <c r="B369" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1493</v>
+        <v>1685</v>
       </c>
       <c r="B370" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1422</v>
+        <v>1675</v>
       </c>
       <c r="B371" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1666</v>
+        <v>1701</v>
       </c>
       <c r="B372" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1554</v>
+        <v>1194</v>
       </c>
       <c r="B373" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1708</v>
+        <v>1493</v>
       </c>
       <c r="B374" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1711</v>
+        <v>1422</v>
       </c>
       <c r="B375" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1713</v>
+        <v>1666</v>
       </c>
       <c r="B376" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1715</v>
+        <v>1554</v>
       </c>
       <c r="B377" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="B378" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B379" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1516</v>
+        <v>1713</v>
       </c>
       <c r="B380" t="s">
-        <v>1899</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2187</v>
+        <v>1715</v>
       </c>
       <c r="B381" t="s">
-        <v>2188</v>
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1722</v>
+        <v>2187</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2188</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1724</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B390" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1727</v>
+        <v>1557</v>
       </c>
       <c r="B391" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1730</v>
+        <v>1558</v>
       </c>
       <c r="B392" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1493</v>
+        <v>1723</v>
       </c>
       <c r="B393" t="s">
-        <v>1731</v>
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2431</v>
+        <v>1727</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B396" t="s">
-        <v>1763</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1733</v>
+        <v>1493</v>
       </c>
       <c r="B397" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1765</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1766</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B400" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B401" t="s">
-        <v>1736</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1701</v>
+        <v>1517</v>
       </c>
       <c r="B402" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B403" t="s">
-        <v>1739</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B404" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="B405" t="s">
-        <v>1769</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1742</v>
+        <v>1701</v>
       </c>
       <c r="B406" t="s">
-        <v>1743</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="B407" t="s">
-        <v>1770</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1493</v>
+        <v>1740</v>
       </c>
       <c r="B408" t="s">
-        <v>1745</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1723</v>
+        <v>1741</v>
       </c>
       <c r="B409" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B410" t="s">
-        <v>1772</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1194</v>
+        <v>1744</v>
       </c>
       <c r="B411" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1748</v>
+        <v>1493</v>
       </c>
       <c r="B412" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="B413" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B414" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1751</v>
+        <v>1194</v>
       </c>
       <c r="B415" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="B416" t="s">
-        <v>1776</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1558</v>
+        <v>1730</v>
       </c>
       <c r="B417" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B418" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B419" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1755</v>
+        <v>1727</v>
       </c>
       <c r="B420" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1757</v>
+        <v>1558</v>
       </c>
       <c r="B421" t="s">
-        <v>1756</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="B422" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B423" t="s">
-        <v>1780</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="B424" t="s">
-        <v>1761</v>
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>2432</v>
+        <v>1759</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1796</v>
+        <v>1760</v>
       </c>
       <c r="B427" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1798</v>
+        <v>1762</v>
       </c>
       <c r="B428" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1904</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1905</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1567</v>
+        <v>1796</v>
       </c>
       <c r="B431" t="s">
-        <v>1907</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1194</v>
+        <v>1798</v>
       </c>
       <c r="B432" t="s">
-        <v>1908</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1909</v>
+        <v>1723</v>
       </c>
       <c r="B433" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="B434" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1914</v>
+        <v>1567</v>
       </c>
       <c r="B435" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1915</v>
+        <v>1194</v>
       </c>
       <c r="B436" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1752</v>
+        <v>1909</v>
       </c>
       <c r="B437" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="B438" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1485</v>
+        <v>1914</v>
       </c>
       <c r="B439" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B440" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1923</v>
+        <v>1752</v>
       </c>
       <c r="B441" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="B442" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1927</v>
+        <v>1485</v>
       </c>
       <c r="B443" t="s">
-        <v>1928</v>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2433</v>
+        <v>1923</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1195</v>
+        <v>1925</v>
       </c>
       <c r="B446" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="B447" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1942</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1442</v>
+        <v>1195</v>
       </c>
       <c r="B450" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1264</v>
+        <v>1940</v>
       </c>
       <c r="B451" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>286</v>
+        <v>1237</v>
       </c>
       <c r="B452" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1221</v>
+        <v>1270</v>
       </c>
       <c r="B453" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1272</v>
+        <v>1442</v>
       </c>
       <c r="B454" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1215</v>
+        <v>1264</v>
       </c>
       <c r="B455" t="s">
-        <v>1948</v>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>286</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2434</v>
+        <v>1221</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1949</v>
+        <v>1272</v>
       </c>
       <c r="B458" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1790</v>
+        <v>1215</v>
       </c>
       <c r="B459" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1954</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="B462" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1959</v>
+        <v>1790</v>
       </c>
       <c r="B463" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="B464" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="B465" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1436</v>
+        <v>1957</v>
       </c>
       <c r="B466" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="B467" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="B468" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="B469" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1612</v>
+        <v>1436</v>
       </c>
       <c r="B470" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="B471" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="B472" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1333</v>
+        <v>1970</v>
       </c>
       <c r="B473" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1977</v>
+        <v>1612</v>
       </c>
       <c r="B474" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="B475" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="B476" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1984</v>
+        <v>1333</v>
       </c>
       <c r="B477" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="B478" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="B479" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B480" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B481" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="B482" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1321</v>
+        <v>1987</v>
       </c>
       <c r="B483" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="B484" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1537</v>
+        <v>1992</v>
       </c>
       <c r="B485" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B486" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2002</v>
+        <v>1321</v>
       </c>
       <c r="B487" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="B488" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>2006</v>
+        <v>1537</v>
       </c>
       <c r="B489" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="B490" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B491" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B492" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B493" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B495" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>2016</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B498" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -15069,10 +15174,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15251,6 +15356,14 @@
         <v>2491</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2581</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1480</v>
@@ -15542,6 +15655,22 @@
       </c>
       <c r="B63" t="s">
         <v>2492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2583</v>
       </c>
     </row>
   </sheetData>
@@ -15551,10 +15680,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15934,6 +16063,14 @@
       </c>
       <c r="B49" t="s">
         <v>2507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2586</v>
       </c>
     </row>
   </sheetData>
@@ -16842,8 +16979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17215,6 +17352,14 @@
       </c>
       <c r="B46" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2585</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="2599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="2658">
   <si>
     <t>Base Set</t>
   </si>
@@ -6100,9 +6100,6 @@
     <t>Phillie Phanatic</t>
   </si>
   <si>
-    <t>https://3.bp.blogspot.com/-XKLW7WIgKxE/V0CEtEFt22I/AAAAAAAAcp0/bNX5YyB5514Tn-4Cf_-UPPwBTGfKxEqUACLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2BLough%2BAuto.jpg</t>
-  </si>
-  <si>
     <t>https://1.bp.blogspot.com/-W-PShXEO0-k/V0CEs8XdT3I/AAAAAAAAcpo/ADqf8osG4doSf242PhD2ssM6XnS9HJEDACLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2BBroadcasters%2B%2528Murphy%2BAuto%2529.jpg</t>
   </si>
   <si>
@@ -7829,6 +7826,186 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/-9MBX49w7b_E/V8Cz4BReSsI/AAAAAAAAdyQ/qusG9Tyauv870NOtWP9HQW0Q1jSBEDnmwCLcB/s1600/2014%2BTopps%2BHeritage%2B%252322%2BEllis.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-hvcR15WGvF4/V8OVCXllRNI/AAAAAAAAd1s/_4qSti37G24EWH-fg5jS_RL6gKENalv7gCLcB/s1600/2015%2BTopps%2B%2523429%2BEllis.jpg</t>
+  </si>
+  <si>
+    <t>A.J. Ellis 2015 Topps</t>
+  </si>
+  <si>
+    <t>Adolfo Phillips</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-j89LvwN1Nq8/V8Od_I9KGQI/AAAAAAAAd2Q/mjn3WWZkgZc8tBWCPGnn77lsIk8pH8yWQCLcB/s1600/1970%2BTopps%2B%2523666%2BPhillips.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-FmPAsxV5Tto/V8Od-_WuQII/AAAAAAAAd2M/Y9SZH1pbE2A4xyWC5ORbD8yPLNj560U8gCLcB/s1600/1970%2BTopps%2B%2523677%2BFryman.jpg</t>
+  </si>
+  <si>
+    <t>A.J. Ellis</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-lzBvLBA2l6A/V8OYMEvgLdI/AAAAAAAAd14/h794sBh-KoYpS_mTgp8iscuNNwtrcRNIgCLcB/s1600/2016%2BChachi%2B%252359%2BEllis.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-xqNqYXg4lZw/V8Yvj-MiQsI/AAAAAAAAd20/Fpvu2ZQKlnIRNMtZ3uMOiZURIzvFzgefQCLcB/s1600/2016%2BTopps%2BPro%2BDebut%2B%25233%2BThompson.jpg</t>
+  </si>
+  <si>
+    <t>Jake Thompson 2016 Topps Pro Debut</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-OR6GZVbPYz0/V8OYGAPEdtI/AAAAAAAAd10/BhnVf8hg6Pod12pjerAaBWBKgNmEJ3ZswCLcB/s1600/2016%2BChachi%2B%252358b%2BAlfaro.jpg</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro 2015 Topps Debut</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-IdUklW4OVaM/V8YxK25v9OI/AAAAAAAAd28/VYs_tU9dgYI1FZBsKtU2GH27zGvMBcPHgCLcB/s1600/2015%2BTopps%2BPro%2BDebut%2B%2523172%2BAlfaro.jpg</t>
+  </si>
+  <si>
+    <t>Jorge Alfaro 2015 Bowman Draft</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-tpg2My5Bff0/V8YxK78qriI/AAAAAAAAd3A/8mdEJVew_jEe_OGpD-42Li8S5mmWctkdQCLcB/s1600/2015%2BBowman%2BDraft%2BBowman%2BScouts%2BFantasy%2BImpact%2B%2523BSI-JA%2BAlfaro.jpg</t>
+  </si>
+  <si>
+    <t>Cubs Dual No Hitter Club (CTNW)</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-eNe3kww_-2k/V8XG_CeqLhI/AAAAAAAAO1c/1kQtMCCXeWIEZNO-pYfPayePoAMriOhfACLcB/s1600/1971%2BTopps%2BNo%2BHit%2Bclub.jpg</t>
+  </si>
+  <si>
+    <t>Ted Sizemore 1971 Topps</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-WHvuHKQqiiY/V8jx3xwnr3I/AAAAAAABn3Y/Kz0ATfTltGMCXInA2h6TG3yDuocnQt3zQCLcB/s1600/sizemore%2B71T.jpg</t>
+  </si>
+  <si>
+    <t>Ted Sizemore 1975 Topps</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/TRL_xCTHKrI/AAAAAAAAahg/Eww8Yd1drIA/s1600/404-sizemore_NEW.jpg</t>
+  </si>
+  <si>
+    <t>1975 Topps Phillies</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/TQryzJ76OnI/AAAAAAAAabU/Q3ykPW1mLEA/s1600/399-harmon_NEW.jpg</t>
+  </si>
+  <si>
+    <t>Eddie Watt</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ew6WPsZoch4/TOS7ejGddMI/AAAAAAAAZ2o/sUBNesheG9o/s1600/374-watt_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ew6WPsZoch4/TMUEzT18LsI/AAAAAAAAZYs/4EB4kJcN0Mo/s1600/351-boone_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/TKGEFbeYqpI/AAAAAAAAY9g/jRl7AwTDvP4/s1600/326-twitchell_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_Ew6WPsZoch4/TKGGeR05kmI/AAAAAAAAY9k/MQl-US-3u2U/s1600/292-schueler_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_Ew6WPsZoch4/TI8MxqHnRlI/AAAAAAAAYiI/aqBn6BHSShs/s1600/312-SO+leaders_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_Ew6WPsZoch4/TI8NpIzxgWI/AAAAAAAAYiQ/EYTiglKeq04/s1600/73+SO+leaders.jpg</t>
+  </si>
+  <si>
+    <t>1972 Strikeout Leaders</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/TIhfyhpY47I/AAAAAAAAYZs/3m94i3ppg-Q/s1600/307-+HR+leaders_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_Ew6WPsZoch4/TE5fGcf13qI/AAAAAAAAWzg/WQTlRLiS_J4/s1600/267-ruthven_0001_NEW.jpg</t>
+  </si>
+  <si>
+    <t>Jim Kaat 1975 Topps</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ew6WPsZoch4/TCwbiz4uogI/AAAAAAAAVxk/5fSC-1lfumU/s1600/243-kaat_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ew6WPsZoch4/TCrFzHKXyHI/AAAAAAAAVuY/nmrIvUv9KBM/s1600/242-johnstone_NEW.jpg</t>
+  </si>
+  <si>
+    <t>Jay Johnstone</t>
+  </si>
+  <si>
+    <t>Garry Maddox 1975 Topps</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ew6WPsZoch4/TCg2HYMcaZI/AAAAAAAAVpw/vGj2Zv_V4PU/s1600/240-maddox_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_Ew6WPsZoch4/S9pi7c4sjhI/AAAAAAAATag/mhOHGwTAIdE/s1600/185-carlton_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_Ew6WPsZoch4/S7rXP2v6ndI/AAAAAAAASbU/3KRXd44Yu1A/s1600/162-montanez_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/S5icH_Y3ffI/AAAAAAAARXA/naJLygOnmRA/s1600-h/138-unser_NEW.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_Ew6WPsZoch4/S3zy5QmtjKI/AAAAAAAAQe4/T-j-CNu7Iz8/s1600-h/118-anderson,+m._NEW.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-4nEMGJC9uis/V8mIs2_TEKI/AAAAAAAAd3w/ehFqtoFL8tk6VFZtvDcETExCQrTyUso5wCLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2B%252350%2BNeris.jpg</t>
+  </si>
+  <si>
+    <t>Ben Lively Ironpigs</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-uZBcexHQX-Y/V8xOTyyu_9I/AAAAAAAAd4Y/Mca02dj-WbMcL8Sv1zrcbzm3whTOZu0NQCLcB/s1600/2016%2BChoice%2BLehigh%2BValley%2BIronPigs%2B%25235%2BLively.jpg</t>
+  </si>
+  <si>
+    <t>Jose Pujols</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-A89IJncy-TQ/V8xOT4BRwwI/AAAAAAAAd4U/GXPv9W_p4AQRhb1c5A4_xRFTjkziIz4YwCLcB/s1600/2016%2BChoice%2BLakewood%2BBlueClaws%2B%252321%2BPujols.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-odrrEFOjx0Y/V8xRC8bHCOI/AAAAAAAAd4k/sUDNeHHukNw4pMSnpQ4g16wIkKFEG39pwCLcB/s1600/2016%2BGrandstand%2BReading%2BFightin%2BPhils%2B%25236%2BCozens.jpg</t>
+  </si>
+  <si>
+    <t>Dylan Cozens</t>
+  </si>
+  <si>
+    <t>Logan Moore</t>
+  </si>
+  <si>
+    <t>Nick Williams</t>
+  </si>
+  <si>
+    <t>Cam Perkins</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-74tRhz8GuK8/V82lAGs88dI/AAAAAAAAd5w/wffPbFhLqNs_HqI0ueLjiGtag6M36HFQwCLcB/s1600/2016%2BChoice%2BLehigh%2BValley%2BIronPigs%2B%252318%2BMoore.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-wfe6BovgH_U/V82lAT3T9sI/AAAAAAAAd50/vtoKUrSfZEw0l-88RP4Thw_XmzQQQsePgCLcB/s1600/2016%2BTopps%2BPro%2BDebut%2B%2523109%2BWilliams.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-KA-bk8Wf2F8/V82lAOA1UbI/AAAAAAAAd5o/uaGsvUFhP3oddzoFQ3NgxHCnbWkzysBzwCLcB/s1600/2016%2BChoice%2BLehigh%2BValley%2BIronPigs%2B%252321%2BPerkins.jpg</t>
+  </si>
+  <si>
+    <t>Cody Asche 2016 Topps Alternate</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-sSEcIbuGjHE/V82krK3HDRI/AAAAAAAAd5k/R2VuEG2vf4QiuVjSxTVsF7GqSgwaMMMOACLcB/s1600/2016%2BTopps%2BPhillies%2B%2523PP-7%2BAsche.jpg</t>
+  </si>
+  <si>
+    <t>Jared Eickhoff 2016 Donruss</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-z_zNJD9LZT4/V84A19GwwiI/AAAAAAAAd6U/BG1_IngpKIAH5tJXw4H7WjeY-9FlLZixgCLcB/s1600/2016%2BDonruss%2BOptic%2B%252363%2BEickhoff.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-yMq9lOhw37A/V85-OGOH4NI/AAAAAAAACi8/kFdNq6iS95oyZ2U0SrjByreXbfXPyfUkACLcB/s1600/topps1972-423F.jpg</t>
   </si>
 </sst>
 </file>
@@ -8196,10 +8373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B498"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285:B285"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,7 +8395,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8295,15 +8472,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B12" t="s">
         <v>2227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8436,7 +8613,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B31" t="s">
         <v>1815</v>
@@ -8743,247 +8920,247 @@
         <v>1891</v>
       </c>
       <c r="B69" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B70" t="s">
         <v>2026</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B71" t="s">
         <v>2028</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B72" t="s">
         <v>2030</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B73" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B74" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B75" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B76" t="s">
         <v>2189</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B77" t="s">
         <v>2191</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B78" t="s">
         <v>2195</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B79" t="s">
         <v>2197</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B80" t="s">
         <v>2199</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B81" t="s">
         <v>2201</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B82" t="s">
         <v>2203</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B83" t="s">
         <v>2213</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B84" t="s">
         <v>2215</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B85" t="s">
         <v>2217</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B86" t="s">
         <v>2221</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B87" t="s">
         <v>2223</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B88" t="s">
         <v>2225</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B89" t="s">
         <v>2229</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B90" t="s">
         <v>2233</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B91" t="s">
         <v>2235</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B92" t="s">
         <v>2237</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B93" t="s">
         <v>2243</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2244</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B94" t="s">
         <v>2245</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B95" t="s">
         <v>2247</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B96" t="s">
         <v>2249</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B97" t="s">
         <v>2251</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B98" t="s">
         <v>2253</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B99" t="s">
         <v>2255</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2256</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8991,934 +9168,1030 @@
         <v>1627</v>
       </c>
       <c r="B100" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B101" t="s">
         <v>2271</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B102" t="s">
         <v>2273</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B103" t="s">
         <v>2275</v>
-      </c>
-      <c r="B103" t="s">
-        <v>2276</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B104" t="s">
         <v>2587</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B105" t="s">
         <v>2589</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B106" t="s">
         <v>2591</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B107" t="s">
         <v>2593</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B108" t="s">
         <v>2595</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B114" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B115" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B116" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B117" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B118" t="s">
         <v>2283</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B119" t="s">
         <v>2285</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B120" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B121" t="s">
         <v>2288</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B122" t="s">
         <v>2290</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B123" t="s">
         <v>2292</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B124" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B125" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B126" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B127" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B128" t="s">
         <v>2298</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B129" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B130" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B131" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B132" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B133" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B134" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B135" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B136" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B137" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B138" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B139" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B140" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B141" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B142" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B143" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B144" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B145" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B146" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B147" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B148" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B149" t="s">
         <v>2320</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B150" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B151" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B152" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B153" t="s">
         <v>2327</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B154" t="s">
         <v>2329</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B155" t="s">
         <v>2331</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B156" t="s">
         <v>2337</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2338</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B157" t="s">
         <v>2345</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B158" t="s">
         <v>2349</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B159" t="s">
         <v>2351</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B160" t="s">
         <v>2353</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B161" t="s">
         <v>2355</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B162" t="s">
         <v>2357</v>
-      </c>
-      <c r="B162" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B163" t="s">
         <v>2363</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B164" t="s">
         <v>2365</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2366</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B165" t="s">
         <v>2367</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2368</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B166" t="s">
         <v>2369</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B167" t="s">
         <v>2371</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B168" t="s">
         <v>2373</v>
-      </c>
-      <c r="B168" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B169" t="s">
         <v>2375</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B170" t="s">
         <v>2383</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B171" t="s">
         <v>2385</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B172" t="s">
         <v>2395</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B173" t="s">
         <v>2403</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B174" t="s">
         <v>2411</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B175" t="s">
         <v>2415</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B176" t="s">
         <v>2417</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B177" t="s">
         <v>2419</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B178" t="s">
         <v>2524</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B179" t="s">
         <v>2520</v>
-      </c>
-      <c r="B179" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B180" t="s">
         <v>2530</v>
-      </c>
-      <c r="B180" t="s">
-        <v>2531</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B181" t="s">
         <v>2532</v>
-      </c>
-      <c r="B181" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B182" t="s">
         <v>2536</v>
-      </c>
-      <c r="B182" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B183" t="s">
         <v>2546</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B184" t="s">
         <v>2548</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B185" t="s">
         <v>2550</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B186" t="s">
         <v>2556</v>
-      </c>
-      <c r="B186" t="s">
-        <v>2557</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B187" t="s">
         <v>2558</v>
-      </c>
-      <c r="B187" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B188" t="s">
         <v>2564</v>
-      </c>
-      <c r="B188" t="s">
-        <v>2565</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B189" t="s">
         <v>2572</v>
       </c>
-      <c r="B189" t="s">
-        <v>2573</v>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2423</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2424</v>
+        <v>1552</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1552</v>
+        <v>1524</v>
       </c>
       <c r="B212" t="s">
-        <v>1937</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1524</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>1525</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>1537</v>
       </c>
       <c r="B214" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="B215" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B216" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="B217" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1548</v>
+        <v>1569</v>
       </c>
       <c r="B218" t="s">
-        <v>1547</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="B219" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1571</v>
+        <v>1811</v>
       </c>
       <c r="B220" t="s">
-        <v>1572</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1811</v>
+        <v>1932</v>
       </c>
       <c r="B221" t="s">
-        <v>1812</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B222" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1934</v>
+        <v>1644</v>
       </c>
       <c r="B223" t="s">
-        <v>1935</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="B224" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="B225" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B226" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B227" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1654</v>
+        <v>2035</v>
       </c>
       <c r="B228" t="s">
-        <v>1655</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2036</v>
+        <v>2192</v>
       </c>
       <c r="B229" t="s">
-        <v>2037</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2193</v>
+        <v>2204</v>
       </c>
       <c r="B230" t="s">
-        <v>2194</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B231" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B232" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B233" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="B234" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2219</v>
+        <v>2230</v>
       </c>
       <c r="B235" t="s">
-        <v>2220</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
       <c r="B236" t="s">
-        <v>2232</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B237" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2241</v>
+        <v>2256</v>
       </c>
       <c r="B238" t="s">
-        <v>2242</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B239" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B240" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B241" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2263</v>
+        <v>1548</v>
       </c>
       <c r="B242" t="s">
         <v>2264</v>
@@ -9926,851 +10199,915 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1548</v>
+        <v>2265</v>
       </c>
       <c r="B243" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="B244" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="B245" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2277</v>
+        <v>2376</v>
       </c>
       <c r="B246" t="s">
-        <v>2278</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="B247" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B248" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2381</v>
+        <v>2358</v>
       </c>
       <c r="B249" t="s">
-        <v>2382</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B250" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2361</v>
+        <v>2332</v>
       </c>
       <c r="B251" t="s">
-        <v>2362</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="B252" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="B253" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B254" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B255" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="B256" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2347</v>
+        <v>2324</v>
       </c>
       <c r="B257" t="s">
-        <v>2348</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2325</v>
+        <v>2386</v>
       </c>
       <c r="B258" t="s">
-        <v>2326</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="B259" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="B260" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="B261" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="B262" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B263" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="B264" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B265" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2407</v>
+        <v>2412</v>
       </c>
       <c r="B266" t="s">
-        <v>2408</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2413</v>
+        <v>1631</v>
       </c>
       <c r="B267" t="s">
-        <v>2414</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1631</v>
+        <v>2521</v>
       </c>
       <c r="B268" t="s">
-        <v>2508</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="B269" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="B270" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2528</v>
+        <v>2533</v>
       </c>
       <c r="B271" t="s">
-        <v>2529</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B272" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="B273" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B274" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B275" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="B276" t="s">
-        <v>2545</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B277" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2554</v>
+        <v>2559</v>
       </c>
       <c r="B278" t="s">
-        <v>2555</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="B279" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="B280" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="B281" t="s">
-        <v>2567</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="B282" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B283" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2578</v>
+        <v>2599</v>
       </c>
       <c r="B284" t="s">
-        <v>2579</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B285" t="s">
         <v>2598</v>
       </c>
     </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2615</v>
+      </c>
+    </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2484</v>
+        <v>2616</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2617</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2391</v>
+        <v>2630</v>
       </c>
       <c r="B289" t="s">
-        <v>2392</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2409</v>
+        <v>2634</v>
       </c>
       <c r="B290" t="s">
-        <v>2410</v>
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>2483</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2426</v>
+        <v>2390</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1489</v>
+        <v>2408</v>
       </c>
       <c r="B294" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1582</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1584</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1587</v>
+        <v>1489</v>
       </c>
       <c r="B298" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B299" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1516</v>
+        <v>1583</v>
       </c>
       <c r="B300" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B301" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1640</v>
+        <v>1587</v>
       </c>
       <c r="B302" t="s">
-        <v>1641</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="B303" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1596</v>
+        <v>1516</v>
       </c>
       <c r="B304" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="B305" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="B306" t="s">
-        <v>1599</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B307" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="B308" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B309" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="B310" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="B311" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="B312" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1422</v>
+        <v>1605</v>
       </c>
       <c r="B313" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B314" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="B315" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="B316" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1621</v>
+        <v>1422</v>
       </c>
       <c r="B317" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B318" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B319" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B320" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B321" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B322" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="B323" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B324" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="B325" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B326" t="s">
-        <v>1639</v>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2509</v>
+        <v>1636</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2510</v>
+        <v>1637</v>
       </c>
       <c r="B330" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B331" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B332" t="s">
-        <v>2515</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B333" t="s">
-        <v>2517</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B336" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B337" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B338" t="s">
         <v>2518</v>
       </c>
-      <c r="B334" t="s">
-        <v>2519</v>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2624</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2428</v>
+        <v>1184</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2625</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1554</v>
+        <v>1253</v>
       </c>
       <c r="B348" t="s">
-        <v>1670</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1422</v>
+        <v>1631</v>
       </c>
       <c r="B349" t="s">
-        <v>1671</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1673</v>
+        <v>2633</v>
       </c>
       <c r="B350" t="s">
-        <v>1672</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1666</v>
+        <v>1627</v>
       </c>
       <c r="B351" t="s">
-        <v>1674</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1675</v>
+        <v>1594</v>
       </c>
       <c r="B352" t="s">
-        <v>1676</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1678</v>
+        <v>1629</v>
       </c>
       <c r="B353" t="s">
-        <v>1677</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1485</v>
+        <v>1583</v>
       </c>
       <c r="B354" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1686</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1688</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1689</v>
+        <v>1554</v>
       </c>
       <c r="B360" t="s">
-        <v>1690</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2185</v>
+        <v>1422</v>
       </c>
       <c r="B361" t="s">
-        <v>2186</v>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2429</v>
+        <v>1666</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1485</v>
+        <v>1675</v>
       </c>
       <c r="B364" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1481</v>
+        <v>1678</v>
       </c>
       <c r="B365" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1555</v>
+        <v>1485</v>
       </c>
       <c r="B366" t="s">
-        <v>1693</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1694</v>
+        <v>1594</v>
       </c>
       <c r="B367" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="B368" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="B369" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -10778,959 +11115,1060 @@
         <v>1685</v>
       </c>
       <c r="B370" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="B371" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="B372" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1194</v>
+        <v>2184</v>
       </c>
       <c r="B373" t="s">
-        <v>1703</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1493</v>
+        <v>2627</v>
       </c>
       <c r="B374" t="s">
-        <v>1704</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1422</v>
+        <v>1717</v>
       </c>
       <c r="B375" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1712</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1714</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1678</v>
+        <v>1485</v>
       </c>
       <c r="B382" t="s">
-        <v>1716</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1717</v>
+        <v>1481</v>
       </c>
       <c r="B383" t="s">
-        <v>1718</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1516</v>
+        <v>1555</v>
       </c>
       <c r="B384" t="s">
-        <v>1899</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2187</v>
+        <v>1694</v>
       </c>
       <c r="B385" t="s">
-        <v>2188</v>
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2430</v>
+        <v>1675</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1719</v>
+        <v>1701</v>
       </c>
       <c r="B390" t="s">
-        <v>1720</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1557</v>
+        <v>1194</v>
       </c>
       <c r="B391" t="s">
-        <v>1721</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1558</v>
+        <v>1493</v>
       </c>
       <c r="B392" t="s">
-        <v>1722</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1723</v>
+        <v>1422</v>
       </c>
       <c r="B393" t="s">
-        <v>1724</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1725</v>
+        <v>1666</v>
       </c>
       <c r="B394" t="s">
-        <v>1726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1727</v>
+        <v>1554</v>
       </c>
       <c r="B395" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1730</v>
+        <v>1708</v>
       </c>
       <c r="B396" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1493</v>
+        <v>1711</v>
       </c>
       <c r="B397" t="s">
-        <v>1731</v>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2431</v>
+        <v>1715</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1732</v>
+        <v>1678</v>
       </c>
       <c r="B400" t="s">
-        <v>1763</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="B401" t="s">
-        <v>1764</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B402" t="s">
-        <v>1765</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1734</v>
+        <v>2186</v>
       </c>
       <c r="B403" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1781</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1739</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="B408" t="s">
-        <v>1768</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1741</v>
+        <v>1557</v>
       </c>
       <c r="B409" t="s">
-        <v>1769</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1742</v>
+        <v>1558</v>
       </c>
       <c r="B410" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="B411" t="s">
-        <v>1770</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1493</v>
+        <v>1725</v>
       </c>
       <c r="B412" t="s">
-        <v>1745</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="B413" t="s">
-        <v>1771</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="B414" t="s">
-        <v>1772</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1194</v>
+        <v>1493</v>
       </c>
       <c r="B415" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1774</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1749</v>
+        <v>1732</v>
       </c>
       <c r="B418" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1751</v>
+        <v>1733</v>
       </c>
       <c r="B419" t="s">
-        <v>1750</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1727</v>
+        <v>1517</v>
       </c>
       <c r="B420" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1558</v>
+        <v>1734</v>
       </c>
       <c r="B421" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1752</v>
+        <v>1735</v>
       </c>
       <c r="B422" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="B423" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1755</v>
+        <v>1701</v>
       </c>
       <c r="B424" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1757</v>
+        <v>1738</v>
       </c>
       <c r="B425" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1759</v>
+        <v>1740</v>
       </c>
       <c r="B426" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1760</v>
+        <v>1741</v>
       </c>
       <c r="B427" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1762</v>
+        <v>1742</v>
       </c>
       <c r="B428" t="s">
-        <v>1761</v>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2432</v>
+        <v>1493</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1796</v>
+        <v>1723</v>
       </c>
       <c r="B431" t="s">
-        <v>1797</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1798</v>
+        <v>1746</v>
       </c>
       <c r="B432" t="s">
-        <v>1799</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1723</v>
+        <v>1194</v>
       </c>
       <c r="B433" t="s">
-        <v>1904</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1906</v>
+        <v>1748</v>
       </c>
       <c r="B434" t="s">
-        <v>1905</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1567</v>
+        <v>1730</v>
       </c>
       <c r="B435" t="s">
-        <v>1907</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1194</v>
+        <v>1749</v>
       </c>
       <c r="B436" t="s">
-        <v>1908</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1909</v>
+        <v>1751</v>
       </c>
       <c r="B437" t="s">
-        <v>1910</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1911</v>
+        <v>1727</v>
       </c>
       <c r="B438" t="s">
-        <v>1912</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1914</v>
+        <v>1558</v>
       </c>
       <c r="B439" t="s">
-        <v>1913</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1915</v>
+        <v>1752</v>
       </c>
       <c r="B440" t="s">
-        <v>1916</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B441" t="s">
-        <v>1917</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1919</v>
+        <v>1755</v>
       </c>
       <c r="B442" t="s">
-        <v>1918</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1485</v>
+        <v>1757</v>
       </c>
       <c r="B443" t="s">
-        <v>1920</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1921</v>
+        <v>1759</v>
       </c>
       <c r="B444" t="s">
-        <v>1922</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1923</v>
+        <v>1760</v>
       </c>
       <c r="B445" t="s">
-        <v>1924</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1925</v>
+        <v>1762</v>
       </c>
       <c r="B446" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>1927</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1928</v>
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>2431</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2433</v>
+        <v>1796</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1195</v>
+        <v>1798</v>
       </c>
       <c r="B450" t="s">
-        <v>1938</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1940</v>
+        <v>1723</v>
       </c>
       <c r="B451" t="s">
-        <v>1939</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1237</v>
+        <v>1906</v>
       </c>
       <c r="B452" t="s">
-        <v>1941</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1270</v>
+        <v>1567</v>
       </c>
       <c r="B453" t="s">
-        <v>1942</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1442</v>
+        <v>1194</v>
       </c>
       <c r="B454" t="s">
-        <v>1943</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1264</v>
+        <v>1909</v>
       </c>
       <c r="B455" t="s">
-        <v>1944</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>286</v>
+        <v>1911</v>
       </c>
       <c r="B456" t="s">
-        <v>1945</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1221</v>
+        <v>1914</v>
       </c>
       <c r="B457" t="s">
-        <v>1946</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1272</v>
+        <v>1915</v>
       </c>
       <c r="B458" t="s">
-        <v>1947</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1215</v>
+        <v>1752</v>
       </c>
       <c r="B459" t="s">
-        <v>1948</v>
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2434</v>
+        <v>1485</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1949</v>
+        <v>1921</v>
       </c>
       <c r="B462" t="s">
-        <v>1950</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1790</v>
+        <v>1923</v>
       </c>
       <c r="B463" t="s">
-        <v>1951</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1953</v>
+        <v>1925</v>
       </c>
       <c r="B464" t="s">
-        <v>1952</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1955</v>
+        <v>1927</v>
       </c>
       <c r="B465" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1957</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1956</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1958</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1960</v>
+        <v>1195</v>
       </c>
       <c r="B468" t="s">
-        <v>1961</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1963</v>
+        <v>1940</v>
       </c>
       <c r="B469" t="s">
-        <v>1962</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1436</v>
+        <v>1237</v>
       </c>
       <c r="B470" t="s">
-        <v>1964</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1968</v>
+        <v>1270</v>
       </c>
       <c r="B471" t="s">
-        <v>1965</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1967</v>
+        <v>1442</v>
       </c>
       <c r="B472" t="s">
-        <v>1966</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1970</v>
+        <v>1264</v>
       </c>
       <c r="B473" t="s">
-        <v>1969</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1612</v>
+        <v>286</v>
       </c>
       <c r="B474" t="s">
-        <v>1971</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1973</v>
+        <v>1221</v>
       </c>
       <c r="B475" t="s">
-        <v>1972</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1975</v>
+        <v>1272</v>
       </c>
       <c r="B476" t="s">
-        <v>1974</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1333</v>
+        <v>1215</v>
       </c>
       <c r="B477" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1978</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1979</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1982</v>
+        <v>1949</v>
       </c>
       <c r="B480" t="s">
-        <v>1981</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1984</v>
+        <v>1790</v>
       </c>
       <c r="B481" t="s">
-        <v>1983</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1986</v>
+        <v>1953</v>
       </c>
       <c r="B482" t="s">
-        <v>1985</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1987</v>
+        <v>1955</v>
       </c>
       <c r="B483" t="s">
-        <v>1988</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1990</v>
+        <v>1957</v>
       </c>
       <c r="B484" t="s">
-        <v>1989</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1992</v>
+        <v>1959</v>
       </c>
       <c r="B485" t="s">
-        <v>1991</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1994</v>
+        <v>1960</v>
       </c>
       <c r="B486" t="s">
-        <v>1993</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1321</v>
+        <v>1963</v>
       </c>
       <c r="B487" t="s">
-        <v>1995</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1997</v>
+        <v>1436</v>
       </c>
       <c r="B488" t="s">
-        <v>1996</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1537</v>
+        <v>1968</v>
       </c>
       <c r="B489" t="s">
-        <v>1998</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1999</v>
+        <v>1967</v>
       </c>
       <c r="B490" t="s">
-        <v>2000</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2002</v>
+        <v>1970</v>
       </c>
       <c r="B491" t="s">
-        <v>2001</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2004</v>
+        <v>1612</v>
       </c>
       <c r="B492" t="s">
-        <v>2003</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2006</v>
+        <v>1973</v>
       </c>
       <c r="B493" t="s">
-        <v>2005</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>2007</v>
+        <v>1975</v>
       </c>
       <c r="B494" t="s">
-        <v>2008</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2010</v>
+        <v>1333</v>
       </c>
       <c r="B495" t="s">
-        <v>2009</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>2012</v>
+        <v>1977</v>
       </c>
       <c r="B496" t="s">
-        <v>2011</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2014</v>
+        <v>1980</v>
       </c>
       <c r="B497" t="s">
-        <v>2013</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B508" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B509" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B510" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B511" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B512" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B513" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B514" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B515" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
         <v>2016</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B516" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -11766,7 +12204,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12509,7 +12947,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13372,7 +13810,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14284,7 +14722,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -15174,10 +15612,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15196,7 +15634,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15297,15 +15735,15 @@
         <v>1682</v>
       </c>
       <c r="B15" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B16" t="s">
         <v>2039</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15313,7 +15751,7 @@
         <v>1673</v>
       </c>
       <c r="B17" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15321,7 +15759,7 @@
         <v>1675</v>
       </c>
       <c r="B18" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -15329,7 +15767,7 @@
         <v>1666</v>
       </c>
       <c r="B19" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15337,23 +15775,23 @@
         <v>1678</v>
       </c>
       <c r="B20" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B21" t="s">
         <v>2051</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B22" t="s">
         <v>2490</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2491</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -15361,7 +15799,15 @@
         <v>1746</v>
       </c>
       <c r="B23" t="s">
-        <v>2581</v>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2602</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -15374,15 +15820,15 @@
         <v>1592</v>
       </c>
       <c r="B28" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B29" t="s">
         <v>2054</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -15390,31 +15836,31 @@
         <v>1195</v>
       </c>
       <c r="B30" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B31" t="s">
         <v>2057</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B32" t="s">
         <v>2059</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B33" t="s">
         <v>2061</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -15547,82 +15993,82 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B50" t="s">
         <v>2045</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B51" t="s">
         <v>2047</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B52" t="s">
         <v>2049</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B53" t="s">
         <v>2063</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B54" t="s">
         <v>2065</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B55" t="s">
         <v>2067</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B56" t="s">
         <v>2069</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B57" t="s">
         <v>2071</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B58" t="s">
         <v>2073</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B59" t="s">
         <v>2075</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -15630,23 +16076,23 @@
         <v>1759</v>
       </c>
       <c r="B60" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B61" t="s">
         <v>2486</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B62" t="s">
         <v>2488</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -15654,7 +16100,7 @@
         <v>1615</v>
       </c>
       <c r="B63" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -15662,15 +16108,23 @@
         <v>1627</v>
       </c>
       <c r="B64" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B65" t="s">
         <v>2582</v>
       </c>
-      <c r="B65" t="s">
-        <v>2583</v>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2601</v>
       </c>
     </row>
   </sheetData>
@@ -15682,8 +16136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15702,7 +16156,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15915,7 +16369,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1474</v>
+        <v>2020</v>
       </c>
       <c r="B30" t="s">
         <v>2022</v>
@@ -15923,23 +16377,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2024</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2077</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
         <v>2122</v>
@@ -15947,7 +16401,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>1474</v>
       </c>
       <c r="B35" t="s">
         <v>2123</v>
@@ -15955,7 +16409,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B36" t="s">
         <v>2124</v>
@@ -15963,15 +16417,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1476</v>
+        <v>2125</v>
       </c>
       <c r="B37" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2126</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>2127</v>
@@ -15979,7 +16433,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>1474</v>
       </c>
       <c r="B39" t="s">
         <v>2128</v>
@@ -15987,7 +16441,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1474</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
         <v>2129</v>
@@ -15995,7 +16449,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>2130</v>
@@ -16003,7 +16457,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>2131</v>
@@ -16011,7 +16465,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>2132</v>
@@ -16019,7 +16473,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>2133</v>
@@ -16027,7 +16481,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>2134</v>
@@ -16035,15 +16489,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>1129</v>
       </c>
       <c r="B46" t="s">
-        <v>2135</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1129</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>2505</v>
@@ -16051,7 +16505,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>2080</v>
       </c>
       <c r="B48" t="s">
         <v>2506</v>
@@ -16059,18 +16513,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2081</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>2507</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>2586</v>
+        <v>2640</v>
       </c>
     </row>
   </sheetData>
@@ -16102,7 +16556,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16110,7 +16564,7 @@
         <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16118,7 +16572,7 @@
         <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16126,63 +16580,63 @@
         <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B6" t="s">
         <v>2108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B7" t="s">
         <v>2110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B8" t="s">
         <v>2112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B9" t="s">
         <v>2114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B10" t="s">
         <v>2116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B11" t="s">
         <v>2118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B12" t="s">
         <v>2120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -16315,7 +16769,7 @@
         <v>305</v>
       </c>
       <c r="B30" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -16323,7 +16777,7 @@
         <v>306</v>
       </c>
       <c r="B31" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -16331,7 +16785,7 @@
         <v>307</v>
       </c>
       <c r="B32" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16344,7 +16798,7 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -16352,7 +16806,7 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -16360,7 +16814,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16368,7 +16822,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -16376,7 +16830,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -16384,7 +16838,7 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -16392,7 +16846,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -16400,7 +16854,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16408,7 +16862,7 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16416,7 +16870,7 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16424,7 +16878,7 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16432,7 +16886,7 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -16440,7 +16894,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16448,7 +16902,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -16456,7 +16910,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -16464,7 +16918,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -16472,7 +16926,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -16480,7 +16934,7 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -16488,7 +16942,7 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16496,7 +16950,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16504,7 +16958,7 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16512,7 +16966,7 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16520,7 +16974,7 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>
@@ -16548,7 +17002,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16556,7 +17010,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16564,7 +17018,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16572,23 +17026,23 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B6" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B7" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16596,7 +17050,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16604,7 +17058,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16612,7 +17066,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -16620,7 +17074,7 @@
         <v>1476</v>
       </c>
       <c r="B11" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16628,7 +17082,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16636,7 +17090,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -16644,7 +17098,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -16652,7 +17106,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -16660,7 +17114,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16668,7 +17122,7 @@
         <v>1612</v>
       </c>
       <c r="B17" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
   </sheetData>
@@ -16699,7 +17153,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16707,7 +17161,7 @@
         <v>1605</v>
       </c>
       <c r="B3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16715,7 +17169,7 @@
         <v>1594</v>
       </c>
       <c r="B4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16723,7 +17177,7 @@
         <v>1422</v>
       </c>
       <c r="B5" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -16731,7 +17185,7 @@
         <v>1489</v>
       </c>
       <c r="B6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -16739,7 +17193,7 @@
         <v>1627</v>
       </c>
       <c r="B7" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -16747,7 +17201,7 @@
         <v>1592</v>
       </c>
       <c r="B8" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -16755,7 +17209,7 @@
         <v>1685</v>
       </c>
       <c r="B9" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -16763,7 +17217,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -16771,7 +17225,7 @@
         <v>1481</v>
       </c>
       <c r="B11" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16779,7 +17233,7 @@
         <v>1623</v>
       </c>
       <c r="B12" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16871,79 +17325,79 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B3" t="s">
         <v>2164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B4" t="s">
         <v>2166</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B5" t="s">
         <v>2168</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B6" t="s">
         <v>2170</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B7" t="s">
         <v>2172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B8" t="s">
         <v>2174</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B9" t="s">
         <v>2176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B10" t="s">
         <v>2178</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B11" t="s">
         <v>2180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -16951,7 +17405,7 @@
         <v>1740</v>
       </c>
       <c r="B12" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -16959,7 +17413,7 @@
         <v>1759</v>
       </c>
       <c r="B13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -16967,7 +17421,7 @@
         <v>1751</v>
       </c>
       <c r="B14" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -16977,10 +17431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16999,7 +17453,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -17252,34 +17706,34 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B34" t="s">
         <v>2079</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B35" t="s">
         <v>2081</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B36" t="s">
         <v>2083</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B37" t="s">
         <v>2095</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -17287,31 +17741,31 @@
         <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B39" t="s">
         <v>2098</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2099</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B40" t="s">
         <v>2100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B41" t="s">
         <v>2102</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -17319,31 +17773,31 @@
         <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B43" t="s">
         <v>2495</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B44" t="s">
         <v>2497</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B45" t="s">
         <v>2499</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -17356,692 +17810,708 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B47" t="s">
         <v>2584</v>
       </c>
-      <c r="B47" t="s">
-        <v>2585</v>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2604</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2501</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2570</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2571</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2493</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2494</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B57" t="s">
         <v>2568</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>2436</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>1576</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>1573</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>2078</v>
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2435</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>2436</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>2436</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2085</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>2086</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2087</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>2088</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2089</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>2090</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2091</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>2092</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="B75" t="s">
-        <v>2094</v>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2087</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>2088</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>2090</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>2092</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" t="s">
-        <v>147</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
-        <v>106</v>
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>109</v>
-      </c>
-      <c r="B123" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" t="s">
-        <v>138</v>
+      <c r="B124" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>157</v>
-      </c>
-      <c r="B131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2503</v>
+        <v>170</v>
+      </c>
+      <c r="B145" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2079</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
-        <v>2504</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2503</v>
       </c>
     </row>
   </sheetData>
@@ -18074,7 +18544,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19498,7 +19968,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -20277,7 +20747,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21009,7 +21479,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21920,7 +22390,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -22852,7 +23322,7 @@
         <v>1465</v>
       </c>
       <c r="B80" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -22864,7 +23334,7 @@
         <v>1466</v>
       </c>
       <c r="B81" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -22872,7 +23342,7 @@
         <v>1467</v>
       </c>
       <c r="B82" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -22880,7 +23350,7 @@
         <v>1468</v>
       </c>
       <c r="B83" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -22888,7 +23358,7 @@
         <v>1469</v>
       </c>
       <c r="B84" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -22896,7 +23366,7 @@
         <v>1470</v>
       </c>
       <c r="B85" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -22904,7 +23374,7 @@
         <v>1181</v>
       </c>
       <c r="B86" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>
@@ -22939,7 +23409,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -23946,7 +24416,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="2661">
   <si>
     <t>Base Set</t>
   </si>
@@ -8006,6 +8006,15 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/-yMq9lOhw37A/V85-OGOH4NI/AAAAAAAACi8/kFdNq6iS95oyZ2U0SrjByreXbfXPyfUkACLcB/s1600/topps1972-423F.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-hriECetHmNY/V9DCUmCduRI/AAAAAAAAd7E/uv0_uitWTMIv7IySIX6kYEuJebefITDpwCLcB/s1600/1970%2BTopps%2B%2523403%2BBunning.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-mlBMVrIMOQ0/V9DCUv2lx_I/AAAAAAAAd7A/dp7jB4m5I7wY-6VVKMbToNvnIxCsdjPjwCLcB/s1600/1970%2BTopps%2B%2523442%2BMauch%2BMG.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-4zr-aVAULeE/V9DM6EZcTZI/AAAAAAAAd7k/6A631uMCE5U9aCGAsBTqD-beMqBuhs30ACLcB/s1600/2016%2BChachi%2B%252361%2BAsher.jpg</t>
   </si>
 </sst>
 </file>
@@ -8375,7 +8384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+    <sheetView topLeftCell="A349" workbookViewId="0">
       <selection activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
@@ -15612,10 +15621,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15810,6 +15819,14 @@
         <v>2602</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2658</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>1480</v>
@@ -16125,6 +16142,14 @@
       </c>
       <c r="B66" t="s">
         <v>2601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2659</v>
       </c>
     </row>
   </sheetData>
@@ -17433,8 +17458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17830,6 +17855,14 @@
       </c>
       <c r="B49" t="s">
         <v>2607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2660</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="2661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="2680">
   <si>
     <t>Base Set</t>
   </si>
@@ -8015,6 +8015,63 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-4zr-aVAULeE/V9DM6EZcTZI/AAAAAAAAd7k/6A631uMCE5U9aCGAsBTqD-beMqBuhs30ACLcB/s1600/2016%2BChachi%2B%252361%2BAsher.jpg</t>
+  </si>
+  <si>
+    <t>Frank Herrman LHV</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-Vl9r3UfAalc/V9StFu7N37I/AAAAAAAAd8w/0x7nlhWwr-YqA6lDT5P6YFO2zpNWIl8tgCLcB/s1600/2016%2BChoice%2BLehigh%2BValley%2BIronPigs%2B%252312%2BHerrmann.jpg</t>
+  </si>
+  <si>
+    <t>Patrick Schuster</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-WmoQCvZ7qgE/V9TBskZIvLI/AAAAAAAAd9c/YqKzOWo1haUnlcm5wJe7UKvxCZMXnOJ6gCLcB/s1600/2016%2BChachi%2B%252360b%2BSchuster.jpg</t>
+  </si>
+  <si>
+    <t>Roman Quinn Reading</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-M8DL67twpiY/V9XDEv2kcOI/AAAAAAAAd-k/ByqfoHtE2LIT6KDgdD5LMCn43pzTHHwrACLcB/s1600/2016%2BGrandstand%2BReading%2BFightin%2BPhils%2B%252324%2BQuinn.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-T3sVbJZpk30/V9W_V6N1X8I/AAAAAAAAd-U/VeYhidwddGguvGBQQz1WA2q2k0eT-g_OQCLcB/s1600/1970%2BTopps%2B%25236%2BJackson.jpg</t>
+  </si>
+  <si>
+    <t>Danny Murtaugh</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-qqyu5aEy2Ls/V9W_V0G9giI/AAAAAAAAd-Y/_0S1hhaV1DUuPBtTQt8KFUo-xW4GLUxxgCLcB/s1600/1970%2BTopps%2B%2523532%2BMurtaugh%2BMG.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-8z66NiPfcuY/V9W2xidcxaI/AAAAAAAAd9w/wgYere4ZT34vd7lU6CKGjB2ppadQZcXXgCLcB/s1600/2016%2BChachi%2B%252362b%2BRodriguez.jpg</t>
+  </si>
+  <si>
+    <t>Joely Rodriguez LHV</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-6G0yArw4nTw/V9W69vaESPI/AAAAAAAAd-A/M2u-Ye0P5Ak3DFEZVW7PT5T3cm1zdQKRwCLcB/s1600/2015%2BChoice%2BLehigh%2BValley%2BIronPigs%2BRodriguez.jpg</t>
+  </si>
+  <si>
+    <t>Roy Halladay Tor</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-bI7yjSCmuwI/V9d6qkSO15I/AAAAAAAACZo/-hYvu_mcYBEknZgq3WkUN2uD56quRCVpwCLcB/s1600/2003%2BUD40Man_0006.jpg</t>
+  </si>
+  <si>
+    <t>Cornelius Randolph 2016 Bowman Platinum</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-u372kMpRMaA/V9WQ1kAkw0I/AAAAAAAAb5w/0HSB-ePiVxYWIcy_I5V7V2rM40zPU80XgCLcB/s1600/Randolph%2BBowman%2BPlatinum%2BTop%2BProspects%2BPurple%2BF.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-9grQ_us8eQA/V9Y-JT4RyEI/AAAAAAABoDA/AqSQ5j-l2h8-hIUcuePBmIq7u9cJ7xingCLcB/s1600/Bunning%2B71T.jpg</t>
+  </si>
+  <si>
+    <t>Leo Durocher</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-6jkkJLHqVvM/V9NMEyhHwOI/AAAAAAAAmq8/syDqHVlTV6kMaSf5t-9ld8apd6mmvg2YACLcB/s1600/Durocher%2B1970%2BTopps%2BAutograph.jpg</t>
   </si>
 </sst>
 </file>
@@ -8384,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B516"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A376" sqref="A376"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9945,6 +10002,46 @@
         <v>2656</v>
       </c>
     </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2676</v>
+      </c>
+    </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2423</v>
@@ -11346,6 +11443,14 @@
       </c>
       <c r="B403" t="s">
         <v>2187</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2677</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -15621,10 +15726,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15827,329 +15932,353 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>1480</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2055</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2056</v>
+        <v>1592</v>
       </c>
       <c r="B31" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="B32" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2060</v>
+        <v>1195</v>
       </c>
       <c r="B33" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1482</v>
+        <v>2056</v>
       </c>
       <c r="B34" t="s">
-        <v>1484</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1486</v>
+        <v>2058</v>
       </c>
       <c r="B35" t="s">
-        <v>1488</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1490</v>
+        <v>2060</v>
       </c>
       <c r="B36" t="s">
-        <v>1491</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="B37" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="B38" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1517</v>
+        <v>1490</v>
       </c>
       <c r="B39" t="s">
-        <v>1518</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1556</v>
+        <v>1494</v>
       </c>
       <c r="B40" t="s">
-        <v>1559</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1557</v>
+        <v>1497</v>
       </c>
       <c r="B41" t="s">
-        <v>1560</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1558</v>
+        <v>1517</v>
       </c>
       <c r="B42" t="s">
-        <v>1561</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="B43" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1805</v>
+        <v>1557</v>
       </c>
       <c r="B44" t="s">
-        <v>1807</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1806</v>
+        <v>1558</v>
       </c>
       <c r="B45" t="s">
-        <v>1808</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1748</v>
+        <v>1567</v>
       </c>
       <c r="B46" t="s">
-        <v>1882</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1879</v>
+        <v>1805</v>
       </c>
       <c r="B47" t="s">
-        <v>1883</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1880</v>
+        <v>1806</v>
       </c>
       <c r="B48" t="s">
-        <v>1884</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1881</v>
+        <v>1748</v>
       </c>
       <c r="B49" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2044</v>
+        <v>1879</v>
       </c>
       <c r="B50" t="s">
-        <v>2045</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2046</v>
+        <v>1880</v>
       </c>
       <c r="B51" t="s">
-        <v>2047</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2048</v>
+        <v>1881</v>
       </c>
       <c r="B52" t="s">
-        <v>2049</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2062</v>
+        <v>2044</v>
       </c>
       <c r="B53" t="s">
-        <v>2063</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2064</v>
+        <v>2046</v>
       </c>
       <c r="B54" t="s">
-        <v>2065</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2066</v>
+        <v>2048</v>
       </c>
       <c r="B55" t="s">
-        <v>2067</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="B56" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="B57" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="B58" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="B59" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1759</v>
+        <v>2070</v>
       </c>
       <c r="B60" t="s">
-        <v>2484</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2485</v>
+        <v>2072</v>
       </c>
       <c r="B61" t="s">
-        <v>2486</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2487</v>
+        <v>2074</v>
       </c>
       <c r="B62" t="s">
-        <v>2488</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1615</v>
+        <v>1759</v>
       </c>
       <c r="B63" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1627</v>
+        <v>2485</v>
       </c>
       <c r="B64" t="s">
-        <v>2579</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2581</v>
+        <v>2487</v>
       </c>
       <c r="B65" t="s">
-        <v>2582</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2600</v>
+        <v>1615</v>
       </c>
       <c r="B66" t="s">
-        <v>2601</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>1752</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>2659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2679</v>
       </c>
     </row>
   </sheetData>
@@ -17456,10 +17585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17865,113 +17994,89 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>2500</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>2569</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B60" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>2570</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B61" t="s">
         <v>1895</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>2492</v>
       </c>
       <c r="B62" t="s">
-        <v>1929</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>2567</v>
       </c>
       <c r="B63" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1576</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>1573</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>2077</v>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2435</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
         <v>2435</v>
@@ -17979,7 +18084,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
         <v>2435</v>
@@ -17987,563 +18092,603 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2084</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2086</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2087</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2088</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>2089</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2090</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>2091</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2092</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>2093</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>2084</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>2086</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>2088</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>2090</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>2092</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" t="s">
-        <v>149</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>106</v>
+      <c r="A124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" t="s">
-        <v>143</v>
+      <c r="B130" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B144" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2502</v>
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>2078</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B156" t="s">
         <v>2503</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="2680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="2684">
   <si>
     <t>Base Set</t>
   </si>
@@ -8072,6 +8072,18 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-6jkkJLHqVvM/V9NMEyhHwOI/AAAAAAAAmq8/syDqHVlTV6kMaSf5t-9ld8apd6mmvg2YACLcB/s1600/Durocher%2B1970%2BTopps%2BAutograph.jpg</t>
+  </si>
+  <si>
+    <t>2016 Reading Top Prospects</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-Dw5yo0TQtZo/V9ieq4E_lmI/AAAAAAAAd_c/qzQKfs4oV1IjDvqcvzTaN1_9dVy69BBPgCLcB/s1600/2016%2BGrandstand%2BReading%2BFightin%2BPhils%2BTop%2BProspects%2BAlfaro%2BQuinn%2BCrawford.jpg</t>
+  </si>
+  <si>
+    <t>Roman Quinn</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-VQc5c_UNl4I/V9W22YwPi2I/AAAAAAAAd90/xlYHmC_oV5Ukhpt1CQraaQqiXBEoV5hSQCLcB/s1600/2016%2BChachi%2B%252363%2BQuinn.jpg</t>
   </si>
 </sst>
 </file>
@@ -8439,10 +8451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10042,6 +10054,14 @@
         <v>2676</v>
       </c>
     </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2681</v>
+      </c>
+    </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2423</v>
@@ -10687,1602 +10707,1602 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>2483</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>2390</v>
-      </c>
-      <c r="B293" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B294" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2425</v>
+        <v>2390</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2391</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1489</v>
+        <v>2408</v>
       </c>
       <c r="B298" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1582</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1584</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1587</v>
+        <v>1489</v>
       </c>
       <c r="B302" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B303" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1516</v>
+        <v>1583</v>
       </c>
       <c r="B304" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B305" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1640</v>
+        <v>1587</v>
       </c>
       <c r="B306" t="s">
-        <v>1641</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="B307" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1596</v>
+        <v>1516</v>
       </c>
       <c r="B308" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="B309" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="B310" t="s">
-        <v>1599</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B311" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="B312" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B313" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="B314" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="B315" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="B316" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1422</v>
+        <v>1605</v>
       </c>
       <c r="B317" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="B318" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="B319" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="B320" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1621</v>
+        <v>1422</v>
       </c>
       <c r="B321" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B322" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B323" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B324" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B325" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B326" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="B327" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B328" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="B329" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="B330" t="s">
-        <v>1639</v>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2508</v>
+        <v>1636</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2509</v>
+        <v>1637</v>
       </c>
       <c r="B334" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B335" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>2513</v>
-      </c>
-      <c r="B336" t="s">
-        <v>2514</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2515</v>
-      </c>
-      <c r="B337" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="B338" t="s">
-        <v>2518</v>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2514</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2618</v>
+        <v>2515</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1489</v>
+        <v>2517</v>
       </c>
       <c r="B342" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>2620</v>
-      </c>
-      <c r="B343" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B344" t="s">
-        <v>2622</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B345" t="s">
-        <v>2623</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1636</v>
+        <v>1489</v>
       </c>
       <c r="B346" t="s">
-        <v>2624</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1184</v>
+        <v>2620</v>
       </c>
       <c r="B347" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1253</v>
+        <v>1623</v>
       </c>
       <c r="B348" t="s">
-        <v>2628</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1631</v>
+        <v>1600</v>
       </c>
       <c r="B349" t="s">
-        <v>2629</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2633</v>
+        <v>1636</v>
       </c>
       <c r="B350" t="s">
-        <v>2632</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1627</v>
+        <v>1184</v>
       </c>
       <c r="B351" t="s">
-        <v>2636</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1594</v>
+        <v>1253</v>
       </c>
       <c r="B352" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B353" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>1583</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B358" t="s">
         <v>2639</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1674</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1675</v>
+        <v>1554</v>
       </c>
       <c r="B364" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1678</v>
+        <v>1422</v>
       </c>
       <c r="B365" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1485</v>
+        <v>1673</v>
       </c>
       <c r="B366" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1594</v>
+        <v>1666</v>
       </c>
       <c r="B367" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="B368" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="B369" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1685</v>
+        <v>1485</v>
       </c>
       <c r="B370" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1687</v>
+        <v>1594</v>
       </c>
       <c r="B371" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="B372" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2184</v>
+        <v>1683</v>
       </c>
       <c r="B373" t="s">
-        <v>2185</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2627</v>
+        <v>1685</v>
       </c>
       <c r="B374" t="s">
-        <v>2626</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
         <v>1717</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B379" t="s">
         <v>2657</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1695</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1697</v>
+        <v>1485</v>
       </c>
       <c r="B386" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1673</v>
+        <v>1481</v>
       </c>
       <c r="B387" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1685</v>
+        <v>1555</v>
       </c>
       <c r="B388" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1675</v>
+        <v>1694</v>
       </c>
       <c r="B389" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="B390" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1194</v>
+        <v>1673</v>
       </c>
       <c r="B391" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1493</v>
+        <v>1685</v>
       </c>
       <c r="B392" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1422</v>
+        <v>1675</v>
       </c>
       <c r="B393" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1666</v>
+        <v>1701</v>
       </c>
       <c r="B394" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1554</v>
+        <v>1194</v>
       </c>
       <c r="B395" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1708</v>
+        <v>1493</v>
       </c>
       <c r="B396" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1711</v>
+        <v>1422</v>
       </c>
       <c r="B397" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1713</v>
+        <v>1666</v>
       </c>
       <c r="B398" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1715</v>
+        <v>1554</v>
       </c>
       <c r="B399" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="B400" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B401" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1516</v>
+        <v>1713</v>
       </c>
       <c r="B402" t="s">
-        <v>1899</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2186</v>
+        <v>1715</v>
       </c>
       <c r="B403" t="s">
-        <v>2187</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1733</v>
+        <v>1678</v>
       </c>
       <c r="B404" t="s">
-        <v>2677</v>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2429</v>
+        <v>2186</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2187</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="B408" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1722</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1724</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B412" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1727</v>
+        <v>1557</v>
       </c>
       <c r="B413" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1730</v>
+        <v>1558</v>
       </c>
       <c r="B414" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1493</v>
+        <v>1723</v>
       </c>
       <c r="B415" t="s">
-        <v>1731</v>
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2430</v>
+        <v>1727</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B418" t="s">
-        <v>1763</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1733</v>
+        <v>1493</v>
       </c>
       <c r="B419" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1765</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1766</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B422" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B423" t="s">
-        <v>1736</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1701</v>
+        <v>1517</v>
       </c>
       <c r="B424" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="B425" t="s">
-        <v>1739</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B426" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="B427" t="s">
-        <v>1769</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1742</v>
+        <v>1701</v>
       </c>
       <c r="B428" t="s">
-        <v>1743</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="B429" t="s">
-        <v>1770</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1493</v>
+        <v>1740</v>
       </c>
       <c r="B430" t="s">
-        <v>1745</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1723</v>
+        <v>1741</v>
       </c>
       <c r="B431" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B432" t="s">
-        <v>1772</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1194</v>
+        <v>1744</v>
       </c>
       <c r="B433" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1748</v>
+        <v>1493</v>
       </c>
       <c r="B434" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="B435" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B436" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1751</v>
+        <v>1194</v>
       </c>
       <c r="B437" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1727</v>
+        <v>1748</v>
       </c>
       <c r="B438" t="s">
-        <v>1776</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1558</v>
+        <v>1730</v>
       </c>
       <c r="B439" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B440" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="B441" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1755</v>
+        <v>1727</v>
       </c>
       <c r="B442" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1757</v>
+        <v>1558</v>
       </c>
       <c r="B443" t="s">
-        <v>1756</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="B444" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B445" t="s">
-        <v>1780</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="B446" t="s">
-        <v>1761</v>
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>2431</v>
+        <v>1759</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1796</v>
+        <v>1760</v>
       </c>
       <c r="B449" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1798</v>
+        <v>1762</v>
       </c>
       <c r="B450" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1904</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1905</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1567</v>
+        <v>1796</v>
       </c>
       <c r="B453" t="s">
-        <v>1907</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1194</v>
+        <v>1798</v>
       </c>
       <c r="B454" t="s">
-        <v>1908</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1909</v>
+        <v>1723</v>
       </c>
       <c r="B455" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="B456" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1914</v>
+        <v>1567</v>
       </c>
       <c r="B457" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1915</v>
+        <v>1194</v>
       </c>
       <c r="B458" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1752</v>
+        <v>1909</v>
       </c>
       <c r="B459" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="B460" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1485</v>
+        <v>1914</v>
       </c>
       <c r="B461" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B462" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1923</v>
+        <v>1752</v>
       </c>
       <c r="B463" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="B464" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1927</v>
+        <v>1485</v>
       </c>
       <c r="B465" t="s">
-        <v>1928</v>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>2432</v>
+        <v>1923</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1195</v>
+        <v>1925</v>
       </c>
       <c r="B468" t="s">
-        <v>1938</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="B469" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1942</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1442</v>
+        <v>1195</v>
       </c>
       <c r="B472" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1264</v>
+        <v>1940</v>
       </c>
       <c r="B473" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>286</v>
+        <v>1237</v>
       </c>
       <c r="B474" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1221</v>
+        <v>1270</v>
       </c>
       <c r="B475" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1272</v>
+        <v>1442</v>
       </c>
       <c r="B476" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1215</v>
+        <v>1264</v>
       </c>
       <c r="B477" t="s">
-        <v>1948</v>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>286</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>2433</v>
+        <v>1221</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1949</v>
+        <v>1272</v>
       </c>
       <c r="B480" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1790</v>
+        <v>1215</v>
       </c>
       <c r="B481" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B482" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1955</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1954</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="B484" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1959</v>
+        <v>1790</v>
       </c>
       <c r="B485" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="B486" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="B487" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1436</v>
+        <v>1957</v>
       </c>
       <c r="B488" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="B489" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="B490" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="B491" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1612</v>
+        <v>1436</v>
       </c>
       <c r="B492" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="B493" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="B494" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1333</v>
+        <v>1970</v>
       </c>
       <c r="B495" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1977</v>
+        <v>1612</v>
       </c>
       <c r="B496" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="B497" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="B498" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1984</v>
+        <v>1333</v>
       </c>
       <c r="B499" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="B500" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
       <c r="B501" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B502" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="B503" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="B504" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1321</v>
+        <v>1987</v>
       </c>
       <c r="B505" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="B506" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1537</v>
+        <v>1992</v>
       </c>
       <c r="B507" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B508" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2002</v>
+        <v>1321</v>
       </c>
       <c r="B509" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="B510" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2006</v>
+        <v>1537</v>
       </c>
       <c r="B511" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="B512" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B513" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="B514" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B515" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B516" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B517" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
         <v>2016</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B520" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -15728,7 +15748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -17587,8 +17607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18008,6 +18028,14 @@
       </c>
       <c r="B52" t="s">
         <v>2670</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="2684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="2695">
   <si>
     <t>Base Set</t>
   </si>
@@ -8084,6 +8084,39 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/-VQc5c_UNl4I/V9W22YwPi2I/AAAAAAAAd90/xlYHmC_oV5Ukhpt1CQraaQqiXBEoV5hSQCLcB/s1600/2016%2BChachi%2B%252363%2BQuinn.jpg</t>
+  </si>
+  <si>
+    <t>Nick Williams 2016 Bowman Chrome</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-wQvjCHs3OAU/V9mWhuL7nDI/AAAAAAABoKY/00DH9IjqsnIhI2JrQ4PeJyk06KSAVk1dwCLcB/s1600/platinum-4.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-5jfw7jIhHe0/V9nc1Bzz1OI/AAAAAAAAmug/_qAOK95Y1jIpMzDRYwPwtY0_VLwKrxSqACLcB/s1600/SSPC%2B1976%2BCardenal.jpg</t>
+  </si>
+  <si>
+    <t>Jose Cardenal</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-O1TlGz5Gozw/V9nc1CBTE3I/AAAAAAAAmuY/YjfFjyLR5G4xoa1rFcORKMW2x-DyQR-rwCLcB/s1600/Team%2BIssue%2B1983%2BBowa.jpg</t>
+  </si>
+  <si>
+    <t>Doug Glanville</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-dWBBJWtVUu0/V9nc1Vn7-yI/AAAAAAAAmuo/Dqf0sxgiLPAAa7KZs5Agv4kOea4YoPXywCLcB/s1600/Team%2BIssue%2B1996%2BGlanville.jpg</t>
+  </si>
+  <si>
+    <t>Dave Martinez</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-rATqI9DEPPc/V9nc1ebhBOI/AAAAAAAAmuk/8Mb0DXYC95gFXNGv1HBacCFSVkpJ8kDPACLcB/s1600/Team%2BIssue%2B1987%2BMartinez.jpg</t>
+  </si>
+  <si>
+    <t>Ryan Howard 2016 Franchise Finest</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-mP0LxlQctoQ/V9viN8feksI/AAAAAAAAd_0/VgcLj5YY2kUrxdO7N97W9HAjVDDSssPkwCLcB/s1600/2016%2BFinest%2BFranchise%2BFinest%2B%2523FF-RH%2BHoward.jpg</t>
   </si>
 </sst>
 </file>
@@ -8453,8 +8486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10062,6 +10095,22 @@
         <v>2681</v>
       </c>
     </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2694</v>
+      </c>
+    </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2423</v>
@@ -10705,6 +10754,38 @@
       </c>
       <c r="B290" t="s">
         <v>2635</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2692</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -17607,7 +17688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="2705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="2711">
   <si>
     <t>Base Set</t>
   </si>
@@ -8147,6 +8147,24 @@
   </si>
   <si>
     <t>http://3.bp.blogspot.com/-vmQbmFm1uCE/V-AgzOioh-I/AAAAAAAAmx0/fwhJzWNoHowXKReunSY0oFwvQLcZHRN9gCK4B/s1600/Bowman%2B2006%2BzzBDP%2BValdez.jpg</t>
+  </si>
+  <si>
+    <t>1970 Rookie Stars (Lis, Reid)</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-6MHEQWrCllk/V-A0i6hGUkI/AAAAAAAAeB8/4OgAdimYpwMpwKUxQyzX2FL6ElS7IoQcwCLcB/s1600/1970%2BTopps%2B%252356%2BLis%2B%2526%2BReid.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-_27tz5hvEBI/V-ABT5MZspI/AAAAAAAAeBs/SpSm7wXBw98VPv2x_Fu7BEwvTJ_O0uvrQCLcB/s1600/2016%2BTopps%2BPro%2BDebut%2B%252342%2BAppel.jpg</t>
+  </si>
+  <si>
+    <t>Mark Appel 2016 Topps Pro Debut</t>
+  </si>
+  <si>
+    <t>Charlie Morton 2016 Topps (diff from Bunt)</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-K3TuTF1Hhwc/V-ABTod0VtI/AAAAAAAAeBg/eUTE0Gan7pwdqyDrXcqTFZjXBbjaCkEPACLcB/s1600/2016%2BTopps%2BPhillies%2B%2523PP-17%2BMorton.jpg</t>
   </si>
 </sst>
 </file>
@@ -8516,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:XFD175"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9408,6 +9426,14 @@
         <v>2589</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2710</v>
+      </c>
+    </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2444</v>
@@ -10864,6 +10890,14 @@
       </c>
       <c r="B301" t="s">
         <v>2704</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2707</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -15915,8 +15949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16133,6 +16167,14 @@
       </c>
       <c r="B27" t="s">
         <v>2691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2706</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -17782,7 +17824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="2712">
   <si>
     <t>Base Set</t>
   </si>
@@ -8165,6 +8165,9 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-K3TuTF1Hhwc/V-ABTod0VtI/AAAAAAAAeBg/eUTE0Gan7pwdqyDrXcqTFZjXBbjaCkEPACLcB/s1600/2016%2BTopps%2BPhillies%2B%2523PP-17%2BMorton.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-dIqtyRjwwcQ/V-Prrp6HhsI/AAAAAAAAeDk/cWLCRbIKB2cUwZnl27R_ebcR9KQ9BWgBgCLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2B%252312%2BMorandini%2B%2528Auto%2529.jpg</t>
   </si>
 </sst>
 </file>
@@ -8534,7 +8537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -16525,10 +16528,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,6 +16919,14 @@
       </c>
       <c r="B50" t="s">
         <v>2634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2711</v>
       </c>
     </row>
   </sheetData>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="2712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="2738">
   <si>
     <t>Base Set</t>
   </si>
@@ -8168,6 +8168,84 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/-dIqtyRjwwcQ/V-Prrp6HhsI/AAAAAAAAeDk/cWLCRbIKB2cUwZnl27R_ebcR9KQ9BWgBgCLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2B%252312%2BMorandini%2B%2528Auto%2529.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-eEb1DBZWIAk/V-Pwsh9V0oI/AAAAAAAAeD0/MX8zZ5UxEQAyabF6jJq9Fqgj2GjjrgSnQCLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2B%252319%2BJoseph.jpg</t>
+  </si>
+  <si>
+    <t>Jeff James</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-GDatJkOzGj0/V-Pzgs7vuRI/AAAAAAAAeD8/oLnCEuXohRoZXU-JT2Ie7Kmr40b8uBSRQCLcB/s1600/1970%2BTopps%2B%2523302%2BJames.jpg</t>
+  </si>
+  <si>
+    <t>Bud Harrelson</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-jE0zOO0lvWY/V-Pzgoid-sI/AAAAAAAAeEA/hdmUpQ40YvE9rYYBhnshEhZ9MR2O5YVEgCLcB/s1600/1970%2BTopps%2B%2523634%2BHarrelson.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-Es4FR9yNrKY/Vmjj9Ckk2bI/AAAAAAAAJd0/uI5eQlzPhVU/s1600/1970%2BFrank%2BLucchesi%2B%2528f%2529.jpg</t>
+  </si>
+  <si>
+    <t>Sal Bando</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-zxUL8eukKCc/VgauxxF_mPI/AAAAAAAAJII/udVNe8-Zrv4/s1600/1970%2BSal%2BBando%2B%2528f%2529.jpg</t>
+  </si>
+  <si>
+    <t>Joe Torre</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-7DUnk6LFAqo/U8FMX5ZemWI/AAAAAAAAIok/3sPlD82uaXs/s1600/1970+Joe+Torre+(f).jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-rQAIR1iapxU/U2ULJs3zGXI/AAAAAAAAIOA/zRk1Fu9knZE/s1600/1970+Lou+Piniella+(f).jpg</t>
+  </si>
+  <si>
+    <t>Lou Piniella</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-p08UsXPwhkk/UuHiwv6yMNI/AAAAAAAAHog/YQLv_6gFRJQ/s1600/1970+Del+Unser+(f).jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-q8MZuD_B7xE/UtsLZBVADwI/AAAAAAAAHnA/PJF6uL36-u4/s1600/1970+Jay+Johnstone+(f).jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-DkoSPWP8x0E/UmhusmEieYI/AAAAAAAAHGc/fcbwHbM_DqQ/s1600/1970+Harmon+Killebrew+(f).jpg</t>
+  </si>
+  <si>
+    <t>Harmon Killebrew</t>
+  </si>
+  <si>
+    <t>Maury Wills</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-lHEvLzb-FC0/UaKs_5uxxII/AAAAAAAAGc0/6Mtr0JXtjsk/s1600/1970+Maury+Wills+(f).jpg</t>
+  </si>
+  <si>
+    <t>Al Raffo (custom)</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-SOUVilgiEAQ/UIQHQ8r_whI/AAAAAAAAFSQ/nau0Lyjn5gM/s1600/1970%2BAl%2BRaffo.jpg</t>
+  </si>
+  <si>
+    <t>Rick Joseph</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-AjbqTl_TrA4/T_45hq2OmEI/AAAAAAAAEfk/WCU3Sy8PwAw/s1600/1970%2BRick%2BJoseph%2B%2528f%2529.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ZiB1amjVT9o/TzhN3t6cShI/AAAAAAAAD2c/SoacPVs94lg/s1600/1970%2BRoberto%2BClemente%2B%2528f%2529.jpg</t>
+  </si>
+  <si>
+    <t>Roberto Clemente</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-GAInAO6w_kA/TvizaLgK26I/AAAAAAAADgQ/DWTOfFlD10U/s1600/1970%2BReggie%2BJackson%2B%2528f%2529.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_VFYuAlZ9trY/TKH8RHwSFPI/AAAAAAAACoA/_mvQ1LAZZvY/s1600/1970+Phillies+Team+(f).jpg</t>
   </si>
 </sst>
 </file>
@@ -15950,10 +16028,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15982,543 +16060,663 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1477</v>
+        <v>1796</v>
       </c>
       <c r="B4" t="s">
-        <v>1479</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1481</v>
+        <v>1707</v>
       </c>
       <c r="B5" t="s">
-        <v>1483</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="B6" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="B7" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="B8" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
       <c r="B9" t="s">
-        <v>1511</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1548</v>
+        <v>1494</v>
       </c>
       <c r="B10" t="s">
-        <v>1558</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1549</v>
+        <v>1512</v>
       </c>
       <c r="B11" t="s">
-        <v>1559</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B12" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B13" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1896</v>
+        <v>1550</v>
       </c>
       <c r="B14" t="s">
-        <v>1897</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1678</v>
+        <v>1551</v>
       </c>
       <c r="B15" t="s">
-        <v>2033</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2034</v>
+        <v>1896</v>
       </c>
       <c r="B16" t="s">
-        <v>2035</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1669</v>
+        <v>1678</v>
       </c>
       <c r="B17" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1671</v>
+        <v>2034</v>
       </c>
       <c r="B18" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="B19" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="B20" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2046</v>
+        <v>1662</v>
       </c>
       <c r="B21" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2483</v>
+        <v>1674</v>
       </c>
       <c r="B22" t="s">
-        <v>2484</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1742</v>
+        <v>2046</v>
       </c>
       <c r="B23" t="s">
-        <v>2574</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1693</v>
+        <v>2483</v>
       </c>
       <c r="B24" t="s">
-        <v>2596</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1729</v>
+        <v>1742</v>
       </c>
       <c r="B25" t="s">
-        <v>2652</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1721</v>
+        <v>1693</v>
       </c>
       <c r="B26" t="s">
-        <v>2661</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1697</v>
+        <v>1729</v>
       </c>
       <c r="B27" t="s">
-        <v>2691</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>2705</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>2706</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1588</v>
+        <v>2713</v>
       </c>
       <c r="B31" t="s">
-        <v>2048</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2049</v>
+        <v>2730</v>
       </c>
       <c r="B32" t="s">
-        <v>2050</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1191</v>
+        <v>2732</v>
       </c>
       <c r="B33" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2053</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2054</v>
-      </c>
       <c r="B35" t="s">
-        <v>2055</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2056</v>
+        <v>1588</v>
       </c>
       <c r="B36" t="s">
-        <v>2057</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1478</v>
+        <v>2049</v>
       </c>
       <c r="B37" t="s">
-        <v>1480</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1482</v>
+        <v>1191</v>
       </c>
       <c r="B38" t="s">
-        <v>1484</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1486</v>
+        <v>2052</v>
       </c>
       <c r="B39" t="s">
-        <v>1487</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1490</v>
+        <v>2054</v>
       </c>
       <c r="B40" t="s">
-        <v>1492</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1493</v>
+        <v>2056</v>
       </c>
       <c r="B41" t="s">
-        <v>1496</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1513</v>
+        <v>1478</v>
       </c>
       <c r="B42" t="s">
-        <v>1514</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1552</v>
+        <v>1482</v>
       </c>
       <c r="B43" t="s">
-        <v>1555</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1553</v>
+        <v>1486</v>
       </c>
       <c r="B44" t="s">
-        <v>1556</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1554</v>
+        <v>1490</v>
       </c>
       <c r="B45" t="s">
-        <v>1557</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1563</v>
+        <v>1493</v>
       </c>
       <c r="B46" t="s">
-        <v>1564</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1801</v>
+        <v>1513</v>
       </c>
       <c r="B47" t="s">
-        <v>1803</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1802</v>
+        <v>1552</v>
       </c>
       <c r="B48" t="s">
-        <v>1804</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1744</v>
+        <v>1553</v>
       </c>
       <c r="B49" t="s">
-        <v>1878</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1875</v>
+        <v>1554</v>
       </c>
       <c r="B50" t="s">
-        <v>1879</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1876</v>
+        <v>1563</v>
       </c>
       <c r="B51" t="s">
-        <v>1880</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1877</v>
+        <v>1801</v>
       </c>
       <c r="B52" t="s">
-        <v>1881</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2040</v>
+        <v>1802</v>
       </c>
       <c r="B53" t="s">
-        <v>2041</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2042</v>
+        <v>1744</v>
       </c>
       <c r="B54" t="s">
-        <v>2043</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2044</v>
+        <v>1875</v>
       </c>
       <c r="B55" t="s">
-        <v>2045</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2058</v>
+        <v>1876</v>
       </c>
       <c r="B56" t="s">
-        <v>2059</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2060</v>
+        <v>1877</v>
       </c>
       <c r="B57" t="s">
-        <v>2061</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2062</v>
+        <v>2040</v>
       </c>
       <c r="B58" t="s">
-        <v>2063</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2064</v>
+        <v>2042</v>
       </c>
       <c r="B59" t="s">
-        <v>2065</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2066</v>
+        <v>2044</v>
       </c>
       <c r="B60" t="s">
-        <v>2067</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="B61" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="B62" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1755</v>
+        <v>2062</v>
       </c>
       <c r="B63" t="s">
-        <v>2478</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2479</v>
+        <v>2064</v>
       </c>
       <c r="B64" t="s">
-        <v>2480</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2481</v>
+        <v>2066</v>
       </c>
       <c r="B65" t="s">
-        <v>2482</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1611</v>
+        <v>2068</v>
       </c>
       <c r="B66" t="s">
-        <v>2485</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1623</v>
+        <v>2070</v>
       </c>
       <c r="B67" t="s">
-        <v>2573</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>2575</v>
+        <v>1755</v>
       </c>
       <c r="B68" t="s">
-        <v>2576</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2594</v>
+        <v>2479</v>
       </c>
       <c r="B69" t="s">
-        <v>2595</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1748</v>
+        <v>2481</v>
       </c>
       <c r="B70" t="s">
-        <v>2653</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2662</v>
+        <v>1611</v>
       </c>
       <c r="B71" t="s">
-        <v>2663</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>2672</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>2673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2736</v>
       </c>
     </row>
   </sheetData>
@@ -16528,10 +16726,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16927,6 +17125,14 @@
       </c>
       <c r="B51" t="s">
         <v>2711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2712</v>
       </c>
     </row>
   </sheetData>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="Misc" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="2750">
   <si>
     <t>Base Set</t>
   </si>
@@ -8246,6 +8246,42 @@
   </si>
   <si>
     <t>http://2.bp.blogspot.com/_VFYuAlZ9trY/TKH8RHwSFPI/AAAAAAAACoA/_mvQ1LAZZvY/s1600/1970+Phillies+Team+(f).jpg</t>
+  </si>
+  <si>
+    <t>Sparky Anderson 1959 Topps Rookie</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-oPliMq9YVSI/V-g0YOVKKPI/AAAAAAAAeFk/mR577q-ObG8jQD1WLiZurvQs9zIaDHtDwCLcB/s1600/1959%2BTopps%2B%2523338%2BAnderson.jpg</t>
+  </si>
+  <si>
+    <t>Von Hayes 1986 Tastykake</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-BVDNeofVNk0/V-g9J7rIX4I/AAAAAAAAeGU/U0mpLdh0EDE0mvpxCw7o4oHwQp_P2Cq1QCEw/s1600/1986%2BTastykake%2BPhillies%2B%25239%2BHayes.jpg</t>
+  </si>
+  <si>
+    <t>Pete Incaviglia 1993 Medford</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-uA_XUhfrJdc/V-g9KK4TNRI/AAAAAAAAeGY/EwccfLMoFPA9c-17XufmHMxgawrrTp_LACEw/s1600/1993%2BMedford%2BPhillies%2B%252322%2BIncaviglia.jpg</t>
+  </si>
+  <si>
+    <t>Dave Watkins 1969 (Cards that Never Were)</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-50pqknL-Hh0/V-hJnS3EzqI/AAAAAAAAKJU/PuB0HDEjSm4V39C0SLzt4S8ySyZAo5OnACLcB/s1600/1969%2BTopps%2BDave%2BWatkins.jpg</t>
+  </si>
+  <si>
+    <t>1969 Rookie Stars</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-xMN_KbInNrE/V-hJnR4XTAI/AAAAAAAAKJM/3bQjPqNKTQ8d7bEGQsg26W2wKHYVzmaGwCLcB/s1600/1969%2BTopps%2BRookies%2BPalmer%2BRaffo.jpg</t>
+  </si>
+  <si>
+    <t>John Kruk 1993 Leaf</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-mhNqYE3rIA8/V-EdhaHzv9I/AAAAAAAAHDk/D4ndLvKWau07sEMpYHl8Mknb_dURmfYogCLcB/s1600/Kruk_1993_Leaf-r.jpg</t>
   </si>
 </sst>
 </file>
@@ -8613,10 +8649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B529"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9515,3076 +9551,3124 @@
         <v>2710</v>
       </c>
     </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2743</v>
+      </c>
+    </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2444</v>
+        <v>2744</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2745</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2274</v>
+        <v>2746</v>
       </c>
       <c r="B119" t="s">
-        <v>2452</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2275</v>
+        <v>2748</v>
       </c>
       <c r="B120" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2451</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="B123" t="s">
-        <v>2279</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="B124" t="s">
-        <v>2281</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="B125" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="B126" t="s">
-        <v>2284</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="B127" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="B128" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="B129" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="B130" t="s">
-        <v>2446</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="B131" t="s">
-        <v>2448</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="B132" t="s">
-        <v>2447</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B133" t="s">
-        <v>2294</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="B134" t="s">
-        <v>2458</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="B135" t="s">
-        <v>2459</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="B136" t="s">
-        <v>2460</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="B137" t="s">
-        <v>2461</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B138" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B139" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B140" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B141" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B142" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="B143" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="B144" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B145" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="B146" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B147" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B148" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="B149" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B150" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B151" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="B152" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B153" t="s">
-        <v>2457</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B154" t="s">
-        <v>2316</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="B155" t="s">
-        <v>2456</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="B156" t="s">
-        <v>2455</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="B157" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="B158" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="B159" t="s">
-        <v>2325</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="B160" t="s">
-        <v>2327</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2332</v>
+        <v>2319</v>
       </c>
       <c r="B161" t="s">
-        <v>2333</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2340</v>
+        <v>2322</v>
       </c>
       <c r="B162" t="s">
-        <v>2341</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2344</v>
+        <v>2324</v>
       </c>
       <c r="B163" t="s">
-        <v>2345</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2346</v>
+        <v>2326</v>
       </c>
       <c r="B164" t="s">
-        <v>2347</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2348</v>
+        <v>2332</v>
       </c>
       <c r="B165" t="s">
-        <v>2349</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2350</v>
+        <v>2340</v>
       </c>
       <c r="B166" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
       <c r="B167" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
       <c r="B168" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
       <c r="B169" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
       <c r="B170" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="B171" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="B172" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="B173" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
       <c r="B174" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2378</v>
+        <v>2364</v>
       </c>
       <c r="B175" t="s">
-        <v>2379</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2388</v>
+        <v>2366</v>
       </c>
       <c r="B176" t="s">
-        <v>2389</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2396</v>
+        <v>2368</v>
       </c>
       <c r="B177" t="s">
-        <v>2397</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2404</v>
+        <v>2370</v>
       </c>
       <c r="B178" t="s">
-        <v>2405</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2408</v>
+        <v>2378</v>
       </c>
       <c r="B179" t="s">
-        <v>2409</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2410</v>
+        <v>2388</v>
       </c>
       <c r="B180" t="s">
-        <v>2411</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2412</v>
+        <v>2396</v>
       </c>
       <c r="B181" t="s">
-        <v>2413</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2517</v>
+        <v>2404</v>
       </c>
       <c r="B182" t="s">
-        <v>2518</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2513</v>
+        <v>2408</v>
       </c>
       <c r="B183" t="s">
-        <v>2514</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2523</v>
+        <v>2410</v>
       </c>
       <c r="B184" t="s">
-        <v>2524</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2525</v>
+        <v>2412</v>
       </c>
       <c r="B185" t="s">
-        <v>2526</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2529</v>
+        <v>2517</v>
       </c>
       <c r="B186" t="s">
-        <v>2530</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2539</v>
+        <v>2513</v>
       </c>
       <c r="B187" t="s">
-        <v>2540</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2541</v>
+        <v>2523</v>
       </c>
       <c r="B188" t="s">
-        <v>2542</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2543</v>
+        <v>2525</v>
       </c>
       <c r="B189" t="s">
-        <v>2544</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2549</v>
+        <v>2529</v>
       </c>
       <c r="B190" t="s">
-        <v>2550</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2551</v>
+        <v>2539</v>
       </c>
       <c r="B191" t="s">
-        <v>2552</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2557</v>
+        <v>2541</v>
       </c>
       <c r="B192" t="s">
-        <v>2558</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2565</v>
+        <v>2543</v>
       </c>
       <c r="B193" t="s">
-        <v>2566</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2600</v>
+        <v>2549</v>
       </c>
       <c r="B194" t="s">
-        <v>2599</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2602</v>
+        <v>2551</v>
       </c>
       <c r="B195" t="s">
-        <v>2603</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2604</v>
+        <v>2557</v>
       </c>
       <c r="B196" t="s">
-        <v>2605</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2635</v>
+        <v>2565</v>
       </c>
       <c r="B197" t="s">
-        <v>2636</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2637</v>
+        <v>2600</v>
       </c>
       <c r="B198" t="s">
-        <v>2638</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2640</v>
+        <v>2602</v>
       </c>
       <c r="B199" t="s">
-        <v>2639</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2641</v>
+        <v>2604</v>
       </c>
       <c r="B200" t="s">
-        <v>2644</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2642</v>
+        <v>2635</v>
       </c>
       <c r="B201" t="s">
-        <v>2645</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="B202" t="s">
-        <v>2646</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2647</v>
+        <v>2640</v>
       </c>
       <c r="B203" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2649</v>
+        <v>2641</v>
       </c>
       <c r="B204" t="s">
-        <v>2650</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="B205" t="s">
-        <v>2656</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2659</v>
+        <v>2643</v>
       </c>
       <c r="B206" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="B207" t="s">
-        <v>2666</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2667</v>
+        <v>2649</v>
       </c>
       <c r="B208" t="s">
-        <v>2668</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2669</v>
+        <v>2655</v>
       </c>
       <c r="B209" t="s">
-        <v>2670</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2674</v>
+        <v>2659</v>
       </c>
       <c r="B210" t="s">
-        <v>2675</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
       <c r="B211" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2687</v>
+        <v>2667</v>
       </c>
       <c r="B212" t="s">
-        <v>2688</v>
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2670</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2417</v>
+        <v>2674</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2675</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1548</v>
+        <v>2678</v>
       </c>
       <c r="B215" t="s">
-        <v>1933</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1520</v>
+        <v>2687</v>
       </c>
       <c r="B216" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>289</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1530</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1534</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="B219" t="s">
-        <v>1535</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="B220" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1544</v>
+        <v>289</v>
       </c>
       <c r="B221" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1565</v>
+        <v>1533</v>
       </c>
       <c r="B222" t="s">
-        <v>1566</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1567</v>
+        <v>1537</v>
       </c>
       <c r="B223" t="s">
-        <v>1568</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1807</v>
+        <v>1536</v>
       </c>
       <c r="B224" t="s">
-        <v>1808</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1928</v>
+        <v>1544</v>
       </c>
       <c r="B225" t="s">
-        <v>1929</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1930</v>
+        <v>1565</v>
       </c>
       <c r="B226" t="s">
-        <v>1931</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1640</v>
+        <v>1567</v>
       </c>
       <c r="B227" t="s">
-        <v>1639</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1644</v>
+        <v>1807</v>
       </c>
       <c r="B228" t="s">
-        <v>1645</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1648</v>
+        <v>1928</v>
       </c>
       <c r="B229" t="s">
-        <v>1649</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1646</v>
+        <v>1930</v>
       </c>
       <c r="B230" t="s">
-        <v>1647</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="B231" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2031</v>
+        <v>1644</v>
       </c>
       <c r="B232" t="s">
-        <v>2032</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2188</v>
+        <v>1648</v>
       </c>
       <c r="B233" t="s">
-        <v>2189</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2200</v>
+        <v>1646</v>
       </c>
       <c r="B234" t="s">
-        <v>2201</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2202</v>
+        <v>1650</v>
       </c>
       <c r="B235" t="s">
-        <v>2203</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2204</v>
+        <v>2031</v>
       </c>
       <c r="B236" t="s">
-        <v>2205</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
       <c r="B237" t="s">
-        <v>2207</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="B238" t="s">
-        <v>2215</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2226</v>
+        <v>2202</v>
       </c>
       <c r="B239" t="s">
-        <v>2227</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2234</v>
+        <v>2204</v>
       </c>
       <c r="B240" t="s">
-        <v>2235</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2236</v>
+        <v>2206</v>
       </c>
       <c r="B241" t="s">
-        <v>2237</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2252</v>
+        <v>2214</v>
       </c>
       <c r="B242" t="s">
-        <v>2253</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2254</v>
+        <v>2226</v>
       </c>
       <c r="B243" t="s">
-        <v>2255</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2256</v>
+        <v>2234</v>
       </c>
       <c r="B244" t="s">
-        <v>2257</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2258</v>
+        <v>2236</v>
       </c>
       <c r="B245" t="s">
-        <v>2259</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1544</v>
+        <v>2252</v>
       </c>
       <c r="B246" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="B247" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="B248" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2272</v>
+        <v>2258</v>
       </c>
       <c r="B249" t="s">
-        <v>2273</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2372</v>
+        <v>1544</v>
       </c>
       <c r="B250" t="s">
-        <v>2373</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2374</v>
+        <v>2261</v>
       </c>
       <c r="B251" t="s">
-        <v>2375</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2376</v>
+        <v>2264</v>
       </c>
       <c r="B252" t="s">
-        <v>2377</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2354</v>
+        <v>2272</v>
       </c>
       <c r="B253" t="s">
-        <v>2355</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2356</v>
+        <v>2372</v>
       </c>
       <c r="B254" t="s">
-        <v>2357</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2328</v>
+        <v>2374</v>
       </c>
       <c r="B255" t="s">
-        <v>2329</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2330</v>
+        <v>2376</v>
       </c>
       <c r="B256" t="s">
-        <v>2331</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2334</v>
+        <v>2354</v>
       </c>
       <c r="B257" t="s">
-        <v>2335</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2336</v>
+        <v>2356</v>
       </c>
       <c r="B258" t="s">
-        <v>2337</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="B259" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2342</v>
+        <v>2330</v>
       </c>
       <c r="B260" t="s">
-        <v>2343</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2320</v>
+        <v>2334</v>
       </c>
       <c r="B261" t="s">
-        <v>2321</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2380</v>
+        <v>2336</v>
       </c>
       <c r="B262" t="s">
-        <v>2381</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2382</v>
+        <v>2338</v>
       </c>
       <c r="B263" t="s">
-        <v>2383</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2386</v>
+        <v>2342</v>
       </c>
       <c r="B264" t="s">
-        <v>2387</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2390</v>
+        <v>2320</v>
       </c>
       <c r="B265" t="s">
-        <v>2391</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2392</v>
+        <v>2380</v>
       </c>
       <c r="B266" t="s">
-        <v>2393</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="B267" t="s">
-        <v>2395</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="B268" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B269" t="s">
-        <v>2401</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2406</v>
+        <v>2392</v>
       </c>
       <c r="B270" t="s">
-        <v>2407</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1627</v>
+        <v>2394</v>
       </c>
       <c r="B271" t="s">
-        <v>2501</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2515</v>
+        <v>2398</v>
       </c>
       <c r="B272" t="s">
-        <v>2516</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2519</v>
+        <v>2400</v>
       </c>
       <c r="B273" t="s">
-        <v>2520</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2521</v>
+        <v>2406</v>
       </c>
       <c r="B274" t="s">
-        <v>2522</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2527</v>
+        <v>1627</v>
       </c>
       <c r="B275" t="s">
-        <v>2528</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2531</v>
+        <v>2515</v>
       </c>
       <c r="B276" t="s">
-        <v>2532</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2533</v>
+        <v>2519</v>
       </c>
       <c r="B277" t="s">
-        <v>2534</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2535</v>
+        <v>2521</v>
       </c>
       <c r="B278" t="s">
-        <v>2536</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="B279" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2545</v>
+        <v>2531</v>
       </c>
       <c r="B280" t="s">
-        <v>2546</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2547</v>
+        <v>2533</v>
       </c>
       <c r="B281" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2553</v>
+        <v>2535</v>
       </c>
       <c r="B282" t="s">
-        <v>2554</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="B283" t="s">
-        <v>2556</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
       <c r="B284" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2567</v>
+        <v>2547</v>
       </c>
       <c r="B285" t="s">
-        <v>2568</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2569</v>
+        <v>2553</v>
       </c>
       <c r="B286" t="s">
-        <v>2570</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2571</v>
+        <v>2555</v>
       </c>
       <c r="B287" t="s">
-        <v>2572</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2593</v>
+        <v>2559</v>
       </c>
       <c r="B288" t="s">
-        <v>2591</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2590</v>
+        <v>2567</v>
       </c>
       <c r="B289" t="s">
-        <v>2592</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2606</v>
+        <v>2569</v>
       </c>
       <c r="B290" t="s">
-        <v>2607</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2608</v>
+        <v>2571</v>
       </c>
       <c r="B291" t="s">
-        <v>2609</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2610</v>
+        <v>2593</v>
       </c>
       <c r="B292" t="s">
-        <v>2611</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2624</v>
+        <v>2590</v>
       </c>
       <c r="B293" t="s">
-        <v>2625</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2628</v>
+        <v>2606</v>
       </c>
       <c r="B294" t="s">
-        <v>2629</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2681</v>
+        <v>2608</v>
       </c>
       <c r="B295" t="s">
-        <v>2680</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1418</v>
+        <v>2610</v>
       </c>
       <c r="B296" t="s">
-        <v>2682</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2683</v>
+        <v>2624</v>
       </c>
       <c r="B297" t="s">
-        <v>2684</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2685</v>
+        <v>2628</v>
       </c>
       <c r="B298" t="s">
-        <v>2686</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2690</v>
+        <v>2681</v>
       </c>
       <c r="B299" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2701</v>
+        <v>1418</v>
       </c>
       <c r="B300" t="s">
-        <v>2702</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2703</v>
+        <v>2683</v>
       </c>
       <c r="B301" t="s">
-        <v>2704</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2708</v>
+        <v>2685</v>
       </c>
       <c r="B302" t="s">
-        <v>2707</v>
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2702</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2477</v>
+        <v>2703</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2704</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2384</v>
+        <v>2708</v>
       </c>
       <c r="B306" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B307" t="s">
-        <v>2403</v>
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>2477</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2419</v>
+        <v>2384</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2385</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1485</v>
+        <v>2402</v>
       </c>
       <c r="B311" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1578</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1580</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1583</v>
+        <v>1485</v>
       </c>
       <c r="B315" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="B316" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1512</v>
+        <v>1579</v>
       </c>
       <c r="B317" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="B318" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1636</v>
+        <v>1583</v>
       </c>
       <c r="B319" t="s">
-        <v>1637</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="B320" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1592</v>
+        <v>1512</v>
       </c>
       <c r="B321" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B322" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
       <c r="B323" t="s">
-        <v>1595</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="B324" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="B325" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B326" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="B327" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="B328" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="B329" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1418</v>
+        <v>1601</v>
       </c>
       <c r="B330" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="B331" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="B332" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B333" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1617</v>
+        <v>1418</v>
       </c>
       <c r="B334" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B335" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="B336" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B337" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B338" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B339" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="B340" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B341" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="B342" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B343" t="s">
-        <v>1635</v>
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2502</v>
+        <v>1632</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2503</v>
+        <v>1633</v>
       </c>
       <c r="B347" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B348" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B349" t="s">
-        <v>2508</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B350" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="B351" t="s">
-        <v>2512</v>
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2612</v>
+        <v>2509</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2510</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1485</v>
+        <v>2511</v>
       </c>
       <c r="B355" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B356" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B357" t="s">
-        <v>2616</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B358" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1632</v>
+        <v>1485</v>
       </c>
       <c r="B359" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1180</v>
+        <v>2614</v>
       </c>
       <c r="B360" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1249</v>
+        <v>1619</v>
       </c>
       <c r="B361" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1627</v>
+        <v>1596</v>
       </c>
       <c r="B362" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2627</v>
+        <v>1632</v>
       </c>
       <c r="B363" t="s">
-        <v>2626</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1623</v>
+        <v>1180</v>
       </c>
       <c r="B364" t="s">
-        <v>2630</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1590</v>
+        <v>1249</v>
       </c>
       <c r="B365" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B366" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>1579</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B371" t="s">
         <v>2633</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1670</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1671</v>
+        <v>1550</v>
       </c>
       <c r="B377" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1674</v>
+        <v>1418</v>
       </c>
       <c r="B378" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1481</v>
+        <v>1669</v>
       </c>
       <c r="B379" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1590</v>
+        <v>1662</v>
       </c>
       <c r="B380" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="B381" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B382" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1681</v>
+        <v>1481</v>
       </c>
       <c r="B383" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1683</v>
+        <v>1590</v>
       </c>
       <c r="B384" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="B385" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2180</v>
+        <v>1679</v>
       </c>
       <c r="B386" t="s">
-        <v>2181</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2621</v>
+        <v>1681</v>
       </c>
       <c r="B387" t="s">
-        <v>2620</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1713</v>
+        <v>1683</v>
       </c>
       <c r="B388" t="s">
-        <v>2651</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>1623</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B393" t="s">
         <v>2692</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1691</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1693</v>
+        <v>1481</v>
       </c>
       <c r="B399" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1669</v>
+        <v>1477</v>
       </c>
       <c r="B400" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1681</v>
+        <v>1551</v>
       </c>
       <c r="B401" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1671</v>
+        <v>1690</v>
       </c>
       <c r="B402" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B403" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1190</v>
+        <v>1669</v>
       </c>
       <c r="B404" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1489</v>
+        <v>1681</v>
       </c>
       <c r="B405" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1418</v>
+        <v>1671</v>
       </c>
       <c r="B406" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1662</v>
+        <v>1697</v>
       </c>
       <c r="B407" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1550</v>
+        <v>1190</v>
       </c>
       <c r="B408" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1704</v>
+        <v>1489</v>
       </c>
       <c r="B409" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1707</v>
+        <v>1418</v>
       </c>
       <c r="B410" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1709</v>
+        <v>1662</v>
       </c>
       <c r="B411" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1711</v>
+        <v>1550</v>
       </c>
       <c r="B412" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1674</v>
+        <v>1704</v>
       </c>
       <c r="B413" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="B414" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1512</v>
+        <v>1709</v>
       </c>
       <c r="B415" t="s">
-        <v>1895</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2182</v>
+        <v>1711</v>
       </c>
       <c r="B416" t="s">
-        <v>2183</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1729</v>
+        <v>1674</v>
       </c>
       <c r="B417" t="s">
-        <v>2671</v>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2423</v>
+        <v>2182</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="B421" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1718</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1720</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B425" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1723</v>
+        <v>1553</v>
       </c>
       <c r="B426" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1726</v>
+        <v>1554</v>
       </c>
       <c r="B427" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1489</v>
+        <v>1719</v>
       </c>
       <c r="B428" t="s">
-        <v>1727</v>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2424</v>
+        <v>1723</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B431" t="s">
-        <v>1759</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1729</v>
+        <v>1489</v>
       </c>
       <c r="B432" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1761</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1762</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B435" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B436" t="s">
-        <v>1732</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1697</v>
+        <v>1513</v>
       </c>
       <c r="B437" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="B438" t="s">
-        <v>1735</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B439" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B440" t="s">
-        <v>1765</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1738</v>
+        <v>1697</v>
       </c>
       <c r="B441" t="s">
-        <v>1739</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B442" t="s">
-        <v>1766</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1489</v>
+        <v>1736</v>
       </c>
       <c r="B443" t="s">
-        <v>1741</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1719</v>
+        <v>1737</v>
       </c>
       <c r="B444" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B445" t="s">
-        <v>1768</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1190</v>
+        <v>1740</v>
       </c>
       <c r="B446" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1744</v>
+        <v>1489</v>
       </c>
       <c r="B447" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="B448" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B449" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1747</v>
+        <v>1190</v>
       </c>
       <c r="B450" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="B451" t="s">
-        <v>1772</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1554</v>
+        <v>1726</v>
       </c>
       <c r="B452" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B453" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B454" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1751</v>
+        <v>1723</v>
       </c>
       <c r="B455" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1753</v>
+        <v>1554</v>
       </c>
       <c r="B456" t="s">
-        <v>1752</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="B457" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="B458" t="s">
-        <v>1776</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="B459" t="s">
-        <v>1757</v>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2425</v>
+        <v>1755</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1792</v>
+        <v>1756</v>
       </c>
       <c r="B462" t="s">
-        <v>1793</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
       <c r="B463" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1900</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1901</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1563</v>
+        <v>1792</v>
       </c>
       <c r="B466" t="s">
-        <v>1903</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1190</v>
+        <v>1794</v>
       </c>
       <c r="B467" t="s">
-        <v>1904</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1905</v>
+        <v>1719</v>
       </c>
       <c r="B468" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="B469" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1910</v>
+        <v>1563</v>
       </c>
       <c r="B470" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1911</v>
+        <v>1190</v>
       </c>
       <c r="B471" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1748</v>
+        <v>1905</v>
       </c>
       <c r="B472" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="B473" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1481</v>
+        <v>1910</v>
       </c>
       <c r="B474" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="B475" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1919</v>
+        <v>1748</v>
       </c>
       <c r="B476" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B477" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1923</v>
+        <v>1481</v>
       </c>
       <c r="B478" t="s">
-        <v>1924</v>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2426</v>
+        <v>1919</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1191</v>
+        <v>1921</v>
       </c>
       <c r="B481" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="B482" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1938</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1438</v>
+        <v>1191</v>
       </c>
       <c r="B485" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1260</v>
+        <v>1936</v>
       </c>
       <c r="B486" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>282</v>
+        <v>1233</v>
       </c>
       <c r="B487" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1217</v>
+        <v>1266</v>
       </c>
       <c r="B488" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1268</v>
+        <v>1438</v>
       </c>
       <c r="B489" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1211</v>
+        <v>1260</v>
       </c>
       <c r="B490" t="s">
-        <v>1944</v>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>282</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2427</v>
+        <v>1217</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1945</v>
+        <v>1268</v>
       </c>
       <c r="B493" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1786</v>
+        <v>1211</v>
       </c>
       <c r="B494" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1950</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="B497" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1955</v>
+        <v>1786</v>
       </c>
       <c r="B498" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="B499" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="B500" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1432</v>
+        <v>1953</v>
       </c>
       <c r="B501" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="B502" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="B503" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="B504" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1608</v>
+        <v>1432</v>
       </c>
       <c r="B505" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="B506" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="B507" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1329</v>
+        <v>1966</v>
       </c>
       <c r="B508" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1973</v>
+        <v>1608</v>
       </c>
       <c r="B509" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="B510" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="B511" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1980</v>
+        <v>1329</v>
       </c>
       <c r="B512" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="B513" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="B514" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="B515" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="B516" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B517" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1317</v>
+        <v>1983</v>
       </c>
       <c r="B518" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="B519" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1533</v>
+        <v>1988</v>
       </c>
       <c r="B520" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B521" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1998</v>
+        <v>1317</v>
       </c>
       <c r="B522" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="B523" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>2002</v>
+        <v>1533</v>
       </c>
       <c r="B524" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B525" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="B526" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B527" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B528" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B530" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B531" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B532" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
         <v>2012</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B533" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -16030,7 +16114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="2770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="2778">
   <si>
     <t>Base Set</t>
   </si>
@@ -8342,6 +8342,30 @@
   </si>
   <si>
     <t>Ben Zobrist</t>
+  </si>
+  <si>
+    <t>Bartolo Colon</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-not0KMcuNt4/V-q-JXKEs4I/AAAAAAAAf_k/6IBCcraCKLMzsDQWbxlNf3xlgKgOwghmgCEw/s1600/colon.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-CvTQidEFp6c/V-nDH_o6KvI/AAAAAAAAeHk/xt9wZRf-i_EMBdASglL8uyphKfXXP3lUwCLcB/s1600/1970%2BTopps%2B%2523546%2BReed.jpg</t>
+  </si>
+  <si>
+    <t>Ron Reed</t>
+  </si>
+  <si>
+    <t>1981 Home Run Leaders</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-ieJ8Y3w_h2c/V-r-hJVXPoI/AAAAAAABoeQ/r5E1OHrLCeYgUMGk34x54h3KY_kHWEZgACLcB/s1600/mustache-1.jpg</t>
+  </si>
+  <si>
+    <t>1971 Tony Perez</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-wfLNlVbejNs/V-s61ODW47I/AAAAAAABoe4/EjURzoXqIRgKhRAyKCw9YnGx58ta2TrWgCLcB/s1600/mustache-1-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -15978,10 +16002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16669,6 +16693,14 @@
         <v>2736</v>
       </c>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16676,10 +16708,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16893,6 +16925,14 @@
         <v>2768</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2771</v>
+      </c>
+    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2416</v>
@@ -17698,3076 +17738,3092 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2451</v>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2775</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="B136" t="s">
-        <v>2279</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="B137" t="s">
-        <v>2281</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="B138" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="B139" t="s">
-        <v>2284</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="B140" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="B141" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="B142" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="B143" t="s">
-        <v>2446</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="B144" t="s">
-        <v>2448</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="B145" t="s">
-        <v>2447</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B146" t="s">
-        <v>2294</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="B147" t="s">
-        <v>2458</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="B148" t="s">
-        <v>2459</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="B149" t="s">
-        <v>2460</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="B150" t="s">
-        <v>2461</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B151" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B152" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B153" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B154" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B155" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="B156" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="B157" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B158" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="B159" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B160" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B161" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="B162" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B163" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B164" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="B165" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B166" t="s">
-        <v>2457</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B167" t="s">
-        <v>2316</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="B168" t="s">
-        <v>2456</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="B169" t="s">
-        <v>2455</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="B170" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="B171" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="B172" t="s">
-        <v>2325</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="B173" t="s">
-        <v>2327</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2332</v>
+        <v>2319</v>
       </c>
       <c r="B174" t="s">
-        <v>2333</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2340</v>
+        <v>2322</v>
       </c>
       <c r="B175" t="s">
-        <v>2341</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2344</v>
+        <v>2324</v>
       </c>
       <c r="B176" t="s">
-        <v>2345</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2346</v>
+        <v>2326</v>
       </c>
       <c r="B177" t="s">
-        <v>2347</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2348</v>
+        <v>2332</v>
       </c>
       <c r="B178" t="s">
-        <v>2349</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2350</v>
+        <v>2340</v>
       </c>
       <c r="B179" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
       <c r="B180" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2358</v>
+        <v>2346</v>
       </c>
       <c r="B181" t="s">
-        <v>2359</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2360</v>
+        <v>2348</v>
       </c>
       <c r="B182" t="s">
-        <v>2361</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2362</v>
+        <v>2350</v>
       </c>
       <c r="B183" t="s">
-        <v>2363</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2364</v>
+        <v>2352</v>
       </c>
       <c r="B184" t="s">
-        <v>2365</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="B185" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="B186" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
       <c r="B187" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2378</v>
+        <v>2364</v>
       </c>
       <c r="B188" t="s">
-        <v>2379</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2388</v>
+        <v>2366</v>
       </c>
       <c r="B189" t="s">
-        <v>2389</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2396</v>
+        <v>2368</v>
       </c>
       <c r="B190" t="s">
-        <v>2397</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2404</v>
+        <v>2370</v>
       </c>
       <c r="B191" t="s">
-        <v>2405</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2408</v>
+        <v>2378</v>
       </c>
       <c r="B192" t="s">
-        <v>2409</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2410</v>
+        <v>2388</v>
       </c>
       <c r="B193" t="s">
-        <v>2411</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2412</v>
+        <v>2396</v>
       </c>
       <c r="B194" t="s">
-        <v>2413</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2517</v>
+        <v>2404</v>
       </c>
       <c r="B195" t="s">
-        <v>2518</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2513</v>
+        <v>2408</v>
       </c>
       <c r="B196" t="s">
-        <v>2514</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2523</v>
+        <v>2410</v>
       </c>
       <c r="B197" t="s">
-        <v>2524</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2525</v>
+        <v>2412</v>
       </c>
       <c r="B198" t="s">
-        <v>2526</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2529</v>
+        <v>2517</v>
       </c>
       <c r="B199" t="s">
-        <v>2530</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2539</v>
+        <v>2513</v>
       </c>
       <c r="B200" t="s">
-        <v>2540</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2541</v>
+        <v>2523</v>
       </c>
       <c r="B201" t="s">
-        <v>2542</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2543</v>
+        <v>2525</v>
       </c>
       <c r="B202" t="s">
-        <v>2544</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2549</v>
+        <v>2529</v>
       </c>
       <c r="B203" t="s">
-        <v>2550</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2551</v>
+        <v>2539</v>
       </c>
       <c r="B204" t="s">
-        <v>2552</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2557</v>
+        <v>2541</v>
       </c>
       <c r="B205" t="s">
-        <v>2558</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2565</v>
+        <v>2543</v>
       </c>
       <c r="B206" t="s">
-        <v>2566</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2600</v>
+        <v>2549</v>
       </c>
       <c r="B207" t="s">
-        <v>2599</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2602</v>
+        <v>2551</v>
       </c>
       <c r="B208" t="s">
-        <v>2603</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2604</v>
+        <v>2557</v>
       </c>
       <c r="B209" t="s">
-        <v>2605</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2635</v>
+        <v>2565</v>
       </c>
       <c r="B210" t="s">
-        <v>2636</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2637</v>
+        <v>2600</v>
       </c>
       <c r="B211" t="s">
-        <v>2638</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2640</v>
+        <v>2602</v>
       </c>
       <c r="B212" t="s">
-        <v>2639</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2641</v>
+        <v>2604</v>
       </c>
       <c r="B213" t="s">
-        <v>2644</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2642</v>
+        <v>2635</v>
       </c>
       <c r="B214" t="s">
-        <v>2645</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2643</v>
+        <v>2637</v>
       </c>
       <c r="B215" t="s">
-        <v>2646</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2647</v>
+        <v>2640</v>
       </c>
       <c r="B216" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2649</v>
+        <v>2641</v>
       </c>
       <c r="B217" t="s">
-        <v>2650</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="B218" t="s">
-        <v>2656</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2659</v>
+        <v>2643</v>
       </c>
       <c r="B219" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="B220" t="s">
-        <v>2666</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2667</v>
+        <v>2649</v>
       </c>
       <c r="B221" t="s">
-        <v>2668</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2669</v>
+        <v>2655</v>
       </c>
       <c r="B222" t="s">
-        <v>2670</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2674</v>
+        <v>2659</v>
       </c>
       <c r="B223" t="s">
-        <v>2675</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
       <c r="B224" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2687</v>
+        <v>2667</v>
       </c>
       <c r="B225" t="s">
-        <v>2688</v>
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2670</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2417</v>
+        <v>2674</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2675</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1548</v>
+        <v>2678</v>
       </c>
       <c r="B228" t="s">
-        <v>1933</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1520</v>
+        <v>2687</v>
       </c>
       <c r="B229" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>289</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1530</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1534</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="B232" t="s">
-        <v>1535</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="B233" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1544</v>
+        <v>289</v>
       </c>
       <c r="B234" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1565</v>
+        <v>1533</v>
       </c>
       <c r="B235" t="s">
-        <v>1566</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1567</v>
+        <v>1537</v>
       </c>
       <c r="B236" t="s">
-        <v>1568</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1807</v>
+        <v>1536</v>
       </c>
       <c r="B237" t="s">
-        <v>1808</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1928</v>
+        <v>1544</v>
       </c>
       <c r="B238" t="s">
-        <v>1929</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1930</v>
+        <v>1565</v>
       </c>
       <c r="B239" t="s">
-        <v>1931</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1640</v>
+        <v>1567</v>
       </c>
       <c r="B240" t="s">
-        <v>1639</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1644</v>
+        <v>1807</v>
       </c>
       <c r="B241" t="s">
-        <v>1645</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1648</v>
+        <v>1928</v>
       </c>
       <c r="B242" t="s">
-        <v>1649</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1646</v>
+        <v>1930</v>
       </c>
       <c r="B243" t="s">
-        <v>1647</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="B244" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2031</v>
+        <v>1644</v>
       </c>
       <c r="B245" t="s">
-        <v>2032</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2188</v>
+        <v>1648</v>
       </c>
       <c r="B246" t="s">
-        <v>2189</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2200</v>
+        <v>1646</v>
       </c>
       <c r="B247" t="s">
-        <v>2201</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2202</v>
+        <v>1650</v>
       </c>
       <c r="B248" t="s">
-        <v>2203</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2204</v>
+        <v>2031</v>
       </c>
       <c r="B249" t="s">
-        <v>2205</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
       <c r="B250" t="s">
-        <v>2207</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="B251" t="s">
-        <v>2215</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2226</v>
+        <v>2202</v>
       </c>
       <c r="B252" t="s">
-        <v>2227</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2234</v>
+        <v>2204</v>
       </c>
       <c r="B253" t="s">
-        <v>2235</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2236</v>
+        <v>2206</v>
       </c>
       <c r="B254" t="s">
-        <v>2237</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2252</v>
+        <v>2214</v>
       </c>
       <c r="B255" t="s">
-        <v>2253</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2254</v>
+        <v>2226</v>
       </c>
       <c r="B256" t="s">
-        <v>2255</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2256</v>
+        <v>2234</v>
       </c>
       <c r="B257" t="s">
-        <v>2257</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2258</v>
+        <v>2236</v>
       </c>
       <c r="B258" t="s">
-        <v>2259</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1544</v>
+        <v>2252</v>
       </c>
       <c r="B259" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="B260" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="B261" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2272</v>
+        <v>2258</v>
       </c>
       <c r="B262" t="s">
-        <v>2273</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2372</v>
+        <v>1544</v>
       </c>
       <c r="B263" t="s">
-        <v>2373</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2374</v>
+        <v>2261</v>
       </c>
       <c r="B264" t="s">
-        <v>2375</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2376</v>
+        <v>2264</v>
       </c>
       <c r="B265" t="s">
-        <v>2377</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2354</v>
+        <v>2272</v>
       </c>
       <c r="B266" t="s">
-        <v>2355</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2356</v>
+        <v>2372</v>
       </c>
       <c r="B267" t="s">
-        <v>2357</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2328</v>
+        <v>2374</v>
       </c>
       <c r="B268" t="s">
-        <v>2329</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2330</v>
+        <v>2376</v>
       </c>
       <c r="B269" t="s">
-        <v>2331</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2334</v>
+        <v>2354</v>
       </c>
       <c r="B270" t="s">
-        <v>2335</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2336</v>
+        <v>2356</v>
       </c>
       <c r="B271" t="s">
-        <v>2337</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="B272" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2342</v>
+        <v>2330</v>
       </c>
       <c r="B273" t="s">
-        <v>2343</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2320</v>
+        <v>2334</v>
       </c>
       <c r="B274" t="s">
-        <v>2321</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2380</v>
+        <v>2336</v>
       </c>
       <c r="B275" t="s">
-        <v>2381</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2382</v>
+        <v>2338</v>
       </c>
       <c r="B276" t="s">
-        <v>2383</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2386</v>
+        <v>2342</v>
       </c>
       <c r="B277" t="s">
-        <v>2387</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2390</v>
+        <v>2320</v>
       </c>
       <c r="B278" t="s">
-        <v>2391</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2392</v>
+        <v>2380</v>
       </c>
       <c r="B279" t="s">
-        <v>2393</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="B280" t="s">
-        <v>2395</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2398</v>
+        <v>2386</v>
       </c>
       <c r="B281" t="s">
-        <v>2399</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="B282" t="s">
-        <v>2401</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2406</v>
+        <v>2392</v>
       </c>
       <c r="B283" t="s">
-        <v>2407</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1627</v>
+        <v>2394</v>
       </c>
       <c r="B284" t="s">
-        <v>2501</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2515</v>
+        <v>2398</v>
       </c>
       <c r="B285" t="s">
-        <v>2516</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2519</v>
+        <v>2400</v>
       </c>
       <c r="B286" t="s">
-        <v>2520</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2521</v>
+        <v>2406</v>
       </c>
       <c r="B287" t="s">
-        <v>2522</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2527</v>
+        <v>1627</v>
       </c>
       <c r="B288" t="s">
-        <v>2528</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2531</v>
+        <v>2515</v>
       </c>
       <c r="B289" t="s">
-        <v>2532</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2533</v>
+        <v>2519</v>
       </c>
       <c r="B290" t="s">
-        <v>2534</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2535</v>
+        <v>2521</v>
       </c>
       <c r="B291" t="s">
-        <v>2536</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2537</v>
+        <v>2527</v>
       </c>
       <c r="B292" t="s">
-        <v>2538</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2545</v>
+        <v>2531</v>
       </c>
       <c r="B293" t="s">
-        <v>2546</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2547</v>
+        <v>2533</v>
       </c>
       <c r="B294" t="s">
-        <v>2548</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2553</v>
+        <v>2535</v>
       </c>
       <c r="B295" t="s">
-        <v>2554</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="B296" t="s">
-        <v>2556</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2559</v>
+        <v>2545</v>
       </c>
       <c r="B297" t="s">
-        <v>2560</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2567</v>
+        <v>2547</v>
       </c>
       <c r="B298" t="s">
-        <v>2568</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2569</v>
+        <v>2553</v>
       </c>
       <c r="B299" t="s">
-        <v>2570</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2571</v>
+        <v>2555</v>
       </c>
       <c r="B300" t="s">
-        <v>2572</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2593</v>
+        <v>2559</v>
       </c>
       <c r="B301" t="s">
-        <v>2591</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2590</v>
+        <v>2567</v>
       </c>
       <c r="B302" t="s">
-        <v>2592</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2606</v>
+        <v>2569</v>
       </c>
       <c r="B303" t="s">
-        <v>2607</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2608</v>
+        <v>2571</v>
       </c>
       <c r="B304" t="s">
-        <v>2609</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2610</v>
+        <v>2593</v>
       </c>
       <c r="B305" t="s">
-        <v>2611</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2624</v>
+        <v>2590</v>
       </c>
       <c r="B306" t="s">
-        <v>2625</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2628</v>
+        <v>2606</v>
       </c>
       <c r="B307" t="s">
-        <v>2629</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2681</v>
+        <v>2608</v>
       </c>
       <c r="B308" t="s">
-        <v>2680</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1418</v>
+        <v>2610</v>
       </c>
       <c r="B309" t="s">
-        <v>2682</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2683</v>
+        <v>2624</v>
       </c>
       <c r="B310" t="s">
-        <v>2684</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2685</v>
+        <v>2628</v>
       </c>
       <c r="B311" t="s">
-        <v>2686</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2690</v>
+        <v>2681</v>
       </c>
       <c r="B312" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2701</v>
+        <v>1418</v>
       </c>
       <c r="B313" t="s">
-        <v>2702</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2703</v>
+        <v>2683</v>
       </c>
       <c r="B314" t="s">
-        <v>2704</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2708</v>
+        <v>2685</v>
       </c>
       <c r="B315" t="s">
-        <v>2707</v>
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2702</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2477</v>
+        <v>2703</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2704</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2384</v>
+        <v>2708</v>
       </c>
       <c r="B319" t="s">
-        <v>2385</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2402</v>
+        <v>2776</v>
       </c>
       <c r="B320" t="s">
-        <v>2403</v>
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>2477</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2419</v>
+        <v>2384</v>
+      </c>
+      <c r="B323" t="s">
+        <v>2385</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1485</v>
+        <v>2402</v>
       </c>
       <c r="B324" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1578</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1580</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1583</v>
+        <v>1485</v>
       </c>
       <c r="B328" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="B329" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1512</v>
+        <v>1579</v>
       </c>
       <c r="B330" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="B331" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1636</v>
+        <v>1583</v>
       </c>
       <c r="B332" t="s">
-        <v>1637</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="B333" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1592</v>
+        <v>1512</v>
       </c>
       <c r="B334" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="B335" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
       <c r="B336" t="s">
-        <v>1595</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="B337" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="B338" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="B339" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="B340" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="B341" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="B342" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1418</v>
+        <v>1601</v>
       </c>
       <c r="B343" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="B344" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="B345" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B346" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1617</v>
+        <v>1418</v>
       </c>
       <c r="B347" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B348" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="B349" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B350" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B351" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B352" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="B353" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B354" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="B355" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="B356" t="s">
-        <v>1635</v>
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2502</v>
+        <v>1632</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2503</v>
+        <v>1633</v>
       </c>
       <c r="B360" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B361" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B362" t="s">
-        <v>2508</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B363" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="B364" t="s">
-        <v>2512</v>
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2612</v>
+        <v>2509</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2510</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1485</v>
+        <v>2511</v>
       </c>
       <c r="B368" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B369" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B370" t="s">
-        <v>2616</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B371" t="s">
-        <v>2617</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1632</v>
+        <v>1485</v>
       </c>
       <c r="B372" t="s">
-        <v>2618</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1180</v>
+        <v>2614</v>
       </c>
       <c r="B373" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1249</v>
+        <v>1619</v>
       </c>
       <c r="B374" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1627</v>
+        <v>1596</v>
       </c>
       <c r="B375" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2627</v>
+        <v>1632</v>
       </c>
       <c r="B376" t="s">
-        <v>2626</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1623</v>
+        <v>1180</v>
       </c>
       <c r="B377" t="s">
-        <v>2630</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1590</v>
+        <v>1249</v>
       </c>
       <c r="B378" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="B379" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>1579</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B384" t="s">
         <v>2633</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1670</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1671</v>
+        <v>1550</v>
       </c>
       <c r="B390" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1674</v>
+        <v>1418</v>
       </c>
       <c r="B391" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1481</v>
+        <v>1669</v>
       </c>
       <c r="B392" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1590</v>
+        <v>1662</v>
       </c>
       <c r="B393" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="B394" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B395" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1681</v>
+        <v>1481</v>
       </c>
       <c r="B396" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1683</v>
+        <v>1590</v>
       </c>
       <c r="B397" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="B398" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2180</v>
+        <v>1679</v>
       </c>
       <c r="B399" t="s">
-        <v>2181</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2621</v>
+        <v>1681</v>
       </c>
       <c r="B400" t="s">
-        <v>2620</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1713</v>
+        <v>1683</v>
       </c>
       <c r="B401" t="s">
-        <v>2651</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>1623</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B406" t="s">
         <v>2692</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1691</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1693</v>
+        <v>1481</v>
       </c>
       <c r="B412" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1669</v>
+        <v>1477</v>
       </c>
       <c r="B413" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1681</v>
+        <v>1551</v>
       </c>
       <c r="B414" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1671</v>
+        <v>1690</v>
       </c>
       <c r="B415" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B416" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1190</v>
+        <v>1669</v>
       </c>
       <c r="B417" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1489</v>
+        <v>1681</v>
       </c>
       <c r="B418" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1418</v>
+        <v>1671</v>
       </c>
       <c r="B419" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1662</v>
+        <v>1697</v>
       </c>
       <c r="B420" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1550</v>
+        <v>1190</v>
       </c>
       <c r="B421" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1704</v>
+        <v>1489</v>
       </c>
       <c r="B422" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1707</v>
+        <v>1418</v>
       </c>
       <c r="B423" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1709</v>
+        <v>1662</v>
       </c>
       <c r="B424" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1711</v>
+        <v>1550</v>
       </c>
       <c r="B425" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1674</v>
+        <v>1704</v>
       </c>
       <c r="B426" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="B427" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1512</v>
+        <v>1709</v>
       </c>
       <c r="B428" t="s">
-        <v>1895</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2182</v>
+        <v>1711</v>
       </c>
       <c r="B429" t="s">
-        <v>2183</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1729</v>
+        <v>1674</v>
       </c>
       <c r="B430" t="s">
-        <v>2671</v>
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>2423</v>
+        <v>2182</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="B434" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1718</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1720</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B438" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1723</v>
+        <v>1553</v>
       </c>
       <c r="B439" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1726</v>
+        <v>1554</v>
       </c>
       <c r="B440" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1489</v>
+        <v>1719</v>
       </c>
       <c r="B441" t="s">
-        <v>1727</v>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>2424</v>
+        <v>1723</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B444" t="s">
-        <v>1759</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1729</v>
+        <v>1489</v>
       </c>
       <c r="B445" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1761</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1762</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B448" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B449" t="s">
-        <v>1732</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1697</v>
+        <v>1513</v>
       </c>
       <c r="B450" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="B451" t="s">
-        <v>1735</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B452" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B453" t="s">
-        <v>1765</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1738</v>
+        <v>1697</v>
       </c>
       <c r="B454" t="s">
-        <v>1739</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B455" t="s">
-        <v>1766</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1489</v>
+        <v>1736</v>
       </c>
       <c r="B456" t="s">
-        <v>1741</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1719</v>
+        <v>1737</v>
       </c>
       <c r="B457" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B458" t="s">
-        <v>1768</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1190</v>
+        <v>1740</v>
       </c>
       <c r="B459" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1744</v>
+        <v>1489</v>
       </c>
       <c r="B460" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="B461" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B462" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1747</v>
+        <v>1190</v>
       </c>
       <c r="B463" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
       <c r="B464" t="s">
-        <v>1772</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1554</v>
+        <v>1726</v>
       </c>
       <c r="B465" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B466" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B467" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1751</v>
+        <v>1723</v>
       </c>
       <c r="B468" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1753</v>
+        <v>1554</v>
       </c>
       <c r="B469" t="s">
-        <v>1752</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="B470" t="s">
-        <v>1754</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="B471" t="s">
-        <v>1776</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="B472" t="s">
-        <v>1757</v>
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2425</v>
+        <v>1755</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1792</v>
+        <v>1756</v>
       </c>
       <c r="B475" t="s">
-        <v>1793</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1794</v>
+        <v>1758</v>
       </c>
       <c r="B476" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1900</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1901</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1563</v>
+        <v>1792</v>
       </c>
       <c r="B479" t="s">
-        <v>1903</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1190</v>
+        <v>1794</v>
       </c>
       <c r="B480" t="s">
-        <v>1904</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1905</v>
+        <v>1719</v>
       </c>
       <c r="B481" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="B482" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1910</v>
+        <v>1563</v>
       </c>
       <c r="B483" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1911</v>
+        <v>1190</v>
       </c>
       <c r="B484" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1748</v>
+        <v>1905</v>
       </c>
       <c r="B485" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="B486" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1481</v>
+        <v>1910</v>
       </c>
       <c r="B487" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="B488" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1919</v>
+        <v>1748</v>
       </c>
       <c r="B489" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="B490" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1923</v>
+        <v>1481</v>
       </c>
       <c r="B491" t="s">
-        <v>1924</v>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2426</v>
+        <v>1919</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1191</v>
+        <v>1921</v>
       </c>
       <c r="B494" t="s">
-        <v>1934</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="B495" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1938</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1438</v>
+        <v>1191</v>
       </c>
       <c r="B498" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1260</v>
+        <v>1936</v>
       </c>
       <c r="B499" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>282</v>
+        <v>1233</v>
       </c>
       <c r="B500" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1217</v>
+        <v>1266</v>
       </c>
       <c r="B501" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1268</v>
+        <v>1438</v>
       </c>
       <c r="B502" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1211</v>
+        <v>1260</v>
       </c>
       <c r="B503" t="s">
-        <v>1944</v>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>282</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>2427</v>
+        <v>1217</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1945</v>
+        <v>1268</v>
       </c>
       <c r="B506" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1786</v>
+        <v>1211</v>
       </c>
       <c r="B507" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1950</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="B510" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1955</v>
+        <v>1786</v>
       </c>
       <c r="B511" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="B512" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="B513" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1432</v>
+        <v>1953</v>
       </c>
       <c r="B514" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="B515" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="B516" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="B517" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1608</v>
+        <v>1432</v>
       </c>
       <c r="B518" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="B519" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="B520" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1329</v>
+        <v>1966</v>
       </c>
       <c r="B521" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1973</v>
+        <v>1608</v>
       </c>
       <c r="B522" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="B523" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="B524" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1980</v>
+        <v>1329</v>
       </c>
       <c r="B525" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="B526" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="B527" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="B528" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="B529" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="B530" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1317</v>
+        <v>1983</v>
       </c>
       <c r="B531" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="B532" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1533</v>
+        <v>1988</v>
       </c>
       <c r="B533" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="B534" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1998</v>
+        <v>1317</v>
       </c>
       <c r="B535" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="B536" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>2002</v>
+        <v>1533</v>
       </c>
       <c r="B537" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="B538" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="B539" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="B540" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="B541" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B543" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B544" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
         <v>2012</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B546" t="s">
         <v>2011</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="2778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="2798">
   <si>
     <t>Base Set</t>
   </si>
@@ -8366,6 +8366,66 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-wfLNlVbejNs/V-s61ODW47I/AAAAAAABoe4/EjURzoXqIRgKhRAyKCw9YnGx58ta2TrWgCLcB/s1600/mustache-1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-aJ1uMcdoOBU/V-mhI0OhIhI/AAAAAAAAm2g/-6PoIVDUnx0VcLLMeAuoCEahmMRfa9u_QCLcB/s1600/Heritage%2B2016%2BArrieta%2BAward%2BWinners.jpg</t>
+  </si>
+  <si>
+    <t>Jake Arrieta</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-KyuoIcMu7DY/V-mhI5tTSSI/AAAAAAAAm2c/1jh661dArxYehJdMM66yDzGanwTYEBlHwCLcB/s1600/Heritage%2B2016%2BBryant%2BAward%2BWinners.jpg</t>
+  </si>
+  <si>
+    <t>Kris Bryant</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-9A-WG-XE5C4/V-mhJVazt5I/AAAAAAAAm2s/j4jK7ol2J7gOt5kj94kOLmQ-h0qLO_AEwCLcB/s1600/Heritage%2B2016%2BMaddon%2BAward%2BWinners.jpg</t>
+  </si>
+  <si>
+    <t>Joe Maddon</t>
+  </si>
+  <si>
+    <t>Jake Arrieta - Now and Then</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-kDLFMpF57KM/V-mhI33NR2I/AAAAAAAAm2Y/YZ4RIRA_EKUsO_6i9N4EaeBWqULSPXYKQCLcB/s1600/Heritage%2B2016%2BArrieta%2BNow%2Band%2BThen.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-b8UdwG5BBVE/V-mhJNOXxvI/AAAAAAAAm2k/fXeuqQSGsm0P8QFkwEt7tDbXHZeIneKmgCLcB/s1600/Heritage%2B2016%2BContreras%2BNow%2Band%2BThen.jpg</t>
+  </si>
+  <si>
+    <t>Wilson Contreras - Now and Then</t>
+  </si>
+  <si>
+    <t>Cubs Combo</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-pmTdH7Ey5O0/V-mhJXjb66I/AAAAAAAAm2o/7FSCrOsyCpUCrMo5uK-gAXFOGeA23buewCLcB/s1600/Heritage%2B2016%2BCubs%2BCombo.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-quoYmYYV05k/V-mhJq6v5EI/AAAAAAAAm2w/LCAGA6g6RZo9Lg7BVklcV5QCOXjaSUgwgCLcB/s1600/Heritage%2B2016%2BSchwarber%2BRookie%2BPerformers.jpg</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber Rookie Performers</t>
+  </si>
+  <si>
+    <t>Ryan Howard 2015 Stadium Club</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-12tuQy4yrp4/V-0h5olmNMI/AAAAAAAAeJQ/juH60_5pKLkzi5JBfqnJCgrrf7Wscxa1QCLcB/s1600/2015%2BStadium%2BClub%2B%2523199%2BHoward.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-9oMMUMsefe8/V-0hLnCBYrI/AAAAAAAAeJM/f-NV0tItK4Ue7Tn7t527hrNvkjZDN5e_QCLcB/s1600/1999%2BMulti-Ad%2BReading%2BPhillies%2B%25239%2BPolitte.jpg</t>
+  </si>
+  <si>
+    <t>Cliff Politte</t>
+  </si>
+  <si>
+    <t>Darin Ruf 2016 Topps Archives</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-n4NA57EpBxY/V-0gMenvCaI/AAAAAAAAeJE/y2TmgwHQ8Bo1VlwcUrMYg0nmsqmjA0nSQCLcB/s1600/2016%2BTopps%2BArchives%2B%252394%2BRuf.jpg</t>
   </si>
 </sst>
 </file>
@@ -16708,10 +16768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16933,3897 +16993,3977 @@
         <v>2771</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2778</v>
+      </c>
+    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2416</v>
+        <v>2781</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2780</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1515</v>
+        <v>2783</v>
       </c>
       <c r="B30" t="s">
-        <v>1516</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1816</v>
+        <v>2784</v>
       </c>
       <c r="B31" t="s">
-        <v>1817</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1850</v>
+        <v>2787</v>
       </c>
       <c r="B32" t="s">
-        <v>1851</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1852</v>
+        <v>2788</v>
       </c>
       <c r="B33" t="s">
-        <v>1853</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1518</v>
+        <v>2791</v>
       </c>
       <c r="B34" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1540</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1542</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1854</v>
+        <v>1515</v>
       </c>
       <c r="B42" t="s">
-        <v>1855</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1856</v>
+        <v>1816</v>
       </c>
       <c r="B43" t="s">
-        <v>1857</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1573</v>
+        <v>1850</v>
       </c>
       <c r="B44" t="s">
-        <v>1574</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1641</v>
+        <v>1852</v>
       </c>
       <c r="B45" t="s">
-        <v>1642</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1809</v>
+        <v>1518</v>
       </c>
       <c r="B46" t="s">
-        <v>1810</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2418</v>
+        <v>1522</v>
       </c>
       <c r="B47" t="s">
-        <v>1811</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1812</v>
+        <v>1524</v>
       </c>
       <c r="B48" t="s">
-        <v>1813</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1814</v>
+        <v>1527</v>
       </c>
       <c r="B49" t="s">
-        <v>1815</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1528</v>
       </c>
       <c r="B50" t="s">
-        <v>1818</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1820</v>
+        <v>1532</v>
       </c>
       <c r="B51" t="s">
-        <v>1819</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1821</v>
+        <v>1539</v>
       </c>
       <c r="B52" t="s">
-        <v>1822</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1608</v>
+        <v>1541</v>
       </c>
       <c r="B53" t="s">
-        <v>1823</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>1854</v>
       </c>
       <c r="B54" t="s">
-        <v>1824</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1825</v>
+        <v>1856</v>
       </c>
       <c r="B55" t="s">
-        <v>1826</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1829</v>
+        <v>1573</v>
       </c>
       <c r="B56" t="s">
-        <v>1830</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1831</v>
+        <v>1641</v>
       </c>
       <c r="B57" t="s">
-        <v>1832</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1552</v>
+        <v>1809</v>
       </c>
       <c r="B58" t="s">
-        <v>1833</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1834</v>
+        <v>2418</v>
       </c>
       <c r="B59" t="s">
-        <v>1835</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="B60" t="s">
-        <v>1836</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1838</v>
+        <v>1814</v>
       </c>
       <c r="B61" t="s">
-        <v>1839</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1840</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>1841</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1843</v>
+        <v>1820</v>
       </c>
       <c r="B63" t="s">
-        <v>1842</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1844</v>
+        <v>1821</v>
       </c>
       <c r="B64" t="s">
-        <v>1845</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1827</v>
+        <v>1608</v>
       </c>
       <c r="B65" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1846</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>1847</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1858</v>
+        <v>1825</v>
       </c>
       <c r="B67" t="s">
-        <v>1859</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1222</v>
+        <v>1829</v>
       </c>
       <c r="B68" t="s">
-        <v>1860</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
       <c r="B69" t="s">
-        <v>1862</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1137</v>
+        <v>1552</v>
       </c>
       <c r="B70" t="s">
-        <v>1863</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1865</v>
+        <v>1834</v>
       </c>
       <c r="B71" t="s">
-        <v>1864</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1383</v>
+        <v>1837</v>
       </c>
       <c r="B72" t="s">
-        <v>1866</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1384</v>
+        <v>1838</v>
       </c>
       <c r="B73" t="s">
-        <v>1867</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1313</v>
+        <v>1840</v>
       </c>
       <c r="B74" t="s">
-        <v>1868</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1869</v>
+        <v>1843</v>
       </c>
       <c r="B75" t="s">
-        <v>1870</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1871</v>
+        <v>1844</v>
       </c>
       <c r="B76" t="s">
-        <v>1872</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1873</v>
+        <v>1827</v>
       </c>
       <c r="B77" t="s">
-        <v>1874</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1882</v>
+        <v>1846</v>
       </c>
       <c r="B78" t="s">
-        <v>1883</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1884</v>
+        <v>1858</v>
       </c>
       <c r="B79" t="s">
-        <v>1885</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1887</v>
+        <v>1222</v>
       </c>
       <c r="B80" t="s">
-        <v>1888</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1892</v>
+        <v>1861</v>
       </c>
       <c r="B81" t="s">
-        <v>1893</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1669</v>
+        <v>1137</v>
       </c>
       <c r="B82" t="s">
-        <v>1894</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1926</v>
+        <v>1865</v>
       </c>
       <c r="B83" t="s">
-        <v>1927</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1887</v>
+        <v>1383</v>
       </c>
       <c r="B84" t="s">
-        <v>2020</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2021</v>
+        <v>1384</v>
       </c>
       <c r="B85" t="s">
-        <v>2022</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2023</v>
+        <v>1313</v>
       </c>
       <c r="B86" t="s">
-        <v>2024</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2025</v>
+        <v>1869</v>
       </c>
       <c r="B87" t="s">
-        <v>2026</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2028</v>
+        <v>1871</v>
       </c>
       <c r="B88" t="s">
-        <v>2027</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2030</v>
+        <v>1873</v>
       </c>
       <c r="B89" t="s">
-        <v>2029</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2148</v>
+        <v>1882</v>
       </c>
       <c r="B90" t="s">
-        <v>2147</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2184</v>
+        <v>1884</v>
       </c>
       <c r="B91" t="s">
-        <v>2185</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2186</v>
+        <v>1887</v>
       </c>
       <c r="B92" t="s">
-        <v>2187</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2190</v>
+        <v>1892</v>
       </c>
       <c r="B93" t="s">
-        <v>2191</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2192</v>
+        <v>1669</v>
       </c>
       <c r="B94" t="s">
-        <v>2193</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2194</v>
+        <v>1926</v>
       </c>
       <c r="B95" t="s">
-        <v>2195</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>2196</v>
+        <v>1887</v>
       </c>
       <c r="B96" t="s">
-        <v>2197</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2198</v>
+        <v>2021</v>
       </c>
       <c r="B97" t="s">
-        <v>2199</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2208</v>
+        <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>2209</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2210</v>
+        <v>2025</v>
       </c>
       <c r="B99" t="s">
-        <v>2211</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>2212</v>
+        <v>2028</v>
       </c>
       <c r="B100" t="s">
-        <v>2213</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>2216</v>
+        <v>2030</v>
       </c>
       <c r="B101" t="s">
-        <v>2217</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2218</v>
+        <v>2148</v>
       </c>
       <c r="B102" t="s">
-        <v>2219</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2220</v>
+        <v>2184</v>
       </c>
       <c r="B103" t="s">
-        <v>2221</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2228</v>
+        <v>2186</v>
       </c>
       <c r="B104" t="s">
-        <v>2229</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2230</v>
+        <v>2190</v>
       </c>
       <c r="B105" t="s">
-        <v>2231</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2232</v>
+        <v>2192</v>
       </c>
       <c r="B106" t="s">
-        <v>2233</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2238</v>
+        <v>2194</v>
       </c>
       <c r="B107" t="s">
-        <v>2239</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2240</v>
+        <v>2196</v>
       </c>
       <c r="B108" t="s">
-        <v>2241</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2242</v>
+        <v>2198</v>
       </c>
       <c r="B109" t="s">
-        <v>2243</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2244</v>
+        <v>2208</v>
       </c>
       <c r="B110" t="s">
-        <v>2245</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2246</v>
+        <v>2210</v>
       </c>
       <c r="B111" t="s">
-        <v>2247</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2248</v>
+        <v>2212</v>
       </c>
       <c r="B112" t="s">
-        <v>2249</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2250</v>
+        <v>2216</v>
       </c>
       <c r="B113" t="s">
-        <v>2251</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1623</v>
+        <v>2218</v>
       </c>
       <c r="B114" t="s">
-        <v>2263</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2266</v>
+        <v>2220</v>
       </c>
       <c r="B115" t="s">
-        <v>2267</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2268</v>
+        <v>2228</v>
       </c>
       <c r="B116" t="s">
-        <v>2269</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2270</v>
+        <v>2230</v>
       </c>
       <c r="B117" t="s">
-        <v>2271</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2580</v>
+        <v>2232</v>
       </c>
       <c r="B118" t="s">
-        <v>2581</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2582</v>
+        <v>2238</v>
       </c>
       <c r="B119" t="s">
-        <v>2583</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2584</v>
+        <v>2240</v>
       </c>
       <c r="B120" t="s">
-        <v>2585</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2586</v>
+        <v>2242</v>
       </c>
       <c r="B121" t="s">
-        <v>2587</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2588</v>
+        <v>2244</v>
       </c>
       <c r="B122" t="s">
-        <v>2589</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2709</v>
+        <v>2246</v>
       </c>
       <c r="B123" t="s">
-        <v>2710</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2738</v>
+        <v>2248</v>
       </c>
       <c r="B124" t="s">
-        <v>2739</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2740</v>
+        <v>2250</v>
       </c>
       <c r="B125" t="s">
-        <v>2741</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2742</v>
+        <v>1623</v>
       </c>
       <c r="B126" t="s">
-        <v>2743</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2744</v>
+        <v>2266</v>
       </c>
       <c r="B127" t="s">
-        <v>2745</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2746</v>
+        <v>2268</v>
       </c>
       <c r="B128" t="s">
-        <v>2747</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2748</v>
+        <v>2270</v>
       </c>
       <c r="B129" t="s">
-        <v>2749</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2774</v>
+        <v>2580</v>
       </c>
       <c r="B130" t="s">
-        <v>2775</v>
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2589</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2444</v>
+        <v>2709</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2710</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2274</v>
+        <v>2738</v>
       </c>
       <c r="B136" t="s">
-        <v>2452</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2275</v>
+        <v>2740</v>
       </c>
       <c r="B137" t="s">
-        <v>2453</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2276</v>
+        <v>2742</v>
       </c>
       <c r="B138" t="s">
-        <v>2451</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2277</v>
+        <v>2744</v>
       </c>
       <c r="B139" t="s">
-        <v>2450</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2278</v>
+        <v>2746</v>
       </c>
       <c r="B140" t="s">
-        <v>2279</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2280</v>
+        <v>2748</v>
       </c>
       <c r="B141" t="s">
-        <v>2281</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2282</v>
+        <v>2774</v>
       </c>
       <c r="B142" t="s">
-        <v>2449</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2283</v>
+        <v>2792</v>
       </c>
       <c r="B143" t="s">
-        <v>2284</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2285</v>
+        <v>2795</v>
       </c>
       <c r="B144" t="s">
-        <v>2286</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2287</v>
+        <v>2796</v>
       </c>
       <c r="B145" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2445</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2291</v>
+        <v>2274</v>
       </c>
       <c r="B148" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2292</v>
+        <v>2275</v>
       </c>
       <c r="B149" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2293</v>
+        <v>2276</v>
       </c>
       <c r="B150" t="s">
-        <v>2294</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2295</v>
+        <v>2277</v>
       </c>
       <c r="B151" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2296</v>
+        <v>2278</v>
       </c>
       <c r="B152" t="s">
-        <v>2459</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2297</v>
+        <v>2280</v>
       </c>
       <c r="B153" t="s">
-        <v>2460</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2298</v>
+        <v>2282</v>
       </c>
       <c r="B154" t="s">
-        <v>2461</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2299</v>
+        <v>2283</v>
       </c>
       <c r="B155" t="s">
-        <v>2462</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2300</v>
+        <v>2285</v>
       </c>
       <c r="B156" t="s">
-        <v>2463</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2301</v>
+        <v>2287</v>
       </c>
       <c r="B157" t="s">
-        <v>2464</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2302</v>
+        <v>2289</v>
       </c>
       <c r="B158" t="s">
-        <v>2465</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2303</v>
+        <v>2290</v>
       </c>
       <c r="B159" t="s">
-        <v>2466</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2304</v>
+        <v>2291</v>
       </c>
       <c r="B160" t="s">
-        <v>2467</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2305</v>
+        <v>2292</v>
       </c>
       <c r="B161" t="s">
-        <v>2468</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2306</v>
+        <v>2293</v>
       </c>
       <c r="B162" t="s">
-        <v>2469</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2307</v>
+        <v>2295</v>
       </c>
       <c r="B163" t="s">
-        <v>2470</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2308</v>
+        <v>2296</v>
       </c>
       <c r="B164" t="s">
-        <v>2471</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2309</v>
+        <v>2297</v>
       </c>
       <c r="B165" t="s">
-        <v>2472</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2310</v>
+        <v>2298</v>
       </c>
       <c r="B166" t="s">
-        <v>2473</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2311</v>
+        <v>2299</v>
       </c>
       <c r="B167" t="s">
-        <v>2474</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2312</v>
+        <v>2300</v>
       </c>
       <c r="B168" t="s">
-        <v>2475</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2313</v>
+        <v>2301</v>
       </c>
       <c r="B169" t="s">
-        <v>2476</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2314</v>
+        <v>2302</v>
       </c>
       <c r="B170" t="s">
-        <v>2457</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2315</v>
+        <v>2303</v>
       </c>
       <c r="B171" t="s">
-        <v>2316</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2317</v>
+        <v>2304</v>
       </c>
       <c r="B172" t="s">
-        <v>2456</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2318</v>
+        <v>2305</v>
       </c>
       <c r="B173" t="s">
-        <v>2455</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2319</v>
+        <v>2306</v>
       </c>
       <c r="B174" t="s">
-        <v>2454</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2322</v>
+        <v>2307</v>
       </c>
       <c r="B175" t="s">
-        <v>2323</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2324</v>
+        <v>2308</v>
       </c>
       <c r="B176" t="s">
-        <v>2325</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2326</v>
+        <v>2309</v>
       </c>
       <c r="B177" t="s">
-        <v>2327</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2332</v>
+        <v>2310</v>
       </c>
       <c r="B178" t="s">
-        <v>2333</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2340</v>
+        <v>2311</v>
       </c>
       <c r="B179" t="s">
-        <v>2341</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2344</v>
+        <v>2312</v>
       </c>
       <c r="B180" t="s">
-        <v>2345</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2346</v>
+        <v>2313</v>
       </c>
       <c r="B181" t="s">
-        <v>2347</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2348</v>
+        <v>2314</v>
       </c>
       <c r="B182" t="s">
-        <v>2349</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2350</v>
+        <v>2315</v>
       </c>
       <c r="B183" t="s">
-        <v>2351</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2352</v>
+        <v>2317</v>
       </c>
       <c r="B184" t="s">
-        <v>2353</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2358</v>
+        <v>2318</v>
       </c>
       <c r="B185" t="s">
-        <v>2359</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2360</v>
+        <v>2319</v>
       </c>
       <c r="B186" t="s">
-        <v>2361</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2362</v>
+        <v>2322</v>
       </c>
       <c r="B187" t="s">
-        <v>2363</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2364</v>
+        <v>2324</v>
       </c>
       <c r="B188" t="s">
-        <v>2365</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2366</v>
+        <v>2326</v>
       </c>
       <c r="B189" t="s">
-        <v>2367</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2368</v>
+        <v>2332</v>
       </c>
       <c r="B190" t="s">
-        <v>2369</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2370</v>
+        <v>2340</v>
       </c>
       <c r="B191" t="s">
-        <v>2371</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2378</v>
+        <v>2344</v>
       </c>
       <c r="B192" t="s">
-        <v>2379</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2388</v>
+        <v>2346</v>
       </c>
       <c r="B193" t="s">
-        <v>2389</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2396</v>
+        <v>2348</v>
       </c>
       <c r="B194" t="s">
-        <v>2397</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2404</v>
+        <v>2350</v>
       </c>
       <c r="B195" t="s">
-        <v>2405</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2408</v>
+        <v>2352</v>
       </c>
       <c r="B196" t="s">
-        <v>2409</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2410</v>
+        <v>2358</v>
       </c>
       <c r="B197" t="s">
-        <v>2411</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2412</v>
+        <v>2360</v>
       </c>
       <c r="B198" t="s">
-        <v>2413</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2517</v>
+        <v>2362</v>
       </c>
       <c r="B199" t="s">
-        <v>2518</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2513</v>
+        <v>2364</v>
       </c>
       <c r="B200" t="s">
-        <v>2514</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2523</v>
+        <v>2366</v>
       </c>
       <c r="B201" t="s">
-        <v>2524</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2525</v>
+        <v>2368</v>
       </c>
       <c r="B202" t="s">
-        <v>2526</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2529</v>
+        <v>2370</v>
       </c>
       <c r="B203" t="s">
-        <v>2530</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2539</v>
+        <v>2378</v>
       </c>
       <c r="B204" t="s">
-        <v>2540</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2541</v>
+        <v>2388</v>
       </c>
       <c r="B205" t="s">
-        <v>2542</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2543</v>
+        <v>2396</v>
       </c>
       <c r="B206" t="s">
-        <v>2544</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2549</v>
+        <v>2404</v>
       </c>
       <c r="B207" t="s">
-        <v>2550</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2551</v>
+        <v>2408</v>
       </c>
       <c r="B208" t="s">
-        <v>2552</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2557</v>
+        <v>2410</v>
       </c>
       <c r="B209" t="s">
-        <v>2558</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2565</v>
+        <v>2412</v>
       </c>
       <c r="B210" t="s">
-        <v>2566</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2600</v>
+        <v>2517</v>
       </c>
       <c r="B211" t="s">
-        <v>2599</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2602</v>
+        <v>2513</v>
       </c>
       <c r="B212" t="s">
-        <v>2603</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2604</v>
+        <v>2523</v>
       </c>
       <c r="B213" t="s">
-        <v>2605</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2635</v>
+        <v>2525</v>
       </c>
       <c r="B214" t="s">
-        <v>2636</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2637</v>
+        <v>2529</v>
       </c>
       <c r="B215" t="s">
-        <v>2638</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2640</v>
+        <v>2539</v>
       </c>
       <c r="B216" t="s">
-        <v>2639</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2641</v>
+        <v>2541</v>
       </c>
       <c r="B217" t="s">
-        <v>2644</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2642</v>
+        <v>2543</v>
       </c>
       <c r="B218" t="s">
-        <v>2645</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2643</v>
+        <v>2549</v>
       </c>
       <c r="B219" t="s">
-        <v>2646</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2647</v>
+        <v>2551</v>
       </c>
       <c r="B220" t="s">
-        <v>2648</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2649</v>
+        <v>2557</v>
       </c>
       <c r="B221" t="s">
-        <v>2650</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2655</v>
+        <v>2565</v>
       </c>
       <c r="B222" t="s">
-        <v>2656</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2659</v>
+        <v>2600</v>
       </c>
       <c r="B223" t="s">
-        <v>2660</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2665</v>
+        <v>2602</v>
       </c>
       <c r="B224" t="s">
-        <v>2666</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2667</v>
+        <v>2604</v>
       </c>
       <c r="B225" t="s">
-        <v>2668</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2669</v>
+        <v>2635</v>
       </c>
       <c r="B226" t="s">
-        <v>2670</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2674</v>
+        <v>2637</v>
       </c>
       <c r="B227" t="s">
-        <v>2675</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2678</v>
+        <v>2640</v>
       </c>
       <c r="B228" t="s">
-        <v>2679</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2687</v>
+        <v>2641</v>
       </c>
       <c r="B229" t="s">
-        <v>2688</v>
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2645</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2417</v>
+        <v>2643</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2646</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1548</v>
+        <v>2647</v>
       </c>
       <c r="B232" t="s">
-        <v>1933</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1520</v>
+        <v>2649</v>
       </c>
       <c r="B233" t="s">
-        <v>1521</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>289</v>
+        <v>2655</v>
       </c>
       <c r="B234" t="s">
-        <v>1530</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1533</v>
+        <v>2659</v>
       </c>
       <c r="B235" t="s">
-        <v>1534</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1537</v>
+        <v>2665</v>
       </c>
       <c r="B236" t="s">
-        <v>1535</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1536</v>
+        <v>2667</v>
       </c>
       <c r="B237" t="s">
-        <v>1538</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1544</v>
+        <v>2669</v>
       </c>
       <c r="B238" t="s">
-        <v>1543</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1565</v>
+        <v>2674</v>
       </c>
       <c r="B239" t="s">
-        <v>1566</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1567</v>
+        <v>2678</v>
       </c>
       <c r="B240" t="s">
-        <v>1568</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1807</v>
+        <v>2687</v>
       </c>
       <c r="B241" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1929</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1931</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1640</v>
+        <v>1548</v>
       </c>
       <c r="B244" t="s">
-        <v>1639</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1644</v>
+        <v>1520</v>
       </c>
       <c r="B245" t="s">
-        <v>1645</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1648</v>
+        <v>289</v>
       </c>
       <c r="B246" t="s">
-        <v>1649</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1646</v>
+        <v>1533</v>
       </c>
       <c r="B247" t="s">
-        <v>1647</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1650</v>
+        <v>1537</v>
       </c>
       <c r="B248" t="s">
-        <v>1651</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2031</v>
+        <v>1536</v>
       </c>
       <c r="B249" t="s">
-        <v>2032</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2188</v>
+        <v>1544</v>
       </c>
       <c r="B250" t="s">
-        <v>2189</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2200</v>
+        <v>1565</v>
       </c>
       <c r="B251" t="s">
-        <v>2201</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2202</v>
+        <v>1567</v>
       </c>
       <c r="B252" t="s">
-        <v>2203</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2204</v>
+        <v>1807</v>
       </c>
       <c r="B253" t="s">
-        <v>2205</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2206</v>
+        <v>1928</v>
       </c>
       <c r="B254" t="s">
-        <v>2207</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2214</v>
+        <v>1930</v>
       </c>
       <c r="B255" t="s">
-        <v>2215</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2226</v>
+        <v>1640</v>
       </c>
       <c r="B256" t="s">
-        <v>2227</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2234</v>
+        <v>1644</v>
       </c>
       <c r="B257" t="s">
-        <v>2235</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2236</v>
+        <v>1648</v>
       </c>
       <c r="B258" t="s">
-        <v>2237</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2252</v>
+        <v>1646</v>
       </c>
       <c r="B259" t="s">
-        <v>2253</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2254</v>
+        <v>1650</v>
       </c>
       <c r="B260" t="s">
-        <v>2255</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2256</v>
+        <v>2031</v>
       </c>
       <c r="B261" t="s">
-        <v>2257</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2258</v>
+        <v>2188</v>
       </c>
       <c r="B262" t="s">
-        <v>2259</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1544</v>
+        <v>2200</v>
       </c>
       <c r="B263" t="s">
-        <v>2260</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2261</v>
+        <v>2202</v>
       </c>
       <c r="B264" t="s">
-        <v>2262</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2264</v>
+        <v>2204</v>
       </c>
       <c r="B265" t="s">
-        <v>2265</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2272</v>
+        <v>2206</v>
       </c>
       <c r="B266" t="s">
-        <v>2273</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2372</v>
+        <v>2214</v>
       </c>
       <c r="B267" t="s">
-        <v>2373</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2374</v>
+        <v>2226</v>
       </c>
       <c r="B268" t="s">
-        <v>2375</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2376</v>
+        <v>2234</v>
       </c>
       <c r="B269" t="s">
-        <v>2377</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2354</v>
+        <v>2236</v>
       </c>
       <c r="B270" t="s">
-        <v>2355</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2356</v>
+        <v>2252</v>
       </c>
       <c r="B271" t="s">
-        <v>2357</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2328</v>
+        <v>2254</v>
       </c>
       <c r="B272" t="s">
-        <v>2329</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2330</v>
+        <v>2256</v>
       </c>
       <c r="B273" t="s">
-        <v>2331</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2334</v>
+        <v>2258</v>
       </c>
       <c r="B274" t="s">
-        <v>2335</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2336</v>
+        <v>1544</v>
       </c>
       <c r="B275" t="s">
-        <v>2337</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2338</v>
+        <v>2261</v>
       </c>
       <c r="B276" t="s">
-        <v>2339</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2342</v>
+        <v>2264</v>
       </c>
       <c r="B277" t="s">
-        <v>2343</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2320</v>
+        <v>2272</v>
       </c>
       <c r="B278" t="s">
-        <v>2321</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2380</v>
+        <v>2372</v>
       </c>
       <c r="B279" t="s">
-        <v>2381</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2382</v>
+        <v>2374</v>
       </c>
       <c r="B280" t="s">
-        <v>2383</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2386</v>
+        <v>2376</v>
       </c>
       <c r="B281" t="s">
-        <v>2387</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2390</v>
+        <v>2354</v>
       </c>
       <c r="B282" t="s">
-        <v>2391</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2392</v>
+        <v>2356</v>
       </c>
       <c r="B283" t="s">
-        <v>2393</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2394</v>
+        <v>2328</v>
       </c>
       <c r="B284" t="s">
-        <v>2395</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2398</v>
+        <v>2330</v>
       </c>
       <c r="B285" t="s">
-        <v>2399</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2400</v>
+        <v>2334</v>
       </c>
       <c r="B286" t="s">
-        <v>2401</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2406</v>
+        <v>2336</v>
       </c>
       <c r="B287" t="s">
-        <v>2407</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1627</v>
+        <v>2338</v>
       </c>
       <c r="B288" t="s">
-        <v>2501</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2515</v>
+        <v>2342</v>
       </c>
       <c r="B289" t="s">
-        <v>2516</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2519</v>
+        <v>2320</v>
       </c>
       <c r="B290" t="s">
-        <v>2520</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2521</v>
+        <v>2380</v>
       </c>
       <c r="B291" t="s">
-        <v>2522</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2527</v>
+        <v>2382</v>
       </c>
       <c r="B292" t="s">
-        <v>2528</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2531</v>
+        <v>2386</v>
       </c>
       <c r="B293" t="s">
-        <v>2532</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2533</v>
+        <v>2390</v>
       </c>
       <c r="B294" t="s">
-        <v>2534</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2535</v>
+        <v>2392</v>
       </c>
       <c r="B295" t="s">
-        <v>2536</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2537</v>
+        <v>2394</v>
       </c>
       <c r="B296" t="s">
-        <v>2538</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2545</v>
+        <v>2398</v>
       </c>
       <c r="B297" t="s">
-        <v>2546</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2547</v>
+        <v>2400</v>
       </c>
       <c r="B298" t="s">
-        <v>2548</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2553</v>
+        <v>2406</v>
       </c>
       <c r="B299" t="s">
-        <v>2554</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2555</v>
+        <v>1627</v>
       </c>
       <c r="B300" t="s">
-        <v>2556</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2559</v>
+        <v>2515</v>
       </c>
       <c r="B301" t="s">
-        <v>2560</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2567</v>
+        <v>2519</v>
       </c>
       <c r="B302" t="s">
-        <v>2568</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2569</v>
+        <v>2521</v>
       </c>
       <c r="B303" t="s">
-        <v>2570</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2571</v>
+        <v>2527</v>
       </c>
       <c r="B304" t="s">
-        <v>2572</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2593</v>
+        <v>2531</v>
       </c>
       <c r="B305" t="s">
-        <v>2591</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2590</v>
+        <v>2533</v>
       </c>
       <c r="B306" t="s">
-        <v>2592</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2606</v>
+        <v>2535</v>
       </c>
       <c r="B307" t="s">
-        <v>2607</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2608</v>
+        <v>2537</v>
       </c>
       <c r="B308" t="s">
-        <v>2609</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2610</v>
+        <v>2545</v>
       </c>
       <c r="B309" t="s">
-        <v>2611</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2624</v>
+        <v>2547</v>
       </c>
       <c r="B310" t="s">
-        <v>2625</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2628</v>
+        <v>2553</v>
       </c>
       <c r="B311" t="s">
-        <v>2629</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2681</v>
+        <v>2555</v>
       </c>
       <c r="B312" t="s">
-        <v>2680</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1418</v>
+        <v>2559</v>
       </c>
       <c r="B313" t="s">
-        <v>2682</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2683</v>
+        <v>2567</v>
       </c>
       <c r="B314" t="s">
-        <v>2684</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2685</v>
+        <v>2569</v>
       </c>
       <c r="B315" t="s">
-        <v>2686</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2690</v>
+        <v>2571</v>
       </c>
       <c r="B316" t="s">
-        <v>2689</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2701</v>
+        <v>2593</v>
       </c>
       <c r="B317" t="s">
-        <v>2702</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2703</v>
+        <v>2590</v>
       </c>
       <c r="B318" t="s">
-        <v>2704</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2708</v>
+        <v>2606</v>
       </c>
       <c r="B319" t="s">
-        <v>2707</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2776</v>
+        <v>2608</v>
       </c>
       <c r="B320" t="s">
-        <v>2777</v>
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B321" t="s">
+        <v>2611</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2477</v>
+        <v>2624</v>
+      </c>
+      <c r="B322" t="s">
+        <v>2625</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2384</v>
+        <v>2628</v>
       </c>
       <c r="B323" t="s">
-        <v>2385</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2402</v>
+        <v>2681</v>
       </c>
       <c r="B324" t="s">
-        <v>2403</v>
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2684</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2419</v>
+        <v>2685</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2686</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1485</v>
+        <v>2690</v>
       </c>
       <c r="B328" t="s">
-        <v>1575</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1577</v>
+        <v>2701</v>
       </c>
       <c r="B329" t="s">
-        <v>1576</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1579</v>
+        <v>2703</v>
       </c>
       <c r="B330" t="s">
-        <v>1578</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1581</v>
+        <v>2708</v>
       </c>
       <c r="B331" t="s">
-        <v>1580</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1583</v>
+        <v>2776</v>
       </c>
       <c r="B332" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1584</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1586</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1588</v>
+        <v>2384</v>
       </c>
       <c r="B335" t="s">
-        <v>1587</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1636</v>
+        <v>2402</v>
       </c>
       <c r="B336" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1591</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1593</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1596</v>
+        <v>1485</v>
       </c>
       <c r="B340" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="B341" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="B342" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="B343" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1605</v>
+        <v>1583</v>
       </c>
       <c r="B344" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1604</v>
+        <v>1585</v>
       </c>
       <c r="B345" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1608</v>
+        <v>1512</v>
       </c>
       <c r="B346" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1418</v>
+        <v>1588</v>
       </c>
       <c r="B347" t="s">
-        <v>1609</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1611</v>
+        <v>1636</v>
       </c>
       <c r="B348" t="s">
-        <v>1610</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1613</v>
+        <v>1590</v>
       </c>
       <c r="B349" t="s">
-        <v>1612</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1615</v>
+        <v>1592</v>
       </c>
       <c r="B350" t="s">
-        <v>1614</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1617</v>
+        <v>1594</v>
       </c>
       <c r="B351" t="s">
-        <v>1616</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
       <c r="B352" t="s">
-        <v>1618</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1621</v>
+        <v>1597</v>
       </c>
       <c r="B353" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1623</v>
+        <v>1600</v>
       </c>
       <c r="B354" t="s">
-        <v>1622</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1625</v>
+        <v>1601</v>
       </c>
       <c r="B355" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="B356" t="s">
-        <v>1626</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1630</v>
+        <v>1604</v>
       </c>
       <c r="B357" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="B358" t="s">
-        <v>1631</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1632</v>
+        <v>1418</v>
       </c>
       <c r="B359" t="s">
-        <v>1634</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="B360" t="s">
-        <v>1635</v>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2502</v>
+        <v>1617</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2503</v>
+        <v>1619</v>
       </c>
       <c r="B364" t="s">
-        <v>2504</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2505</v>
+        <v>1621</v>
       </c>
       <c r="B365" t="s">
-        <v>2506</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2507</v>
+        <v>1623</v>
       </c>
       <c r="B366" t="s">
-        <v>2508</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2509</v>
+        <v>1625</v>
       </c>
       <c r="B367" t="s">
-        <v>2510</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2511</v>
+        <v>1627</v>
       </c>
       <c r="B368" t="s">
-        <v>2512</v>
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2612</v>
+        <v>1632</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1485</v>
+        <v>1633</v>
       </c>
       <c r="B372" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B373" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B374" t="s">
-        <v>2616</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B375" t="s">
-        <v>2617</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1632</v>
+        <v>2503</v>
       </c>
       <c r="B376" t="s">
-        <v>2618</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1180</v>
+        <v>2505</v>
       </c>
       <c r="B377" t="s">
-        <v>2619</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1249</v>
+        <v>2507</v>
       </c>
       <c r="B378" t="s">
-        <v>2622</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1627</v>
+        <v>2509</v>
       </c>
       <c r="B379" t="s">
-        <v>2623</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2627</v>
+        <v>2511</v>
       </c>
       <c r="B380" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B381" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B382" t="s">
-        <v>2631</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1625</v>
-      </c>
-      <c r="B383" t="s">
-        <v>2632</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1579</v>
+        <v>1485</v>
       </c>
       <c r="B384" t="s">
-        <v>2633</v>
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2618</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2421</v>
+        <v>1180</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2619</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1550</v>
+        <v>1249</v>
       </c>
       <c r="B390" t="s">
-        <v>1666</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1418</v>
+        <v>1627</v>
       </c>
       <c r="B391" t="s">
-        <v>1667</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1669</v>
+        <v>2627</v>
       </c>
       <c r="B392" t="s">
-        <v>1668</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1662</v>
+        <v>1623</v>
       </c>
       <c r="B393" t="s">
-        <v>1670</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1671</v>
+        <v>1590</v>
       </c>
       <c r="B394" t="s">
-        <v>1672</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1674</v>
+        <v>1625</v>
       </c>
       <c r="B395" t="s">
-        <v>1673</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1481</v>
+        <v>1579</v>
       </c>
       <c r="B396" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1682</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1684</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1685</v>
+        <v>1550</v>
       </c>
       <c r="B402" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2180</v>
+        <v>1418</v>
       </c>
       <c r="B403" t="s">
-        <v>2181</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2621</v>
+        <v>1669</v>
       </c>
       <c r="B404" t="s">
-        <v>2620</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1713</v>
+        <v>1662</v>
       </c>
       <c r="B405" t="s">
-        <v>2651</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1623</v>
+        <v>1671</v>
       </c>
       <c r="B406" t="s">
-        <v>2692</v>
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2422</v>
+        <v>1679</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1481</v>
+        <v>1681</v>
       </c>
       <c r="B412" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1477</v>
+        <v>1683</v>
       </c>
       <c r="B413" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1551</v>
+        <v>1685</v>
       </c>
       <c r="B414" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1690</v>
+        <v>2180</v>
       </c>
       <c r="B415" t="s">
-        <v>1691</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1693</v>
+        <v>2621</v>
       </c>
       <c r="B416" t="s">
-        <v>1692</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1669</v>
+        <v>1713</v>
       </c>
       <c r="B417" t="s">
-        <v>1694</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1681</v>
+        <v>1623</v>
       </c>
       <c r="B418" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1700</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1701</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1662</v>
+        <v>1481</v>
       </c>
       <c r="B424" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1550</v>
+        <v>1477</v>
       </c>
       <c r="B425" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1704</v>
+        <v>1551</v>
       </c>
       <c r="B426" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1707</v>
+        <v>1690</v>
       </c>
       <c r="B427" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="B428" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1711</v>
+        <v>1669</v>
       </c>
       <c r="B429" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="B430" t="s">
-        <v>1712</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1713</v>
+        <v>1671</v>
       </c>
       <c r="B431" t="s">
-        <v>1714</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1512</v>
+        <v>1697</v>
       </c>
       <c r="B432" t="s">
-        <v>1895</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>2182</v>
+        <v>1190</v>
       </c>
       <c r="B433" t="s">
-        <v>2183</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1729</v>
+        <v>1489</v>
       </c>
       <c r="B434" t="s">
-        <v>2671</v>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2423</v>
+        <v>1550</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
       <c r="B438" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1553</v>
+        <v>1707</v>
       </c>
       <c r="B439" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1554</v>
+        <v>1709</v>
       </c>
       <c r="B440" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="B441" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1721</v>
+        <v>1674</v>
       </c>
       <c r="B442" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="B443" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1726</v>
+        <v>1512</v>
       </c>
       <c r="B444" t="s">
-        <v>1725</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1489</v>
+        <v>2182</v>
       </c>
       <c r="B445" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1759</v>
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B446" t="s">
+        <v>2671</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1760</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1513</v>
+        <v>1715</v>
       </c>
       <c r="B450" t="s">
-        <v>1761</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1730</v>
+        <v>1553</v>
       </c>
       <c r="B451" t="s">
-        <v>1762</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1731</v>
+        <v>1554</v>
       </c>
       <c r="B452" t="s">
-        <v>1763</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="B453" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1697</v>
+        <v>1721</v>
       </c>
       <c r="B454" t="s">
-        <v>1777</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="B455" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="B456" t="s">
-        <v>1764</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1737</v>
+        <v>1489</v>
       </c>
       <c r="B457" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1766</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1489</v>
+        <v>1728</v>
       </c>
       <c r="B460" t="s">
-        <v>1741</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="B461" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1742</v>
+        <v>1513</v>
       </c>
       <c r="B462" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1190</v>
+        <v>1730</v>
       </c>
       <c r="B463" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="B464" t="s">
-        <v>1743</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="B465" t="s">
-        <v>1770</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1745</v>
+        <v>1697</v>
       </c>
       <c r="B466" t="s">
-        <v>1771</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="B467" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1723</v>
+        <v>1736</v>
       </c>
       <c r="B468" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1554</v>
+        <v>1737</v>
       </c>
       <c r="B469" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="B470" t="s">
-        <v>1774</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="B471" t="s">
-        <v>1749</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1751</v>
+        <v>1489</v>
       </c>
       <c r="B472" t="s">
-        <v>1775</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1753</v>
+        <v>1719</v>
       </c>
       <c r="B473" t="s">
-        <v>1752</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="B474" t="s">
-        <v>1754</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1756</v>
+        <v>1190</v>
       </c>
       <c r="B475" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="B476" t="s">
-        <v>1757</v>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2425</v>
+        <v>1745</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1792</v>
+        <v>1747</v>
       </c>
       <c r="B479" t="s">
-        <v>1793</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1794</v>
+        <v>1723</v>
       </c>
       <c r="B480" t="s">
-        <v>1795</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1719</v>
+        <v>1554</v>
       </c>
       <c r="B481" t="s">
-        <v>1900</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1902</v>
+        <v>1748</v>
       </c>
       <c r="B482" t="s">
-        <v>1901</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1563</v>
+        <v>1750</v>
       </c>
       <c r="B483" t="s">
-        <v>1903</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1190</v>
+        <v>1751</v>
       </c>
       <c r="B484" t="s">
-        <v>1904</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1905</v>
+        <v>1753</v>
       </c>
       <c r="B485" t="s">
-        <v>1906</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1907</v>
+        <v>1755</v>
       </c>
       <c r="B486" t="s">
-        <v>1908</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1910</v>
+        <v>1756</v>
       </c>
       <c r="B487" t="s">
-        <v>1909</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1911</v>
+        <v>1758</v>
       </c>
       <c r="B488" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1913</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1914</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1481</v>
+        <v>1792</v>
       </c>
       <c r="B491" t="s">
-        <v>1916</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1917</v>
+        <v>1794</v>
       </c>
       <c r="B492" t="s">
-        <v>1918</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1919</v>
+        <v>1719</v>
       </c>
       <c r="B493" t="s">
-        <v>1920</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="B494" t="s">
-        <v>1922</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1923</v>
+        <v>1563</v>
       </c>
       <c r="B495" t="s">
-        <v>1924</v>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1904</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2426</v>
+        <v>1905</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1191</v>
+        <v>1907</v>
       </c>
       <c r="B498" t="s">
-        <v>1934</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1936</v>
+        <v>1910</v>
       </c>
       <c r="B499" t="s">
-        <v>1935</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1233</v>
+        <v>1911</v>
       </c>
       <c r="B500" t="s">
-        <v>1937</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1266</v>
+        <v>1748</v>
       </c>
       <c r="B501" t="s">
-        <v>1938</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1438</v>
+        <v>1915</v>
       </c>
       <c r="B502" t="s">
-        <v>1939</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1260</v>
+        <v>1481</v>
       </c>
       <c r="B503" t="s">
-        <v>1940</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>282</v>
+        <v>1917</v>
       </c>
       <c r="B504" t="s">
-        <v>1941</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1217</v>
+        <v>1919</v>
       </c>
       <c r="B505" t="s">
-        <v>1942</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1268</v>
+        <v>1921</v>
       </c>
       <c r="B506" t="s">
-        <v>1943</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1211</v>
+        <v>1923</v>
       </c>
       <c r="B507" t="s">
-        <v>1944</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1945</v>
+        <v>1191</v>
       </c>
       <c r="B510" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1786</v>
+        <v>1936</v>
       </c>
       <c r="B511" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1949</v>
+        <v>1233</v>
       </c>
       <c r="B512" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1951</v>
+        <v>1266</v>
       </c>
       <c r="B513" t="s">
-        <v>1950</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1953</v>
+        <v>1438</v>
       </c>
       <c r="B514" t="s">
-        <v>1952</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1955</v>
+        <v>1260</v>
       </c>
       <c r="B515" t="s">
-        <v>1954</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1956</v>
+        <v>282</v>
       </c>
       <c r="B516" t="s">
-        <v>1957</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1959</v>
+        <v>1217</v>
       </c>
       <c r="B517" t="s">
-        <v>1958</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1432</v>
+        <v>1268</v>
       </c>
       <c r="B518" t="s">
-        <v>1960</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1964</v>
+        <v>1211</v>
       </c>
       <c r="B519" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1962</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1965</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1608</v>
+        <v>1945</v>
       </c>
       <c r="B522" t="s">
-        <v>1967</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1969</v>
+        <v>1786</v>
       </c>
       <c r="B523" t="s">
-        <v>1968</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1971</v>
+        <v>1949</v>
       </c>
       <c r="B524" t="s">
-        <v>1970</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1329</v>
+        <v>1951</v>
       </c>
       <c r="B525" t="s">
-        <v>1972</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1973</v>
+        <v>1953</v>
       </c>
       <c r="B526" t="s">
-        <v>1974</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1976</v>
+        <v>1955</v>
       </c>
       <c r="B527" t="s">
-        <v>1975</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1978</v>
+        <v>1956</v>
       </c>
       <c r="B528" t="s">
-        <v>1977</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1980</v>
+        <v>1959</v>
       </c>
       <c r="B529" t="s">
-        <v>1979</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1982</v>
+        <v>1432</v>
       </c>
       <c r="B530" t="s">
-        <v>1981</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1983</v>
+        <v>1964</v>
       </c>
       <c r="B531" t="s">
-        <v>1984</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1986</v>
+        <v>1963</v>
       </c>
       <c r="B532" t="s">
-        <v>1985</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1988</v>
+        <v>1966</v>
       </c>
       <c r="B533" t="s">
-        <v>1987</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1990</v>
+        <v>1608</v>
       </c>
       <c r="B534" t="s">
-        <v>1989</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1317</v>
+        <v>1969</v>
       </c>
       <c r="B535" t="s">
-        <v>1991</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1993</v>
+        <v>1971</v>
       </c>
       <c r="B536" t="s">
-        <v>1992</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1533</v>
+        <v>1329</v>
       </c>
       <c r="B537" t="s">
-        <v>1994</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1995</v>
+        <v>1973</v>
       </c>
       <c r="B538" t="s">
-        <v>1996</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="B539" t="s">
-        <v>1997</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="B540" t="s">
-        <v>1999</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="B541" t="s">
-        <v>2001</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>2003</v>
+        <v>1982</v>
       </c>
       <c r="B542" t="s">
-        <v>2004</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>2006</v>
+        <v>1983</v>
       </c>
       <c r="B543" t="s">
-        <v>2005</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="B544" t="s">
-        <v>2007</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>2010</v>
+        <v>1988</v>
       </c>
       <c r="B545" t="s">
-        <v>2009</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B553" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B555" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B556" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B557" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
         <v>2012</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B558" t="s">
         <v>2011</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="2798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="2803">
   <si>
     <t>Base Set</t>
   </si>
@@ -8426,6 +8426,21 @@
   </si>
   <si>
     <t>https://4.bp.blogspot.com/-n4NA57EpBxY/V-0gMenvCaI/AAAAAAAAeJE/y2TmgwHQ8Bo1VlwcUrMYg0nmsqmjA0nSQCLcB/s1600/2016%2BTopps%2BArchives%2B%252394%2BRuf.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-7Gdjw69KDME/V-0n-PPrJEI/AAAAAAAAeJs/00riKhafqYgVYund3YyxSlb_iClEgiEsACLcB/s1600/2016%2BPhillies%2BTeam%2BIssue%2B2%2BBroadcasters.jpg</t>
+  </si>
+  <si>
+    <t>Philies Broadcasters</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-sXnbdCyELT8/V-0iZBaNlUI/AAAAAAAAeJY/RCbhdwght7cotd9rFtbPjz71i4pb2VFDACLcB/s1600/2016%2BChachi%2B%252372%2BChecklist%2B1-72.jpg</t>
+  </si>
+  <si>
+    <t>Catfish Hunter 1967 Topps</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-g8VxPRPcjV4/V-yL3_gvc7I/AAAAAAAAk3I/i5Q9JsMbIews6D4sudOkYToNgJpwxeS2QCLcB/s1600/imh892.jpg</t>
   </si>
 </sst>
 </file>
@@ -8795,8 +8810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9272,6 +9287,14 @@
       </c>
       <c r="B64" t="s">
         <v>2751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2800</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -14749,10 +14772,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15156,6 +15179,14 @@
       </c>
       <c r="B52" t="s">
         <v>2712</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2798</v>
       </c>
     </row>
   </sheetData>
@@ -16768,10 +16799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19360,1610 +19391,1618 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B335" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>2402</v>
-      </c>
-      <c r="B336" t="s">
-        <v>2403</v>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2802</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2419</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1485</v>
+        <v>2384</v>
       </c>
       <c r="B340" t="s">
-        <v>1575</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1577</v>
+        <v>2402</v>
       </c>
       <c r="B341" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1580</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1582</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1585</v>
+        <v>1485</v>
       </c>
       <c r="B345" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1512</v>
+        <v>1577</v>
       </c>
       <c r="B346" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="B347" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1636</v>
+        <v>1581</v>
       </c>
       <c r="B348" t="s">
-        <v>1637</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="B349" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="B350" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1594</v>
+        <v>1512</v>
       </c>
       <c r="B351" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="B352" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1597</v>
+        <v>1636</v>
       </c>
       <c r="B353" t="s">
-        <v>1598</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="B354" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="B355" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="B356" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="B357" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="B358" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1418</v>
+        <v>1600</v>
       </c>
       <c r="B359" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B360" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="B361" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="B362" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="B363" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1619</v>
+        <v>1418</v>
       </c>
       <c r="B364" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="B365" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="B366" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="B367" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="B368" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="B369" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B370" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="B371" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="B372" t="s">
-        <v>1635</v>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2502</v>
+        <v>1629</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2503</v>
+        <v>1632</v>
       </c>
       <c r="B376" t="s">
-        <v>2504</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2505</v>
+        <v>1633</v>
       </c>
       <c r="B377" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B378" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B379" t="s">
-        <v>2510</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B380" t="s">
-        <v>2512</v>
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2506</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2612</v>
+        <v>2507</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1485</v>
+        <v>2509</v>
       </c>
       <c r="B384" t="s">
-        <v>2613</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2614</v>
+        <v>2511</v>
       </c>
       <c r="B385" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B386" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B387" t="s">
-        <v>2617</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B388" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1180</v>
+        <v>1485</v>
       </c>
       <c r="B389" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1249</v>
+        <v>2614</v>
       </c>
       <c r="B390" t="s">
-        <v>2622</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B391" t="s">
-        <v>2623</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2627</v>
+        <v>1596</v>
       </c>
       <c r="B392" t="s">
-        <v>2626</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1623</v>
+        <v>1632</v>
       </c>
       <c r="B393" t="s">
-        <v>2630</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1590</v>
+        <v>1180</v>
       </c>
       <c r="B394" t="s">
-        <v>2631</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1625</v>
+        <v>1249</v>
       </c>
       <c r="B395" t="s">
-        <v>2632</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1579</v>
+        <v>1627</v>
       </c>
       <c r="B396" t="s">
-        <v>2633</v>
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2632</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1670</v>
+        <v>1579</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2633</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1672</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1674</v>
+        <v>1550</v>
       </c>
       <c r="B407" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1481</v>
+        <v>1418</v>
       </c>
       <c r="B408" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1590</v>
+        <v>1669</v>
       </c>
       <c r="B409" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="B410" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="B411" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="B412" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1683</v>
+        <v>1481</v>
       </c>
       <c r="B413" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1685</v>
+        <v>1590</v>
       </c>
       <c r="B414" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2180</v>
+        <v>1678</v>
       </c>
       <c r="B415" t="s">
-        <v>2181</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2621</v>
+        <v>1679</v>
       </c>
       <c r="B416" t="s">
-        <v>2620</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1713</v>
+        <v>1681</v>
       </c>
       <c r="B417" t="s">
-        <v>2651</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1623</v>
+        <v>1683</v>
       </c>
       <c r="B418" t="s">
-        <v>2692</v>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B422" t="s">
+        <v>2651</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1691</v>
+        <v>1623</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2692</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1692</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1669</v>
+        <v>1481</v>
       </c>
       <c r="B429" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1681</v>
+        <v>1477</v>
       </c>
       <c r="B430" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1671</v>
+        <v>1551</v>
       </c>
       <c r="B431" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="B432" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1190</v>
+        <v>1693</v>
       </c>
       <c r="B433" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1489</v>
+        <v>1669</v>
       </c>
       <c r="B434" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1418</v>
+        <v>1681</v>
       </c>
       <c r="B435" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1662</v>
+        <v>1671</v>
       </c>
       <c r="B436" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1550</v>
+        <v>1697</v>
       </c>
       <c r="B437" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1704</v>
+        <v>1190</v>
       </c>
       <c r="B438" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1707</v>
+        <v>1489</v>
       </c>
       <c r="B439" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1709</v>
+        <v>1418</v>
       </c>
       <c r="B440" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1711</v>
+        <v>1662</v>
       </c>
       <c r="B441" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1674</v>
+        <v>1550</v>
       </c>
       <c r="B442" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="B443" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1512</v>
+        <v>1707</v>
       </c>
       <c r="B444" t="s">
-        <v>1895</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2182</v>
+        <v>1709</v>
       </c>
       <c r="B445" t="s">
-        <v>2183</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1729</v>
+        <v>1711</v>
       </c>
       <c r="B446" t="s">
-        <v>2671</v>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2423</v>
+        <v>1512</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1895</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1715</v>
+        <v>2182</v>
       </c>
       <c r="B450" t="s">
-        <v>1716</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1553</v>
+        <v>1729</v>
       </c>
       <c r="B451" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1720</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1722</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="B455" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1726</v>
+        <v>1553</v>
       </c>
       <c r="B456" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1489</v>
+        <v>1554</v>
       </c>
       <c r="B457" t="s">
-        <v>1727</v>
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>2424</v>
+        <v>1721</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="B460" t="s">
-        <v>1759</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B461" t="s">
-        <v>1760</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1513</v>
+        <v>1489</v>
       </c>
       <c r="B462" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B463" t="s">
-        <v>1762</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1763</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="B465" t="s">
-        <v>1732</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1697</v>
+        <v>1729</v>
       </c>
       <c r="B466" t="s">
-        <v>1777</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1734</v>
+        <v>1513</v>
       </c>
       <c r="B467" t="s">
-        <v>1735</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="B468" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="B469" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="B470" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1740</v>
+        <v>1697</v>
       </c>
       <c r="B471" t="s">
-        <v>1766</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1489</v>
+        <v>1734</v>
       </c>
       <c r="B472" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1719</v>
+        <v>1736</v>
       </c>
       <c r="B473" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="B474" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1190</v>
+        <v>1738</v>
       </c>
       <c r="B475" t="s">
-        <v>1769</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B476" t="s">
-        <v>1743</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1726</v>
+        <v>1489</v>
       </c>
       <c r="B477" t="s">
-        <v>1770</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1745</v>
+        <v>1719</v>
       </c>
       <c r="B478" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="B479" t="s">
-        <v>1746</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1723</v>
+        <v>1190</v>
       </c>
       <c r="B480" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1554</v>
+        <v>1744</v>
       </c>
       <c r="B481" t="s">
-        <v>1773</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1748</v>
+        <v>1726</v>
       </c>
       <c r="B482" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="B483" t="s">
-        <v>1749</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="B484" t="s">
-        <v>1775</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1753</v>
+        <v>1723</v>
       </c>
       <c r="B485" t="s">
-        <v>1752</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1755</v>
+        <v>1554</v>
       </c>
       <c r="B486" t="s">
-        <v>1754</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="B487" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B488" t="s">
-        <v>1757</v>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2425</v>
+        <v>1753</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1792</v>
+        <v>1755</v>
       </c>
       <c r="B491" t="s">
-        <v>1793</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1794</v>
+        <v>1756</v>
       </c>
       <c r="B492" t="s">
-        <v>1795</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1719</v>
+        <v>1758</v>
       </c>
       <c r="B493" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1901</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1903</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1190</v>
+        <v>1792</v>
       </c>
       <c r="B496" t="s">
-        <v>1904</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1905</v>
+        <v>1794</v>
       </c>
       <c r="B497" t="s">
-        <v>1906</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1907</v>
+        <v>1719</v>
       </c>
       <c r="B498" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="B499" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1911</v>
+        <v>1563</v>
       </c>
       <c r="B500" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1748</v>
+        <v>1190</v>
       </c>
       <c r="B501" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="B502" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1481</v>
+        <v>1907</v>
       </c>
       <c r="B503" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="B504" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="B505" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1921</v>
+        <v>1748</v>
       </c>
       <c r="B506" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="B507" t="s">
-        <v>1924</v>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2426</v>
+        <v>1917</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1191</v>
+        <v>1919</v>
       </c>
       <c r="B510" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1936</v>
+        <v>1921</v>
       </c>
       <c r="B511" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1233</v>
+        <v>1923</v>
       </c>
       <c r="B512" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1938</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1939</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1260</v>
+        <v>1191</v>
       </c>
       <c r="B515" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>282</v>
+        <v>1936</v>
       </c>
       <c r="B516" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="B517" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B518" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1211</v>
+        <v>1438</v>
       </c>
       <c r="B519" t="s">
-        <v>1944</v>
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>2427</v>
+        <v>282</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1945</v>
+        <v>1217</v>
       </c>
       <c r="B522" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1786</v>
+        <v>1268</v>
       </c>
       <c r="B523" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1949</v>
+        <v>1211</v>
       </c>
       <c r="B524" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1952</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="B527" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1956</v>
+        <v>1786</v>
       </c>
       <c r="B528" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="B529" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1432</v>
+        <v>1951</v>
       </c>
       <c r="B530" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="B531" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="B532" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1966</v>
+        <v>1956</v>
       </c>
       <c r="B533" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1608</v>
+        <v>1959</v>
       </c>
       <c r="B534" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1969</v>
+        <v>1432</v>
       </c>
       <c r="B535" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="B536" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1329</v>
+        <v>1963</v>
       </c>
       <c r="B537" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
       <c r="B538" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1976</v>
+        <v>1608</v>
       </c>
       <c r="B539" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="B540" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="B541" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1982</v>
+        <v>1329</v>
       </c>
       <c r="B542" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1983</v>
+        <v>1973</v>
       </c>
       <c r="B543" t="s">
-        <v>1984</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
       <c r="B544" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="B545" t="s">
-        <v>1987</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B546" t="s">
-        <v>1989</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1317</v>
+        <v>1982</v>
       </c>
       <c r="B547" t="s">
-        <v>1991</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="B548" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1533</v>
+        <v>1986</v>
       </c>
       <c r="B549" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="B550" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="B551" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>2000</v>
+        <v>1317</v>
       </c>
       <c r="B552" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="B553" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2003</v>
+        <v>1533</v>
       </c>
       <c r="B554" t="s">
-        <v>2004</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="B555" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="B556" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B557" t="s">
-        <v>2009</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B558" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B559" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B560" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B561" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
         <v>2012</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B563" t="s">
         <v>2011</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\myapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -27,12 +32,12 @@
     <sheet name="1973 Topps" sheetId="19" r:id="rId18"/>
     <sheet name="1963 Topps" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="2803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="2821">
   <si>
     <t>Base Set</t>
   </si>
@@ -8441,6 +8446,60 @@
   </si>
   <si>
     <t>https://4.bp.blogspot.com/-g8VxPRPcjV4/V-yL3_gvc7I/AAAAAAAAk3I/i5Q9JsMbIews6D4sudOkYToNgJpwxeS2QCLcB/s1600/imh892.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-a9w9d95jfxQ/V-03DClqd9I/AAAAAAAAeLU/IOSxIINj9mkzfAZiZxMlXevfdUKTM4RfgCLcB/s1600/1970%2BTopps%2B%2523665%2BLonborg.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-1eBQ4iLKZLc/V-03DHivLyI/AAAAAAAAeLY/ssLvV9-Ysawmb743DfLvsWCdQgiWfpXRgCLcB/s1600/1970%2BTopps%2B%2523675%2BCardenal.jpg</t>
+  </si>
+  <si>
+    <t>Jose Cardinal</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-9frlUroHNMw/V-03CC-254I/AAAAAAAAeKw/mn54ouJ2VXs30y7tXLKAjDbrMOihGszQACLcB/s1600/1970%2BTopps%2B%2523116%2BLyle.jpg</t>
+  </si>
+  <si>
+    <t>Sparky Lyle</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-ZyGDkeqLHYk/V-03CAqvL1I/AAAAAAAAeK0/uEN2y1NEUaUajB2sYjBN_QSJemsr48EyQCLcB/s1600/1970%2BTopps%2B%252323%2BRobinson.jpg</t>
+  </si>
+  <si>
+    <t>Tony Perez</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-zMfzdDe-1iU/V-03Cr_IOvI/AAAAAAAAeLA/_03AqYglbkAB28FBFTebFMiA4NKdyFQjQCLcB/s1600/1970%2BTopps%2B%2523380%2BPerez.jpg</t>
+  </si>
+  <si>
+    <t>Joe Morgan</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-gkU5UNCveEA/V-03Cnp1dNI/AAAAAAAAeLI/661Eq0SrnngDfCZ-aaLre7b77RZ8rplfACLcB/s1600/1970%2BTopps%2B%2523537%2BMorgan.jpg</t>
+  </si>
+  <si>
+    <t>Darold Knowles</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-HLF4kGP62mE/V-03CCZYyJI/AAAAAAAAeKs/SplUo6Hq7dgs60YsA5UP1PMirnx5HKP2gCLcB/s1600/1970%2BTopps%2B%2523106%2BKnowles.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-VvCvapvs7PA/V-03Ca0vrnI/AAAAAAAAeK4/sWHolOAo1dUsjLCpg9lXKWsTrXyo2ifCACLcB/s1600/1970%2BTopps%2B%2523319%2BDalrymple.jpg</t>
+  </si>
+  <si>
+    <t>Tito Francoja</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-usfcZA3w56M/V-03C0ROgdI/AAAAAAAAeLQ/FK7yKRNEW3s4d5pJbA_hKg1Eqzlx9tEqwCLcB/s1600/1970%2BTopps%2B%2523663%2BFrancona.jpg</t>
+  </si>
+  <si>
+    <t>Jim Fregosi</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-zk_8ye6Pung/V-03C0wcF8I/AAAAAAAAeLM/OGLJ385PjjEIirPDz7EJLleAfhtt5usTQCLcB/s1600/1970%2BTopps%2B%2523570%2BFregosi.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-MvpPDsp_yMo/V--5QKUayqI/AAAAAAAAePo/fyB9lf8TrakS7dOiI_DtckpLk8d1x9MAQCLcB/s1600/2017%2BChachi%2BPreview%2B%25232%2BGomez.jpg</t>
   </si>
 </sst>
 </file>
@@ -8564,7 +8623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8599,7 +8658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8808,10 +8867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9905,6 +9964,14 @@
       </c>
       <c r="B152" t="s">
         <v>2497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2820</v>
       </c>
     </row>
   </sheetData>
@@ -16093,10 +16160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16792,6 +16859,86 @@
         <v>2772</v>
       </c>
     </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16801,7 +16948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="2837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="2844">
   <si>
     <t>Base Set</t>
   </si>
@@ -8543,6 +8543,27 @@
   </si>
   <si>
     <t>Aledmys Diaz</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Paul Azinger</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/--3q4hfRs-Gg/V_MADhCf5oI/AAAAAAAACcQ/uuQ5510g_QsR34it39rYhWgWB7rXdb_2QCLcB/s1600/2002UDGolf_0003.jpg</t>
+  </si>
+  <si>
+    <t>Fred Couples</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-NfA6XWyKgjc/V_MADmOfBII/AAAAAAAACcc/7HfiTPPCuNASq2lircvpoofnFO-r4GkUwCLcB/s1600/2002UDGolf_0006.jpg</t>
+  </si>
+  <si>
+    <t>Dave Cash 1971 Topps</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-_TIgh4HKVGg/V_M_3oX362I/AAAAAAABono/kV6NSva7kkEt6SPhG4YPGLnyLFtpbC3pgCLcB/s1600/Cash%2B71T.jpg</t>
   </si>
 </sst>
 </file>
@@ -8912,7 +8933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
@@ -16989,10 +17010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19653,6 +19674,14 @@
         <v>2829</v>
       </c>
     </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2843</v>
+      </c>
+    </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2475</v>
@@ -19674,1589 +19703,1610 @@
         <v>2401</v>
       </c>
     </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>2837</v>
+      </c>
+    </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2417</v>
+        <v>2838</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2839</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1483</v>
+        <v>2840</v>
       </c>
       <c r="B354" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1578</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1580</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1583</v>
+        <v>1483</v>
       </c>
       <c r="B359" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1510</v>
+        <v>1575</v>
       </c>
       <c r="B360" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="B361" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1634</v>
+        <v>1579</v>
       </c>
       <c r="B362" t="s">
-        <v>1635</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="B363" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="B364" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1592</v>
+        <v>1510</v>
       </c>
       <c r="B365" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="B366" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1595</v>
+        <v>1634</v>
       </c>
       <c r="B367" t="s">
-        <v>1596</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="B368" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="B369" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="B370" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B371" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="B372" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1416</v>
+        <v>1598</v>
       </c>
       <c r="B373" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="B374" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="B375" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="B376" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="B377" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1617</v>
+        <v>1416</v>
       </c>
       <c r="B378" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="B379" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="B380" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="B381" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="B382" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="B383" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B384" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="B385" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B386" t="s">
-        <v>1633</v>
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2500</v>
+        <v>1627</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2501</v>
+        <v>1630</v>
       </c>
       <c r="B390" t="s">
-        <v>2502</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2503</v>
+        <v>1631</v>
       </c>
       <c r="B391" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B392" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B393" t="s">
-        <v>2508</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B394" t="s">
-        <v>2510</v>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2504</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2610</v>
+        <v>2505</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2506</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1483</v>
+        <v>2507</v>
       </c>
       <c r="B398" t="s">
-        <v>2611</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2612</v>
+        <v>2509</v>
       </c>
       <c r="B399" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B400" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B401" t="s">
-        <v>2615</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B402" t="s">
-        <v>2616</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1178</v>
+        <v>1483</v>
       </c>
       <c r="B403" t="s">
-        <v>2617</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1247</v>
+        <v>2612</v>
       </c>
       <c r="B404" t="s">
-        <v>2620</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B405" t="s">
-        <v>2621</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2625</v>
+        <v>1594</v>
       </c>
       <c r="B406" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1621</v>
+        <v>1630</v>
       </c>
       <c r="B407" t="s">
-        <v>2628</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1588</v>
+        <v>1178</v>
       </c>
       <c r="B408" t="s">
-        <v>2629</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1623</v>
+        <v>1247</v>
       </c>
       <c r="B409" t="s">
-        <v>2630</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1577</v>
+        <v>1625</v>
       </c>
       <c r="B410" t="s">
-        <v>2631</v>
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2630</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1668</v>
+        <v>1577</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2631</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1670</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1672</v>
+        <v>1548</v>
       </c>
       <c r="B421" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1479</v>
+        <v>1416</v>
       </c>
       <c r="B422" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1588</v>
+        <v>1667</v>
       </c>
       <c r="B423" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="B424" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="B425" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="B426" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1681</v>
+        <v>1479</v>
       </c>
       <c r="B427" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1683</v>
+        <v>1588</v>
       </c>
       <c r="B428" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2178</v>
+        <v>1676</v>
       </c>
       <c r="B429" t="s">
-        <v>2179</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2619</v>
+        <v>1677</v>
       </c>
       <c r="B430" t="s">
-        <v>2618</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1711</v>
+        <v>1679</v>
       </c>
       <c r="B431" t="s">
-        <v>2649</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1621</v>
+        <v>1681</v>
       </c>
       <c r="B432" t="s">
-        <v>2690</v>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2649</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1689</v>
+        <v>1621</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2690</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1690</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1667</v>
+        <v>1479</v>
       </c>
       <c r="B443" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1679</v>
+        <v>1475</v>
       </c>
       <c r="B444" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1669</v>
+        <v>1549</v>
       </c>
       <c r="B445" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="B446" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1188</v>
+        <v>1691</v>
       </c>
       <c r="B447" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1487</v>
+        <v>1667</v>
       </c>
       <c r="B448" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1416</v>
+        <v>1679</v>
       </c>
       <c r="B449" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1660</v>
+        <v>1669</v>
       </c>
       <c r="B450" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1548</v>
+        <v>1695</v>
       </c>
       <c r="B451" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1702</v>
+        <v>1188</v>
       </c>
       <c r="B452" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1705</v>
+        <v>1487</v>
       </c>
       <c r="B453" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1707</v>
+        <v>1416</v>
       </c>
       <c r="B454" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1709</v>
+        <v>1660</v>
       </c>
       <c r="B455" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1672</v>
+        <v>1548</v>
       </c>
       <c r="B456" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="B457" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1510</v>
+        <v>1705</v>
       </c>
       <c r="B458" t="s">
-        <v>1893</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>2180</v>
+        <v>1707</v>
       </c>
       <c r="B459" t="s">
-        <v>2181</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1727</v>
+        <v>1709</v>
       </c>
       <c r="B460" t="s">
-        <v>2669</v>
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>2421</v>
+        <v>1510</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1713</v>
+        <v>2180</v>
       </c>
       <c r="B464" t="s">
-        <v>1714</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1551</v>
+        <v>1727</v>
       </c>
       <c r="B465" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B467" t="s">
-        <v>1718</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1720</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="B469" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1724</v>
+        <v>1551</v>
       </c>
       <c r="B470" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1487</v>
+        <v>1552</v>
       </c>
       <c r="B471" t="s">
-        <v>1725</v>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2422</v>
+        <v>1719</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="B474" t="s">
-        <v>1757</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B475" t="s">
-        <v>1758</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1511</v>
+        <v>1487</v>
       </c>
       <c r="B476" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1760</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1761</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B479" t="s">
-        <v>1730</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1695</v>
+        <v>1727</v>
       </c>
       <c r="B480" t="s">
-        <v>1775</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1732</v>
+        <v>1511</v>
       </c>
       <c r="B481" t="s">
-        <v>1733</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="B482" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="B483" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="B484" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1738</v>
+        <v>1695</v>
       </c>
       <c r="B485" t="s">
-        <v>1764</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1487</v>
+        <v>1732</v>
       </c>
       <c r="B486" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="B487" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="B488" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1188</v>
+        <v>1736</v>
       </c>
       <c r="B489" t="s">
-        <v>1767</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B490" t="s">
-        <v>1741</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1724</v>
+        <v>1487</v>
       </c>
       <c r="B491" t="s">
-        <v>1768</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1743</v>
+        <v>1717</v>
       </c>
       <c r="B492" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
       <c r="B493" t="s">
-        <v>1744</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1721</v>
+        <v>1188</v>
       </c>
       <c r="B494" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1552</v>
+        <v>1742</v>
       </c>
       <c r="B495" t="s">
-        <v>1771</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1746</v>
+        <v>1724</v>
       </c>
       <c r="B496" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="B497" t="s">
-        <v>1747</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="B498" t="s">
-        <v>1773</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1751</v>
+        <v>1721</v>
       </c>
       <c r="B499" t="s">
-        <v>1750</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1753</v>
+        <v>1552</v>
       </c>
       <c r="B500" t="s">
-        <v>1752</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="B501" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="B502" t="s">
-        <v>1755</v>
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>2423</v>
+        <v>1751</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1790</v>
+        <v>1753</v>
       </c>
       <c r="B505" t="s">
-        <v>1791</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1792</v>
+        <v>1754</v>
       </c>
       <c r="B506" t="s">
-        <v>1793</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1717</v>
+        <v>1756</v>
       </c>
       <c r="B507" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1899</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1901</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1188</v>
+        <v>1790</v>
       </c>
       <c r="B510" t="s">
-        <v>1902</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1903</v>
+        <v>1792</v>
       </c>
       <c r="B511" t="s">
-        <v>1904</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1905</v>
+        <v>1717</v>
       </c>
       <c r="B512" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="B513" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1909</v>
+        <v>1561</v>
       </c>
       <c r="B514" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1746</v>
+        <v>1188</v>
       </c>
       <c r="B515" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="B516" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1479</v>
+        <v>1905</v>
       </c>
       <c r="B517" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="B518" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="B519" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1919</v>
+        <v>1746</v>
       </c>
       <c r="B520" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="B521" t="s">
-        <v>1922</v>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>2424</v>
+        <v>1915</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1189</v>
+        <v>1917</v>
       </c>
       <c r="B524" t="s">
-        <v>1932</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="B525" t="s">
-        <v>1933</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1231</v>
+        <v>1921</v>
       </c>
       <c r="B526" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1936</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1937</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1258</v>
+        <v>1189</v>
       </c>
       <c r="B529" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>280</v>
+        <v>1934</v>
       </c>
       <c r="B530" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="B531" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B532" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1209</v>
+        <v>1436</v>
       </c>
       <c r="B533" t="s">
-        <v>1942</v>
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>2425</v>
+        <v>280</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1943</v>
+        <v>1215</v>
       </c>
       <c r="B536" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1784</v>
+        <v>1266</v>
       </c>
       <c r="B537" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1947</v>
+        <v>1209</v>
       </c>
       <c r="B538" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1950</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="B541" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1954</v>
+        <v>1784</v>
       </c>
       <c r="B542" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
       <c r="B543" t="s">
-        <v>1956</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1430</v>
+        <v>1949</v>
       </c>
       <c r="B544" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1962</v>
+        <v>1951</v>
       </c>
       <c r="B545" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="B546" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1964</v>
+        <v>1954</v>
       </c>
       <c r="B547" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1606</v>
+        <v>1957</v>
       </c>
       <c r="B548" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1967</v>
+        <v>1430</v>
       </c>
       <c r="B549" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="B550" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1327</v>
+        <v>1961</v>
       </c>
       <c r="B551" t="s">
-        <v>1970</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="B552" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1974</v>
+        <v>1606</v>
       </c>
       <c r="B553" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="B554" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="B555" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1980</v>
+        <v>1327</v>
       </c>
       <c r="B556" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="B557" t="s">
-        <v>1982</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1984</v>
+        <v>1974</v>
       </c>
       <c r="B558" t="s">
-        <v>1983</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
       <c r="B559" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="B560" t="s">
-        <v>1987</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1315</v>
+        <v>1980</v>
       </c>
       <c r="B561" t="s">
-        <v>1989</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="B562" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1531</v>
+        <v>1984</v>
       </c>
       <c r="B563" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="B564" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="B565" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1998</v>
+        <v>1315</v>
       </c>
       <c r="B566" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B567" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>2001</v>
+        <v>1531</v>
       </c>
       <c r="B568" t="s">
-        <v>2002</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="B569" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="B570" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="B571" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B573" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B575" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B576" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
         <v>2010</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B577" t="s">
         <v>2009</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="2867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="2950">
   <si>
     <t>Base Set</t>
   </si>
@@ -8633,6 +8633,255 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/-2Xj6NkKPmII/V-6mLR3ITJI/AAAAAAAAO5s/pr8vzxLJdYAI2QbDdAU0scl1dyM87DxMwCLcB/s1600/1983%2BTopps%2BJuan%2BMarichal.jpg</t>
+  </si>
+  <si>
+    <t>1985 Topps Phillies</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-hNzbuIHxn6w/V_clzS21Q4I/AAAAAAABovY/Dmcl2_iCxd4kJeXjg9GzgUaZnDKB-wmRwCLcB/s1600/Gross%2B85T.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-6e0aDR0qSf0/V_HCJ1rH1KI/AAAAAAAAk4U/gkt9hx8ZblUmULGXe_XMAPwJ-WQ1uIlqACLcB/s1600/imh760.jpg</t>
+  </si>
+  <si>
+    <t>Fernando Valenzuela Squirt</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-0UtH4RlvY8Y/VrrelzIe25I/AAAAAAABh4A/LgTqVw2OdbA/s1600/Schmidt%2B85T.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-SCNNnkZb1tk/Vk6fqJYJwOI/AAAAAAABeEI/i3NNdDEMc3Q/s1600/Stone%2B85T.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-vOMlNbvZvhA/Vf9zIJA9wNI/AAAAAAABcQk/gJgnEp7Q3VU/s1600/Wilson%2B85T.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-pdxPMs-Ahso/VZNgUz6uI5I/AAAAAAABZYE/KpQPmnPfDio/s1600/Scan_Pic0007.jpg</t>
+  </si>
+  <si>
+    <t>Larry Anderson</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-xZtXqBlV1Fk/VNxSonpitjI/AAAAAAABUkY/5CNKwq0qWnI/s1600/Scan_Pic0067.jpg</t>
+  </si>
+  <si>
+    <t>Charles Hudson</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-YC-ZAyBt-1E/VJEun_Gtz2I/AAAAAAABSyk/Kl42xxQxVtQ/s1600/Scan_Pic0120.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/--BqrZOrncCE/VAP0q8L_MNI/AAAAAAABPww/5Z5YhON3tps/s1600/Scan_Pic0096.jpg</t>
+  </si>
+  <si>
+    <t>John Denny</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-M3k1U2YzVYw/U6Es1y8yj1I/AAAAAAABNEU/V3DW8cyy7yA/s1600/Scan_Pic0004.jpg</t>
+  </si>
+  <si>
+    <t>Tim Corcoran</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-T_1qIUPw7pM/Uwb-reUHQ8I/AAAAAAABJc8/ifg_P8BkmJs/s1600/Scan_Pic0053.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-q-0ISIGP8L4/UoxlJBv1ERI/AAAAAAABGog/GZki0OIP9xs/s1600/Scan_Pic0009.jpg</t>
+  </si>
+  <si>
+    <t>Garry Maddox</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-uTXpi2k7KH8/UiV1EsFU1iI/AAAAAAABEGg/2X7yFyqiWlM/s1600/Scan_Pic0073.jpg</t>
+  </si>
+  <si>
+    <t>Bill Campbell</t>
+  </si>
+  <si>
+    <t>Al Holland</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-gTDk9l49v4M/UblFKu1ptgI/AAAAAAABBOc/nkb7WTfPjRs/s1600/Scan_Pic0059.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-yA1gmorD0L8/UUlFZTgXPNI/AAAAAAAA92w/qxzMyNqU8nI/s1600/Scan_Pic0081.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-eH3_SdH2V7I/UOU8z6AOfWI/AAAAAAAA3YA/ybmJb2vgQF0/s1600/Scan_Pic0011.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-cShguUAM7iI/ULGbRxIxvRI/AAAAAAAAzcM/stCS_I_BZpQ/s1600/Scan_Pic0051.jpg</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-wYaxFnJN3RM/UE7URq_EGmI/AAAAAAAAtzQ/CwYUdkhmGb4/s1600/Scan_Pic0012.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-yP0NkVc1mDY/T-qBr8l-qnI/AAAAAAAApa4/2Pt0Nqi5_5w/s1600/Scan_Pic0037.jpg</t>
+  </si>
+  <si>
+    <t>John Wockenfuss</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-MxQN433_f-o/T5GBrWOHlVI/AAAAAAAAnHs/XskVHOFlbQg/s1600/Scan_Pic0008.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-WUCt9KEeOfg/Tzcuu1s-DQI/AAAAAAAAlaM/3w3XHbEYI5I/s1600/Scan_Pic0001.jpg</t>
+  </si>
+  <si>
+    <t>Juan Samuel Record Breaker</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-j_MJ4R6j4AU/Tx473X1RiFI/AAAAAAAAklg/XIY5Wry7mrA/s1600/IMG-8_0022.jpg</t>
+  </si>
+  <si>
+    <t>Jim Bunning CTNW</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-x8XFhdCRLMs/V-6oTI9PGLI/AAAAAAAAO54/AY9zifbqMXsE2lDaFQ73_r5FpAr3WQr0gCLcB/s1600/1996%2BTopps%2BBunning.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-OkOwnGdd6zw/V-6oW_7Py_I/AAAAAAAAO58/LF6MSeQ81EIb_LfIzzEtM-lmp14QZym7QCLcB/s1600/2000%2BTopps%2BTony%2BPerez.jpg</t>
+  </si>
+  <si>
+    <t>Tony Perez CTNW</t>
+  </si>
+  <si>
+    <t>Mike Ditka CTNW</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-oP_jq2XFa-M/VGznjxyTOfI/AAAAAAAAIA4/9BNBEi1uIMw0GMjfgqhW9FxSP0NLX4ZHACPcB/s1600/1961%2BTopps%2BMike%2BDitka.jpg</t>
+  </si>
+  <si>
+    <t>Gale Sayers CTNW</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-XF5TUU5_oR0/VyqRBfnYFSI/AAAAAAAAN-o/n09HvOFKxx81T-aydNDlGR-pa9KpZ2qbACPcB/s1600/1965%2BPhiladelphia%2BGale%2BSayers.jpg</t>
+  </si>
+  <si>
+    <t>Dick Allen CTNW Phillies</t>
+  </si>
+  <si>
+    <t>Dick Allen CTNW A's</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/--a792azzZEA/TjMs9Zpt2WI/AAAAAAAABAE/uHpkjIorXkU/s1600/picture-8.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-iLbcMx4y1jg/TjMs93xcG2I/AAAAAAAABAI/sxILvtWETEk/s1600/picture-17.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-l_mXIlASO1Y/TjMs3YIJvLI/AAAAAAAAA_g/uVbLlx0Q0Zk/s1600/1976%252BRedux%252BJimKaat.jpg</t>
+  </si>
+  <si>
+    <t>Jim Kaat CTNW</t>
+  </si>
+  <si>
+    <t>Manny Trillo CTNW</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-mqO-VciJfS4/TjMs4shwpXI/AAAAAAAAA_o/IOS2Z6ihh6Q/s1600/1980picture-2.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-D_i4iNvTFBo/Ti6Ut2RN5GI/AAAAAAAAA9U/Zm49nTBUWtM/s1600/1967ToppsRobinRoberts.jpg</t>
+  </si>
+  <si>
+    <t>Reggie Jackson CTNW A's</t>
+  </si>
+  <si>
+    <t>Robin Roberts Cubs</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-UvnZYrGPH4w/ThDPU7GaYnI/AAAAAAAAAv8/eTK4mBto2DI/s1600/1962+Topps+Buck+O%2527Neil.jpg</t>
+  </si>
+  <si>
+    <t>Buck O'Neil CTNW</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-ZiFig2inP3E/Ti6UuqhWhDI/AAAAAAAAA9Y/__sDJzwt_vQ/s1600/1968ToppsReggieJackson.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-93xfeyADvVQ/TlrBemZ8yCI/AAAAAAAABPs/03OOAc946Wk/s1600/1976+Topps+Broadcasters+Bob+Uecker.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-bID1MzCpjVI/TnPM1ELzw0I/AAAAAAAABUU/lB5En52e-70/s1600/1966+Harvey+Kuenn.jpg</t>
+  </si>
+  <si>
+    <t>Harvey Kuenn CTNW</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-RRh0LaXwBQ0/TofRX1I39TI/AAAAAAAABXI/VVzrNBO75JA/s1600/1976+Topps+Broadcasters+Gary+Matthews.jpg</t>
+  </si>
+  <si>
+    <t>Gary Matthew In the Booth</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-GAgYKqhXx1s/Tq14W2gxdZI/AAAAAAAABhQ/Jlsvf4VPecY/s1600/59Maddenfandb.jpg</t>
+  </si>
+  <si>
+    <t>John Madden</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-xfk-JwurE9k/TrdOgzt2VyI/AAAAAAAABjs/IG1R8Fchpyk/s1600/1974+Topps+2011+N.L.+Rookies.jpg</t>
+  </si>
+  <si>
+    <t>3011 NL Rookie Stars</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-OoaEBdnYwbY/Twz7zLUmtGI/AAAAAAAAB1w/hK4damQ8EuU/s1600/1977+Fleer+Steve+Carlton.jpg</t>
+  </si>
+  <si>
+    <t>Steve Carlton CTNW 1977 Fleer</t>
+  </si>
+  <si>
+    <t>Dick Allen In Action CTNW</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-2E5Dw2i0RRk/TzASD75FccI/AAAAAAAAB9Q/ZJ3C6ipdWbc/s1600/1972+Topps+Dick+Allen+IA.jpg</t>
+  </si>
+  <si>
+    <t>Pete Rose CTNW 1963</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-w5C8O86FsEM/Tzw3apQwUEI/AAAAAAAACBA/ubjHTowYQnY/s1600/1963+Topps+Pete+Rose.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-xcj8zhIokyE/T4S2qoO8zJI/AAAAAAAACNE/o3rdX0DOvvY/s1600/1968+Topps+Satchel+Paige.jpg</t>
+  </si>
+  <si>
+    <t>Satchel Paige</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-1afryso1vls/T8kNSdEOHlI/AAAAAAAACfQ/LN5cOgyWqJg/s1600/1967+ToppsTom+Seaver+1.jpg</t>
+  </si>
+  <si>
+    <t>Tom Seaver CTNW 1967</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-D3XQLtkIK1s/T8bLrWIBpHI/AAAAAAAACe4/vAIyAwlIdUw/s1600/1967+Topps+Rod+Carew+1.jpg</t>
+  </si>
+  <si>
+    <t>Rod Carew CTNW 1967</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-HR1dwU6-RD4/T8pI77XnQ0I/AAAAAAAACfs/mUBezOujl5w/s1600/1977+Topps+Tom+Seaver.jpg</t>
+  </si>
+  <si>
+    <t>Tom Seaver CTNW 1977 Reds</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-pEe5NN96n5U/UAxVIsPXWMI/AAAAAAAACuc/qpBJLPZshgs/s1600/1969+Topps+Lou+Piniella.jpg</t>
+  </si>
+  <si>
+    <t>Lou Piniella CTNW</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-hdyzj-iMk-Y/UF89xqeAEpI/AAAAAAAADIo/hJ3JmLS46pw/s1600/1964+Topps+Johnny+Callison+AS+MVP.jpg</t>
+  </si>
+  <si>
+    <t>Johnny Callison CTNW 1964</t>
   </si>
 </sst>
 </file>
@@ -17109,10 +17358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B581"/>
+  <dimension ref="A1:B630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17549,3911 +17798,4292 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1543</v>
+        <v>1611</v>
       </c>
       <c r="B61" t="s">
-        <v>1544</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1611</v>
+        <v>1779</v>
       </c>
       <c r="B62" t="s">
-        <v>1612</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1779</v>
+        <v>2388</v>
       </c>
       <c r="B63" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2388</v>
+        <v>1782</v>
       </c>
       <c r="B64" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B65" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1784</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>1790</v>
       </c>
       <c r="B67" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B68" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1791</v>
+        <v>1578</v>
       </c>
       <c r="B69" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1578</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>1795</v>
       </c>
       <c r="B71" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1795</v>
+        <v>1799</v>
       </c>
       <c r="B72" t="s">
-        <v>1796</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B73" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1801</v>
+        <v>1522</v>
       </c>
       <c r="B74" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1522</v>
+        <v>1804</v>
       </c>
       <c r="B75" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="B76" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B77" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="B78" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B79" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B80" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
       <c r="B81" t="s">
-        <v>1815</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1797</v>
+        <v>1816</v>
       </c>
       <c r="B82" t="s">
-        <v>1798</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1816</v>
+        <v>1828</v>
       </c>
       <c r="B83" t="s">
-        <v>1817</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1828</v>
+        <v>1192</v>
       </c>
       <c r="B84" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1192</v>
+        <v>1831</v>
       </c>
       <c r="B85" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1831</v>
+        <v>1107</v>
       </c>
       <c r="B86" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1107</v>
+        <v>1835</v>
       </c>
       <c r="B87" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1835</v>
+        <v>1353</v>
       </c>
       <c r="B88" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B89" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1354</v>
+        <v>1283</v>
       </c>
       <c r="B90" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1283</v>
+        <v>1839</v>
       </c>
       <c r="B91" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B92" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B93" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1843</v>
+        <v>1852</v>
       </c>
       <c r="B94" t="s">
-        <v>1844</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B95" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B96" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1857</v>
+        <v>1862</v>
       </c>
       <c r="B97" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1862</v>
+        <v>1639</v>
       </c>
       <c r="B98" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1639</v>
+        <v>1896</v>
       </c>
       <c r="B99" t="s">
-        <v>1864</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1896</v>
+        <v>1857</v>
       </c>
       <c r="B100" t="s">
-        <v>1897</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1857</v>
+        <v>1991</v>
       </c>
       <c r="B101" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B102" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B103" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B104" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B105" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2000</v>
+        <v>2154</v>
       </c>
       <c r="B106" t="s">
-        <v>1999</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2118</v>
+        <v>2156</v>
       </c>
       <c r="B107" t="s">
-        <v>2117</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="B108" t="s">
-        <v>2155</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2156</v>
+        <v>2162</v>
       </c>
       <c r="B109" t="s">
-        <v>2157</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="B110" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="B111" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="B112" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2166</v>
+        <v>2178</v>
       </c>
       <c r="B113" t="s">
-        <v>2167</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2168</v>
+        <v>2180</v>
       </c>
       <c r="B114" t="s">
-        <v>2169</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="B115" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2180</v>
+        <v>2186</v>
       </c>
       <c r="B116" t="s">
-        <v>2181</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="B117" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="B118" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2188</v>
+        <v>2198</v>
       </c>
       <c r="B119" t="s">
-        <v>2189</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2190</v>
+        <v>2200</v>
       </c>
       <c r="B120" t="s">
-        <v>2191</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="B121" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2200</v>
+        <v>2208</v>
       </c>
       <c r="B122" t="s">
-        <v>2201</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2202</v>
+        <v>2210</v>
       </c>
       <c r="B123" t="s">
-        <v>2203</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="B124" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="B125" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="B126" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="B127" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="B128" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2218</v>
+        <v>1593</v>
       </c>
       <c r="B129" t="s">
-        <v>2219</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2220</v>
+        <v>2236</v>
       </c>
       <c r="B130" t="s">
-        <v>2221</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1593</v>
+        <v>2238</v>
       </c>
       <c r="B131" t="s">
-        <v>2233</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="B132" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2238</v>
+        <v>2550</v>
       </c>
       <c r="B133" t="s">
-        <v>2239</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2240</v>
+        <v>2552</v>
       </c>
       <c r="B134" t="s">
-        <v>2241</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="B135" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="B136" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="B137" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2556</v>
+        <v>2679</v>
       </c>
       <c r="B138" t="s">
-        <v>2557</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2558</v>
+        <v>2708</v>
       </c>
       <c r="B139" t="s">
-        <v>2559</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2679</v>
+        <v>2710</v>
       </c>
       <c r="B140" t="s">
-        <v>2680</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="B141" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="B142" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="B143" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="B144" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2716</v>
+        <v>2744</v>
       </c>
       <c r="B145" t="s">
-        <v>2717</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2718</v>
+        <v>2762</v>
       </c>
       <c r="B146" t="s">
-        <v>2719</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2744</v>
+        <v>2765</v>
       </c>
       <c r="B147" t="s">
-        <v>2745</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="B148" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2765</v>
+        <v>2791</v>
       </c>
       <c r="B149" t="s">
-        <v>2764</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2766</v>
+        <v>2793</v>
       </c>
       <c r="B150" t="s">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>2791</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B152" t="s">
         <v>2794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2422</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2414</v>
+        <v>2245</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2423</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B157" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="B158" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="B159" t="s">
-        <v>2421</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="B160" t="s">
-        <v>2420</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="B161" t="s">
-        <v>2249</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="B162" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="B163" t="s">
-        <v>2419</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="B164" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="B165" t="s">
-        <v>2256</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="B166" t="s">
-        <v>2258</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="B167" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="B168" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="B169" t="s">
-        <v>2418</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B170" t="s">
-        <v>2417</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B171" t="s">
-        <v>2264</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="B172" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="B173" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="B174" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="B175" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="B176" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="B177" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="B178" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="B179" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="B180" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B181" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B182" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="B183" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="B184" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="B185" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="B186" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="B187" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="B188" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="B189" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="B190" t="s">
-        <v>2446</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B191" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="B192" t="s">
-        <v>2286</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="B193" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="B194" t="s">
-        <v>2425</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2289</v>
+        <v>2294</v>
       </c>
       <c r="B195" t="s">
-        <v>2424</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="B196" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2294</v>
+        <v>2302</v>
       </c>
       <c r="B197" t="s">
-        <v>2295</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2296</v>
+        <v>2310</v>
       </c>
       <c r="B198" t="s">
-        <v>2297</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2302</v>
+        <v>2314</v>
       </c>
       <c r="B199" t="s">
-        <v>2303</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="B200" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="B201" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="B202" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="B203" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2320</v>
+        <v>2328</v>
       </c>
       <c r="B204" t="s">
-        <v>2321</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="B205" t="s">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="B206" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="B207" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="B208" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="B209" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="B210" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2338</v>
+        <v>2348</v>
       </c>
       <c r="B211" t="s">
-        <v>2339</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2340</v>
+        <v>2358</v>
       </c>
       <c r="B212" t="s">
-        <v>2341</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2348</v>
+        <v>2366</v>
       </c>
       <c r="B213" t="s">
-        <v>2349</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2358</v>
+        <v>2374</v>
       </c>
       <c r="B214" t="s">
-        <v>2359</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2366</v>
+        <v>2378</v>
       </c>
       <c r="B215" t="s">
-        <v>2367</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2374</v>
+        <v>2380</v>
       </c>
       <c r="B216" t="s">
-        <v>2375</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="B217" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2380</v>
+        <v>2487</v>
       </c>
       <c r="B218" t="s">
-        <v>2381</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2382</v>
+        <v>2483</v>
       </c>
       <c r="B219" t="s">
-        <v>2383</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="B220" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2483</v>
+        <v>2495</v>
       </c>
       <c r="B221" t="s">
-        <v>2484</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
       <c r="B222" t="s">
-        <v>2494</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2495</v>
+        <v>2509</v>
       </c>
       <c r="B223" t="s">
-        <v>2496</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2499</v>
+        <v>2511</v>
       </c>
       <c r="B224" t="s">
-        <v>2500</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="B225" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2511</v>
+        <v>2519</v>
       </c>
       <c r="B226" t="s">
-        <v>2512</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2513</v>
+        <v>2521</v>
       </c>
       <c r="B227" t="s">
-        <v>2514</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2519</v>
+        <v>2527</v>
       </c>
       <c r="B228" t="s">
-        <v>2520</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2521</v>
+        <v>2535</v>
       </c>
       <c r="B229" t="s">
-        <v>2522</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2527</v>
+        <v>2570</v>
       </c>
       <c r="B230" t="s">
-        <v>2528</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2535</v>
+        <v>2572</v>
       </c>
       <c r="B231" t="s">
-        <v>2536</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="B232" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2572</v>
+        <v>2605</v>
       </c>
       <c r="B233" t="s">
-        <v>2573</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2574</v>
+        <v>2607</v>
       </c>
       <c r="B234" t="s">
-        <v>2575</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2605</v>
+        <v>2610</v>
       </c>
       <c r="B235" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="B236" t="s">
-        <v>2608</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B237" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="B238" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2612</v>
+        <v>2617</v>
       </c>
       <c r="B239" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2613</v>
+        <v>2619</v>
       </c>
       <c r="B240" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2617</v>
+        <v>2625</v>
       </c>
       <c r="B241" t="s">
-        <v>2618</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B242" t="s">
-        <v>2620</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B243" t="s">
-        <v>2626</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2629</v>
+        <v>2637</v>
       </c>
       <c r="B244" t="s">
-        <v>2630</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="B245" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2637</v>
+        <v>2644</v>
       </c>
       <c r="B246" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2639</v>
+        <v>2648</v>
       </c>
       <c r="B247" t="s">
-        <v>2640</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2644</v>
+        <v>2657</v>
       </c>
       <c r="B248" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B249" t="s">
-        <v>2649</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2657</v>
-      </c>
-      <c r="B250" t="s">
-        <v>2658</v>
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2387</v>
+        <v>1490</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1518</v>
+        <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>1903</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1490</v>
+        <v>1503</v>
       </c>
       <c r="B254" t="s">
-        <v>1491</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>1507</v>
       </c>
       <c r="B255" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="B256" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
       <c r="B257" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1506</v>
+        <v>1535</v>
       </c>
       <c r="B258" t="s">
-        <v>1508</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1514</v>
+        <v>1537</v>
       </c>
       <c r="B259" t="s">
-        <v>1513</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1535</v>
+        <v>1777</v>
       </c>
       <c r="B260" t="s">
-        <v>1536</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1537</v>
+        <v>1898</v>
       </c>
       <c r="B261" t="s">
-        <v>1538</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1777</v>
+        <v>1900</v>
       </c>
       <c r="B262" t="s">
-        <v>1778</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1898</v>
+        <v>1610</v>
       </c>
       <c r="B263" t="s">
-        <v>1899</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1900</v>
+        <v>1614</v>
       </c>
       <c r="B264" t="s">
-        <v>1901</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1610</v>
+        <v>1618</v>
       </c>
       <c r="B265" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="B266" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B267" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1616</v>
+        <v>2001</v>
       </c>
       <c r="B268" t="s">
-        <v>1617</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1620</v>
+        <v>2158</v>
       </c>
       <c r="B269" t="s">
-        <v>1621</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2001</v>
+        <v>2172</v>
       </c>
       <c r="B270" t="s">
-        <v>2002</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2158</v>
+        <v>2174</v>
       </c>
       <c r="B271" t="s">
-        <v>2159</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="B272" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2172</v>
+        <v>2184</v>
       </c>
       <c r="B273" t="s">
-        <v>2173</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2174</v>
+        <v>2196</v>
       </c>
       <c r="B274" t="s">
-        <v>2175</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2176</v>
+        <v>2204</v>
       </c>
       <c r="B275" t="s">
-        <v>2177</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2184</v>
+        <v>2206</v>
       </c>
       <c r="B276" t="s">
-        <v>2185</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2196</v>
+        <v>2222</v>
       </c>
       <c r="B277" t="s">
-        <v>2197</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2204</v>
+        <v>2224</v>
       </c>
       <c r="B278" t="s">
-        <v>2205</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2206</v>
+        <v>2226</v>
       </c>
       <c r="B279" t="s">
-        <v>2207</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="B280" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2224</v>
+        <v>1514</v>
       </c>
       <c r="B281" t="s">
-        <v>2225</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2226</v>
+        <v>2231</v>
       </c>
       <c r="B282" t="s">
-        <v>2227</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2228</v>
+        <v>2234</v>
       </c>
       <c r="B283" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1514</v>
+        <v>2242</v>
       </c>
       <c r="B284" t="s">
-        <v>2230</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2231</v>
+        <v>2342</v>
       </c>
       <c r="B285" t="s">
-        <v>2232</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2234</v>
+        <v>2344</v>
       </c>
       <c r="B286" t="s">
-        <v>2235</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2242</v>
+        <v>2346</v>
       </c>
       <c r="B287" t="s">
-        <v>2243</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2342</v>
+        <v>2324</v>
       </c>
       <c r="B288" t="s">
-        <v>2343</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2344</v>
+        <v>2326</v>
       </c>
       <c r="B289" t="s">
-        <v>2345</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2346</v>
+        <v>2298</v>
       </c>
       <c r="B290" t="s">
-        <v>2347</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2324</v>
+        <v>2300</v>
       </c>
       <c r="B291" t="s">
-        <v>2325</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2326</v>
+        <v>2304</v>
       </c>
       <c r="B292" t="s">
-        <v>2327</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="B293" t="s">
-        <v>2299</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2300</v>
+        <v>2308</v>
       </c>
       <c r="B294" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="B295" t="s">
-        <v>2305</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2306</v>
+        <v>2290</v>
       </c>
       <c r="B296" t="s">
-        <v>2307</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2308</v>
+        <v>2350</v>
       </c>
       <c r="B297" t="s">
-        <v>2309</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2312</v>
+        <v>2352</v>
       </c>
       <c r="B298" t="s">
-        <v>2313</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2290</v>
+        <v>2356</v>
       </c>
       <c r="B299" t="s">
-        <v>2291</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2350</v>
+        <v>2360</v>
       </c>
       <c r="B300" t="s">
-        <v>2351</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2352</v>
+        <v>2362</v>
       </c>
       <c r="B301" t="s">
-        <v>2353</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2356</v>
+        <v>2364</v>
       </c>
       <c r="B302" t="s">
-        <v>2357</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2360</v>
+        <v>2368</v>
       </c>
       <c r="B303" t="s">
-        <v>2361</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2362</v>
+        <v>2370</v>
       </c>
       <c r="B304" t="s">
-        <v>2363</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2364</v>
+        <v>2376</v>
       </c>
       <c r="B305" t="s">
-        <v>2365</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2368</v>
+        <v>2485</v>
       </c>
       <c r="B306" t="s">
-        <v>2369</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2370</v>
+        <v>2489</v>
       </c>
       <c r="B307" t="s">
-        <v>2371</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2376</v>
+        <v>2491</v>
       </c>
       <c r="B308" t="s">
-        <v>2377</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1597</v>
+        <v>2497</v>
       </c>
       <c r="B309" t="s">
-        <v>2471</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2485</v>
+        <v>2501</v>
       </c>
       <c r="B310" t="s">
-        <v>2486</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2489</v>
+        <v>2503</v>
       </c>
       <c r="B311" t="s">
-        <v>2490</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2491</v>
+        <v>2505</v>
       </c>
       <c r="B312" t="s">
-        <v>2492</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2497</v>
+        <v>2507</v>
       </c>
       <c r="B313" t="s">
-        <v>2498</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2501</v>
+        <v>2515</v>
       </c>
       <c r="B314" t="s">
-        <v>2502</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2503</v>
+        <v>2517</v>
       </c>
       <c r="B315" t="s">
-        <v>2504</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2505</v>
+        <v>2523</v>
       </c>
       <c r="B316" t="s">
-        <v>2506</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2507</v>
+        <v>2525</v>
       </c>
       <c r="B317" t="s">
-        <v>2508</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2515</v>
+        <v>2529</v>
       </c>
       <c r="B318" t="s">
-        <v>2516</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2517</v>
+        <v>2537</v>
       </c>
       <c r="B319" t="s">
-        <v>2518</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2523</v>
+        <v>2539</v>
       </c>
       <c r="B320" t="s">
-        <v>2524</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2525</v>
+        <v>2541</v>
       </c>
       <c r="B321" t="s">
-        <v>2526</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2529</v>
+        <v>2563</v>
       </c>
       <c r="B322" t="s">
-        <v>2530</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2537</v>
+        <v>2560</v>
       </c>
       <c r="B323" t="s">
-        <v>2538</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2539</v>
+        <v>2576</v>
       </c>
       <c r="B324" t="s">
-        <v>2540</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2541</v>
+        <v>2578</v>
       </c>
       <c r="B325" t="s">
-        <v>2542</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2563</v>
+        <v>2580</v>
       </c>
       <c r="B326" t="s">
-        <v>2561</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2560</v>
+        <v>2594</v>
       </c>
       <c r="B327" t="s">
-        <v>2562</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2576</v>
+        <v>2598</v>
       </c>
       <c r="B328" t="s">
-        <v>2577</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2578</v>
+        <v>2651</v>
       </c>
       <c r="B329" t="s">
-        <v>2579</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2580</v>
+        <v>1388</v>
       </c>
       <c r="B330" t="s">
-        <v>2581</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2594</v>
+        <v>2653</v>
       </c>
       <c r="B331" t="s">
-        <v>2595</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2598</v>
+        <v>2655</v>
       </c>
       <c r="B332" t="s">
-        <v>2599</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2651</v>
+        <v>2660</v>
       </c>
       <c r="B333" t="s">
-        <v>2650</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1388</v>
+        <v>2671</v>
       </c>
       <c r="B334" t="s">
-        <v>2652</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2653</v>
+        <v>2673</v>
       </c>
       <c r="B335" t="s">
-        <v>2654</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2655</v>
+        <v>2678</v>
       </c>
       <c r="B336" t="s">
-        <v>2656</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2660</v>
+        <v>2746</v>
       </c>
       <c r="B337" t="s">
-        <v>2659</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2671</v>
+        <v>2771</v>
       </c>
       <c r="B338" t="s">
-        <v>2672</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2673</v>
+        <v>2799</v>
       </c>
       <c r="B339" t="s">
-        <v>2674</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2678</v>
+        <v>2802</v>
       </c>
       <c r="B340" t="s">
-        <v>2677</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2746</v>
+        <v>2814</v>
       </c>
       <c r="B341" t="s">
-        <v>2747</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2771</v>
+        <v>2855</v>
       </c>
       <c r="B342" t="s">
-        <v>2772</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2799</v>
+        <v>2858</v>
       </c>
       <c r="B343" t="s">
-        <v>2800</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2802</v>
+        <v>2859</v>
       </c>
       <c r="B344" t="s">
-        <v>2801</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2814</v>
+        <v>2863</v>
       </c>
       <c r="B345" t="s">
-        <v>2815</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2855</v>
+        <v>2865</v>
       </c>
       <c r="B346" t="s">
-        <v>2856</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2858</v>
+        <v>2870</v>
       </c>
       <c r="B347" t="s">
-        <v>2857</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2859</v>
+        <v>2901</v>
       </c>
       <c r="B348" t="s">
-        <v>2860</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2863</v>
+        <v>2904</v>
       </c>
       <c r="B349" t="s">
-        <v>2864</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2865</v>
+        <v>2905</v>
       </c>
       <c r="B350" t="s">
-        <v>2866</v>
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2908</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2447</v>
+        <v>2909</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2911</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2354</v>
+        <v>2910</v>
       </c>
       <c r="B353" t="s">
-        <v>2355</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2372</v>
+        <v>2914</v>
       </c>
       <c r="B354" t="s">
-        <v>2373</v>
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2916</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2809</v>
+        <v>2919</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2917</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2810</v>
+        <v>2918</v>
       </c>
       <c r="B357" t="s">
-        <v>2811</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2812</v>
+        <v>2921</v>
       </c>
       <c r="B358" t="s">
-        <v>2813</v>
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B360" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B361" t="s">
+        <v>2926</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2389</v>
+        <v>2929</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2928</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1455</v>
+        <v>2931</v>
       </c>
       <c r="B363" t="s">
-        <v>1545</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1547</v>
+        <v>2933</v>
       </c>
       <c r="B364" t="s">
-        <v>1546</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1549</v>
+        <v>2934</v>
       </c>
       <c r="B365" t="s">
-        <v>1548</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1551</v>
+        <v>2936</v>
       </c>
       <c r="B366" t="s">
-        <v>1550</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1553</v>
+        <v>2939</v>
       </c>
       <c r="B367" t="s">
-        <v>1552</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1555</v>
+        <v>2941</v>
       </c>
       <c r="B368" t="s">
-        <v>1554</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1482</v>
+        <v>2943</v>
       </c>
       <c r="B369" t="s">
-        <v>1556</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1558</v>
+        <v>2945</v>
       </c>
       <c r="B370" t="s">
-        <v>1557</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1606</v>
+        <v>2947</v>
       </c>
       <c r="B371" t="s">
-        <v>1607</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1560</v>
+        <v>2949</v>
       </c>
       <c r="B372" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1563</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1565</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1567</v>
+        <v>2354</v>
       </c>
       <c r="B376" t="s">
-        <v>1568</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1570</v>
+        <v>2372</v>
       </c>
       <c r="B377" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1572</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1573</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1574</v>
+        <v>2810</v>
       </c>
       <c r="B380" t="s">
-        <v>1576</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1578</v>
+        <v>2812</v>
       </c>
       <c r="B381" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1579</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1580</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1583</v>
+        <v>1982</v>
       </c>
       <c r="B384" t="s">
-        <v>1582</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1585</v>
+        <v>2118</v>
       </c>
       <c r="B385" t="s">
-        <v>1584</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1587</v>
+        <v>1543</v>
       </c>
       <c r="B386" t="s">
-        <v>1586</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="B387" t="s">
-        <v>1588</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1591</v>
+        <v>1972</v>
       </c>
       <c r="B388" t="s">
-        <v>1590</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1593</v>
+        <v>1936</v>
       </c>
       <c r="B389" t="s">
-        <v>1592</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1595</v>
+        <v>2875</v>
       </c>
       <c r="B390" t="s">
-        <v>1594</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1597</v>
+        <v>2877</v>
       </c>
       <c r="B391" t="s">
-        <v>1596</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="B392" t="s">
-        <v>1598</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1599</v>
+        <v>2880</v>
       </c>
       <c r="B393" t="s">
-        <v>1601</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1602</v>
+        <v>2882</v>
       </c>
       <c r="B394" t="s">
-        <v>1604</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1603</v>
+        <v>1402</v>
       </c>
       <c r="B395" t="s">
-        <v>1605</v>
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2886</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2472</v>
+        <v>2888</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2889</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2473</v>
+        <v>1460</v>
       </c>
       <c r="B399" t="s">
-        <v>2474</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2475</v>
+        <v>2028</v>
       </c>
       <c r="B400" t="s">
-        <v>2476</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2477</v>
+        <v>1299</v>
       </c>
       <c r="B401" t="s">
-        <v>2478</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2479</v>
+        <v>2893</v>
       </c>
       <c r="B402" t="s">
-        <v>2480</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2481</v>
+        <v>1965</v>
       </c>
       <c r="B403" t="s">
-        <v>2482</v>
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2898</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2582</v>
+        <v>2899</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1455</v>
+        <v>1597</v>
       </c>
       <c r="B407" t="s">
-        <v>2583</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2584</v>
+        <v>2170</v>
       </c>
       <c r="B408" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B409" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B410" t="s">
-        <v>2587</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B411" t="s">
-        <v>2588</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1150</v>
+        <v>1455</v>
       </c>
       <c r="B412" t="s">
-        <v>2589</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1219</v>
+        <v>1547</v>
       </c>
       <c r="B413" t="s">
-        <v>2592</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1597</v>
+        <v>1549</v>
       </c>
       <c r="B414" t="s">
-        <v>2593</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2597</v>
+        <v>1551</v>
       </c>
       <c r="B415" t="s">
-        <v>2596</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1593</v>
+        <v>1553</v>
       </c>
       <c r="B416" t="s">
-        <v>2600</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="B417" t="s">
-        <v>2601</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1595</v>
+        <v>1482</v>
       </c>
       <c r="B418" t="s">
-        <v>2602</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="B419" t="s">
-        <v>2603</v>
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2391</v>
+        <v>1566</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1520</v>
+        <v>1567</v>
       </c>
       <c r="B425" t="s">
-        <v>1636</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1388</v>
+        <v>1570</v>
       </c>
       <c r="B426" t="s">
-        <v>1637</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1639</v>
+        <v>1571</v>
       </c>
       <c r="B427" t="s">
-        <v>1638</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1632</v>
+        <v>1575</v>
       </c>
       <c r="B428" t="s">
-        <v>1640</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1641</v>
+        <v>1574</v>
       </c>
       <c r="B429" t="s">
-        <v>1642</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1644</v>
+        <v>1578</v>
       </c>
       <c r="B430" t="s">
-        <v>1643</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1451</v>
+        <v>1388</v>
       </c>
       <c r="B431" t="s">
-        <v>1645</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1560</v>
+        <v>1581</v>
       </c>
       <c r="B432" t="s">
-        <v>1646</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1648</v>
+        <v>1583</v>
       </c>
       <c r="B433" t="s">
-        <v>1647</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1649</v>
+        <v>1585</v>
       </c>
       <c r="B434" t="s">
-        <v>1650</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1651</v>
+        <v>1587</v>
       </c>
       <c r="B435" t="s">
-        <v>1652</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1653</v>
+        <v>1589</v>
       </c>
       <c r="B436" t="s">
-        <v>1654</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1655</v>
+        <v>1591</v>
       </c>
       <c r="B437" t="s">
-        <v>1656</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2150</v>
+        <v>1593</v>
       </c>
       <c r="B438" t="s">
-        <v>2151</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>2591</v>
+        <v>1595</v>
       </c>
       <c r="B439" t="s">
-        <v>2590</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1683</v>
+        <v>1597</v>
       </c>
       <c r="B440" t="s">
-        <v>2621</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
       <c r="B441" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>2392</v>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1657</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1447</v>
+        <v>2473</v>
       </c>
       <c r="B448" t="s">
-        <v>1658</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1521</v>
+        <v>2475</v>
       </c>
       <c r="B449" t="s">
-        <v>1659</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1660</v>
+        <v>2477</v>
       </c>
       <c r="B450" t="s">
-        <v>1661</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1663</v>
+        <v>2479</v>
       </c>
       <c r="B451" t="s">
-        <v>1662</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1639</v>
+        <v>2481</v>
       </c>
       <c r="B452" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B454" t="s">
-        <v>1666</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1668</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1160</v>
+        <v>1455</v>
       </c>
       <c r="B456" t="s">
-        <v>1669</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1459</v>
+        <v>2584</v>
       </c>
       <c r="B457" t="s">
-        <v>1670</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1388</v>
+        <v>1589</v>
       </c>
       <c r="B458" t="s">
-        <v>1671</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1632</v>
+        <v>1566</v>
       </c>
       <c r="B459" t="s">
-        <v>1672</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1520</v>
+        <v>1602</v>
       </c>
       <c r="B460" t="s">
-        <v>1673</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1674</v>
+        <v>1150</v>
       </c>
       <c r="B461" t="s">
-        <v>1675</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1677</v>
+        <v>1219</v>
       </c>
       <c r="B462" t="s">
-        <v>1676</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1679</v>
+        <v>1597</v>
       </c>
       <c r="B463" t="s">
-        <v>1678</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1681</v>
+        <v>2597</v>
       </c>
       <c r="B464" t="s">
-        <v>1680</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1644</v>
+        <v>1593</v>
       </c>
       <c r="B465" t="s">
-        <v>1682</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1683</v>
+        <v>1560</v>
       </c>
       <c r="B466" t="s">
-        <v>1684</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1482</v>
+        <v>1595</v>
       </c>
       <c r="B467" t="s">
-        <v>1865</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>2152</v>
+        <v>1549</v>
       </c>
       <c r="B468" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B469" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>2393</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1686</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B474" t="s">
-        <v>1687</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1524</v>
+        <v>1388</v>
       </c>
       <c r="B475" t="s">
-        <v>1688</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1689</v>
+        <v>1639</v>
       </c>
       <c r="B476" t="s">
-        <v>1690</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1691</v>
+        <v>1632</v>
       </c>
       <c r="B477" t="s">
-        <v>1692</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1693</v>
+        <v>1641</v>
       </c>
       <c r="B478" t="s">
-        <v>1694</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1696</v>
+        <v>1644</v>
       </c>
       <c r="B479" t="s">
-        <v>1695</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="B480" t="s">
-        <v>1697</v>
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>2394</v>
+        <v>1648</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1698</v>
+        <v>1649</v>
       </c>
       <c r="B483" t="s">
-        <v>1729</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1699</v>
+        <v>1651</v>
       </c>
       <c r="B484" t="s">
-        <v>1730</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1483</v>
+        <v>1653</v>
       </c>
       <c r="B485" t="s">
-        <v>1731</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1700</v>
+        <v>1655</v>
       </c>
       <c r="B486" t="s">
-        <v>1732</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1701</v>
+        <v>2150</v>
       </c>
       <c r="B487" t="s">
-        <v>1733</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1703</v>
+        <v>2591</v>
       </c>
       <c r="B488" t="s">
-        <v>1702</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1667</v>
+        <v>1683</v>
       </c>
       <c r="B489" t="s">
-        <v>1747</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1704</v>
+        <v>1593</v>
       </c>
       <c r="B490" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1736</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1711</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1689</v>
+        <v>1451</v>
       </c>
       <c r="B496" t="s">
-        <v>1737</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1712</v>
+        <v>1447</v>
       </c>
       <c r="B497" t="s">
-        <v>1738</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1160</v>
+        <v>1521</v>
       </c>
       <c r="B498" t="s">
-        <v>1739</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1714</v>
+        <v>1660</v>
       </c>
       <c r="B499" t="s">
-        <v>1713</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1696</v>
+        <v>1663</v>
       </c>
       <c r="B500" t="s">
-        <v>1740</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1715</v>
+        <v>1639</v>
       </c>
       <c r="B501" t="s">
-        <v>1741</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1717</v>
+        <v>1651</v>
       </c>
       <c r="B502" t="s">
-        <v>1716</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1693</v>
+        <v>1641</v>
       </c>
       <c r="B503" t="s">
-        <v>1742</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1524</v>
+        <v>1667</v>
       </c>
       <c r="B504" t="s">
-        <v>1743</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1718</v>
+        <v>1160</v>
       </c>
       <c r="B505" t="s">
-        <v>1744</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1720</v>
+        <v>1459</v>
       </c>
       <c r="B506" t="s">
-        <v>1719</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1721</v>
+        <v>1388</v>
       </c>
       <c r="B507" t="s">
-        <v>1745</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1723</v>
+        <v>1632</v>
       </c>
       <c r="B508" t="s">
-        <v>1722</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1725</v>
+        <v>1520</v>
       </c>
       <c r="B509" t="s">
-        <v>1724</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1726</v>
+        <v>1674</v>
       </c>
       <c r="B510" t="s">
-        <v>1746</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1728</v>
+        <v>1677</v>
       </c>
       <c r="B511" t="s">
-        <v>1727</v>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>2395</v>
+        <v>1681</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1762</v>
+        <v>1644</v>
       </c>
       <c r="B514" t="s">
-        <v>1763</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1764</v>
+        <v>1683</v>
       </c>
       <c r="B515" t="s">
-        <v>1765</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1689</v>
+        <v>1482</v>
       </c>
       <c r="B516" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1872</v>
+        <v>2152</v>
       </c>
       <c r="B517" t="s">
-        <v>1871</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1533</v>
+        <v>1699</v>
       </c>
       <c r="B518" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1876</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1878</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1880</v>
+        <v>1685</v>
       </c>
       <c r="B522" t="s">
-        <v>1879</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1881</v>
+        <v>1523</v>
       </c>
       <c r="B523" t="s">
-        <v>1882</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1718</v>
+        <v>1524</v>
       </c>
       <c r="B524" t="s">
-        <v>1883</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1885</v>
+        <v>1689</v>
       </c>
       <c r="B525" t="s">
-        <v>1884</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1451</v>
+        <v>1691</v>
       </c>
       <c r="B526" t="s">
-        <v>1886</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1887</v>
+        <v>1693</v>
       </c>
       <c r="B527" t="s">
-        <v>1888</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1889</v>
+        <v>1696</v>
       </c>
       <c r="B528" t="s">
-        <v>1890</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1891</v>
+        <v>1459</v>
       </c>
       <c r="B529" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1894</v>
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>2394</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>2396</v>
+        <v>1698</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1161</v>
+        <v>1699</v>
       </c>
       <c r="B533" t="s">
-        <v>1904</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1906</v>
+        <v>1483</v>
       </c>
       <c r="B534" t="s">
-        <v>1905</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1203</v>
+        <v>1700</v>
       </c>
       <c r="B535" t="s">
-        <v>1907</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1236</v>
+        <v>1701</v>
       </c>
       <c r="B536" t="s">
-        <v>1908</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1408</v>
+        <v>1703</v>
       </c>
       <c r="B537" t="s">
-        <v>1909</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1230</v>
+        <v>1667</v>
       </c>
       <c r="B538" t="s">
-        <v>1910</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>252</v>
+        <v>1704</v>
       </c>
       <c r="B539" t="s">
-        <v>1911</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1187</v>
+        <v>1706</v>
       </c>
       <c r="B540" t="s">
-        <v>1912</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1238</v>
+        <v>1707</v>
       </c>
       <c r="B541" t="s">
-        <v>1913</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1181</v>
+        <v>1708</v>
       </c>
       <c r="B542" t="s">
-        <v>1914</v>
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>2397</v>
+        <v>1459</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1915</v>
+        <v>1689</v>
       </c>
       <c r="B545" t="s">
-        <v>1916</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1756</v>
+        <v>1712</v>
       </c>
       <c r="B546" t="s">
-        <v>1917</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1919</v>
+        <v>1160</v>
       </c>
       <c r="B547" t="s">
-        <v>1918</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1921</v>
+        <v>1714</v>
       </c>
       <c r="B548" t="s">
-        <v>1920</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1923</v>
+        <v>1696</v>
       </c>
       <c r="B549" t="s">
-        <v>1922</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1925</v>
+        <v>1715</v>
       </c>
       <c r="B550" t="s">
-        <v>1924</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1926</v>
+        <v>1717</v>
       </c>
       <c r="B551" t="s">
-        <v>1927</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1929</v>
+        <v>1693</v>
       </c>
       <c r="B552" t="s">
-        <v>1928</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1402</v>
+        <v>1524</v>
       </c>
       <c r="B553" t="s">
-        <v>1930</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1934</v>
+        <v>1718</v>
       </c>
       <c r="B554" t="s">
-        <v>1931</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1933</v>
+        <v>1720</v>
       </c>
       <c r="B555" t="s">
-        <v>1932</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1936</v>
+        <v>1721</v>
       </c>
       <c r="B556" t="s">
-        <v>1935</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1578</v>
+        <v>1723</v>
       </c>
       <c r="B557" t="s">
-        <v>1937</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1939</v>
+        <v>1725</v>
       </c>
       <c r="B558" t="s">
-        <v>1938</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1941</v>
+        <v>1726</v>
       </c>
       <c r="B559" t="s">
-        <v>1940</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1299</v>
+        <v>1728</v>
       </c>
       <c r="B560" t="s">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1944</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1945</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1948</v>
+        <v>1762</v>
       </c>
       <c r="B563" t="s">
-        <v>1947</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1950</v>
+        <v>1764</v>
       </c>
       <c r="B564" t="s">
-        <v>1949</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1952</v>
+        <v>1689</v>
       </c>
       <c r="B565" t="s">
-        <v>1951</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1953</v>
+        <v>1872</v>
       </c>
       <c r="B566" t="s">
-        <v>1954</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1956</v>
+        <v>1533</v>
       </c>
       <c r="B567" t="s">
-        <v>1955</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1958</v>
+        <v>1160</v>
       </c>
       <c r="B568" t="s">
-        <v>1957</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1960</v>
+        <v>1875</v>
       </c>
       <c r="B569" t="s">
-        <v>1959</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1287</v>
+        <v>1877</v>
       </c>
       <c r="B570" t="s">
-        <v>1961</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1963</v>
+        <v>1880</v>
       </c>
       <c r="B571" t="s">
-        <v>1962</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1503</v>
+        <v>1881</v>
       </c>
       <c r="B572" t="s">
-        <v>1964</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1965</v>
+        <v>1718</v>
       </c>
       <c r="B573" t="s">
-        <v>1966</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1968</v>
+        <v>1885</v>
       </c>
       <c r="B574" t="s">
-        <v>1967</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1970</v>
+        <v>1451</v>
       </c>
       <c r="B575" t="s">
-        <v>1969</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1972</v>
+        <v>1887</v>
       </c>
       <c r="B576" t="s">
-        <v>1971</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1973</v>
+        <v>1889</v>
       </c>
       <c r="B577" t="s">
-        <v>1974</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1976</v>
+        <v>1891</v>
       </c>
       <c r="B578" t="s">
-        <v>1975</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1978</v>
+        <v>1893</v>
       </c>
       <c r="B579" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1979</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>252</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
         <v>1982</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B630" t="s">
         <v>1981</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="2950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="2963">
   <si>
     <t>Base Set</t>
   </si>
@@ -8882,6 +8882,45 @@
   </si>
   <si>
     <t>Johnny Callison CTNW 1964</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-WySrU4LJZn4/V_pDsqu5xvI/AAAAAAAAeYc/fwm6oVpAtz0cfgraQ9jeexvAykd4Y5y6gCLcB/s1600/2016%2BChachi%2B%252365%2BBatting%2BLeaders%2B-%2BHernandez%252C%2BHerrera%252C%2BFranco.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-iuHKThKSyVw/V_qLYR7xZRI/AAAAAAAAeZQ/lufdT8OuAm00cMmfgnuQnKV2TfeuMIVngCLcB/s1600/2016%2BChachi%2B%252366%2BRBI%2BLeaders%2B-%2BFranco%252C%2BGalvis%252C%2BHoward.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-XqlTB-89kOg/V_hUxaGIF2I/AAAAAAAAcC4/AWSxtUk34wkFsz5vk63aIJoXN4U0SA6QQCLcB/s1600/Bush%2BTopps%2BHeritage%2BF.jpg</t>
+  </si>
+  <si>
+    <t>Robin Roberts Cubs CTNW</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/--ok3a5TK8Fo/V-6tA0zxEdI/AAAAAAAAO6E/y3qDRgX-AuYqI_sUObLB2hweg6Kw48WpQCLcB/s1600/1976%2BTopps%2BRobin%2BRoberts.jpg</t>
+  </si>
+  <si>
+    <t>Ted Williams CTNW</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-I6CMN45GaPM/V-6ysg3WquI/AAAAAAAAO6Y/P2zlUqlcPQMm8FY-9Y_YKx5dTTQHPFJtwCLcB/s1600/1966%2BTopps%2BTed%2BWilliams.jpg</t>
+  </si>
+  <si>
+    <t>Rickie Henderson CTNW</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-RagXf4t1pB0/V_Un0X5funI/AAAAAAAAO7w/6ie_RaTrszc0Ws2mVjA2OB6V6VHYu7Q8ACLcB/s1600/2009%2BTopps%2BRickey%2BHenderson.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-MyMu5rD5MV4/V_gBqKukWwI/AAAAAAABMz8/pZdc4ph6P84ZrzHXE8XA3N5vp3qQvBdlwCLcB/s1600/IMG_20161007_0015_Snapseed.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-8tKF0Sb5isc/V_gBrmtnx7I/AAAAAAABM0c/njmD7PXm7S0MHK4qU9FJPLS5U4I0m0YywCLcB/s1600/IMG_20161007_0025_Snapseed.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-E-g6zUWAmlQ/V_glEa2ZBfI/AAAAAAAAQH8/kOuTVsXxLjcWhW8uwrz3mM8PwytM8X4JQCLcB/s1600/TAYLOR%2B002%2B2.jpg</t>
+  </si>
+  <si>
+    <t>1967 ERA Leaders</t>
   </si>
 </sst>
 </file>
@@ -9251,9 +9290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <pane ySplit="4800" topLeftCell="A33"/>
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="B72" sqref="B72"/>
       <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD82"/>
     </sheetView>
   </sheetViews>
@@ -9809,7 +9848,7 @@
         <v>2823</v>
       </c>
       <c r="B69" t="s">
-        <v>2399</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -9817,7 +9856,7 @@
         <v>2824</v>
       </c>
       <c r="B70" t="s">
-        <v>2399</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -17358,11 +17397,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B630"/>
+  <dimension ref="A1:B635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A373" sqref="A373"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17679,6 +17716,14 @@
         <v>2861</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2952</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2386</v>
@@ -20254,1837 +20299,1885 @@
         <v>2948</v>
       </c>
     </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2956</v>
+      </c>
+    </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2447</v>
+        <v>2957</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2958</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2354</v>
+        <v>2019</v>
       </c>
       <c r="B376" t="s">
-        <v>2355</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2372</v>
+        <v>2036</v>
       </c>
       <c r="B377" t="s">
-        <v>2373</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2809</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2810</v>
+        <v>2354</v>
       </c>
       <c r="B380" t="s">
-        <v>2811</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2812</v>
+        <v>2372</v>
       </c>
       <c r="B381" t="s">
-        <v>2813</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2867</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1982</v>
+        <v>2810</v>
       </c>
       <c r="B384" t="s">
-        <v>2868</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2118</v>
+        <v>2812</v>
       </c>
       <c r="B385" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1544</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B387" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="B388" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1936</v>
+        <v>2118</v>
       </c>
       <c r="B389" t="s">
-        <v>2873</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2875</v>
+        <v>1543</v>
       </c>
       <c r="B390" t="s">
-        <v>2874</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2877</v>
+        <v>1578</v>
       </c>
       <c r="B391" t="s">
-        <v>2876</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1593</v>
+        <v>1972</v>
       </c>
       <c r="B392" t="s">
-        <v>2878</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2880</v>
+        <v>1936</v>
       </c>
       <c r="B393" t="s">
-        <v>2879</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2882</v>
+        <v>2875</v>
       </c>
       <c r="B394" t="s">
-        <v>2881</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1402</v>
+        <v>2877</v>
       </c>
       <c r="B395" t="s">
-        <v>2883</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2885</v>
+        <v>1593</v>
       </c>
       <c r="B396" t="s">
-        <v>2884</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2887</v>
+        <v>2880</v>
       </c>
       <c r="B397" t="s">
-        <v>2886</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2888</v>
+        <v>2882</v>
       </c>
       <c r="B398" t="s">
-        <v>2889</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1460</v>
+        <v>1402</v>
       </c>
       <c r="B399" t="s">
-        <v>2890</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2028</v>
+        <v>2885</v>
       </c>
       <c r="B400" t="s">
-        <v>2891</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1299</v>
+        <v>2887</v>
       </c>
       <c r="B401" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="B402" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1965</v>
+        <v>1460</v>
       </c>
       <c r="B403" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2896</v>
+        <v>2028</v>
       </c>
       <c r="B404" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2545</v>
+        <v>1299</v>
       </c>
       <c r="B405" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="B406" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1597</v>
+        <v>1965</v>
       </c>
       <c r="B407" t="s">
-        <v>2471</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2170</v>
+        <v>2896</v>
       </c>
       <c r="B408" t="s">
-        <v>2171</v>
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2389</v>
+        <v>1597</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2471</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1455</v>
+        <v>2170</v>
       </c>
       <c r="B412" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1548</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1550</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1553</v>
+        <v>1455</v>
       </c>
       <c r="B416" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="B417" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1482</v>
+        <v>1549</v>
       </c>
       <c r="B418" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="B419" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1606</v>
+        <v>1553</v>
       </c>
       <c r="B420" t="s">
-        <v>1607</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="B421" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1562</v>
+        <v>1482</v>
       </c>
       <c r="B422" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="B423" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1566</v>
+        <v>1606</v>
       </c>
       <c r="B424" t="s">
-        <v>1565</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="B425" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="B426" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="B427" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="B428" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="B429" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="B430" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1388</v>
+        <v>1571</v>
       </c>
       <c r="B431" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B432" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="B433" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="B434" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1587</v>
+        <v>1388</v>
       </c>
       <c r="B435" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B436" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="B437" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="B438" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="B439" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="B440" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="B441" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B442" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="B443" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="B444" t="s">
-        <v>1605</v>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>2472</v>
+        <v>1602</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>2473</v>
+        <v>1603</v>
       </c>
       <c r="B448" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>2475</v>
-      </c>
-      <c r="B449" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B450" t="s">
-        <v>2478</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B451" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="B452" t="s">
-        <v>2482</v>
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2478</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2582</v>
+        <v>2479</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2480</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1455</v>
+        <v>2481</v>
       </c>
       <c r="B456" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B457" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B458" t="s">
-        <v>2586</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B459" t="s">
-        <v>2587</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1602</v>
+        <v>1455</v>
       </c>
       <c r="B460" t="s">
-        <v>2588</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1150</v>
+        <v>2584</v>
       </c>
       <c r="B461" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1219</v>
+        <v>1589</v>
       </c>
       <c r="B462" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1597</v>
+        <v>1566</v>
       </c>
       <c r="B463" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>2597</v>
+        <v>1602</v>
       </c>
       <c r="B464" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1593</v>
+        <v>1150</v>
       </c>
       <c r="B465" t="s">
-        <v>2600</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1560</v>
+        <v>1219</v>
       </c>
       <c r="B466" t="s">
-        <v>2601</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B467" t="s">
-        <v>2602</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B468" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B469" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
         <v>1549</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B472" t="s">
         <v>2603</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B474" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1640</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1641</v>
+        <v>1520</v>
       </c>
       <c r="B478" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1644</v>
+        <v>1388</v>
       </c>
       <c r="B479" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1451</v>
+        <v>1639</v>
       </c>
       <c r="B480" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1560</v>
+        <v>1632</v>
       </c>
       <c r="B481" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="B482" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="B483" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1651</v>
+        <v>1451</v>
       </c>
       <c r="B484" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1653</v>
+        <v>1560</v>
       </c>
       <c r="B485" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="B486" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2150</v>
+        <v>1649</v>
       </c>
       <c r="B487" t="s">
-        <v>2151</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2591</v>
+        <v>1651</v>
       </c>
       <c r="B488" t="s">
-        <v>2590</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1683</v>
+        <v>1653</v>
       </c>
       <c r="B489" t="s">
-        <v>2621</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B491" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B492" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>1593</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B494" t="s">
         <v>2662</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1661</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1663</v>
+        <v>1451</v>
       </c>
       <c r="B500" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1639</v>
+        <v>1447</v>
       </c>
       <c r="B501" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1651</v>
+        <v>1521</v>
       </c>
       <c r="B502" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1641</v>
+        <v>1660</v>
       </c>
       <c r="B503" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="B504" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1160</v>
+        <v>1639</v>
       </c>
       <c r="B505" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1459</v>
+        <v>1651</v>
       </c>
       <c r="B506" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1388</v>
+        <v>1641</v>
       </c>
       <c r="B507" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1632</v>
+        <v>1667</v>
       </c>
       <c r="B508" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1520</v>
+        <v>1160</v>
       </c>
       <c r="B509" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1674</v>
+        <v>1459</v>
       </c>
       <c r="B510" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1677</v>
+        <v>1388</v>
       </c>
       <c r="B511" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1679</v>
+        <v>1632</v>
       </c>
       <c r="B512" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1681</v>
+        <v>1520</v>
       </c>
       <c r="B513" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1644</v>
+        <v>1674</v>
       </c>
       <c r="B514" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="B515" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1482</v>
+        <v>1679</v>
       </c>
       <c r="B516" t="s">
-        <v>1865</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>2152</v>
+        <v>1681</v>
       </c>
       <c r="B517" t="s">
-        <v>2153</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1699</v>
+        <v>1644</v>
       </c>
       <c r="B518" t="s">
-        <v>2641</v>
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>2393</v>
+        <v>2152</v>
+      </c>
+      <c r="B521" t="s">
+        <v>2153</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="B522" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1688</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1690</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="B526" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1693</v>
+        <v>1523</v>
       </c>
       <c r="B527" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1696</v>
+        <v>1524</v>
       </c>
       <c r="B528" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1459</v>
+        <v>1689</v>
       </c>
       <c r="B529" t="s">
-        <v>1697</v>
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>2394</v>
+        <v>1693</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B532" t="s">
-        <v>1729</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1699</v>
+        <v>1459</v>
       </c>
       <c r="B533" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1731</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1732</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="B536" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="B537" t="s">
-        <v>1702</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1667</v>
+        <v>1483</v>
       </c>
       <c r="B538" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B539" t="s">
-        <v>1705</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="B540" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B541" t="s">
-        <v>1735</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1708</v>
+        <v>1667</v>
       </c>
       <c r="B542" t="s">
-        <v>1709</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="B543" t="s">
-        <v>1736</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1459</v>
+        <v>1706</v>
       </c>
       <c r="B544" t="s">
-        <v>1711</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1689</v>
+        <v>1707</v>
       </c>
       <c r="B545" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B546" t="s">
-        <v>1738</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1160</v>
+        <v>1710</v>
       </c>
       <c r="B547" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1714</v>
+        <v>1459</v>
       </c>
       <c r="B548" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="B549" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B550" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1717</v>
+        <v>1160</v>
       </c>
       <c r="B551" t="s">
-        <v>1716</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1693</v>
+        <v>1714</v>
       </c>
       <c r="B552" t="s">
-        <v>1742</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1524</v>
+        <v>1696</v>
       </c>
       <c r="B553" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B554" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B555" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1721</v>
+        <v>1693</v>
       </c>
       <c r="B556" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1723</v>
+        <v>1524</v>
       </c>
       <c r="B557" t="s">
-        <v>1722</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="B558" t="s">
-        <v>1724</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B559" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="B560" t="s">
-        <v>1727</v>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>2395</v>
+        <v>1725</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1762</v>
+        <v>1726</v>
       </c>
       <c r="B563" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1764</v>
+        <v>1728</v>
       </c>
       <c r="B564" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1870</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1871</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1533</v>
+        <v>1762</v>
       </c>
       <c r="B567" t="s">
-        <v>1873</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1160</v>
+        <v>1764</v>
       </c>
       <c r="B568" t="s">
-        <v>1874</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1875</v>
+        <v>1689</v>
       </c>
       <c r="B569" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="B570" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1880</v>
+        <v>1533</v>
       </c>
       <c r="B571" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1881</v>
+        <v>1160</v>
       </c>
       <c r="B572" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1718</v>
+        <v>1875</v>
       </c>
       <c r="B573" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="B574" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1451</v>
+        <v>1880</v>
       </c>
       <c r="B575" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="B576" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1889</v>
+        <v>1718</v>
       </c>
       <c r="B577" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="B578" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1893</v>
+        <v>1451</v>
       </c>
       <c r="B579" t="s">
-        <v>1894</v>
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2396</v>
+        <v>1889</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1161</v>
+        <v>1891</v>
       </c>
       <c r="B582" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
       <c r="B583" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1908</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1408</v>
+        <v>1161</v>
       </c>
       <c r="B586" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1230</v>
+        <v>1906</v>
       </c>
       <c r="B587" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>252</v>
+        <v>1203</v>
       </c>
       <c r="B588" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1187</v>
+        <v>1236</v>
       </c>
       <c r="B589" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1238</v>
+        <v>1408</v>
       </c>
       <c r="B590" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1181</v>
+        <v>1230</v>
       </c>
       <c r="B591" t="s">
-        <v>1914</v>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>252</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2397</v>
+        <v>1187</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1915</v>
+        <v>1238</v>
       </c>
       <c r="B594" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1756</v>
+        <v>1181</v>
       </c>
       <c r="B595" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1920</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="B598" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1925</v>
+        <v>1756</v>
       </c>
       <c r="B599" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="B600" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="B601" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1402</v>
+        <v>1923</v>
       </c>
       <c r="B602" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="B603" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="B604" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="B605" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1578</v>
+        <v>1402</v>
       </c>
       <c r="B606" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="B607" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="B608" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1299</v>
+        <v>1936</v>
       </c>
       <c r="B609" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1943</v>
+        <v>1578</v>
       </c>
       <c r="B610" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="B611" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="B612" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1950</v>
+        <v>1299</v>
       </c>
       <c r="B613" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="B614" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="B615" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="B616" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="B617" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="B618" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1287</v>
+        <v>1953</v>
       </c>
       <c r="B619" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="B620" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1503</v>
+        <v>1958</v>
       </c>
       <c r="B621" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="B622" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1968</v>
+        <v>1287</v>
       </c>
       <c r="B623" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="B624" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1972</v>
+        <v>1503</v>
       </c>
       <c r="B625" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="B626" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="B627" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="B628" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="B629" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
         <v>1982</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B634" t="s">
         <v>1981</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2961</v>
       </c>
     </row>
   </sheetData>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="2963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2966">
   <si>
     <t>Base Set</t>
   </si>
@@ -8921,6 +8921,15 @@
   </si>
   <si>
     <t>1967 ERA Leaders</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-iVE-C_Ppp4A/V_0Z6ytJwFI/AAAAAAAAeZ4/ftGCMkhSoXsA-RhCxfqbTAHWFBp6B9i1wCLcB/s1600/2016%2BChachi%2B%252367%2BHome%2BRun%2BLeaders%2B-%2BHoward%252C%2BFranco%252C%2BJoseph.jpg</t>
+  </si>
+  <si>
+    <t>https://blowoutbuzz.files.wordpress.com/2016/10/2016-17-nba-hoops-auto-gallery-panini-2.jpg?w=450&amp;h=627</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
   </si>
 </sst>
 </file>
@@ -9290,9 +9299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <pane ySplit="4800" topLeftCell="A33"/>
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B71" sqref="B71"/>
       <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD82"/>
     </sheetView>
   </sheetViews>
@@ -9864,7 +9873,7 @@
         <v>2825</v>
       </c>
       <c r="B71" t="s">
-        <v>2399</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -17397,9 +17406,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B635"/>
+  <dimension ref="A1:B636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383:XFD383"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20360,1823 +20371,1831 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>2809</v>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2964</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B384" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>2812</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>2813</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>2867</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B388" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2118</v>
+        <v>1982</v>
       </c>
       <c r="B389" t="s">
-        <v>2117</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1543</v>
+        <v>2118</v>
       </c>
       <c r="B390" t="s">
-        <v>1544</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1578</v>
+        <v>1543</v>
       </c>
       <c r="B391" t="s">
-        <v>2871</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1972</v>
+        <v>1578</v>
       </c>
       <c r="B392" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1936</v>
+        <v>1972</v>
       </c>
       <c r="B393" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2875</v>
+        <v>1936</v>
       </c>
       <c r="B394" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B395" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1593</v>
+        <v>2877</v>
       </c>
       <c r="B396" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2880</v>
+        <v>1593</v>
       </c>
       <c r="B397" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="B398" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1402</v>
+        <v>2882</v>
       </c>
       <c r="B399" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2885</v>
+        <v>1402</v>
       </c>
       <c r="B400" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="B401" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B402" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1460</v>
+        <v>2888</v>
       </c>
       <c r="B403" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2028</v>
+        <v>1460</v>
       </c>
       <c r="B404" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1299</v>
+        <v>2028</v>
       </c>
       <c r="B405" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2893</v>
+        <v>1299</v>
       </c>
       <c r="B406" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1965</v>
+        <v>2893</v>
       </c>
       <c r="B407" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2896</v>
+        <v>1965</v>
       </c>
       <c r="B408" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2545</v>
+        <v>2896</v>
       </c>
       <c r="B409" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2899</v>
+        <v>2545</v>
       </c>
       <c r="B410" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1597</v>
+        <v>2899</v>
       </c>
       <c r="B411" t="s">
-        <v>2471</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
         <v>2170</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B413" t="s">
         <v>2171</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1545</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1547</v>
+        <v>1455</v>
       </c>
       <c r="B417" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B418" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B419" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B420" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B421" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1482</v>
+        <v>1555</v>
       </c>
       <c r="B422" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1558</v>
+        <v>1482</v>
       </c>
       <c r="B423" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1606</v>
+        <v>1558</v>
       </c>
       <c r="B424" t="s">
-        <v>1607</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1560</v>
+        <v>1606</v>
       </c>
       <c r="B425" t="s">
-        <v>1559</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B426" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B427" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B428" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B429" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="B430" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B431" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="B432" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B433" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B434" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1388</v>
+        <v>1578</v>
       </c>
       <c r="B435" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1581</v>
+        <v>1388</v>
       </c>
       <c r="B436" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B437" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B438" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B439" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B440" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B441" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B442" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B443" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B444" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B445" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B446" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B447" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>1603</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B449" t="s">
         <v>1605</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B452" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B453" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B454" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B455" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B456" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>2481</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B457" t="s">
         <v>2482</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B460" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2584</v>
+        <v>1455</v>
       </c>
       <c r="B461" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1589</v>
+        <v>2584</v>
       </c>
       <c r="B462" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1566</v>
+        <v>1589</v>
       </c>
       <c r="B463" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="B464" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1150</v>
+        <v>1602</v>
       </c>
       <c r="B465" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1219</v>
+        <v>1150</v>
       </c>
       <c r="B466" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1597</v>
+        <v>1219</v>
       </c>
       <c r="B467" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>2597</v>
+        <v>1597</v>
       </c>
       <c r="B468" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1593</v>
+        <v>2597</v>
       </c>
       <c r="B469" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1560</v>
+        <v>1593</v>
       </c>
       <c r="B470" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1595</v>
+        <v>1560</v>
       </c>
       <c r="B471" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>1549</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B473" t="s">
         <v>2603</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1636</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1388</v>
+        <v>1520</v>
       </c>
       <c r="B479" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1639</v>
+        <v>1388</v>
       </c>
       <c r="B480" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="B481" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="B482" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="B483" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1451</v>
+        <v>1644</v>
       </c>
       <c r="B484" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1560</v>
+        <v>1451</v>
       </c>
       <c r="B485" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1648</v>
+        <v>1560</v>
       </c>
       <c r="B486" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B487" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B488" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B489" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B490" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2150</v>
+        <v>1655</v>
       </c>
       <c r="B491" t="s">
-        <v>2151</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2591</v>
+        <v>2150</v>
       </c>
       <c r="B492" t="s">
-        <v>2590</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1683</v>
+        <v>2591</v>
       </c>
       <c r="B493" t="s">
-        <v>2621</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>1593</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B495" t="s">
         <v>2662</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1657</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="B501" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1521</v>
+        <v>1447</v>
       </c>
       <c r="B502" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1660</v>
+        <v>1521</v>
       </c>
       <c r="B503" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B504" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1639</v>
+        <v>1663</v>
       </c>
       <c r="B505" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="B506" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="B507" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1667</v>
+        <v>1641</v>
       </c>
       <c r="B508" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1160</v>
+        <v>1667</v>
       </c>
       <c r="B509" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1459</v>
+        <v>1160</v>
       </c>
       <c r="B510" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1388</v>
+        <v>1459</v>
       </c>
       <c r="B511" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1632</v>
+        <v>1388</v>
       </c>
       <c r="B512" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1520</v>
+        <v>1632</v>
       </c>
       <c r="B513" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1674</v>
+        <v>1520</v>
       </c>
       <c r="B514" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="B515" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B516" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B517" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1644</v>
+        <v>1681</v>
       </c>
       <c r="B518" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1683</v>
+        <v>1644</v>
       </c>
       <c r="B519" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1482</v>
+        <v>1683</v>
       </c>
       <c r="B520" t="s">
-        <v>1865</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>2152</v>
+        <v>1482</v>
       </c>
       <c r="B521" t="s">
-        <v>2153</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B522" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
         <v>1699</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B523" t="s">
         <v>2641</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1686</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1523</v>
+        <v>1685</v>
       </c>
       <c r="B527" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B528" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1689</v>
+        <v>1524</v>
       </c>
       <c r="B529" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B530" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B531" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="B532" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
         <v>1459</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B534" t="s">
         <v>1697</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1729</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B537" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1483</v>
+        <v>1699</v>
       </c>
       <c r="B538" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1700</v>
+        <v>1483</v>
       </c>
       <c r="B539" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B540" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B541" t="s">
-        <v>1702</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1667</v>
+        <v>1703</v>
       </c>
       <c r="B542" t="s">
-        <v>1747</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1704</v>
+        <v>1667</v>
       </c>
       <c r="B543" t="s">
-        <v>1705</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B544" t="s">
-        <v>1734</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B545" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B546" t="s">
-        <v>1709</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B547" t="s">
-        <v>1736</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1459</v>
+        <v>1710</v>
       </c>
       <c r="B548" t="s">
-        <v>1711</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1689</v>
+        <v>1459</v>
       </c>
       <c r="B549" t="s">
-        <v>1737</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1712</v>
+        <v>1689</v>
       </c>
       <c r="B550" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1160</v>
+        <v>1712</v>
       </c>
       <c r="B551" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1714</v>
+        <v>1160</v>
       </c>
       <c r="B552" t="s">
-        <v>1713</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1696</v>
+        <v>1714</v>
       </c>
       <c r="B553" t="s">
-        <v>1740</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1715</v>
+        <v>1696</v>
       </c>
       <c r="B554" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B555" t="s">
-        <v>1716</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1693</v>
+        <v>1717</v>
       </c>
       <c r="B556" t="s">
-        <v>1742</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1524</v>
+        <v>1693</v>
       </c>
       <c r="B557" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1718</v>
+        <v>1524</v>
       </c>
       <c r="B558" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B559" t="s">
-        <v>1719</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B560" t="s">
-        <v>1745</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B561" t="s">
-        <v>1722</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B562" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B563" t="s">
-        <v>1746</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
         <v>1728</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B565" t="s">
         <v>1727</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1763</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B568" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1689</v>
+        <v>1764</v>
       </c>
       <c r="B569" t="s">
-        <v>1870</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1872</v>
+        <v>1689</v>
       </c>
       <c r="B570" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1533</v>
+        <v>1872</v>
       </c>
       <c r="B571" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1160</v>
+        <v>1533</v>
       </c>
       <c r="B572" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1875</v>
+        <v>1160</v>
       </c>
       <c r="B573" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B574" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="B575" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B576" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1718</v>
+        <v>1881</v>
       </c>
       <c r="B577" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1885</v>
+        <v>1718</v>
       </c>
       <c r="B578" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1451</v>
+        <v>1885</v>
       </c>
       <c r="B579" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1887</v>
+        <v>1451</v>
       </c>
       <c r="B580" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B581" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B582" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>1893</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B584" t="s">
         <v>1894</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1904</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1906</v>
+        <v>1161</v>
       </c>
       <c r="B587" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1203</v>
+        <v>1906</v>
       </c>
       <c r="B588" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1236</v>
+        <v>1203</v>
       </c>
       <c r="B589" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1408</v>
+        <v>1236</v>
       </c>
       <c r="B590" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1230</v>
+        <v>1408</v>
       </c>
       <c r="B591" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>252</v>
+        <v>1230</v>
       </c>
       <c r="B592" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1187</v>
+        <v>252</v>
       </c>
       <c r="B593" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1238</v>
+        <v>1187</v>
       </c>
       <c r="B594" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>1181</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B596" t="s">
         <v>1914</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>2397</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1916</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1756</v>
+        <v>1915</v>
       </c>
       <c r="B599" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1919</v>
+        <v>1756</v>
       </c>
       <c r="B600" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B601" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B602" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B603" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B604" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B605" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1402</v>
+        <v>1929</v>
       </c>
       <c r="B606" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1934</v>
+        <v>1402</v>
       </c>
       <c r="B607" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B608" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B609" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1578</v>
+        <v>1936</v>
       </c>
       <c r="B610" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1939</v>
+        <v>1578</v>
       </c>
       <c r="B611" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B612" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1299</v>
+        <v>1941</v>
       </c>
       <c r="B613" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1943</v>
+        <v>1299</v>
       </c>
       <c r="B614" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="B615" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B616" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B617" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B618" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B619" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="B620" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B621" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B622" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1287</v>
+        <v>1960</v>
       </c>
       <c r="B623" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1963</v>
+        <v>1287</v>
       </c>
       <c r="B624" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1503</v>
+        <v>1963</v>
       </c>
       <c r="B625" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1965</v>
+        <v>1503</v>
       </c>
       <c r="B626" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="B627" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B628" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B629" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B630" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B631" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B632" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B633" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B634" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
         <v>2962</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B636" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="2978">
   <si>
     <t>Base Set</t>
   </si>
@@ -8930,6 +8930,42 @@
   </si>
   <si>
     <t>Ben Simmons</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-5R5NNoLUhvs/V_lEqo1_v7I/AAAAAAAAeYM/Z59tOr4f5YMriIVJpBQKpY9wRfE2Ss_6wCLcB/s1600/1992%2BAction%2BPacked%2BASG%2B%252328%2BGroat.jpg</t>
+  </si>
+  <si>
+    <t>Dick Groat 1992 Action Pack</t>
+  </si>
+  <si>
+    <t>Dick Groat 1967 Topps</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-f1zHwnQIpGI/V_k0OvxXbnI/AAAAAAAAeXs/FbRGwoxnlJE7AcCTOfvDRVMiATVfHgSWwCLcB/s1600/1967%2BTopps%2B%2523205%2BGroat.tiff</t>
+  </si>
+  <si>
+    <t>Reggie Jackson 1988 Score</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-QmawCpwhMZw/V_63CNUFfSI/AAAAAAAAk7U/0behwjHAZcgVLvmB30NNi0sbyfMUgaE8wCLcB/s1600/imh914.jpg</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-EA_yCiaYZ9s/V_63CuCDt5I/AAAAAAAAk7g/Ie91TXcAmI8o74F01PIng0xb4YuhYch-wCLcB/s1600/imh917.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-UgKyoyKFB3A/V_63AwCtuWI/AAAAAAAAk6w/RWMOqQpDVQoV3R-TlrGFf7i4VxjU5lSiQCLcB/s1600/imh906.jpg</t>
+  </si>
+  <si>
+    <t>Fernando Valenzuela 1994 Topps</t>
+  </si>
+  <si>
+    <t>Dave Cash 1993 Upper Deck Tri-Fold</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-6CON2UnuVX0/VrY4Dnk1LkI/AAAAAAAA5EM/5p7d_O61CKI5-Eqdnl93h7t4ApEa_pXtgCPcB/s1600/20160206_101947.jpg</t>
   </si>
 </sst>
 </file>
@@ -17406,10 +17442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B636"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="A383" sqref="A383:XFD383"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19329,2873 +19365,2921 @@
         <v>2658</v>
       </c>
     </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2966</v>
+      </c>
+    </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2387</v>
+        <v>2968</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2969</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1518</v>
+        <v>2976</v>
       </c>
       <c r="B251" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>259</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1504</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1505</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1506</v>
+        <v>1518</v>
       </c>
       <c r="B256" t="s">
-        <v>1508</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1514</v>
+        <v>1490</v>
       </c>
       <c r="B257" t="s">
-        <v>1513</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1535</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>1536</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1537</v>
+        <v>1503</v>
       </c>
       <c r="B259" t="s">
-        <v>1538</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1777</v>
+        <v>1507</v>
       </c>
       <c r="B260" t="s">
-        <v>1778</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1898</v>
+        <v>1506</v>
       </c>
       <c r="B261" t="s">
-        <v>1899</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1900</v>
+        <v>1514</v>
       </c>
       <c r="B262" t="s">
-        <v>1901</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1610</v>
+        <v>1535</v>
       </c>
       <c r="B263" t="s">
-        <v>1609</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1614</v>
+        <v>1537</v>
       </c>
       <c r="B264" t="s">
-        <v>1615</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1618</v>
+        <v>1777</v>
       </c>
       <c r="B265" t="s">
-        <v>1619</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1616</v>
+        <v>1898</v>
       </c>
       <c r="B266" t="s">
-        <v>1617</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1620</v>
+        <v>1900</v>
       </c>
       <c r="B267" t="s">
-        <v>1621</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2001</v>
+        <v>1610</v>
       </c>
       <c r="B268" t="s">
-        <v>2002</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2158</v>
+        <v>1614</v>
       </c>
       <c r="B269" t="s">
-        <v>2159</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2172</v>
+        <v>1618</v>
       </c>
       <c r="B270" t="s">
-        <v>2173</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2174</v>
+        <v>1616</v>
       </c>
       <c r="B271" t="s">
-        <v>2175</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>2176</v>
+        <v>1620</v>
       </c>
       <c r="B272" t="s">
-        <v>2177</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2184</v>
+        <v>2001</v>
       </c>
       <c r="B273" t="s">
-        <v>2185</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2196</v>
+        <v>2158</v>
       </c>
       <c r="B274" t="s">
-        <v>2197</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2204</v>
+        <v>2172</v>
       </c>
       <c r="B275" t="s">
-        <v>2205</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2206</v>
+        <v>2174</v>
       </c>
       <c r="B276" t="s">
-        <v>2207</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2222</v>
+        <v>2176</v>
       </c>
       <c r="B277" t="s">
-        <v>2223</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2224</v>
+        <v>2184</v>
       </c>
       <c r="B278" t="s">
-        <v>2225</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2226</v>
+        <v>2196</v>
       </c>
       <c r="B279" t="s">
-        <v>2227</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2228</v>
+        <v>2204</v>
       </c>
       <c r="B280" t="s">
-        <v>2229</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1514</v>
+        <v>2206</v>
       </c>
       <c r="B281" t="s">
-        <v>2230</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2231</v>
+        <v>2222</v>
       </c>
       <c r="B282" t="s">
-        <v>2232</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="B283" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2242</v>
+        <v>2226</v>
       </c>
       <c r="B284" t="s">
-        <v>2243</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2342</v>
+        <v>2228</v>
       </c>
       <c r="B285" t="s">
-        <v>2343</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2344</v>
+        <v>1514</v>
       </c>
       <c r="B286" t="s">
-        <v>2345</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2346</v>
+        <v>2231</v>
       </c>
       <c r="B287" t="s">
-        <v>2347</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2324</v>
+        <v>2234</v>
       </c>
       <c r="B288" t="s">
-        <v>2325</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2326</v>
+        <v>2242</v>
       </c>
       <c r="B289" t="s">
-        <v>2327</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2298</v>
+        <v>2342</v>
       </c>
       <c r="B290" t="s">
-        <v>2299</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2300</v>
+        <v>2344</v>
       </c>
       <c r="B291" t="s">
-        <v>2301</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2304</v>
+        <v>2346</v>
       </c>
       <c r="B292" t="s">
-        <v>2305</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2306</v>
+        <v>2324</v>
       </c>
       <c r="B293" t="s">
-        <v>2307</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2308</v>
+        <v>2326</v>
       </c>
       <c r="B294" t="s">
-        <v>2309</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2312</v>
+        <v>2298</v>
       </c>
       <c r="B295" t="s">
-        <v>2313</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2290</v>
+        <v>2300</v>
       </c>
       <c r="B296" t="s">
-        <v>2291</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2350</v>
+        <v>2304</v>
       </c>
       <c r="B297" t="s">
-        <v>2351</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2352</v>
+        <v>2306</v>
       </c>
       <c r="B298" t="s">
-        <v>2353</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2356</v>
+        <v>2308</v>
       </c>
       <c r="B299" t="s">
-        <v>2357</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2360</v>
+        <v>2312</v>
       </c>
       <c r="B300" t="s">
-        <v>2361</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2362</v>
+        <v>2290</v>
       </c>
       <c r="B301" t="s">
-        <v>2363</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2364</v>
+        <v>2350</v>
       </c>
       <c r="B302" t="s">
-        <v>2365</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2368</v>
+        <v>2352</v>
       </c>
       <c r="B303" t="s">
-        <v>2369</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2370</v>
+        <v>2356</v>
       </c>
       <c r="B304" t="s">
-        <v>2371</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2376</v>
+        <v>2360</v>
       </c>
       <c r="B305" t="s">
-        <v>2377</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2485</v>
+        <v>2362</v>
       </c>
       <c r="B306" t="s">
-        <v>2486</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2489</v>
+        <v>2364</v>
       </c>
       <c r="B307" t="s">
-        <v>2490</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2491</v>
+        <v>2368</v>
       </c>
       <c r="B308" t="s">
-        <v>2492</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2497</v>
+        <v>2370</v>
       </c>
       <c r="B309" t="s">
-        <v>2498</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2501</v>
+        <v>2376</v>
       </c>
       <c r="B310" t="s">
-        <v>2502</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2503</v>
+        <v>2485</v>
       </c>
       <c r="B311" t="s">
-        <v>2504</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2505</v>
+        <v>2489</v>
       </c>
       <c r="B312" t="s">
-        <v>2506</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2507</v>
+        <v>2491</v>
       </c>
       <c r="B313" t="s">
-        <v>2508</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2515</v>
+        <v>2497</v>
       </c>
       <c r="B314" t="s">
-        <v>2516</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2517</v>
+        <v>2501</v>
       </c>
       <c r="B315" t="s">
-        <v>2518</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2523</v>
+        <v>2503</v>
       </c>
       <c r="B316" t="s">
-        <v>2524</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2525</v>
+        <v>2505</v>
       </c>
       <c r="B317" t="s">
-        <v>2526</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2529</v>
+        <v>2507</v>
       </c>
       <c r="B318" t="s">
-        <v>2530</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2537</v>
+        <v>2515</v>
       </c>
       <c r="B319" t="s">
-        <v>2538</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2539</v>
+        <v>2517</v>
       </c>
       <c r="B320" t="s">
-        <v>2540</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2541</v>
+        <v>2523</v>
       </c>
       <c r="B321" t="s">
-        <v>2542</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2563</v>
+        <v>2525</v>
       </c>
       <c r="B322" t="s">
-        <v>2561</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2560</v>
+        <v>2529</v>
       </c>
       <c r="B323" t="s">
-        <v>2562</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2576</v>
+        <v>2537</v>
       </c>
       <c r="B324" t="s">
-        <v>2577</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2578</v>
+        <v>2539</v>
       </c>
       <c r="B325" t="s">
-        <v>2579</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2580</v>
+        <v>2541</v>
       </c>
       <c r="B326" t="s">
-        <v>2581</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2594</v>
+        <v>2563</v>
       </c>
       <c r="B327" t="s">
-        <v>2595</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2598</v>
+        <v>2560</v>
       </c>
       <c r="B328" t="s">
-        <v>2599</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2651</v>
+        <v>2576</v>
       </c>
       <c r="B329" t="s">
-        <v>2650</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1388</v>
+        <v>2578</v>
       </c>
       <c r="B330" t="s">
-        <v>2652</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2653</v>
+        <v>2580</v>
       </c>
       <c r="B331" t="s">
-        <v>2654</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2655</v>
+        <v>2594</v>
       </c>
       <c r="B332" t="s">
-        <v>2656</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2660</v>
+        <v>2598</v>
       </c>
       <c r="B333" t="s">
-        <v>2659</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2671</v>
+        <v>2651</v>
       </c>
       <c r="B334" t="s">
-        <v>2672</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2673</v>
+        <v>1388</v>
       </c>
       <c r="B335" t="s">
-        <v>2674</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2678</v>
+        <v>2653</v>
       </c>
       <c r="B336" t="s">
-        <v>2677</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2746</v>
+        <v>2655</v>
       </c>
       <c r="B337" t="s">
-        <v>2747</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2771</v>
+        <v>2660</v>
       </c>
       <c r="B338" t="s">
-        <v>2772</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2799</v>
+        <v>2671</v>
       </c>
       <c r="B339" t="s">
-        <v>2800</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2802</v>
+        <v>2673</v>
       </c>
       <c r="B340" t="s">
-        <v>2801</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2814</v>
+        <v>2678</v>
       </c>
       <c r="B341" t="s">
-        <v>2815</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2855</v>
+        <v>2746</v>
       </c>
       <c r="B342" t="s">
-        <v>2856</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2858</v>
+        <v>2771</v>
       </c>
       <c r="B343" t="s">
-        <v>2857</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2859</v>
+        <v>2799</v>
       </c>
       <c r="B344" t="s">
-        <v>2860</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2863</v>
+        <v>2802</v>
       </c>
       <c r="B345" t="s">
-        <v>2864</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2865</v>
+        <v>2814</v>
       </c>
       <c r="B346" t="s">
-        <v>2866</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2870</v>
+        <v>2855</v>
       </c>
       <c r="B347" t="s">
-        <v>2869</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2901</v>
+        <v>2858</v>
       </c>
       <c r="B348" t="s">
-        <v>2902</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2904</v>
+        <v>2859</v>
       </c>
       <c r="B349" t="s">
-        <v>2903</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2905</v>
+        <v>2863</v>
       </c>
       <c r="B350" t="s">
-        <v>2906</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2907</v>
+        <v>2865</v>
       </c>
       <c r="B351" t="s">
-        <v>2908</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2909</v>
+        <v>2870</v>
       </c>
       <c r="B352" t="s">
-        <v>2911</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2910</v>
+        <v>2901</v>
       </c>
       <c r="B353" t="s">
-        <v>2912</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2914</v>
+        <v>2904</v>
       </c>
       <c r="B354" t="s">
-        <v>2913</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2915</v>
+        <v>2905</v>
       </c>
       <c r="B355" t="s">
-        <v>2916</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2919</v>
+        <v>2907</v>
       </c>
       <c r="B356" t="s">
-        <v>2917</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2918</v>
+        <v>2909</v>
       </c>
       <c r="B357" t="s">
-        <v>2922</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2921</v>
+        <v>2910</v>
       </c>
       <c r="B358" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1889</v>
+        <v>2914</v>
       </c>
       <c r="B359" t="s">
-        <v>2923</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2925</v>
+        <v>2915</v>
       </c>
       <c r="B360" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2927</v>
+        <v>2919</v>
       </c>
       <c r="B361" t="s">
-        <v>2926</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2929</v>
+        <v>2918</v>
       </c>
       <c r="B362" t="s">
-        <v>2928</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2931</v>
+        <v>2921</v>
       </c>
       <c r="B363" t="s">
-        <v>2930</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2933</v>
+        <v>1889</v>
       </c>
       <c r="B364" t="s">
-        <v>2932</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2934</v>
+        <v>2925</v>
       </c>
       <c r="B365" t="s">
-        <v>2935</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2936</v>
+        <v>2927</v>
       </c>
       <c r="B366" t="s">
-        <v>2937</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2939</v>
+        <v>2929</v>
       </c>
       <c r="B367" t="s">
-        <v>2938</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2941</v>
+        <v>2931</v>
       </c>
       <c r="B368" t="s">
-        <v>2940</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2943</v>
+        <v>2933</v>
       </c>
       <c r="B369" t="s">
-        <v>2942</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2945</v>
+        <v>2934</v>
       </c>
       <c r="B370" t="s">
-        <v>2944</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2947</v>
+        <v>2936</v>
       </c>
       <c r="B371" t="s">
-        <v>2946</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2949</v>
+        <v>2939</v>
       </c>
       <c r="B372" t="s">
-        <v>2948</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2953</v>
+        <v>2941</v>
       </c>
       <c r="B373" t="s">
-        <v>2954</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2955</v>
+        <v>2943</v>
       </c>
       <c r="B374" t="s">
-        <v>2956</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2957</v>
+        <v>2945</v>
       </c>
       <c r="B375" t="s">
-        <v>2958</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2019</v>
+        <v>2947</v>
       </c>
       <c r="B376" t="s">
-        <v>2959</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2036</v>
+        <v>2949</v>
       </c>
       <c r="B377" t="s">
-        <v>2960</v>
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2954</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2447</v>
+        <v>2955</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2956</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2354</v>
+        <v>2957</v>
       </c>
       <c r="B380" t="s">
-        <v>2355</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2372</v>
+        <v>2019</v>
       </c>
       <c r="B381" t="s">
-        <v>2373</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2965</v>
+        <v>2036</v>
       </c>
       <c r="B382" t="s">
-        <v>2964</v>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2971</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2809</v>
+        <v>2972</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2973</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2810</v>
+        <v>2975</v>
       </c>
       <c r="B385" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B386" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B389" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B390" t="s">
-        <v>2117</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1544</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1578</v>
+        <v>2354</v>
       </c>
       <c r="B392" t="s">
-        <v>2871</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1972</v>
+        <v>2372</v>
       </c>
       <c r="B393" t="s">
-        <v>2872</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1936</v>
+        <v>2965</v>
       </c>
       <c r="B394" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B395" t="s">
-        <v>2874</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B396" t="s">
-        <v>2876</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1593</v>
+        <v>2810</v>
       </c>
       <c r="B397" t="s">
-        <v>2878</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2880</v>
+        <v>2812</v>
       </c>
       <c r="B398" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B399" t="s">
-        <v>2881</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B400" t="s">
-        <v>2883</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2885</v>
+        <v>1982</v>
       </c>
       <c r="B401" t="s">
-        <v>2884</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2887</v>
+        <v>2118</v>
       </c>
       <c r="B402" t="s">
-        <v>2886</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2888</v>
+        <v>1543</v>
       </c>
       <c r="B403" t="s">
-        <v>2889</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1460</v>
+        <v>1578</v>
       </c>
       <c r="B404" t="s">
-        <v>2890</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2028</v>
+        <v>1972</v>
       </c>
       <c r="B405" t="s">
-        <v>2891</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1299</v>
+        <v>1936</v>
       </c>
       <c r="B406" t="s">
-        <v>2892</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2893</v>
+        <v>2875</v>
       </c>
       <c r="B407" t="s">
-        <v>2894</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1965</v>
+        <v>2877</v>
       </c>
       <c r="B408" t="s">
-        <v>2895</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2896</v>
+        <v>1593</v>
       </c>
       <c r="B409" t="s">
-        <v>2897</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2545</v>
+        <v>2880</v>
       </c>
       <c r="B410" t="s">
-        <v>2898</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2899</v>
+        <v>2882</v>
       </c>
       <c r="B411" t="s">
-        <v>2900</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1597</v>
+        <v>1402</v>
       </c>
       <c r="B412" t="s">
-        <v>2471</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2170</v>
+        <v>2885</v>
       </c>
       <c r="B413" t="s">
-        <v>2171</v>
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2889</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2389</v>
+        <v>1460</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2890</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1455</v>
+        <v>2028</v>
       </c>
       <c r="B417" t="s">
-        <v>1545</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1547</v>
+        <v>1299</v>
       </c>
       <c r="B418" t="s">
-        <v>1546</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1549</v>
+        <v>2893</v>
       </c>
       <c r="B419" t="s">
-        <v>1548</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1551</v>
+        <v>1965</v>
       </c>
       <c r="B420" t="s">
-        <v>1550</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1553</v>
+        <v>2896</v>
       </c>
       <c r="B421" t="s">
-        <v>1552</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1555</v>
+        <v>2545</v>
       </c>
       <c r="B422" t="s">
-        <v>1554</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1482</v>
+        <v>2899</v>
       </c>
       <c r="B423" t="s">
-        <v>1556</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1558</v>
+        <v>1597</v>
       </c>
       <c r="B424" t="s">
-        <v>1557</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1606</v>
+        <v>2170</v>
       </c>
       <c r="B425" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B427" t="s">
-        <v>1561</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1563</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1566</v>
+        <v>1455</v>
       </c>
       <c r="B429" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1567</v>
+        <v>1547</v>
       </c>
       <c r="B430" t="s">
-        <v>1568</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="B431" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1571</v>
+        <v>1551</v>
       </c>
       <c r="B432" t="s">
-        <v>1572</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1575</v>
+        <v>1553</v>
       </c>
       <c r="B433" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1574</v>
+        <v>1555</v>
       </c>
       <c r="B434" t="s">
-        <v>1576</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1578</v>
+        <v>1482</v>
       </c>
       <c r="B435" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1388</v>
+        <v>1558</v>
       </c>
       <c r="B436" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1581</v>
+        <v>1606</v>
       </c>
       <c r="B437" t="s">
-        <v>1580</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1583</v>
+        <v>1560</v>
       </c>
       <c r="B438" t="s">
-        <v>1582</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1585</v>
+        <v>1562</v>
       </c>
       <c r="B439" t="s">
-        <v>1584</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1587</v>
+        <v>1564</v>
       </c>
       <c r="B440" t="s">
-        <v>1586</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1589</v>
+        <v>1566</v>
       </c>
       <c r="B441" t="s">
-        <v>1588</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1591</v>
+        <v>1567</v>
       </c>
       <c r="B442" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1593</v>
+        <v>1570</v>
       </c>
       <c r="B443" t="s">
-        <v>1592</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1595</v>
+        <v>1571</v>
       </c>
       <c r="B444" t="s">
-        <v>1594</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="B445" t="s">
-        <v>1596</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1600</v>
+        <v>1574</v>
       </c>
       <c r="B446" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="B447" t="s">
-        <v>1601</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1602</v>
+        <v>1388</v>
       </c>
       <c r="B448" t="s">
-        <v>1604</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1603</v>
+        <v>1581</v>
       </c>
       <c r="B449" t="s">
-        <v>1605</v>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2472</v>
+        <v>1587</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2473</v>
+        <v>1589</v>
       </c>
       <c r="B453" t="s">
-        <v>2474</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2475</v>
+        <v>1591</v>
       </c>
       <c r="B454" t="s">
-        <v>2476</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2477</v>
+        <v>1593</v>
       </c>
       <c r="B455" t="s">
-        <v>2478</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2479</v>
+        <v>1595</v>
       </c>
       <c r="B456" t="s">
-        <v>2480</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>2481</v>
+        <v>1597</v>
       </c>
       <c r="B457" t="s">
-        <v>2482</v>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>2582</v>
+        <v>1602</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1455</v>
+        <v>1603</v>
       </c>
       <c r="B461" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B462" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B463" t="s">
-        <v>2586</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B464" t="s">
-        <v>2587</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1602</v>
+        <v>2473</v>
       </c>
       <c r="B465" t="s">
-        <v>2588</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1150</v>
+        <v>2475</v>
       </c>
       <c r="B466" t="s">
-        <v>2589</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1219</v>
+        <v>2477</v>
       </c>
       <c r="B467" t="s">
-        <v>2592</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1597</v>
+        <v>2479</v>
       </c>
       <c r="B468" t="s">
-        <v>2593</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2597</v>
+        <v>2481</v>
       </c>
       <c r="B469" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B470" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B471" t="s">
-        <v>2601</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B472" t="s">
-        <v>2602</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1549</v>
+        <v>1455</v>
       </c>
       <c r="B473" t="s">
-        <v>2603</v>
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B474" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B475" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B476" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B477" t="s">
+        <v>2588</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>2391</v>
+        <v>1150</v>
+      </c>
+      <c r="B478" t="s">
+        <v>2589</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1520</v>
+        <v>1219</v>
       </c>
       <c r="B479" t="s">
-        <v>1636</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1388</v>
+        <v>1597</v>
       </c>
       <c r="B480" t="s">
-        <v>1637</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1639</v>
+        <v>2597</v>
       </c>
       <c r="B481" t="s">
-        <v>1638</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1632</v>
+        <v>1593</v>
       </c>
       <c r="B482" t="s">
-        <v>1640</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1641</v>
+        <v>1560</v>
       </c>
       <c r="B483" t="s">
-        <v>1642</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1644</v>
+        <v>1595</v>
       </c>
       <c r="B484" t="s">
-        <v>1643</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1451</v>
+        <v>1549</v>
       </c>
       <c r="B485" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1652</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1654</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1655</v>
+        <v>1520</v>
       </c>
       <c r="B491" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2150</v>
+        <v>1388</v>
       </c>
       <c r="B492" t="s">
-        <v>2151</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2591</v>
+        <v>1639</v>
       </c>
       <c r="B493" t="s">
-        <v>2590</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1683</v>
+        <v>1632</v>
       </c>
       <c r="B494" t="s">
-        <v>2621</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1593</v>
+        <v>1641</v>
       </c>
       <c r="B495" t="s">
-        <v>2662</v>
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>2392</v>
+        <v>1649</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1451</v>
+        <v>1651</v>
       </c>
       <c r="B501" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1447</v>
+        <v>1653</v>
       </c>
       <c r="B502" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1521</v>
+        <v>1655</v>
       </c>
       <c r="B503" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1660</v>
+        <v>2150</v>
       </c>
       <c r="B504" t="s">
-        <v>1661</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1663</v>
+        <v>2591</v>
       </c>
       <c r="B505" t="s">
-        <v>1662</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1639</v>
+        <v>1683</v>
       </c>
       <c r="B506" t="s">
-        <v>1664</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1651</v>
+        <v>1593</v>
       </c>
       <c r="B507" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1670</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1671</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1632</v>
+        <v>1451</v>
       </c>
       <c r="B513" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1520</v>
+        <v>1447</v>
       </c>
       <c r="B514" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1674</v>
+        <v>1521</v>
       </c>
       <c r="B515" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="B516" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="B517" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1681</v>
+        <v>1639</v>
       </c>
       <c r="B518" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="B519" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1683</v>
+        <v>1641</v>
       </c>
       <c r="B520" t="s">
-        <v>1684</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1482</v>
+        <v>1667</v>
       </c>
       <c r="B521" t="s">
-        <v>1865</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>2152</v>
+        <v>1160</v>
       </c>
       <c r="B522" t="s">
-        <v>2153</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1699</v>
+        <v>1459</v>
       </c>
       <c r="B523" t="s">
-        <v>2641</v>
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>2393</v>
+        <v>1520</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="B527" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1523</v>
+        <v>1677</v>
       </c>
       <c r="B528" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1524</v>
+        <v>1679</v>
       </c>
       <c r="B529" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="B530" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1691</v>
+        <v>1644</v>
       </c>
       <c r="B531" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="B532" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1696</v>
+        <v>1482</v>
       </c>
       <c r="B533" t="s">
-        <v>1695</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1459</v>
+        <v>2152</v>
       </c>
       <c r="B534" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1729</v>
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2641</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1730</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1483</v>
+        <v>1685</v>
       </c>
       <c r="B539" t="s">
-        <v>1731</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1700</v>
+        <v>1523</v>
       </c>
       <c r="B540" t="s">
-        <v>1732</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1701</v>
+        <v>1524</v>
       </c>
       <c r="B541" t="s">
-        <v>1733</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
       <c r="B542" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1667</v>
+        <v>1691</v>
       </c>
       <c r="B543" t="s">
-        <v>1747</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="B544" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="B545" t="s">
-        <v>1734</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1707</v>
+        <v>1459</v>
       </c>
       <c r="B546" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1736</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1459</v>
+        <v>1698</v>
       </c>
       <c r="B549" t="s">
-        <v>1711</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="B550" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1712</v>
+        <v>1483</v>
       </c>
       <c r="B551" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1160</v>
+        <v>1700</v>
       </c>
       <c r="B552" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="B553" t="s">
-        <v>1713</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="B554" t="s">
-        <v>1740</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1715</v>
+        <v>1667</v>
       </c>
       <c r="B555" t="s">
-        <v>1741</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="B556" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1693</v>
+        <v>1706</v>
       </c>
       <c r="B557" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1524</v>
+        <v>1707</v>
       </c>
       <c r="B558" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="B559" t="s">
-        <v>1744</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B560" t="s">
-        <v>1719</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1721</v>
+        <v>1459</v>
       </c>
       <c r="B561" t="s">
-        <v>1745</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1723</v>
+        <v>1689</v>
       </c>
       <c r="B562" t="s">
-        <v>1722</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="B563" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1726</v>
+        <v>1160</v>
       </c>
       <c r="B564" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1728</v>
+        <v>1714</v>
       </c>
       <c r="B565" t="s">
-        <v>1727</v>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>2395</v>
+        <v>1715</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1762</v>
+        <v>1717</v>
       </c>
       <c r="B568" t="s">
-        <v>1763</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1764</v>
+        <v>1693</v>
       </c>
       <c r="B569" t="s">
-        <v>1765</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1689</v>
+        <v>1524</v>
       </c>
       <c r="B570" t="s">
-        <v>1870</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1872</v>
+        <v>1718</v>
       </c>
       <c r="B571" t="s">
-        <v>1871</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1533</v>
+        <v>1720</v>
       </c>
       <c r="B572" t="s">
-        <v>1873</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1160</v>
+        <v>1721</v>
       </c>
       <c r="B573" t="s">
-        <v>1874</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1875</v>
+        <v>1723</v>
       </c>
       <c r="B574" t="s">
-        <v>1876</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1877</v>
+        <v>1725</v>
       </c>
       <c r="B575" t="s">
-        <v>1878</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1880</v>
+        <v>1726</v>
       </c>
       <c r="B576" t="s">
-        <v>1879</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1881</v>
+        <v>1728</v>
       </c>
       <c r="B577" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1883</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1884</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1451</v>
+        <v>1762</v>
       </c>
       <c r="B580" t="s">
-        <v>1886</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1887</v>
+        <v>1764</v>
       </c>
       <c r="B581" t="s">
-        <v>1888</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1889</v>
+        <v>1689</v>
       </c>
       <c r="B582" t="s">
-        <v>1890</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1891</v>
+        <v>1872</v>
       </c>
       <c r="B583" t="s">
-        <v>1892</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1893</v>
+        <v>1533</v>
       </c>
       <c r="B584" t="s">
-        <v>1894</v>
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2396</v>
+        <v>1875</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1161</v>
+        <v>1877</v>
       </c>
       <c r="B587" t="s">
-        <v>1904</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1906</v>
+        <v>1880</v>
       </c>
       <c r="B588" t="s">
-        <v>1905</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1203</v>
+        <v>1881</v>
       </c>
       <c r="B589" t="s">
-        <v>1907</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1236</v>
+        <v>1718</v>
       </c>
       <c r="B590" t="s">
-        <v>1908</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1408</v>
+        <v>1885</v>
       </c>
       <c r="B591" t="s">
-        <v>1909</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1230</v>
+        <v>1451</v>
       </c>
       <c r="B592" t="s">
-        <v>1910</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>252</v>
+        <v>1887</v>
       </c>
       <c r="B593" t="s">
-        <v>1911</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1187</v>
+        <v>1889</v>
       </c>
       <c r="B594" t="s">
-        <v>1912</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1238</v>
+        <v>1891</v>
       </c>
       <c r="B595" t="s">
-        <v>1913</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1181</v>
+        <v>1893</v>
       </c>
       <c r="B596" t="s">
-        <v>1914</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1915</v>
+        <v>1161</v>
       </c>
       <c r="B599" t="s">
-        <v>1916</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1756</v>
+        <v>1906</v>
       </c>
       <c r="B600" t="s">
-        <v>1917</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1919</v>
+        <v>1203</v>
       </c>
       <c r="B601" t="s">
-        <v>1918</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1921</v>
+        <v>1236</v>
       </c>
       <c r="B602" t="s">
-        <v>1920</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1923</v>
+        <v>1408</v>
       </c>
       <c r="B603" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1925</v>
+        <v>1230</v>
       </c>
       <c r="B604" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1926</v>
+        <v>252</v>
       </c>
       <c r="B605" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1929</v>
+        <v>1187</v>
       </c>
       <c r="B606" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1402</v>
+        <v>1238</v>
       </c>
       <c r="B607" t="s">
-        <v>1930</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1934</v>
+        <v>1181</v>
       </c>
       <c r="B608" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1932</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1935</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1578</v>
+        <v>1915</v>
       </c>
       <c r="B611" t="s">
-        <v>1937</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1939</v>
+        <v>1756</v>
       </c>
       <c r="B612" t="s">
-        <v>1938</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1941</v>
+        <v>1919</v>
       </c>
       <c r="B613" t="s">
-        <v>1940</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1299</v>
+        <v>1921</v>
       </c>
       <c r="B614" t="s">
-        <v>1942</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1943</v>
+        <v>1923</v>
       </c>
       <c r="B615" t="s">
-        <v>1944</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1946</v>
+        <v>1925</v>
       </c>
       <c r="B616" t="s">
-        <v>1945</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1948</v>
+        <v>1926</v>
       </c>
       <c r="B617" t="s">
-        <v>1947</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1950</v>
+        <v>1929</v>
       </c>
       <c r="B618" t="s">
-        <v>1949</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1952</v>
+        <v>1402</v>
       </c>
       <c r="B619" t="s">
-        <v>1951</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1953</v>
+        <v>1934</v>
       </c>
       <c r="B620" t="s">
-        <v>1954</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1956</v>
+        <v>1933</v>
       </c>
       <c r="B621" t="s">
-        <v>1955</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1958</v>
+        <v>1936</v>
       </c>
       <c r="B622" t="s">
-        <v>1957</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1960</v>
+        <v>1578</v>
       </c>
       <c r="B623" t="s">
-        <v>1959</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1287</v>
+        <v>1939</v>
       </c>
       <c r="B624" t="s">
-        <v>1961</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1963</v>
+        <v>1941</v>
       </c>
       <c r="B625" t="s">
-        <v>1962</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1503</v>
+        <v>1299</v>
       </c>
       <c r="B626" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1965</v>
+        <v>1943</v>
       </c>
       <c r="B627" t="s">
-        <v>1966</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1968</v>
+        <v>1946</v>
       </c>
       <c r="B628" t="s">
-        <v>1967</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1970</v>
+        <v>1948</v>
       </c>
       <c r="B629" t="s">
-        <v>1969</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1972</v>
+        <v>1950</v>
       </c>
       <c r="B630" t="s">
-        <v>1971</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1973</v>
+        <v>1952</v>
       </c>
       <c r="B631" t="s">
-        <v>1974</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1976</v>
+        <v>1953</v>
       </c>
       <c r="B632" t="s">
-        <v>1975</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1978</v>
+        <v>1956</v>
       </c>
       <c r="B633" t="s">
-        <v>1977</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1980</v>
+        <v>1958</v>
       </c>
       <c r="B634" t="s">
-        <v>1979</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1982</v>
+        <v>1960</v>
       </c>
       <c r="B635" t="s">
-        <v>1981</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
         <v>2962</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B648" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="2980">
   <si>
     <t>Base Set</t>
   </si>
@@ -8966,6 +8966,12 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-6CON2UnuVX0/VrY4Dnk1LkI/AAAAAAAA5EM/5p7d_O61CKI5-Eqdnl93h7t4ApEa_pXtgCPcB/s1600/20160206_101947.jpg</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-1c0HZf76lF0/WAa1uyy88BI/AAAAAAAARpw/2zLlEOeYuJkQODf9d6CZE3aCqNiAw9ajgCLcB/s1600/img490%2B-%2BCopy%2B%25284%2529.jpg</t>
   </si>
 </sst>
 </file>
@@ -17442,10 +17448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20463,1823 +20469,1831 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B397" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B398" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>2867</v>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2979</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B401" t="s">
-        <v>2868</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2118</v>
+        <v>2810</v>
       </c>
       <c r="B402" t="s">
-        <v>2117</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1543</v>
+        <v>2812</v>
       </c>
       <c r="B403" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B404" t="s">
-        <v>2871</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B405" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1936</v>
+        <v>1982</v>
       </c>
       <c r="B406" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2875</v>
+        <v>2118</v>
       </c>
       <c r="B407" t="s">
-        <v>2874</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2877</v>
+        <v>1543</v>
       </c>
       <c r="B408" t="s">
-        <v>2876</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="B409" t="s">
-        <v>2878</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2880</v>
+        <v>1972</v>
       </c>
       <c r="B410" t="s">
-        <v>2879</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2882</v>
+        <v>1936</v>
       </c>
       <c r="B411" t="s">
-        <v>2881</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1402</v>
+        <v>2875</v>
       </c>
       <c r="B412" t="s">
-        <v>2883</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2885</v>
+        <v>2877</v>
       </c>
       <c r="B413" t="s">
-        <v>2884</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2887</v>
+        <v>1593</v>
       </c>
       <c r="B414" t="s">
-        <v>2886</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="B415" t="s">
-        <v>2889</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1460</v>
+        <v>2882</v>
       </c>
       <c r="B416" t="s">
-        <v>2890</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2028</v>
+        <v>1402</v>
       </c>
       <c r="B417" t="s">
-        <v>2891</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1299</v>
+        <v>2885</v>
       </c>
       <c r="B418" t="s">
-        <v>2892</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="B419" t="s">
-        <v>2894</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1965</v>
+        <v>2888</v>
       </c>
       <c r="B420" t="s">
-        <v>2895</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>2896</v>
+        <v>1460</v>
       </c>
       <c r="B421" t="s">
-        <v>2897</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2545</v>
+        <v>2028</v>
       </c>
       <c r="B422" t="s">
-        <v>2898</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2899</v>
+        <v>1299</v>
       </c>
       <c r="B423" t="s">
-        <v>2900</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1597</v>
+        <v>2893</v>
       </c>
       <c r="B424" t="s">
-        <v>2471</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>2170</v>
+        <v>1965</v>
       </c>
       <c r="B425" t="s">
-        <v>2171</v>
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2898</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2389</v>
+        <v>2899</v>
+      </c>
+      <c r="B428" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1455</v>
+        <v>1597</v>
       </c>
       <c r="B429" t="s">
-        <v>1545</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1547</v>
+        <v>2170</v>
       </c>
       <c r="B430" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1550</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1552</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1555</v>
+        <v>1455</v>
       </c>
       <c r="B434" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1482</v>
+        <v>1547</v>
       </c>
       <c r="B435" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="B436" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1606</v>
+        <v>1551</v>
       </c>
       <c r="B437" t="s">
-        <v>1607</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="B438" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="B439" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1564</v>
+        <v>1482</v>
       </c>
       <c r="B440" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="B441" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1567</v>
+        <v>1606</v>
       </c>
       <c r="B442" t="s">
-        <v>1568</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="B443" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="B444" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="B445" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="B446" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="B447" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1388</v>
+        <v>1570</v>
       </c>
       <c r="B448" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="B449" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="B450" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="B451" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="B452" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1589</v>
+        <v>1388</v>
       </c>
       <c r="B453" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="B454" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="B455" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="B456" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="B457" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="B458" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="B459" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="B460" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="B461" t="s">
-        <v>1605</v>
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>2472</v>
+        <v>1599</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>2473</v>
+        <v>1602</v>
       </c>
       <c r="B465" t="s">
-        <v>2474</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>2475</v>
+        <v>1603</v>
       </c>
       <c r="B466" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B467" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B468" t="s">
-        <v>2480</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B469" t="s">
-        <v>2482</v>
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B471" t="s">
+        <v>2476</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>2582</v>
+        <v>2477</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2478</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1455</v>
+        <v>2479</v>
       </c>
       <c r="B473" t="s">
-        <v>2583</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2584</v>
+        <v>2481</v>
       </c>
       <c r="B474" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B475" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B476" t="s">
-        <v>2587</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B477" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1150</v>
+        <v>1455</v>
       </c>
       <c r="B478" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1219</v>
+        <v>2584</v>
       </c>
       <c r="B479" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="B480" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2597</v>
+        <v>1566</v>
       </c>
       <c r="B481" t="s">
-        <v>2596</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1593</v>
+        <v>1602</v>
       </c>
       <c r="B482" t="s">
-        <v>2600</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1560</v>
+        <v>1150</v>
       </c>
       <c r="B483" t="s">
-        <v>2601</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1595</v>
+        <v>1219</v>
       </c>
       <c r="B484" t="s">
-        <v>2602</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1549</v>
+        <v>1597</v>
       </c>
       <c r="B485" t="s">
-        <v>2603</v>
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B486" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B487" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B488" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2602</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1640</v>
+        <v>1549</v>
+      </c>
+      <c r="B490" t="s">
+        <v>2603</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1642</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1644</v>
+        <v>1520</v>
       </c>
       <c r="B496" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1451</v>
+        <v>1388</v>
       </c>
       <c r="B497" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1560</v>
+        <v>1639</v>
       </c>
       <c r="B498" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="B499" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="B500" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="B501" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1653</v>
+        <v>1451</v>
       </c>
       <c r="B502" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1655</v>
+        <v>1560</v>
       </c>
       <c r="B503" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>2150</v>
+        <v>1648</v>
       </c>
       <c r="B504" t="s">
-        <v>2151</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>2591</v>
+        <v>1649</v>
       </c>
       <c r="B505" t="s">
-        <v>2590</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1683</v>
+        <v>1651</v>
       </c>
       <c r="B506" t="s">
-        <v>2621</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1593</v>
+        <v>1653</v>
       </c>
       <c r="B507" t="s">
-        <v>2662</v>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B509" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B510" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B511" t="s">
+        <v>2621</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1661</v>
+        <v>1593</v>
+      </c>
+      <c r="B512" t="s">
+        <v>2662</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1662</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1639</v>
+        <v>1451</v>
       </c>
       <c r="B518" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1651</v>
+        <v>1447</v>
       </c>
       <c r="B519" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1641</v>
+        <v>1521</v>
       </c>
       <c r="B520" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="B521" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1160</v>
+        <v>1663</v>
       </c>
       <c r="B522" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1459</v>
+        <v>1639</v>
       </c>
       <c r="B523" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1388</v>
+        <v>1651</v>
       </c>
       <c r="B524" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="B525" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1520</v>
+        <v>1667</v>
       </c>
       <c r="B526" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1674</v>
+        <v>1160</v>
       </c>
       <c r="B527" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1677</v>
+        <v>1459</v>
       </c>
       <c r="B528" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1679</v>
+        <v>1388</v>
       </c>
       <c r="B529" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1681</v>
+        <v>1632</v>
       </c>
       <c r="B530" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1644</v>
+        <v>1520</v>
       </c>
       <c r="B531" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="B532" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1482</v>
+        <v>1677</v>
       </c>
       <c r="B533" t="s">
-        <v>1865</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>2152</v>
+        <v>1679</v>
       </c>
       <c r="B534" t="s">
-        <v>2153</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1699</v>
+        <v>1681</v>
       </c>
       <c r="B535" t="s">
-        <v>2641</v>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>2393</v>
+        <v>1482</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1685</v>
+        <v>2152</v>
       </c>
       <c r="B539" t="s">
-        <v>1686</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1523</v>
+        <v>1699</v>
       </c>
       <c r="B540" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1690</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1692</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="B544" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1696</v>
+        <v>1523</v>
       </c>
       <c r="B545" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1459</v>
+        <v>1524</v>
       </c>
       <c r="B546" t="s">
-        <v>1697</v>
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>2394</v>
+        <v>1691</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="B549" t="s">
-        <v>1729</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B550" t="s">
-        <v>1730</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1483</v>
+        <v>1459</v>
       </c>
       <c r="B551" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1732</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1733</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="B554" t="s">
-        <v>1702</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1667</v>
+        <v>1699</v>
       </c>
       <c r="B555" t="s">
-        <v>1747</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1704</v>
+        <v>1483</v>
       </c>
       <c r="B556" t="s">
-        <v>1705</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="B557" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="B558" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="B559" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1710</v>
+        <v>1667</v>
       </c>
       <c r="B560" t="s">
-        <v>1736</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1459</v>
+        <v>1704</v>
       </c>
       <c r="B561" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1689</v>
+        <v>1706</v>
       </c>
       <c r="B562" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="B563" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1160</v>
+        <v>1708</v>
       </c>
       <c r="B564" t="s">
-        <v>1739</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B565" t="s">
-        <v>1713</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1696</v>
+        <v>1459</v>
       </c>
       <c r="B566" t="s">
-        <v>1740</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1715</v>
+        <v>1689</v>
       </c>
       <c r="B567" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B568" t="s">
-        <v>1716</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1693</v>
+        <v>1160</v>
       </c>
       <c r="B569" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1524</v>
+        <v>1714</v>
       </c>
       <c r="B570" t="s">
-        <v>1743</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1718</v>
+        <v>1696</v>
       </c>
       <c r="B571" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="B572" t="s">
-        <v>1719</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B573" t="s">
-        <v>1745</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1723</v>
+        <v>1693</v>
       </c>
       <c r="B574" t="s">
-        <v>1722</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1725</v>
+        <v>1524</v>
       </c>
       <c r="B575" t="s">
-        <v>1724</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="B576" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B577" t="s">
-        <v>1727</v>
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>2395</v>
+        <v>1723</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1762</v>
+        <v>1725</v>
       </c>
       <c r="B580" t="s">
-        <v>1763</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1764</v>
+        <v>1726</v>
       </c>
       <c r="B581" t="s">
-        <v>1765</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1689</v>
+        <v>1728</v>
       </c>
       <c r="B582" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1871</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1873</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1160</v>
+        <v>1762</v>
       </c>
       <c r="B585" t="s">
-        <v>1874</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1875</v>
+        <v>1764</v>
       </c>
       <c r="B586" t="s">
-        <v>1876</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1877</v>
+        <v>1689</v>
       </c>
       <c r="B587" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="B588" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1881</v>
+        <v>1533</v>
       </c>
       <c r="B589" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1718</v>
+        <v>1160</v>
       </c>
       <c r="B590" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="B591" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1451</v>
+        <v>1877</v>
       </c>
       <c r="B592" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="B593" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="B594" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1891</v>
+        <v>1718</v>
       </c>
       <c r="B595" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="B596" t="s">
-        <v>1894</v>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2396</v>
+        <v>1887</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1161</v>
+        <v>1889</v>
       </c>
       <c r="B599" t="s">
-        <v>1904</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1906</v>
+        <v>1891</v>
       </c>
       <c r="B600" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1203</v>
+        <v>1893</v>
       </c>
       <c r="B601" t="s">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1908</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1909</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1230</v>
+        <v>1161</v>
       </c>
       <c r="B604" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>252</v>
+        <v>1906</v>
       </c>
       <c r="B605" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="B606" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B607" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1181</v>
+        <v>1408</v>
       </c>
       <c r="B608" t="s">
-        <v>1914</v>
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2397</v>
+        <v>252</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1915</v>
+        <v>1187</v>
       </c>
       <c r="B611" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1756</v>
+        <v>1238</v>
       </c>
       <c r="B612" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1919</v>
+        <v>1181</v>
       </c>
       <c r="B613" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1923</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1922</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="B616" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1926</v>
+        <v>1756</v>
       </c>
       <c r="B617" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="B618" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1402</v>
+        <v>1921</v>
       </c>
       <c r="B619" t="s">
-        <v>1930</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
       <c r="B620" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="B621" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
       <c r="B622" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1578</v>
+        <v>1929</v>
       </c>
       <c r="B623" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1939</v>
+        <v>1402</v>
       </c>
       <c r="B624" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="B625" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1299</v>
+        <v>1933</v>
       </c>
       <c r="B626" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="B627" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1946</v>
+        <v>1578</v>
       </c>
       <c r="B628" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="B629" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="B630" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1952</v>
+        <v>1299</v>
       </c>
       <c r="B631" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="B632" t="s">
-        <v>1954</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="B633" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="B634" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B635" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1287</v>
+        <v>1952</v>
       </c>
       <c r="B636" t="s">
-        <v>1961</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1963</v>
+        <v>1953</v>
       </c>
       <c r="B637" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1503</v>
+        <v>1956</v>
       </c>
       <c r="B638" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="B639" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="B640" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1970</v>
+        <v>1287</v>
       </c>
       <c r="B641" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="B642" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1973</v>
+        <v>1503</v>
       </c>
       <c r="B643" t="s">
-        <v>1974</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="B644" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="B645" t="s">
-        <v>1977</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B646" t="s">
-        <v>1979</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="B647" t="s">
-        <v>1981</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
         <v>2962</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B653" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="2980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="2999">
   <si>
     <t>Base Set</t>
   </si>
@@ -8972,6 +8972,63 @@
   </si>
   <si>
     <t>https://4.bp.blogspot.com/-1c0HZf76lF0/WAa1uyy88BI/AAAAAAAARpw/2zLlEOeYuJkQODf9d6CZE3aCqNiAw9ajgCLcB/s1600/img490%2B-%2BCopy%2B%25284%2529.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-tV2YRYPjBdI/WAdyOH9wM8I/AAAAAAAAebY/7N8K6YNZvWQkK2-bfNkXQ-kW4SR2dAf0ACLcB/s1600/2016%2BChachi%2B%252368%2BERA%2BLeaders%2B-%2BEickhoff%2B%2526%2BHellickson.jpg</t>
+  </si>
+  <si>
+    <t>Matt Wieters</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-RH42DSY4Bsc/WAf5bVmNvmI/AAAAAAABo-g/wpUDUiNaPrIJfcIOM5C43vAcQV_eXfpGwCLcB/s1600/Wieters.jpg</t>
+  </si>
+  <si>
+    <t>1927 New York Yankees</t>
+  </si>
+  <si>
+    <t>http://www.sportscollectorsdaily.com/wp-content/uploads/2016/10/1927-Yankees-1024x815.jpg</t>
+  </si>
+  <si>
+    <t>Braves - Murphy, Mattheews</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-78gt1TTOYJk/WAed9dZ1XdI/AAAAAAAAQSc/1NtqU_h1gAgsgsJBXoDJlqx1HydQvSO8gCLcB/s1600/MARK%2BHOYLE%2B001.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-3sDVf-Tg74A/VqY0oOzUCfI/AAAAAAAA5Dg/wkiwNBYKHgw6N409ldaRcfmU4TaIGeLsgCPcB/s1600/20160125_093035.jpg</t>
+  </si>
+  <si>
+    <t>Odubbel Herrera All Star</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-svCq7RRjB54/WAowt6OpaqI/AAAAAAAAgSw/s4qcYVy8JIo0u7Jn4cF0LJT7wv8e8TE4gCEw/s1600/herrera.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-nbumESbs3kM/WAe-bmyPi9I/AAAAAAAAecA/0vw0qdU2x4UCg3rr_gKYGV7FeGhHIwRzgCLcB/s1600/2016%2BChachi%2B%252369%2BPitching%2BLeaders%2B-%2BHellickson%252C%2BEickhoff%252C%2BVelaseuz.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-hBt_ZkTlzoo/WAuVL1mYNYI/AAAAAAAAecw/7CmjHXEkv2Aehp6Uqi29Oiphw8-V4ghSwCLcB/s1600/2016%2BChachi%2B%252370%2BStrikeout%2BLeaders%2B-%2BEickhoff%252C%2BHellickson%252C%2BVelasquez.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-LIcdB6BOQ5Y/WAuasYRpd8I/AAAAAAAAedQ/bAN26tzvxUMBbyyAlU058q89FfAMqkDrACLcB/s1600/2016%2BChachi%2B%252371%2BLeading%2BFiremen%2B-%2BGomez%252C%2BNeris%252C%2BMariot.jpg</t>
+  </si>
+  <si>
+    <t>https://blowoutbuzz.files.wordpress.com/2016/10/2016-panini-black-friday-durant.jpg</t>
+  </si>
+  <si>
+    <t>Kevin Durant Black Friday</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-l7-NrtX5nlg/WAvYfBI-CDI/AAAAAAAAQVU/gKEm8oyhvlAHM0U_v1RsfM3E25_OjPzqACEw/s1600/WACKY%2B064%2B5.jpg</t>
+  </si>
+  <si>
+    <t>Mitch Williams Fleer Ultra</t>
+  </si>
+  <si>
+    <t>Pete Rose 69 Deckle Edge</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/--8O5h8tgiKw/WAqRoIlolDI/AAAAAAAAQUQ/xhtgioV2pwcIPY7b-qvBM1TV9Gp-adHdQCLcB/s1600/JAX%2BODDBALLS%2B001%2B2.jpg</t>
   </si>
 </sst>
 </file>
@@ -9341,10 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <pane ySplit="4800" topLeftCell="A33"/>
-      <selection activeCell="B71" sqref="B71"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD82"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9923,7 +9978,7 @@
         <v>2826</v>
       </c>
       <c r="B72" t="s">
-        <v>2399</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -9931,7 +9986,7 @@
         <v>2827</v>
       </c>
       <c r="B73" t="s">
-        <v>2399</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9939,7 +9994,7 @@
         <v>2828</v>
       </c>
       <c r="B74" t="s">
-        <v>2399</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -9947,7 +10002,7 @@
         <v>2829</v>
       </c>
       <c r="B75" t="s">
-        <v>2399</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -17448,10 +17503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17777,6 +17832,14 @@
         <v>2952</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2982</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2386</v>
@@ -18614,6 +18677,14 @@
         <v>2794</v>
       </c>
     </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2989</v>
+      </c>
+    </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2414</v>
@@ -19395,6 +19466,14 @@
         <v>2977</v>
       </c>
     </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2995</v>
+      </c>
+    </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2387</v>
@@ -19858,2442 +19937,2482 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2491</v>
+        <v>2997</v>
       </c>
       <c r="B313" t="s">
-        <v>2492</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="B314" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="B315" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B316" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B317" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B318" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="B319" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B320" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="B321" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B322" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B323" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B324" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B325" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B326" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2563</v>
+        <v>2541</v>
       </c>
       <c r="B327" t="s">
-        <v>2561</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="B328" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="B329" t="s">
-        <v>2577</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B330" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B331" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2594</v>
+        <v>2580</v>
       </c>
       <c r="B332" t="s">
-        <v>2595</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="B333" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2651</v>
+        <v>2598</v>
       </c>
       <c r="B334" t="s">
-        <v>2650</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1388</v>
+        <v>2651</v>
       </c>
       <c r="B335" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2653</v>
+        <v>1388</v>
       </c>
       <c r="B336" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B337" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
       <c r="B338" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2671</v>
+        <v>2660</v>
       </c>
       <c r="B339" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B340" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2678</v>
+        <v>2673</v>
       </c>
       <c r="B341" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2746</v>
+        <v>2678</v>
       </c>
       <c r="B342" t="s">
-        <v>2747</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2771</v>
+        <v>2746</v>
       </c>
       <c r="B343" t="s">
-        <v>2772</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2799</v>
+        <v>2771</v>
       </c>
       <c r="B344" t="s">
-        <v>2800</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="B345" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2814</v>
+        <v>2802</v>
       </c>
       <c r="B346" t="s">
-        <v>2815</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2855</v>
+        <v>2814</v>
       </c>
       <c r="B347" t="s">
-        <v>2856</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="B348" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B349" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="B350" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="B351" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="B352" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2901</v>
+        <v>2870</v>
       </c>
       <c r="B353" t="s">
-        <v>2902</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="B354" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B355" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B356" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B357" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B358" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B359" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B360" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B361" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="B362" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="B363" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1889</v>
+        <v>2921</v>
       </c>
       <c r="B364" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2925</v>
+        <v>1889</v>
       </c>
       <c r="B365" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B366" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B367" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B368" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B369" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B370" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B371" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="B372" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B373" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B374" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B375" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B376" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B377" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="B378" t="s">
-        <v>2954</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B379" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B380" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2019</v>
+        <v>2957</v>
       </c>
       <c r="B381" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2036</v>
+        <v>2019</v>
       </c>
       <c r="B382" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2970</v>
+        <v>2036</v>
       </c>
       <c r="B383" t="s">
-        <v>2971</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="B384" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>2975</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>2974</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>2447</v>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2986</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B392" t="s">
-        <v>2355</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2372</v>
+        <v>2354</v>
       </c>
       <c r="B393" t="s">
-        <v>2373</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2965</v>
+        <v>2372</v>
       </c>
       <c r="B394" t="s">
-        <v>2964</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>2978</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B397" t="s">
         <v>2979</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B402" t="s">
-        <v>2811</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B403" t="s">
-        <v>2813</v>
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2811</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B406" t="s">
-        <v>2868</v>
+        <v>2812</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B407" t="s">
-        <v>2117</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1543</v>
+        <v>1982</v>
       </c>
       <c r="B408" t="s">
-        <v>1544</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1578</v>
+        <v>2118</v>
       </c>
       <c r="B409" t="s">
-        <v>2871</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1972</v>
+        <v>1543</v>
       </c>
       <c r="B410" t="s">
-        <v>2872</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1936</v>
+        <v>1578</v>
       </c>
       <c r="B411" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2875</v>
+        <v>1972</v>
       </c>
       <c r="B412" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2877</v>
+        <v>1936</v>
       </c>
       <c r="B413" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1593</v>
+        <v>2875</v>
       </c>
       <c r="B414" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="B415" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2882</v>
+        <v>1593</v>
       </c>
       <c r="B416" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1402</v>
+        <v>2880</v>
       </c>
       <c r="B417" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="B418" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2887</v>
+        <v>1402</v>
       </c>
       <c r="B419" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="B420" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1460</v>
+        <v>2887</v>
       </c>
       <c r="B421" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2028</v>
+        <v>2888</v>
       </c>
       <c r="B422" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1299</v>
+        <v>1460</v>
       </c>
       <c r="B423" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2893</v>
+        <v>2028</v>
       </c>
       <c r="B424" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1965</v>
+        <v>1299</v>
       </c>
       <c r="B425" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="B426" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2545</v>
+        <v>1965</v>
       </c>
       <c r="B427" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="B428" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1597</v>
+        <v>2545</v>
       </c>
       <c r="B429" t="s">
-        <v>2471</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B430" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>2170</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B432" t="s">
         <v>2171</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1546</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1549</v>
+        <v>1455</v>
       </c>
       <c r="B436" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B437" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="B438" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="B439" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1482</v>
+        <v>1553</v>
       </c>
       <c r="B440" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="B441" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1606</v>
+        <v>1482</v>
       </c>
       <c r="B442" t="s">
-        <v>1607</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B443" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1562</v>
+        <v>1606</v>
       </c>
       <c r="B444" t="s">
-        <v>1561</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="B445" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="B446" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B447" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="B448" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B449" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="B450" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B451" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="B452" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1388</v>
+        <v>1574</v>
       </c>
       <c r="B453" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B454" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1583</v>
+        <v>1388</v>
       </c>
       <c r="B455" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B456" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="B457" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="B458" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B459" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B460" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B461" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B462" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B463" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B464" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B465" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
         <v>1603</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B468" t="s">
         <v>1605</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B470" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>2475</v>
-      </c>
-      <c r="B471" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B472" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="B473" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B474" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B475" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>2481</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B476" t="s">
         <v>2482</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B478" t="s">
-        <v>2583</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B479" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1589</v>
+        <v>1455</v>
       </c>
       <c r="B480" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1566</v>
+        <v>2584</v>
       </c>
       <c r="B481" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="B482" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1150</v>
+        <v>1566</v>
       </c>
       <c r="B483" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1219</v>
+        <v>1602</v>
       </c>
       <c r="B484" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1597</v>
+        <v>1150</v>
       </c>
       <c r="B485" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>2597</v>
+        <v>1219</v>
       </c>
       <c r="B486" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="B487" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1560</v>
+        <v>2597</v>
       </c>
       <c r="B488" t="s">
-        <v>2601</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B489" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B490" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B491" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>1549</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B492" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B496" t="s">
-        <v>1636</v>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2987</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1637</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1639</v>
+        <v>1520</v>
       </c>
       <c r="B498" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1632</v>
+        <v>1388</v>
       </c>
       <c r="B499" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B500" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
       <c r="B501" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1451</v>
+        <v>1641</v>
       </c>
       <c r="B502" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1560</v>
+        <v>1644</v>
       </c>
       <c r="B503" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1648</v>
+        <v>1451</v>
       </c>
       <c r="B504" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1649</v>
+        <v>1560</v>
       </c>
       <c r="B505" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B506" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B507" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B508" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2150</v>
+        <v>1653</v>
       </c>
       <c r="B509" t="s">
-        <v>2151</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>2591</v>
+        <v>1655</v>
       </c>
       <c r="B510" t="s">
-        <v>2590</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1683</v>
+        <v>2150</v>
       </c>
       <c r="B511" t="s">
-        <v>2621</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B512" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B513" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
         <v>1593</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B514" t="s">
         <v>2662</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1658</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1521</v>
+        <v>1451</v>
       </c>
       <c r="B520" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1660</v>
+        <v>1447</v>
       </c>
       <c r="B521" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1663</v>
+        <v>1521</v>
       </c>
       <c r="B522" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1639</v>
+        <v>1660</v>
       </c>
       <c r="B523" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1651</v>
+        <v>1663</v>
       </c>
       <c r="B524" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B525" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="B526" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1160</v>
+        <v>1641</v>
       </c>
       <c r="B527" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1459</v>
+        <v>1667</v>
       </c>
       <c r="B528" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1388</v>
+        <v>1160</v>
       </c>
       <c r="B529" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1632</v>
+        <v>1459</v>
       </c>
       <c r="B530" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1520</v>
+        <v>1388</v>
       </c>
       <c r="B531" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1674</v>
+        <v>1632</v>
       </c>
       <c r="B532" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1677</v>
+        <v>1520</v>
       </c>
       <c r="B533" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="B534" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="B535" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1644</v>
+        <v>1679</v>
       </c>
       <c r="B536" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B537" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1482</v>
+        <v>1644</v>
       </c>
       <c r="B538" t="s">
-        <v>1865</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>2152</v>
+        <v>1683</v>
       </c>
       <c r="B539" t="s">
-        <v>2153</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
         <v>1699</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B542" t="s">
         <v>2641</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1687</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1524</v>
+        <v>1685</v>
       </c>
       <c r="B546" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1689</v>
+        <v>1523</v>
       </c>
       <c r="B547" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1691</v>
+        <v>1524</v>
       </c>
       <c r="B548" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="B549" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="B550" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1459</v>
+        <v>1693</v>
       </c>
       <c r="B551" t="s">
-        <v>1697</v>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1729</v>
+        <v>1459</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1730</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1483</v>
+        <v>1698</v>
       </c>
       <c r="B556" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B557" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1701</v>
+        <v>1483</v>
       </c>
       <c r="B558" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="B559" t="s">
-        <v>1702</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
       <c r="B560" t="s">
-        <v>1747</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B561" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1706</v>
+        <v>1667</v>
       </c>
       <c r="B562" t="s">
-        <v>1734</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B563" t="s">
-        <v>1735</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B564" t="s">
-        <v>1709</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="B565" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1459</v>
+        <v>1708</v>
       </c>
       <c r="B566" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1689</v>
+        <v>1710</v>
       </c>
       <c r="B567" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1712</v>
+        <v>1459</v>
       </c>
       <c r="B568" t="s">
-        <v>1738</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1160</v>
+        <v>1689</v>
       </c>
       <c r="B569" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B570" t="s">
-        <v>1713</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1696</v>
+        <v>1160</v>
       </c>
       <c r="B571" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B572" t="s">
-        <v>1741</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="B573" t="s">
-        <v>1716</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1693</v>
+        <v>1715</v>
       </c>
       <c r="B574" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1524</v>
+        <v>1717</v>
       </c>
       <c r="B575" t="s">
-        <v>1743</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1718</v>
+        <v>1693</v>
       </c>
       <c r="B576" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1720</v>
+        <v>1524</v>
       </c>
       <c r="B577" t="s">
-        <v>1719</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B578" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B579" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="B580" t="s">
-        <v>1724</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B581" t="s">
-        <v>1746</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B582" t="s">
-        <v>1727</v>
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1763</v>
+        <v>1728</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1765</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1689</v>
+        <v>1762</v>
       </c>
       <c r="B587" t="s">
-        <v>1870</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1872</v>
+        <v>1764</v>
       </c>
       <c r="B588" t="s">
-        <v>1871</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1533</v>
+        <v>1689</v>
       </c>
       <c r="B589" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1160</v>
+        <v>1872</v>
       </c>
       <c r="B590" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1875</v>
+        <v>1533</v>
       </c>
       <c r="B591" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1877</v>
+        <v>1160</v>
       </c>
       <c r="B592" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="B593" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="B594" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1718</v>
+        <v>1880</v>
       </c>
       <c r="B595" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="B596" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1451</v>
+        <v>1718</v>
       </c>
       <c r="B597" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B598" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1889</v>
+        <v>1451</v>
       </c>
       <c r="B599" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="B600" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="B601" t="s">
-        <v>1894</v>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1904</v>
+        <v>1893</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1905</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1203</v>
+        <v>1161</v>
       </c>
       <c r="B606" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1236</v>
+        <v>1906</v>
       </c>
       <c r="B607" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1408</v>
+        <v>1203</v>
       </c>
       <c r="B608" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="B609" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>252</v>
+        <v>1408</v>
       </c>
       <c r="B610" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1187</v>
+        <v>1230</v>
       </c>
       <c r="B611" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1238</v>
+        <v>252</v>
       </c>
       <c r="B612" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B613" t="s">
-        <v>1914</v>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1916</v>
+        <v>1181</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1917</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="B618" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1921</v>
+        <v>1756</v>
       </c>
       <c r="B619" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="B620" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B621" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="B622" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="B623" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1402</v>
+        <v>1926</v>
       </c>
       <c r="B624" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="B625" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1933</v>
+        <v>1402</v>
       </c>
       <c r="B626" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B627" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1578</v>
+        <v>1933</v>
       </c>
       <c r="B628" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="B629" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1941</v>
+        <v>1578</v>
       </c>
       <c r="B630" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1299</v>
+        <v>1939</v>
       </c>
       <c r="B631" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B632" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1946</v>
+        <v>1299</v>
       </c>
       <c r="B633" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="B634" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="B635" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="B636" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B637" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="B638" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="B639" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="B640" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1287</v>
+        <v>1958</v>
       </c>
       <c r="B641" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="B642" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1503</v>
+        <v>1287</v>
       </c>
       <c r="B643" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B644" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1968</v>
+        <v>1503</v>
       </c>
       <c r="B645" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="B646" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="B647" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B648" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B649" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="B650" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="B651" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="B652" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
         <v>2962</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B655" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="2999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="3011">
   <si>
     <t>Base Set</t>
   </si>
@@ -9029,6 +9029,42 @@
   </si>
   <si>
     <t>https://3.bp.blogspot.com/--8O5h8tgiKw/WAqRoIlolDI/AAAAAAAAQUQ/xhtgioV2pwcIPY7b-qvBM1TV9Gp-adHdQCLcB/s1600/JAX%2BODDBALLS%2B001%2B2.jpg</t>
+  </si>
+  <si>
+    <t>John Kruc 2016 Heritage</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-YlLv7KYOlSQ/WA5CdLyhppI/AAAAAAAAcFI/G3WN6dTX9dQ87tixl-ZSl-90bh72XvN_gCLcB/s1600/Kruk%2BTopps%2BArchives%2BF.jpg</t>
+  </si>
+  <si>
+    <t>Tim Lincecum</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-48d4YWqm5Oo/WA5F0CmZN-I/AAAAAAAAcFk/mi_gEyzqLEQAzkyREZIJ6-zSiXMvTRkcACLcB/s1600/2016%2BTopps%2BHeritage%2BF.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-tZkRLoZA9kg/WA6CAmQHvgI/AAAAAAABpDk/_uF2xdDgz386JIwQSE6KFqEJeKXV3nbQQCEw/s1600/nebraska-4-4.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-LxxRFhTKpuI/WA6QGE7Hf6I/AAAAAAABpD8/UFHcbdglL1ccUpCps26MLvsQL_YQ2LFsACLcB/s1600/nebraska-2-2-2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richie Ashburn </t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-CFPq56o0S0w/WA1azzg1PBI/AAAAAAAAeFg/5-yb0L3eCTo043Z2dVYDN3sW6JsX5dNaACLcB/s1600/cubs-ashburn.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-RngAGkp30Tc/WBEmIX6FGdI/AAAAAAAAnCM/Wx-tl5mTmfAfzJdsIPJH-bVIHigW_1LBQCLcB/s1600/Topps%2B1969%2B325%2BCardenal.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-lKArxBE1T-c/WBEmCiRzueI/AAAAAAAAnCI/7bU1-tl50vcdj0lWNt2cF4rKqrviWEYsQCLcB/s1600/Topps%2B1974%2BCardenal.jpg</t>
+  </si>
+  <si>
+    <t>Jose Cardenal Indians</t>
+  </si>
+  <si>
+    <t>Jose Cardenal Cubs</t>
   </si>
 </sst>
 </file>
@@ -17503,10 +17539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17840,6 +17876,22 @@
         <v>2982</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3003</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2386</v>
@@ -19474,2945 +19526,2985 @@
         <v>2995</v>
       </c>
     </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3006</v>
+      </c>
+    </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2387</v>
+        <v>3009</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3007</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1518</v>
+        <v>3010</v>
       </c>
       <c r="B256" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>259</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1536</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1538</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1777</v>
+        <v>1518</v>
       </c>
       <c r="B265" t="s">
-        <v>1778</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1898</v>
+        <v>1490</v>
       </c>
       <c r="B266" t="s">
-        <v>1899</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1900</v>
+        <v>259</v>
       </c>
       <c r="B267" t="s">
-        <v>1901</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1610</v>
+        <v>1503</v>
       </c>
       <c r="B268" t="s">
-        <v>1609</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1614</v>
+        <v>1507</v>
       </c>
       <c r="B269" t="s">
-        <v>1615</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1618</v>
+        <v>1506</v>
       </c>
       <c r="B270" t="s">
-        <v>1619</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1616</v>
+        <v>1514</v>
       </c>
       <c r="B271" t="s">
-        <v>1617</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1620</v>
+        <v>1535</v>
       </c>
       <c r="B272" t="s">
-        <v>1621</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2001</v>
+        <v>1537</v>
       </c>
       <c r="B273" t="s">
-        <v>2002</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2158</v>
+        <v>1777</v>
       </c>
       <c r="B274" t="s">
-        <v>2159</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2172</v>
+        <v>1898</v>
       </c>
       <c r="B275" t="s">
-        <v>2173</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>2174</v>
+        <v>1900</v>
       </c>
       <c r="B276" t="s">
-        <v>2175</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2176</v>
+        <v>1610</v>
       </c>
       <c r="B277" t="s">
-        <v>2177</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2184</v>
+        <v>1614</v>
       </c>
       <c r="B278" t="s">
-        <v>2185</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2196</v>
+        <v>1618</v>
       </c>
       <c r="B279" t="s">
-        <v>2197</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2204</v>
+        <v>1616</v>
       </c>
       <c r="B280" t="s">
-        <v>2205</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2206</v>
+        <v>1620</v>
       </c>
       <c r="B281" t="s">
-        <v>2207</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2222</v>
+        <v>2001</v>
       </c>
       <c r="B282" t="s">
-        <v>2223</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2224</v>
+        <v>2158</v>
       </c>
       <c r="B283" t="s">
-        <v>2225</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2226</v>
+        <v>2172</v>
       </c>
       <c r="B284" t="s">
-        <v>2227</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2228</v>
+        <v>2174</v>
       </c>
       <c r="B285" t="s">
-        <v>2229</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1514</v>
+        <v>2176</v>
       </c>
       <c r="B286" t="s">
-        <v>2230</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2231</v>
+        <v>2184</v>
       </c>
       <c r="B287" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2234</v>
+        <v>2196</v>
       </c>
       <c r="B288" t="s">
-        <v>2235</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2242</v>
+        <v>2204</v>
       </c>
       <c r="B289" t="s">
-        <v>2243</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2342</v>
+        <v>2206</v>
       </c>
       <c r="B290" t="s">
-        <v>2343</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2344</v>
+        <v>2222</v>
       </c>
       <c r="B291" t="s">
-        <v>2345</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2346</v>
+        <v>2224</v>
       </c>
       <c r="B292" t="s">
-        <v>2347</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2324</v>
+        <v>2226</v>
       </c>
       <c r="B293" t="s">
-        <v>2325</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2326</v>
+        <v>2228</v>
       </c>
       <c r="B294" t="s">
-        <v>2327</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2298</v>
+        <v>1514</v>
       </c>
       <c r="B295" t="s">
-        <v>2299</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2300</v>
+        <v>2231</v>
       </c>
       <c r="B296" t="s">
-        <v>2301</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2304</v>
+        <v>2234</v>
       </c>
       <c r="B297" t="s">
-        <v>2305</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2306</v>
+        <v>2242</v>
       </c>
       <c r="B298" t="s">
-        <v>2307</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2308</v>
+        <v>2342</v>
       </c>
       <c r="B299" t="s">
-        <v>2309</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2312</v>
+        <v>2344</v>
       </c>
       <c r="B300" t="s">
-        <v>2313</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2290</v>
+        <v>2346</v>
       </c>
       <c r="B301" t="s">
-        <v>2291</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2350</v>
+        <v>2324</v>
       </c>
       <c r="B302" t="s">
-        <v>2351</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2352</v>
+        <v>2326</v>
       </c>
       <c r="B303" t="s">
-        <v>2353</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2356</v>
+        <v>2298</v>
       </c>
       <c r="B304" t="s">
-        <v>2357</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2360</v>
+        <v>2300</v>
       </c>
       <c r="B305" t="s">
-        <v>2361</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2362</v>
+        <v>2304</v>
       </c>
       <c r="B306" t="s">
-        <v>2363</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2364</v>
+        <v>2306</v>
       </c>
       <c r="B307" t="s">
-        <v>2365</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2368</v>
+        <v>2308</v>
       </c>
       <c r="B308" t="s">
-        <v>2369</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2370</v>
+        <v>2312</v>
       </c>
       <c r="B309" t="s">
-        <v>2371</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2376</v>
+        <v>2290</v>
       </c>
       <c r="B310" t="s">
-        <v>2377</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2485</v>
+        <v>2350</v>
       </c>
       <c r="B311" t="s">
-        <v>2486</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2489</v>
+        <v>2352</v>
       </c>
       <c r="B312" t="s">
-        <v>2490</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2997</v>
+        <v>2356</v>
       </c>
       <c r="B313" t="s">
-        <v>2998</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2491</v>
+        <v>2360</v>
       </c>
       <c r="B314" t="s">
-        <v>2492</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2497</v>
+        <v>2362</v>
       </c>
       <c r="B315" t="s">
-        <v>2498</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2501</v>
+        <v>2364</v>
       </c>
       <c r="B316" t="s">
-        <v>2502</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2503</v>
+        <v>2368</v>
       </c>
       <c r="B317" t="s">
-        <v>2504</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2505</v>
+        <v>2370</v>
       </c>
       <c r="B318" t="s">
-        <v>2506</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2507</v>
+        <v>2376</v>
       </c>
       <c r="B319" t="s">
-        <v>2508</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2515</v>
+        <v>2485</v>
       </c>
       <c r="B320" t="s">
-        <v>2516</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2517</v>
+        <v>2489</v>
       </c>
       <c r="B321" t="s">
-        <v>2518</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2523</v>
+        <v>2997</v>
       </c>
       <c r="B322" t="s">
-        <v>2524</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2525</v>
+        <v>2491</v>
       </c>
       <c r="B323" t="s">
-        <v>2526</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2529</v>
+        <v>2497</v>
       </c>
       <c r="B324" t="s">
-        <v>2530</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2537</v>
+        <v>2501</v>
       </c>
       <c r="B325" t="s">
-        <v>2538</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2539</v>
+        <v>2503</v>
       </c>
       <c r="B326" t="s">
-        <v>2540</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2541</v>
+        <v>2505</v>
       </c>
       <c r="B327" t="s">
-        <v>2542</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2563</v>
+        <v>2507</v>
       </c>
       <c r="B328" t="s">
-        <v>2561</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2560</v>
+        <v>2515</v>
       </c>
       <c r="B329" t="s">
-        <v>2562</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2576</v>
+        <v>2517</v>
       </c>
       <c r="B330" t="s">
-        <v>2577</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2578</v>
+        <v>2523</v>
       </c>
       <c r="B331" t="s">
-        <v>2579</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2580</v>
+        <v>2525</v>
       </c>
       <c r="B332" t="s">
-        <v>2581</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2594</v>
+        <v>2529</v>
       </c>
       <c r="B333" t="s">
-        <v>2595</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2598</v>
+        <v>2537</v>
       </c>
       <c r="B334" t="s">
-        <v>2599</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2651</v>
+        <v>2539</v>
       </c>
       <c r="B335" t="s">
-        <v>2650</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1388</v>
+        <v>2541</v>
       </c>
       <c r="B336" t="s">
-        <v>2652</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2653</v>
+        <v>2563</v>
       </c>
       <c r="B337" t="s">
-        <v>2654</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2655</v>
+        <v>2560</v>
       </c>
       <c r="B338" t="s">
-        <v>2656</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2660</v>
+        <v>2576</v>
       </c>
       <c r="B339" t="s">
-        <v>2659</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2671</v>
+        <v>2578</v>
       </c>
       <c r="B340" t="s">
-        <v>2672</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2673</v>
+        <v>2580</v>
       </c>
       <c r="B341" t="s">
-        <v>2674</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2678</v>
+        <v>2594</v>
       </c>
       <c r="B342" t="s">
-        <v>2677</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2746</v>
+        <v>2598</v>
       </c>
       <c r="B343" t="s">
-        <v>2747</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2771</v>
+        <v>2651</v>
       </c>
       <c r="B344" t="s">
-        <v>2772</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2799</v>
+        <v>1388</v>
       </c>
       <c r="B345" t="s">
-        <v>2800</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2802</v>
+        <v>2653</v>
       </c>
       <c r="B346" t="s">
-        <v>2801</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2814</v>
+        <v>2655</v>
       </c>
       <c r="B347" t="s">
-        <v>2815</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2855</v>
+        <v>2660</v>
       </c>
       <c r="B348" t="s">
-        <v>2856</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2858</v>
+        <v>2671</v>
       </c>
       <c r="B349" t="s">
-        <v>2857</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2859</v>
+        <v>2673</v>
       </c>
       <c r="B350" t="s">
-        <v>2860</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2863</v>
+        <v>2678</v>
       </c>
       <c r="B351" t="s">
-        <v>2864</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2865</v>
+        <v>2746</v>
       </c>
       <c r="B352" t="s">
-        <v>2866</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2870</v>
+        <v>2771</v>
       </c>
       <c r="B353" t="s">
-        <v>2869</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2901</v>
+        <v>2799</v>
       </c>
       <c r="B354" t="s">
-        <v>2902</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2904</v>
+        <v>2802</v>
       </c>
       <c r="B355" t="s">
-        <v>2903</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2905</v>
+        <v>2814</v>
       </c>
       <c r="B356" t="s">
-        <v>2906</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2907</v>
+        <v>2855</v>
       </c>
       <c r="B357" t="s">
-        <v>2908</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2909</v>
+        <v>2858</v>
       </c>
       <c r="B358" t="s">
-        <v>2911</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2910</v>
+        <v>2859</v>
       </c>
       <c r="B359" t="s">
-        <v>2912</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2914</v>
+        <v>2863</v>
       </c>
       <c r="B360" t="s">
-        <v>2913</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2915</v>
+        <v>2865</v>
       </c>
       <c r="B361" t="s">
-        <v>2916</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2919</v>
+        <v>2870</v>
       </c>
       <c r="B362" t="s">
-        <v>2917</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2918</v>
+        <v>2901</v>
       </c>
       <c r="B363" t="s">
-        <v>2922</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2921</v>
+        <v>2904</v>
       </c>
       <c r="B364" t="s">
-        <v>2920</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1889</v>
+        <v>2905</v>
       </c>
       <c r="B365" t="s">
-        <v>2923</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2925</v>
+        <v>2907</v>
       </c>
       <c r="B366" t="s">
-        <v>2924</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2927</v>
+        <v>2909</v>
       </c>
       <c r="B367" t="s">
-        <v>2926</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2929</v>
+        <v>2910</v>
       </c>
       <c r="B368" t="s">
-        <v>2928</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2931</v>
+        <v>2914</v>
       </c>
       <c r="B369" t="s">
-        <v>2930</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2933</v>
+        <v>2915</v>
       </c>
       <c r="B370" t="s">
-        <v>2932</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2934</v>
+        <v>2919</v>
       </c>
       <c r="B371" t="s">
-        <v>2935</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2936</v>
+        <v>2918</v>
       </c>
       <c r="B372" t="s">
-        <v>2937</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2939</v>
+        <v>2921</v>
       </c>
       <c r="B373" t="s">
-        <v>2938</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2941</v>
+        <v>1889</v>
       </c>
       <c r="B374" t="s">
-        <v>2940</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2943</v>
+        <v>2925</v>
       </c>
       <c r="B375" t="s">
-        <v>2942</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2945</v>
+        <v>2927</v>
       </c>
       <c r="B376" t="s">
-        <v>2944</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2947</v>
+        <v>2929</v>
       </c>
       <c r="B377" t="s">
-        <v>2946</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2949</v>
+        <v>2931</v>
       </c>
       <c r="B378" t="s">
-        <v>2948</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2953</v>
+        <v>2933</v>
       </c>
       <c r="B379" t="s">
-        <v>2954</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="B380" t="s">
-        <v>2956</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2957</v>
+        <v>2936</v>
       </c>
       <c r="B381" t="s">
-        <v>2958</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2019</v>
+        <v>2939</v>
       </c>
       <c r="B382" t="s">
-        <v>2959</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2036</v>
+        <v>2941</v>
       </c>
       <c r="B383" t="s">
-        <v>2960</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2970</v>
+        <v>2943</v>
       </c>
       <c r="B384" t="s">
-        <v>2971</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2972</v>
+        <v>2945</v>
       </c>
       <c r="B385" t="s">
-        <v>2973</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2975</v>
+        <v>2947</v>
       </c>
       <c r="B386" t="s">
-        <v>2974</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2983</v>
+        <v>2949</v>
       </c>
       <c r="B387" t="s">
-        <v>2984</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2985</v>
+        <v>2953</v>
       </c>
       <c r="B388" t="s">
-        <v>2986</v>
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2959</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2447</v>
+        <v>2036</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2960</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2354</v>
+        <v>2970</v>
       </c>
       <c r="B393" t="s">
-        <v>2355</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2372</v>
+        <v>2972</v>
       </c>
       <c r="B394" t="s">
-        <v>2373</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2994</v>
+        <v>2975</v>
       </c>
       <c r="B395" t="s">
-        <v>2993</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2965</v>
+        <v>2983</v>
       </c>
       <c r="B396" t="s">
-        <v>2964</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2978</v>
+        <v>2985</v>
       </c>
       <c r="B397" t="s">
-        <v>2979</v>
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B398" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2355</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2809</v>
+        <v>2372</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2373</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2810</v>
+        <v>2994</v>
       </c>
       <c r="B404" t="s">
-        <v>2811</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2812</v>
+        <v>2965</v>
       </c>
       <c r="B405" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B408" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B409" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B411" t="s">
-        <v>2871</v>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2979</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B412" t="s">
-        <v>2872</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1936</v>
+        <v>2810</v>
       </c>
       <c r="B413" t="s">
-        <v>2873</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2875</v>
+        <v>2812</v>
       </c>
       <c r="B414" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>2877</v>
-      </c>
-      <c r="B415" t="s">
-        <v>2876</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B416" t="s">
-        <v>2878</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2880</v>
+        <v>1982</v>
       </c>
       <c r="B417" t="s">
-        <v>2879</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2882</v>
+        <v>2118</v>
       </c>
       <c r="B418" t="s">
-        <v>2881</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1402</v>
+        <v>1543</v>
       </c>
       <c r="B419" t="s">
-        <v>2883</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2885</v>
+        <v>1578</v>
       </c>
       <c r="B420" t="s">
-        <v>2884</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>2887</v>
+        <v>1972</v>
       </c>
       <c r="B421" t="s">
-        <v>2886</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2888</v>
+        <v>1936</v>
       </c>
       <c r="B422" t="s">
-        <v>2889</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1460</v>
+        <v>2875</v>
       </c>
       <c r="B423" t="s">
-        <v>2890</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2028</v>
+        <v>2877</v>
       </c>
       <c r="B424" t="s">
-        <v>2891</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1299</v>
+        <v>1593</v>
       </c>
       <c r="B425" t="s">
-        <v>2892</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>2893</v>
+        <v>2880</v>
       </c>
       <c r="B426" t="s">
-        <v>2894</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1965</v>
+        <v>2882</v>
       </c>
       <c r="B427" t="s">
-        <v>2895</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2896</v>
+        <v>1402</v>
       </c>
       <c r="B428" t="s">
-        <v>2897</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2545</v>
+        <v>2885</v>
       </c>
       <c r="B429" t="s">
-        <v>2898</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2899</v>
+        <v>2887</v>
       </c>
       <c r="B430" t="s">
-        <v>2900</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1597</v>
+        <v>2888</v>
       </c>
       <c r="B431" t="s">
-        <v>2471</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>2170</v>
+        <v>1460</v>
       </c>
       <c r="B432" t="s">
-        <v>2171</v>
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2892</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>2389</v>
+        <v>2893</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2894</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1455</v>
+        <v>1965</v>
       </c>
       <c r="B436" t="s">
-        <v>1545</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1547</v>
+        <v>2896</v>
       </c>
       <c r="B437" t="s">
-        <v>1546</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1549</v>
+        <v>2545</v>
       </c>
       <c r="B438" t="s">
-        <v>1548</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1551</v>
+        <v>2899</v>
       </c>
       <c r="B439" t="s">
-        <v>1550</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1553</v>
+        <v>1597</v>
       </c>
       <c r="B440" t="s">
-        <v>1552</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1555</v>
+        <v>2170</v>
       </c>
       <c r="B441" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1557</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1607</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1560</v>
+        <v>1455</v>
       </c>
       <c r="B445" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="B446" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="B447" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="B448" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="B449" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="B450" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1571</v>
+        <v>1482</v>
       </c>
       <c r="B451" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1575</v>
+        <v>1558</v>
       </c>
       <c r="B452" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1574</v>
+        <v>1606</v>
       </c>
       <c r="B453" t="s">
-        <v>1576</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1578</v>
+        <v>1560</v>
       </c>
       <c r="B454" t="s">
-        <v>1577</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1388</v>
+        <v>1562</v>
       </c>
       <c r="B455" t="s">
-        <v>1579</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1581</v>
+        <v>1564</v>
       </c>
       <c r="B456" t="s">
-        <v>1580</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1583</v>
+        <v>1566</v>
       </c>
       <c r="B457" t="s">
-        <v>1582</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1585</v>
+        <v>1567</v>
       </c>
       <c r="B458" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1587</v>
+        <v>1570</v>
       </c>
       <c r="B459" t="s">
-        <v>1586</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1589</v>
+        <v>1571</v>
       </c>
       <c r="B460" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="B461" t="s">
-        <v>1590</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1593</v>
+        <v>1574</v>
       </c>
       <c r="B462" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
       <c r="B463" t="s">
-        <v>1594</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1597</v>
+        <v>1388</v>
       </c>
       <c r="B464" t="s">
-        <v>1596</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1600</v>
+        <v>1581</v>
       </c>
       <c r="B465" t="s">
-        <v>1598</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="B466" t="s">
-        <v>1601</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1602</v>
+        <v>1585</v>
       </c>
       <c r="B467" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="B468" t="s">
-        <v>1605</v>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>2472</v>
+        <v>1593</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>2473</v>
+        <v>1595</v>
       </c>
       <c r="B472" t="s">
-        <v>2474</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>2475</v>
+        <v>1597</v>
       </c>
       <c r="B473" t="s">
-        <v>2476</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2477</v>
+        <v>1600</v>
       </c>
       <c r="B474" t="s">
-        <v>2478</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>2479</v>
+        <v>1599</v>
       </c>
       <c r="B475" t="s">
-        <v>2480</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>2481</v>
+        <v>1602</v>
       </c>
       <c r="B476" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>2582</v>
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B480" t="s">
-        <v>2583</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2584</v>
+        <v>2473</v>
       </c>
       <c r="B481" t="s">
-        <v>2585</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1589</v>
+        <v>2475</v>
       </c>
       <c r="B482" t="s">
-        <v>2586</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1566</v>
+        <v>2477</v>
       </c>
       <c r="B483" t="s">
-        <v>2587</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1602</v>
+        <v>2479</v>
       </c>
       <c r="B484" t="s">
-        <v>2588</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1150</v>
+        <v>2481</v>
       </c>
       <c r="B485" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B486" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B487" t="s">
-        <v>2593</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B488" t="s">
-        <v>2596</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1593</v>
+        <v>1455</v>
       </c>
       <c r="B489" t="s">
-        <v>2600</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1560</v>
+        <v>2584</v>
       </c>
       <c r="B490" t="s">
-        <v>2601</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B491" t="s">
-        <v>2602</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1549</v>
+        <v>1566</v>
       </c>
       <c r="B492" t="s">
-        <v>2603</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1388</v>
+        <v>1602</v>
       </c>
       <c r="B493" t="s">
-        <v>2987</v>
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B495" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2593</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2391</v>
+        <v>2597</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2596</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1520</v>
+        <v>1593</v>
       </c>
       <c r="B498" t="s">
-        <v>1636</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1388</v>
+        <v>1560</v>
       </c>
       <c r="B499" t="s">
-        <v>1637</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1639</v>
+        <v>1595</v>
       </c>
       <c r="B500" t="s">
-        <v>1638</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1632</v>
+        <v>1549</v>
       </c>
       <c r="B501" t="s">
-        <v>1640</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1641</v>
+        <v>1388</v>
       </c>
       <c r="B502" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B505" t="s">
-        <v>1646</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1647</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1649</v>
+        <v>1520</v>
       </c>
       <c r="B507" t="s">
-        <v>1650</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1651</v>
+        <v>1388</v>
       </c>
       <c r="B508" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="B509" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1655</v>
+        <v>1632</v>
       </c>
       <c r="B510" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2150</v>
+        <v>1641</v>
       </c>
       <c r="B511" t="s">
-        <v>2151</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>2591</v>
+        <v>1644</v>
       </c>
       <c r="B512" t="s">
-        <v>2590</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1683</v>
+        <v>1451</v>
       </c>
       <c r="B513" t="s">
-        <v>2621</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1593</v>
+        <v>1560</v>
       </c>
       <c r="B514" t="s">
-        <v>2662</v>
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>2392</v>
+        <v>1655</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1451</v>
+        <v>2150</v>
       </c>
       <c r="B520" t="s">
-        <v>1657</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1447</v>
+        <v>2591</v>
       </c>
       <c r="B521" t="s">
-        <v>1658</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1521</v>
+        <v>1683</v>
       </c>
       <c r="B522" t="s">
-        <v>1659</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1660</v>
+        <v>1593</v>
       </c>
       <c r="B523" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1666</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1668</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1160</v>
+        <v>1451</v>
       </c>
       <c r="B529" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="B530" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1388</v>
+        <v>1521</v>
       </c>
       <c r="B531" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B532" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1520</v>
+        <v>1663</v>
       </c>
       <c r="B533" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1674</v>
+        <v>1639</v>
       </c>
       <c r="B534" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1677</v>
+        <v>1651</v>
       </c>
       <c r="B535" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1679</v>
+        <v>1641</v>
       </c>
       <c r="B536" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
       <c r="B537" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1644</v>
+        <v>1160</v>
       </c>
       <c r="B538" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1683</v>
+        <v>1459</v>
       </c>
       <c r="B539" t="s">
-        <v>1684</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1482</v>
+        <v>1388</v>
       </c>
       <c r="B540" t="s">
-        <v>1865</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>2152</v>
+        <v>1632</v>
       </c>
       <c r="B541" t="s">
-        <v>2153</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1699</v>
+        <v>1520</v>
       </c>
       <c r="B542" t="s">
-        <v>2641</v>
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>2393</v>
+        <v>1679</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="B546" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1523</v>
+        <v>1644</v>
       </c>
       <c r="B547" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1524</v>
+        <v>1683</v>
       </c>
       <c r="B548" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1689</v>
+        <v>1482</v>
       </c>
       <c r="B549" t="s">
-        <v>1690</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1691</v>
+        <v>2152</v>
       </c>
       <c r="B550" t="s">
-        <v>1692</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="B551" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1697</v>
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2393</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>2394</v>
+        <v>1685</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1698</v>
+        <v>1523</v>
       </c>
       <c r="B556" t="s">
-        <v>1729</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1699</v>
+        <v>1524</v>
       </c>
       <c r="B557" t="s">
-        <v>1730</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1483</v>
+        <v>1689</v>
       </c>
       <c r="B558" t="s">
-        <v>1731</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="B559" t="s">
-        <v>1732</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="B560" t="s">
-        <v>1733</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="B561" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1667</v>
+        <v>1459</v>
       </c>
       <c r="B562" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1734</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="B565" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="B566" t="s">
-        <v>1709</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1710</v>
+        <v>1483</v>
       </c>
       <c r="B567" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1459</v>
+        <v>1700</v>
       </c>
       <c r="B568" t="s">
-        <v>1711</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1689</v>
+        <v>1701</v>
       </c>
       <c r="B569" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="B570" t="s">
-        <v>1738</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1160</v>
+        <v>1667</v>
       </c>
       <c r="B571" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="B572" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="B573" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="B574" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="B575" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1693</v>
+        <v>1710</v>
       </c>
       <c r="B576" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1524</v>
+        <v>1459</v>
       </c>
       <c r="B577" t="s">
-        <v>1743</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1718</v>
+        <v>1689</v>
       </c>
       <c r="B578" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="B579" t="s">
-        <v>1719</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1721</v>
+        <v>1160</v>
       </c>
       <c r="B580" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="B581" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1725</v>
+        <v>1696</v>
       </c>
       <c r="B582" t="s">
-        <v>1724</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="B583" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="B584" t="s">
-        <v>1727</v>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2395</v>
+        <v>1524</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1762</v>
+        <v>1718</v>
       </c>
       <c r="B587" t="s">
-        <v>1763</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1764</v>
+        <v>1720</v>
       </c>
       <c r="B588" t="s">
-        <v>1765</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1689</v>
+        <v>1721</v>
       </c>
       <c r="B589" t="s">
-        <v>1870</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1872</v>
+        <v>1723</v>
       </c>
       <c r="B590" t="s">
-        <v>1871</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1533</v>
+        <v>1725</v>
       </c>
       <c r="B591" t="s">
-        <v>1873</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1160</v>
+        <v>1726</v>
       </c>
       <c r="B592" t="s">
-        <v>1874</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1875</v>
+        <v>1728</v>
       </c>
       <c r="B593" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1878</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1879</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1881</v>
+        <v>1762</v>
       </c>
       <c r="B596" t="s">
-        <v>1882</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1718</v>
+        <v>1764</v>
       </c>
       <c r="B597" t="s">
-        <v>1883</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1885</v>
+        <v>1689</v>
       </c>
       <c r="B598" t="s">
-        <v>1884</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1451</v>
+        <v>1872</v>
       </c>
       <c r="B599" t="s">
-        <v>1886</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1887</v>
+        <v>1533</v>
       </c>
       <c r="B600" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1889</v>
+        <v>1160</v>
       </c>
       <c r="B601" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="B602" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="B603" t="s">
-        <v>1894</v>
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2396</v>
+        <v>1881</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1161</v>
+        <v>1718</v>
       </c>
       <c r="B606" t="s">
-        <v>1904</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1906</v>
+        <v>1885</v>
       </c>
       <c r="B607" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1203</v>
+        <v>1451</v>
       </c>
       <c r="B608" t="s">
-        <v>1907</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1236</v>
+        <v>1887</v>
       </c>
       <c r="B609" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1408</v>
+        <v>1889</v>
       </c>
       <c r="B610" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1230</v>
+        <v>1891</v>
       </c>
       <c r="B611" t="s">
-        <v>1910</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>252</v>
+        <v>1893</v>
       </c>
       <c r="B612" t="s">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1912</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1913</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="B615" t="s">
-        <v>1914</v>
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2397</v>
+        <v>1203</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1915</v>
+        <v>1236</v>
       </c>
       <c r="B618" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1756</v>
+        <v>1408</v>
       </c>
       <c r="B619" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1919</v>
+        <v>1230</v>
       </c>
       <c r="B620" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1921</v>
+        <v>252</v>
       </c>
       <c r="B621" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1923</v>
+        <v>1187</v>
       </c>
       <c r="B622" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1925</v>
+        <v>1238</v>
       </c>
       <c r="B623" t="s">
-        <v>1924</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1926</v>
+        <v>1181</v>
       </c>
       <c r="B624" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1928</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1930</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
       <c r="B627" t="s">
-        <v>1931</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1933</v>
+        <v>1756</v>
       </c>
       <c r="B628" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1936</v>
+        <v>1919</v>
       </c>
       <c r="B629" t="s">
-        <v>1935</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1578</v>
+        <v>1921</v>
       </c>
       <c r="B630" t="s">
-        <v>1937</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1939</v>
+        <v>1923</v>
       </c>
       <c r="B631" t="s">
-        <v>1938</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1941</v>
+        <v>1925</v>
       </c>
       <c r="B632" t="s">
-        <v>1940</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1299</v>
+        <v>1926</v>
       </c>
       <c r="B633" t="s">
-        <v>1942</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="B634" t="s">
-        <v>1944</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1946</v>
+        <v>1402</v>
       </c>
       <c r="B635" t="s">
-        <v>1945</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1948</v>
+        <v>1934</v>
       </c>
       <c r="B636" t="s">
-        <v>1947</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1950</v>
+        <v>1933</v>
       </c>
       <c r="B637" t="s">
-        <v>1949</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1952</v>
+        <v>1936</v>
       </c>
       <c r="B638" t="s">
-        <v>1951</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1953</v>
+        <v>1578</v>
       </c>
       <c r="B639" t="s">
-        <v>1954</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1956</v>
+        <v>1939</v>
       </c>
       <c r="B640" t="s">
-        <v>1955</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1958</v>
+        <v>1941</v>
       </c>
       <c r="B641" t="s">
-        <v>1957</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1960</v>
+        <v>1299</v>
       </c>
       <c r="B642" t="s">
-        <v>1959</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1287</v>
+        <v>1943</v>
       </c>
       <c r="B643" t="s">
-        <v>1961</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1963</v>
+        <v>1946</v>
       </c>
       <c r="B644" t="s">
-        <v>1962</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1503</v>
+        <v>1948</v>
       </c>
       <c r="B645" t="s">
-        <v>1964</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="B646" t="s">
-        <v>1966</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1968</v>
+        <v>1952</v>
       </c>
       <c r="B647" t="s">
-        <v>1967</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1970</v>
+        <v>1953</v>
       </c>
       <c r="B648" t="s">
-        <v>1969</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1972</v>
+        <v>1956</v>
       </c>
       <c r="B649" t="s">
-        <v>1971</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1973</v>
+        <v>1958</v>
       </c>
       <c r="B650" t="s">
-        <v>1974</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1976</v>
+        <v>1960</v>
       </c>
       <c r="B651" t="s">
-        <v>1975</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1978</v>
+        <v>1287</v>
       </c>
       <c r="B652" t="s">
-        <v>1977</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1980</v>
+        <v>1963</v>
       </c>
       <c r="B653" t="s">
-        <v>1979</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1982</v>
+        <v>1503</v>
       </c>
       <c r="B654" t="s">
-        <v>1981</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
         <v>2962</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B664" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="3011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="3050">
   <si>
     <t>Base Set</t>
   </si>
@@ -9065,6 +9065,123 @@
   </si>
   <si>
     <t>Jose Cardenal Cubs</t>
+  </si>
+  <si>
+    <t>First Cards</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-rXZ2QQYtSZk/ViQvwl_zPwI/AAAAAAAAahg/J0cx0QY-HoU/s1600/2004%2BTopps%2BTraded%2B%2523T114%2BBlanco.JPG</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-veJVCHCvQfM/VylhQWl0K4I/AAAAAAAAcfc/UvKtK3-oxxMTRxW___Pt3lapN4zR3iZxQCLcB/s1600/2008%2BTopps%2B%2523453%2BMcLaren.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-OfHwmboapuc/Vxf8TE4zRbI/AAAAAAAAcFI/qnJGGEydCEg0VLFdivDPlUxaIrmdAKsawCLcB/s1600/2008%2BTopps%2BUpdate%2B%2523UH177%2BBurriss.tiff</t>
+  </si>
+  <si>
+    <t>Emmanuel Burris</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-6LMTvrLs_aw/V0hmwT5zywI/AAAAAAAAcvk/hBnGheXYansyuxNLJS4_yTAxGvz8P6vTgCLcB/s1600/2009%2BTopps%2B%2523441%2BBailey.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-c-J0Kg-DP5k/VyahcUdbG7I/AAAAAAAAcb0/k2kGgZfSt0AH9GgIx0Zv37C_pl1TAUdSQCLcB/s1600/2009%2BTopps%2BUpdate%2B%2523UH4%2BHernandez.tiff</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-8IQHeJcbaRU/VyaZase41zI/AAAAAAAAca8/UznBdUu3grwwLNPrwzfRmpSZ5Fno545SwCLcB/s1600/2010%2BTopps%2B%2523355%2BRussell.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-pXtsEN7omR4/ViQyy5Z7RzI/AAAAAAAAajA/jwV9vEe95uY/s1600/2010%2BTopps%2BUpdate%2B%2523US-59%2BGomez.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-iU-s0AU9piQ/V7czHCnG6yI/AAAAAAAAdvM/1TgMw004oTIbGNKM2crm6NZ79fm0XtuGQCLcB/s1600/2010%2BTopps%2BUpdate%2B%2523US-89%2BHerrmann.tiff</t>
+  </si>
+  <si>
+    <t>Frank Herrman</t>
+  </si>
+  <si>
+    <t>Peter Bourgeous</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-uliis14S0ws/Vxf6OtK5gsI/AAAAAAAAcE0/spxMu9yBwVk0LgIE-7B5E47WgjWpiu7IACLcB/s1600/2010%2BTopps%2BUpdate%2B%2523US146%2BBourjos.tiff</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-6YS7gLAlWNM/Vxai3d_zE9I/AAAAAAAAcCE/1JYkh7ubwo8MhGM7YGwyFxi7qx6f9pKAQCLcB/s1600/2011%2BTopps%2B%2523165%2BHellickson.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-xkhw1D9lH5s/VxaMEfgDWUI/AAAAAAAAcBA/OoFh1OpxE7sErkuFEWgvHo9fqMW7fZUBwCLcB/s1600/2011%2BTopps%2B%2523554%2BHunter.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-kpUjfzkwzU4/Vxwjc_NDtPI/AAAAAAAAcJM/zgLOnXfC7zgf3P169WcrujoTIetCkyH-wCLcB/s1600/2011%2BTopps%2BUpdate%2B%2523US235%2BMorton.tiff</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-Nng8czUO3es/V1MwVFKQdOI/AAAAAAAAc8A/RHLVIrNDISIiqToeP3QJnI9T9YrFJSroACLcB/s1600/2012%2BTopps%2B%2523585%2BParedes.jpg</t>
+  </si>
+  <si>
+    <t>Jimmy Paraedis</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-s58CTwOvD_A/V8TnmXe1avI/AAAAAAAAd2k/wnpCgMx6G645qFDEGyFp-WiFPkey0xROwCLcB/s1600/72426-5191035Fr.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-_0TSUH3RvAs/V0JLKcAhfEI/AAAAAAAActY/FwbHbHzQoQEk9pgAEBUX_5d7CnfU8uW5gCLcB/s1600/2013%2BTopps%2B%2523268%2BLough.tiff</t>
+  </si>
+  <si>
+    <t>Brett Olberholtzer</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Dybk5Vwdx5s/VyaUCNsTZRI/AAAAAAAAcaQ/EG5EgDp0dQgzt4i2vBtaG0zIcNLVVeZyQCLcB/s1600/2014%2BTopps%2B%2523115%2BOberholtzer.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-qHKkv5zoAXw/Vi-VgyBwvjI/AAAAAAAAanE/SVaQsv1wAWw/s1600/2015%2BTopps%2BUpdate%2B%2523US95%2BAraujo.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-G_m3HJUOGro/V5ar3OOiPrI/AAAAAAAAdhY/XkTLKRZRDrMdZ0VS-PJUFJJvcz1Oy7rLACLcB/s1600/2015%2BTopps%2BUpdate%2B%2523US148%2BFeatherston.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-R7YFaYbLKPc/Vi-WhD6DW6I/AAAAAAAAanI/OJgdyckGhSA/s1600/2015%2BTopps%2BUpdate%2B%2523US166%2BGonzalez.jpg</t>
+  </si>
+  <si>
+    <t>Vincent Velasquez</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-gIycWknK-9k/WBTZA-nZs2I/AAAAAAAAefs/UkK7p0Y7hvIkZqF-L9eUNJnXKHoNW8PGACLcB/s1600/2016%2BTopps%2BUpdate%2B%2523US39%2BJoseph.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Azukh7ceqDc/WBTZBNkcLhI/AAAAAAAAefw/0VOwRDQu2AYcUNWrPhqp_RApMm2larOagCLcB/s1600/2016%2BTopps%2BUpdate%2B%2523US95%2BNeris.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-88Wvm9Gb9TA/WBTZn8cIjfI/AAAAAAAAef0/PkyuM_Mm1IYJYmotlpZJ5SKtkVdd-C3ugCLcB/s1600/2016%2BTopps%2BUpdate%2B%2523US247%2BGoeddel.jpg</t>
+  </si>
+  <si>
+    <t>Fernando Rodney</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-R4UrF9fm1fs/WBeX2KL2fkI/AAAAAAABpUU/4CEOm4NydRs9iuLkVX90Pz7qUWD719gSgCLcB/s1600/666pt2-1-1-1.jpg</t>
+  </si>
+  <si>
+    <t>Odubbel Herrera Heritage</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-xjuNhf12Cn0/WBebMyON6dI/AAAAAAABpUg/0lxt8fPgFHwKh8jfIkVCtzfl15__rXBbACLcB/s1600/hsca-6.jpg</t>
+  </si>
+  <si>
+    <t>Kenley Jansen</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-Bj6UogdwMws/WBaIt4KXHtI/AAAAAAABpSY/ujMRPww0QUwf-_9Biql0fAJOVACkJqqaQCLcB/s1600/jansen.jpg</t>
+  </si>
+  <si>
+    <t>Julio Urias</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-h2xTnrfSUr8/WBaK4vu56_I/AAAAAAABpSk/iZYreaAkRQs9NP28AFjGwazMZwvz2ncYQCLcB/s1600/urias.jpg</t>
+  </si>
+  <si>
+    <t>Joe Morgan 1975 Collectors Club</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-SqIaZwZRFpY/WAalIpEjkWI/AAAAAAAAKYo/BrH-owuR2vEelon_OfqIo569A1mN2NyewCLcB/s1600/76%2Btopps%2Bsports%2Bclub%2Bmorgan.jpg</t>
   </si>
 </sst>
 </file>
@@ -17539,10 +17656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17892,3747 +18009,3811 @@
         <v>3003</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3045</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1823</v>
+        <v>3046</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3047</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1489</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="B52" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1494</v>
+        <v>1786</v>
       </c>
       <c r="B53" t="s">
-        <v>1495</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1497</v>
+        <v>1820</v>
       </c>
       <c r="B54" t="s">
-        <v>1496</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1498</v>
+        <v>1822</v>
       </c>
       <c r="B55" t="s">
-        <v>1499</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="B56" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
       <c r="B57" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
       <c r="B58" t="s">
-        <v>1512</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1824</v>
+        <v>1497</v>
       </c>
       <c r="B59" t="s">
-        <v>1825</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1826</v>
+        <v>1498</v>
       </c>
       <c r="B60" t="s">
-        <v>1827</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1611</v>
+        <v>1502</v>
       </c>
       <c r="B61" t="s">
-        <v>1612</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1779</v>
+        <v>1509</v>
       </c>
       <c r="B62" t="s">
-        <v>1780</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2388</v>
+        <v>1511</v>
       </c>
       <c r="B63" t="s">
-        <v>1781</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1782</v>
+        <v>1824</v>
       </c>
       <c r="B64" t="s">
-        <v>1783</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1784</v>
+        <v>1826</v>
       </c>
       <c r="B65" t="s">
-        <v>1785</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>1611</v>
       </c>
       <c r="B66" t="s">
-        <v>1788</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="B67" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1791</v>
+        <v>2388</v>
       </c>
       <c r="B68" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1578</v>
+        <v>1782</v>
       </c>
       <c r="B69" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>1784</v>
       </c>
       <c r="B70" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1795</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="B72" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="B73" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1522</v>
+        <v>1578</v>
       </c>
       <c r="B74" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1804</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="B76" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="B77" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="B78" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1813</v>
+        <v>1522</v>
       </c>
       <c r="B79" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="B80" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
       <c r="B81" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="B82" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1828</v>
+        <v>1810</v>
       </c>
       <c r="B83" t="s">
-        <v>1829</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1192</v>
+        <v>1813</v>
       </c>
       <c r="B84" t="s">
-        <v>1830</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1831</v>
+        <v>1814</v>
       </c>
       <c r="B85" t="s">
-        <v>1832</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1107</v>
+        <v>1797</v>
       </c>
       <c r="B86" t="s">
-        <v>1833</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1835</v>
+        <v>1816</v>
       </c>
       <c r="B87" t="s">
-        <v>1834</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1353</v>
+        <v>1828</v>
       </c>
       <c r="B88" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1354</v>
+        <v>1192</v>
       </c>
       <c r="B89" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1283</v>
+        <v>1831</v>
       </c>
       <c r="B90" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1839</v>
+        <v>1107</v>
       </c>
       <c r="B91" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="B92" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1843</v>
+        <v>1353</v>
       </c>
       <c r="B93" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1852</v>
+        <v>1354</v>
       </c>
       <c r="B94" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1854</v>
+        <v>1283</v>
       </c>
       <c r="B95" t="s">
-        <v>1855</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1857</v>
+        <v>1839</v>
       </c>
       <c r="B96" t="s">
-        <v>1858</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1862</v>
+        <v>1841</v>
       </c>
       <c r="B97" t="s">
-        <v>1863</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1639</v>
+        <v>1843</v>
       </c>
       <c r="B98" t="s">
-        <v>1864</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1896</v>
+        <v>1852</v>
       </c>
       <c r="B99" t="s">
-        <v>1897</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B100" t="s">
-        <v>1990</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1991</v>
+        <v>1857</v>
       </c>
       <c r="B101" t="s">
-        <v>1992</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1993</v>
+        <v>1862</v>
       </c>
       <c r="B102" t="s">
-        <v>1994</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1995</v>
+        <v>1639</v>
       </c>
       <c r="B103" t="s">
-        <v>1996</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1998</v>
+        <v>1896</v>
       </c>
       <c r="B104" t="s">
-        <v>1997</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2000</v>
+        <v>1857</v>
       </c>
       <c r="B105" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2154</v>
+        <v>1991</v>
       </c>
       <c r="B106" t="s">
-        <v>2155</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2156</v>
+        <v>1993</v>
       </c>
       <c r="B107" t="s">
-        <v>2157</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2160</v>
+        <v>1995</v>
       </c>
       <c r="B108" t="s">
-        <v>2161</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2162</v>
+        <v>1998</v>
       </c>
       <c r="B109" t="s">
-        <v>2163</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2164</v>
+        <v>2000</v>
       </c>
       <c r="B110" t="s">
-        <v>2165</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2166</v>
+        <v>2154</v>
       </c>
       <c r="B111" t="s">
-        <v>2167</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="B112" t="s">
-        <v>2169</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2178</v>
+        <v>2160</v>
       </c>
       <c r="B113" t="s">
-        <v>2179</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2180</v>
+        <v>2162</v>
       </c>
       <c r="B114" t="s">
-        <v>2181</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2182</v>
+        <v>2164</v>
       </c>
       <c r="B115" t="s">
-        <v>2183</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2186</v>
+        <v>2166</v>
       </c>
       <c r="B116" t="s">
-        <v>2187</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2188</v>
+        <v>2168</v>
       </c>
       <c r="B117" t="s">
-        <v>2189</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2190</v>
+        <v>2178</v>
       </c>
       <c r="B118" t="s">
-        <v>2191</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2198</v>
+        <v>2180</v>
       </c>
       <c r="B119" t="s">
-        <v>2199</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2200</v>
+        <v>2182</v>
       </c>
       <c r="B120" t="s">
-        <v>2201</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2202</v>
+        <v>2186</v>
       </c>
       <c r="B121" t="s">
-        <v>2203</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2208</v>
+        <v>2188</v>
       </c>
       <c r="B122" t="s">
-        <v>2209</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="B123" t="s">
-        <v>2211</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>2212</v>
+        <v>2198</v>
       </c>
       <c r="B124" t="s">
-        <v>2213</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2214</v>
+        <v>2200</v>
       </c>
       <c r="B125" t="s">
-        <v>2215</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>2216</v>
+        <v>2202</v>
       </c>
       <c r="B126" t="s">
-        <v>2217</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
       <c r="B127" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="B128" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1593</v>
+        <v>2212</v>
       </c>
       <c r="B129" t="s">
-        <v>2233</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>2236</v>
+        <v>2214</v>
       </c>
       <c r="B130" t="s">
-        <v>2237</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>2238</v>
+        <v>2216</v>
       </c>
       <c r="B131" t="s">
-        <v>2239</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2240</v>
+        <v>2218</v>
       </c>
       <c r="B132" t="s">
-        <v>2241</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2550</v>
+        <v>2220</v>
       </c>
       <c r="B133" t="s">
-        <v>2551</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2552</v>
+        <v>1593</v>
       </c>
       <c r="B134" t="s">
-        <v>2553</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2554</v>
+        <v>2236</v>
       </c>
       <c r="B135" t="s">
-        <v>2555</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2556</v>
+        <v>2238</v>
       </c>
       <c r="B136" t="s">
-        <v>2557</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2558</v>
+        <v>2240</v>
       </c>
       <c r="B137" t="s">
-        <v>2559</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2679</v>
+        <v>2550</v>
       </c>
       <c r="B138" t="s">
-        <v>2680</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2708</v>
+        <v>2552</v>
       </c>
       <c r="B139" t="s">
-        <v>2709</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2710</v>
+        <v>2554</v>
       </c>
       <c r="B140" t="s">
-        <v>2711</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2712</v>
+        <v>2556</v>
       </c>
       <c r="B141" t="s">
-        <v>2713</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>2714</v>
+        <v>2558</v>
       </c>
       <c r="B142" t="s">
-        <v>2715</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2716</v>
+        <v>2679</v>
       </c>
       <c r="B143" t="s">
-        <v>2717</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>2718</v>
+        <v>2708</v>
       </c>
       <c r="B144" t="s">
-        <v>2719</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2744</v>
+        <v>2710</v>
       </c>
       <c r="B145" t="s">
-        <v>2745</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>2762</v>
+        <v>2712</v>
       </c>
       <c r="B146" t="s">
-        <v>2763</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2765</v>
+        <v>2714</v>
       </c>
       <c r="B147" t="s">
-        <v>2764</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>2766</v>
+        <v>2716</v>
       </c>
       <c r="B148" t="s">
-        <v>2767</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>2791</v>
+        <v>2718</v>
       </c>
       <c r="B149" t="s">
-        <v>2792</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>2793</v>
+        <v>2744</v>
       </c>
       <c r="B150" t="s">
-        <v>2794</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2988</v>
+        <v>2762</v>
       </c>
       <c r="B151" t="s">
-        <v>2989</v>
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2767</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>2414</v>
+        <v>2791</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2792</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2244</v>
+        <v>2793</v>
       </c>
       <c r="B155" t="s">
-        <v>2422</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2245</v>
+        <v>2988</v>
       </c>
       <c r="B156" t="s">
-        <v>2423</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2246</v>
+        <v>3042</v>
       </c>
       <c r="B157" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2420</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2249</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="B160" t="s">
-        <v>2251</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="B161" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="B162" t="s">
-        <v>2254</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2255</v>
+        <v>2247</v>
       </c>
       <c r="B163" t="s">
-        <v>2256</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2257</v>
+        <v>2248</v>
       </c>
       <c r="B164" t="s">
-        <v>2258</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="B165" t="s">
-        <v>2415</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="B166" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
       <c r="B167" t="s">
-        <v>2418</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="B168" t="s">
-        <v>2417</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B169" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="B170" t="s">
-        <v>2428</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="B171" t="s">
-        <v>2429</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="B172" t="s">
-        <v>2430</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="B173" t="s">
-        <v>2431</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="B174" t="s">
-        <v>2432</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="B175" t="s">
-        <v>2433</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="B176" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="B177" t="s">
-        <v>2435</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="B178" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="B179" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="B180" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="B181" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="B182" t="s">
-        <v>2440</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="B183" t="s">
-        <v>2441</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="B184" t="s">
-        <v>2442</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="B185" t="s">
-        <v>2443</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="B186" t="s">
-        <v>2444</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B187" t="s">
-        <v>2445</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="B188" t="s">
-        <v>2446</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
       <c r="B189" t="s">
-        <v>2427</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="B190" t="s">
-        <v>2286</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="B191" t="s">
-        <v>2426</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="B192" t="s">
-        <v>2425</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="B193" t="s">
-        <v>2424</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="B194" t="s">
-        <v>2293</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>2294</v>
+        <v>2285</v>
       </c>
       <c r="B195" t="s">
-        <v>2295</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="B196" t="s">
-        <v>2297</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2302</v>
+        <v>2288</v>
       </c>
       <c r="B197" t="s">
-        <v>2303</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2310</v>
+        <v>2289</v>
       </c>
       <c r="B198" t="s">
-        <v>2311</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2314</v>
+        <v>2292</v>
       </c>
       <c r="B199" t="s">
-        <v>2315</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>2316</v>
+        <v>2294</v>
       </c>
       <c r="B200" t="s">
-        <v>2317</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>2318</v>
+        <v>2296</v>
       </c>
       <c r="B201" t="s">
-        <v>2319</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2320</v>
+        <v>2302</v>
       </c>
       <c r="B202" t="s">
-        <v>2321</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2322</v>
+        <v>2310</v>
       </c>
       <c r="B203" t="s">
-        <v>2323</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>2328</v>
+        <v>2314</v>
       </c>
       <c r="B204" t="s">
-        <v>2329</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2330</v>
+        <v>2316</v>
       </c>
       <c r="B205" t="s">
-        <v>2331</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>2332</v>
+        <v>2318</v>
       </c>
       <c r="B206" t="s">
-        <v>2333</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2334</v>
+        <v>2320</v>
       </c>
       <c r="B207" t="s">
-        <v>2335</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>2336</v>
+        <v>2322</v>
       </c>
       <c r="B208" t="s">
-        <v>2337</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="B209" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="B210" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2348</v>
+        <v>2332</v>
       </c>
       <c r="B211" t="s">
-        <v>2349</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>2358</v>
+        <v>2334</v>
       </c>
       <c r="B212" t="s">
-        <v>2359</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>2366</v>
+        <v>2336</v>
       </c>
       <c r="B213" t="s">
-        <v>2367</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2374</v>
+        <v>2338</v>
       </c>
       <c r="B214" t="s">
-        <v>2375</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>2378</v>
+        <v>2340</v>
       </c>
       <c r="B215" t="s">
-        <v>2379</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2380</v>
+        <v>2348</v>
       </c>
       <c r="B216" t="s">
-        <v>2381</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2382</v>
+        <v>2358</v>
       </c>
       <c r="B217" t="s">
-        <v>2383</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>2487</v>
+        <v>2366</v>
       </c>
       <c r="B218" t="s">
-        <v>2488</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>2483</v>
+        <v>2374</v>
       </c>
       <c r="B219" t="s">
-        <v>2484</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2493</v>
+        <v>2378</v>
       </c>
       <c r="B220" t="s">
-        <v>2494</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>2495</v>
+        <v>2380</v>
       </c>
       <c r="B221" t="s">
-        <v>2496</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2499</v>
+        <v>2382</v>
       </c>
       <c r="B222" t="s">
-        <v>2500</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2509</v>
+        <v>2487</v>
       </c>
       <c r="B223" t="s">
-        <v>2510</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2511</v>
+        <v>2483</v>
       </c>
       <c r="B224" t="s">
-        <v>2512</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>2513</v>
+        <v>2493</v>
       </c>
       <c r="B225" t="s">
-        <v>2514</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2519</v>
+        <v>2495</v>
       </c>
       <c r="B226" t="s">
-        <v>2520</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2521</v>
+        <v>2499</v>
       </c>
       <c r="B227" t="s">
-        <v>2522</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2527</v>
+        <v>2509</v>
       </c>
       <c r="B228" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2535</v>
+        <v>2511</v>
       </c>
       <c r="B229" t="s">
-        <v>2536</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2570</v>
+        <v>2513</v>
       </c>
       <c r="B230" t="s">
-        <v>2569</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2572</v>
+        <v>2519</v>
       </c>
       <c r="B231" t="s">
-        <v>2573</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2574</v>
+        <v>2521</v>
       </c>
       <c r="B232" t="s">
-        <v>2575</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2605</v>
+        <v>2527</v>
       </c>
       <c r="B233" t="s">
-        <v>2606</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2607</v>
+        <v>2535</v>
       </c>
       <c r="B234" t="s">
-        <v>2608</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2610</v>
+        <v>2570</v>
       </c>
       <c r="B235" t="s">
-        <v>2609</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2611</v>
+        <v>2572</v>
       </c>
       <c r="B236" t="s">
-        <v>2614</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2612</v>
+        <v>2574</v>
       </c>
       <c r="B237" t="s">
-        <v>2615</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2613</v>
+        <v>2605</v>
       </c>
       <c r="B238" t="s">
-        <v>2616</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B239" t="s">
-        <v>2618</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2619</v>
+        <v>2610</v>
       </c>
       <c r="B240" t="s">
-        <v>2620</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2625</v>
+        <v>2611</v>
       </c>
       <c r="B241" t="s">
-        <v>2626</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2629</v>
+        <v>2612</v>
       </c>
       <c r="B242" t="s">
-        <v>2630</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2635</v>
+        <v>2613</v>
       </c>
       <c r="B243" t="s">
-        <v>2636</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2637</v>
+        <v>2617</v>
       </c>
       <c r="B244" t="s">
-        <v>2638</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2639</v>
+        <v>2619</v>
       </c>
       <c r="B245" t="s">
-        <v>2640</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2644</v>
+        <v>2625</v>
       </c>
       <c r="B246" t="s">
-        <v>2645</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2648</v>
+        <v>2629</v>
       </c>
       <c r="B247" t="s">
-        <v>2649</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>2657</v>
+        <v>2635</v>
       </c>
       <c r="B248" t="s">
-        <v>2658</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>2967</v>
+        <v>2637</v>
       </c>
       <c r="B249" t="s">
-        <v>2966</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2968</v>
+        <v>2639</v>
       </c>
       <c r="B250" t="s">
-        <v>2969</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2976</v>
+        <v>2644</v>
       </c>
       <c r="B251" t="s">
-        <v>2977</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2996</v>
+        <v>2648</v>
       </c>
       <c r="B252" t="s">
-        <v>2995</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>2567</v>
+        <v>2657</v>
       </c>
       <c r="B253" t="s">
-        <v>3004</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>3005</v>
+        <v>2967</v>
       </c>
       <c r="B254" t="s">
-        <v>3006</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>3009</v>
+        <v>2968</v>
       </c>
       <c r="B255" t="s">
-        <v>3007</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>3010</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B261" t="s">
         <v>3008</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>3011</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2387</v>
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3012</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1518</v>
+        <v>2042</v>
       </c>
       <c r="B265" t="s">
-        <v>1903</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1490</v>
+        <v>3015</v>
       </c>
       <c r="B266" t="s">
-        <v>1491</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>259</v>
+        <v>1442</v>
       </c>
       <c r="B267" t="s">
-        <v>1500</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1503</v>
+        <v>10</v>
       </c>
       <c r="B268" t="s">
-        <v>1504</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1507</v>
+        <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>1505</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1506</v>
+        <v>8</v>
       </c>
       <c r="B270" t="s">
-        <v>1508</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1514</v>
+        <v>3021</v>
       </c>
       <c r="B271" t="s">
-        <v>1513</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1535</v>
+        <v>3022</v>
       </c>
       <c r="B272" t="s">
-        <v>1536</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1537</v>
+        <v>1859</v>
       </c>
       <c r="B273" t="s">
-        <v>1538</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1777</v>
+        <v>14</v>
       </c>
       <c r="B274" t="s">
-        <v>1778</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1898</v>
+        <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>1899</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1900</v>
+        <v>3028</v>
       </c>
       <c r="B276" t="s">
-        <v>1901</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1610</v>
+        <v>2567</v>
       </c>
       <c r="B277" t="s">
-        <v>1609</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1614</v>
+        <v>1440</v>
       </c>
       <c r="B278" t="s">
-        <v>1615</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1618</v>
+        <v>3031</v>
       </c>
       <c r="B279" t="s">
-        <v>1619</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1616</v>
+        <v>2462</v>
       </c>
       <c r="B280" t="s">
-        <v>1617</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1620</v>
+        <v>209</v>
       </c>
       <c r="B281" t="s">
-        <v>1621</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2001</v>
+        <v>2065</v>
       </c>
       <c r="B282" t="s">
-        <v>2002</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>2158</v>
+        <v>143</v>
       </c>
       <c r="B283" t="s">
-        <v>2159</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2172</v>
+        <v>3036</v>
       </c>
       <c r="B284" t="s">
-        <v>2173</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2174</v>
+        <v>2044</v>
       </c>
       <c r="B285" t="s">
-        <v>2175</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2176</v>
+        <v>16</v>
       </c>
       <c r="B286" t="s">
-        <v>2177</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>2184</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B288" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B289" t="s">
-        <v>2205</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B290" t="s">
-        <v>2207</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2222</v>
+        <v>1518</v>
       </c>
       <c r="B291" t="s">
-        <v>2223</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2224</v>
+        <v>1490</v>
       </c>
       <c r="B292" t="s">
-        <v>2225</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>2226</v>
+        <v>259</v>
       </c>
       <c r="B293" t="s">
-        <v>2227</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2228</v>
+        <v>1503</v>
       </c>
       <c r="B294" t="s">
-        <v>2229</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="B295" t="s">
-        <v>2230</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>2231</v>
+        <v>1506</v>
       </c>
       <c r="B296" t="s">
-        <v>2232</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2234</v>
+        <v>1514</v>
       </c>
       <c r="B297" t="s">
-        <v>2235</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>2242</v>
+        <v>1535</v>
       </c>
       <c r="B298" t="s">
-        <v>2243</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>2342</v>
+        <v>1537</v>
       </c>
       <c r="B299" t="s">
-        <v>2343</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>2344</v>
+        <v>1777</v>
       </c>
       <c r="B300" t="s">
-        <v>2345</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2346</v>
+        <v>1898</v>
       </c>
       <c r="B301" t="s">
-        <v>2347</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>2324</v>
+        <v>1900</v>
       </c>
       <c r="B302" t="s">
-        <v>2325</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>2326</v>
+        <v>1610</v>
       </c>
       <c r="B303" t="s">
-        <v>2327</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2298</v>
+        <v>1614</v>
       </c>
       <c r="B304" t="s">
-        <v>2299</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2300</v>
+        <v>1618</v>
       </c>
       <c r="B305" t="s">
-        <v>2301</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2304</v>
+        <v>1616</v>
       </c>
       <c r="B306" t="s">
-        <v>2305</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2306</v>
+        <v>1620</v>
       </c>
       <c r="B307" t="s">
-        <v>2307</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2308</v>
+        <v>2001</v>
       </c>
       <c r="B308" t="s">
-        <v>2309</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2312</v>
+        <v>2158</v>
       </c>
       <c r="B309" t="s">
-        <v>2313</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2290</v>
+        <v>2172</v>
       </c>
       <c r="B310" t="s">
-        <v>2291</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2350</v>
+        <v>2174</v>
       </c>
       <c r="B311" t="s">
-        <v>2351</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2352</v>
+        <v>2176</v>
       </c>
       <c r="B312" t="s">
-        <v>2353</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2356</v>
+        <v>2184</v>
       </c>
       <c r="B313" t="s">
-        <v>2357</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2360</v>
+        <v>2196</v>
       </c>
       <c r="B314" t="s">
-        <v>2361</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2362</v>
+        <v>2204</v>
       </c>
       <c r="B315" t="s">
-        <v>2363</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2364</v>
+        <v>2206</v>
       </c>
       <c r="B316" t="s">
-        <v>2365</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2368</v>
+        <v>2222</v>
       </c>
       <c r="B317" t="s">
-        <v>2369</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2370</v>
+        <v>2224</v>
       </c>
       <c r="B318" t="s">
-        <v>2371</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>2376</v>
+        <v>2226</v>
       </c>
       <c r="B319" t="s">
-        <v>2377</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2485</v>
+        <v>2228</v>
       </c>
       <c r="B320" t="s">
-        <v>2486</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2489</v>
+        <v>1514</v>
       </c>
       <c r="B321" t="s">
-        <v>2490</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2997</v>
+        <v>2231</v>
       </c>
       <c r="B322" t="s">
-        <v>2998</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2491</v>
+        <v>2234</v>
       </c>
       <c r="B323" t="s">
-        <v>2492</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2497</v>
+        <v>2242</v>
       </c>
       <c r="B324" t="s">
-        <v>2498</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2501</v>
+        <v>2342</v>
       </c>
       <c r="B325" t="s">
-        <v>2502</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2503</v>
+        <v>2344</v>
       </c>
       <c r="B326" t="s">
-        <v>2504</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2505</v>
+        <v>2346</v>
       </c>
       <c r="B327" t="s">
-        <v>2506</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2507</v>
+        <v>2324</v>
       </c>
       <c r="B328" t="s">
-        <v>2508</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2515</v>
+        <v>2326</v>
       </c>
       <c r="B329" t="s">
-        <v>2516</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2517</v>
+        <v>2298</v>
       </c>
       <c r="B330" t="s">
-        <v>2518</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2523</v>
+        <v>2300</v>
       </c>
       <c r="B331" t="s">
-        <v>2524</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2525</v>
+        <v>2304</v>
       </c>
       <c r="B332" t="s">
-        <v>2526</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2529</v>
+        <v>2306</v>
       </c>
       <c r="B333" t="s">
-        <v>2530</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2537</v>
+        <v>2308</v>
       </c>
       <c r="B334" t="s">
-        <v>2538</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2539</v>
+        <v>2312</v>
       </c>
       <c r="B335" t="s">
-        <v>2540</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2541</v>
+        <v>2290</v>
       </c>
       <c r="B336" t="s">
-        <v>2542</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2563</v>
+        <v>2350</v>
       </c>
       <c r="B337" t="s">
-        <v>2561</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2560</v>
+        <v>2352</v>
       </c>
       <c r="B338" t="s">
-        <v>2562</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2576</v>
+        <v>2356</v>
       </c>
       <c r="B339" t="s">
-        <v>2577</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2578</v>
+        <v>2360</v>
       </c>
       <c r="B340" t="s">
-        <v>2579</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2580</v>
+        <v>2362</v>
       </c>
       <c r="B341" t="s">
-        <v>2581</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2594</v>
+        <v>2364</v>
       </c>
       <c r="B342" t="s">
-        <v>2595</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2598</v>
+        <v>2368</v>
       </c>
       <c r="B343" t="s">
-        <v>2599</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2651</v>
+        <v>2370</v>
       </c>
       <c r="B344" t="s">
-        <v>2650</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1388</v>
+        <v>2376</v>
       </c>
       <c r="B345" t="s">
-        <v>2652</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2653</v>
+        <v>2485</v>
       </c>
       <c r="B346" t="s">
-        <v>2654</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2655</v>
+        <v>2489</v>
       </c>
       <c r="B347" t="s">
-        <v>2656</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2660</v>
+        <v>2997</v>
       </c>
       <c r="B348" t="s">
-        <v>2659</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2671</v>
+        <v>2491</v>
       </c>
       <c r="B349" t="s">
-        <v>2672</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2673</v>
+        <v>2497</v>
       </c>
       <c r="B350" t="s">
-        <v>2674</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2678</v>
+        <v>2501</v>
       </c>
       <c r="B351" t="s">
-        <v>2677</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2746</v>
+        <v>2503</v>
       </c>
       <c r="B352" t="s">
-        <v>2747</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2771</v>
+        <v>2505</v>
       </c>
       <c r="B353" t="s">
-        <v>2772</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2799</v>
+        <v>2507</v>
       </c>
       <c r="B354" t="s">
-        <v>2800</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2802</v>
+        <v>2515</v>
       </c>
       <c r="B355" t="s">
-        <v>2801</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2814</v>
+        <v>2517</v>
       </c>
       <c r="B356" t="s">
-        <v>2815</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2855</v>
+        <v>2523</v>
       </c>
       <c r="B357" t="s">
-        <v>2856</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2858</v>
+        <v>2525</v>
       </c>
       <c r="B358" t="s">
-        <v>2857</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2859</v>
+        <v>2529</v>
       </c>
       <c r="B359" t="s">
-        <v>2860</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2863</v>
+        <v>2537</v>
       </c>
       <c r="B360" t="s">
-        <v>2864</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2865</v>
+        <v>2539</v>
       </c>
       <c r="B361" t="s">
-        <v>2866</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2870</v>
+        <v>2541</v>
       </c>
       <c r="B362" t="s">
-        <v>2869</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2901</v>
+        <v>2563</v>
       </c>
       <c r="B363" t="s">
-        <v>2902</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2904</v>
+        <v>2560</v>
       </c>
       <c r="B364" t="s">
-        <v>2903</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2905</v>
+        <v>2576</v>
       </c>
       <c r="B365" t="s">
-        <v>2906</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2907</v>
+        <v>2578</v>
       </c>
       <c r="B366" t="s">
-        <v>2908</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2909</v>
+        <v>2580</v>
       </c>
       <c r="B367" t="s">
-        <v>2911</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2910</v>
+        <v>2594</v>
       </c>
       <c r="B368" t="s">
-        <v>2912</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2914</v>
+        <v>2598</v>
       </c>
       <c r="B369" t="s">
-        <v>2913</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2915</v>
+        <v>2651</v>
       </c>
       <c r="B370" t="s">
-        <v>2916</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2919</v>
+        <v>1388</v>
       </c>
       <c r="B371" t="s">
-        <v>2917</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2918</v>
+        <v>2653</v>
       </c>
       <c r="B372" t="s">
-        <v>2922</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2921</v>
+        <v>2655</v>
       </c>
       <c r="B373" t="s">
-        <v>2920</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1889</v>
+        <v>2660</v>
       </c>
       <c r="B374" t="s">
-        <v>2923</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2925</v>
+        <v>2671</v>
       </c>
       <c r="B375" t="s">
-        <v>2924</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2927</v>
+        <v>2673</v>
       </c>
       <c r="B376" t="s">
-        <v>2926</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2929</v>
+        <v>2678</v>
       </c>
       <c r="B377" t="s">
-        <v>2928</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2931</v>
+        <v>2746</v>
       </c>
       <c r="B378" t="s">
-        <v>2930</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2933</v>
+        <v>2771</v>
       </c>
       <c r="B379" t="s">
-        <v>2932</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2934</v>
+        <v>2799</v>
       </c>
       <c r="B380" t="s">
-        <v>2935</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2936</v>
+        <v>2802</v>
       </c>
       <c r="B381" t="s">
-        <v>2937</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2939</v>
+        <v>2814</v>
       </c>
       <c r="B382" t="s">
-        <v>2938</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2941</v>
+        <v>2855</v>
       </c>
       <c r="B383" t="s">
-        <v>2940</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2943</v>
+        <v>2858</v>
       </c>
       <c r="B384" t="s">
-        <v>2942</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2945</v>
+        <v>2859</v>
       </c>
       <c r="B385" t="s">
-        <v>2944</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2947</v>
+        <v>2863</v>
       </c>
       <c r="B386" t="s">
-        <v>2946</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2949</v>
+        <v>2865</v>
       </c>
       <c r="B387" t="s">
-        <v>2948</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2953</v>
+        <v>2870</v>
       </c>
       <c r="B388" t="s">
-        <v>2954</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2955</v>
+        <v>2901</v>
       </c>
       <c r="B389" t="s">
-        <v>2956</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2957</v>
+        <v>2904</v>
       </c>
       <c r="B390" t="s">
-        <v>2958</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2019</v>
+        <v>2905</v>
       </c>
       <c r="B391" t="s">
-        <v>2959</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2036</v>
+        <v>2907</v>
       </c>
       <c r="B392" t="s">
-        <v>2960</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2970</v>
+        <v>2909</v>
       </c>
       <c r="B393" t="s">
-        <v>2971</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2972</v>
+        <v>2910</v>
       </c>
       <c r="B394" t="s">
-        <v>2973</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2975</v>
+        <v>2914</v>
       </c>
       <c r="B395" t="s">
-        <v>2974</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2983</v>
+        <v>2915</v>
       </c>
       <c r="B396" t="s">
-        <v>2984</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2985</v>
+        <v>2919</v>
       </c>
       <c r="B397" t="s">
-        <v>2986</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2999</v>
+        <v>2918</v>
       </c>
       <c r="B398" t="s">
-        <v>3000</v>
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2923</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2447</v>
+        <v>2925</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2924</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2354</v>
+        <v>2927</v>
       </c>
       <c r="B402" t="s">
-        <v>2355</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2372</v>
+        <v>2929</v>
       </c>
       <c r="B403" t="s">
-        <v>2373</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2994</v>
+        <v>2931</v>
       </c>
       <c r="B404" t="s">
-        <v>2993</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2965</v>
+        <v>2933</v>
       </c>
       <c r="B405" t="s">
-        <v>2964</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2978</v>
+        <v>2934</v>
       </c>
       <c r="B406" t="s">
-        <v>2979</v>
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2944</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2809</v>
+        <v>2947</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2946</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2810</v>
+        <v>2949</v>
       </c>
       <c r="B413" t="s">
-        <v>2811</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2812</v>
+        <v>2953</v>
       </c>
       <c r="B414" t="s">
-        <v>2813</v>
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2956</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2867</v>
+        <v>2957</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2958</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1982</v>
+        <v>2019</v>
       </c>
       <c r="B417" t="s">
-        <v>2868</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2118</v>
+        <v>2036</v>
       </c>
       <c r="B418" t="s">
-        <v>2117</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1543</v>
+        <v>2970</v>
       </c>
       <c r="B419" t="s">
-        <v>1544</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1578</v>
+        <v>2972</v>
       </c>
       <c r="B420" t="s">
-        <v>2871</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1972</v>
+        <v>2975</v>
       </c>
       <c r="B421" t="s">
-        <v>2872</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1936</v>
+        <v>2983</v>
       </c>
       <c r="B422" t="s">
-        <v>2873</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2875</v>
+        <v>2985</v>
       </c>
       <c r="B423" t="s">
-        <v>2874</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2877</v>
+        <v>2999</v>
       </c>
       <c r="B424" t="s">
-        <v>2876</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1593</v>
+        <v>3048</v>
       </c>
       <c r="B425" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>2880</v>
-      </c>
-      <c r="B426" t="s">
-        <v>2879</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B427" t="s">
-        <v>2881</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1402</v>
+        <v>2354</v>
       </c>
       <c r="B428" t="s">
-        <v>2883</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2885</v>
+        <v>2372</v>
       </c>
       <c r="B429" t="s">
-        <v>2884</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2887</v>
+        <v>2994</v>
       </c>
       <c r="B430" t="s">
-        <v>2886</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>2888</v>
+        <v>2965</v>
       </c>
       <c r="B431" t="s">
-        <v>2889</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1460</v>
+        <v>2978</v>
       </c>
       <c r="B432" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B433" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B434" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>2893</v>
-      </c>
-      <c r="B435" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B436" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>2896</v>
-      </c>
-      <c r="B437" t="s">
-        <v>2897</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B438" t="s">
-        <v>2898</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>2899</v>
+        <v>2810</v>
       </c>
       <c r="B439" t="s">
-        <v>2900</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1597</v>
+        <v>2812</v>
       </c>
       <c r="B440" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B441" t="s">
-        <v>2171</v>
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B443" t="s">
+        <v>2868</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2389</v>
+        <v>2118</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1455</v>
+        <v>1543</v>
       </c>
       <c r="B445" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1547</v>
+        <v>1578</v>
       </c>
       <c r="B446" t="s">
-        <v>1546</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1549</v>
+        <v>1972</v>
       </c>
       <c r="B447" t="s">
-        <v>1548</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1551</v>
+        <v>1936</v>
       </c>
       <c r="B448" t="s">
-        <v>1550</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1553</v>
+        <v>2875</v>
       </c>
       <c r="B449" t="s">
-        <v>1552</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1555</v>
+        <v>2877</v>
       </c>
       <c r="B450" t="s">
-        <v>1554</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1482</v>
+        <v>1593</v>
       </c>
       <c r="B451" t="s">
-        <v>1556</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1558</v>
+        <v>2880</v>
       </c>
       <c r="B452" t="s">
-        <v>1557</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1606</v>
+        <v>2882</v>
       </c>
       <c r="B453" t="s">
-        <v>1607</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1560</v>
+        <v>1402</v>
       </c>
       <c r="B454" t="s">
-        <v>1559</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1562</v>
+        <v>2885</v>
       </c>
       <c r="B455" t="s">
-        <v>1561</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1564</v>
+        <v>2887</v>
       </c>
       <c r="B456" t="s">
-        <v>1563</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1566</v>
+        <v>2888</v>
       </c>
       <c r="B457" t="s">
-        <v>1565</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1567</v>
+        <v>1460</v>
       </c>
       <c r="B458" t="s">
-        <v>1568</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1570</v>
+        <v>2028</v>
       </c>
       <c r="B459" t="s">
-        <v>1569</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1571</v>
+        <v>1299</v>
       </c>
       <c r="B460" t="s">
-        <v>1572</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1575</v>
+        <v>2893</v>
       </c>
       <c r="B461" t="s">
-        <v>1573</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1574</v>
+        <v>1965</v>
       </c>
       <c r="B462" t="s">
-        <v>1576</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1578</v>
+        <v>2896</v>
       </c>
       <c r="B463" t="s">
-        <v>1577</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1388</v>
+        <v>2545</v>
       </c>
       <c r="B464" t="s">
-        <v>1579</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1581</v>
+        <v>2899</v>
       </c>
       <c r="B465" t="s">
-        <v>1580</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
       <c r="B466" t="s">
-        <v>1582</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1585</v>
+        <v>2170</v>
       </c>
       <c r="B467" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1588</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1590</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1593</v>
+        <v>1455</v>
       </c>
       <c r="B471" t="s">
-        <v>1592</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1595</v>
+        <v>1547</v>
       </c>
       <c r="B472" t="s">
-        <v>1594</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1597</v>
+        <v>1549</v>
       </c>
       <c r="B473" t="s">
-        <v>1596</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1600</v>
+        <v>1551</v>
       </c>
       <c r="B474" t="s">
-        <v>1598</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1599</v>
+        <v>1553</v>
       </c>
       <c r="B475" t="s">
-        <v>1601</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1602</v>
+        <v>1555</v>
       </c>
       <c r="B476" t="s">
-        <v>1604</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1603</v>
+        <v>1482</v>
       </c>
       <c r="B477" t="s">
-        <v>1605</v>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2472</v>
+        <v>1560</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2473</v>
+        <v>1562</v>
       </c>
       <c r="B481" t="s">
-        <v>2474</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>2475</v>
+        <v>1564</v>
       </c>
       <c r="B482" t="s">
-        <v>2476</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>2477</v>
+        <v>1566</v>
       </c>
       <c r="B483" t="s">
-        <v>2478</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>2479</v>
+        <v>1567</v>
       </c>
       <c r="B484" t="s">
-        <v>2480</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>2481</v>
+        <v>1570</v>
       </c>
       <c r="B485" t="s">
-        <v>2482</v>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2582</v>
+        <v>1574</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1455</v>
+        <v>1578</v>
       </c>
       <c r="B489" t="s">
-        <v>2583</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2584</v>
+        <v>1388</v>
       </c>
       <c r="B490" t="s">
-        <v>2585</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B491" t="s">
-        <v>2586</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1566</v>
+        <v>1583</v>
       </c>
       <c r="B492" t="s">
-        <v>2587</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1602</v>
+        <v>1585</v>
       </c>
       <c r="B493" t="s">
-        <v>2588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1150</v>
+        <v>1587</v>
       </c>
       <c r="B494" t="s">
-        <v>2589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1219</v>
+        <v>1589</v>
       </c>
       <c r="B495" t="s">
-        <v>2592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B496" t="s">
-        <v>2593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2597</v>
+        <v>1593</v>
       </c>
       <c r="B497" t="s">
-        <v>2596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="B498" t="s">
-        <v>2600</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1560</v>
+        <v>1597</v>
       </c>
       <c r="B499" t="s">
-        <v>2601</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="B500" t="s">
-        <v>2602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1549</v>
+        <v>1599</v>
       </c>
       <c r="B501" t="s">
-        <v>2603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1388</v>
+        <v>1602</v>
       </c>
       <c r="B502" t="s">
-        <v>2987</v>
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>2391</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1520</v>
+        <v>2473</v>
       </c>
       <c r="B507" t="s">
-        <v>1636</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1388</v>
+        <v>2475</v>
       </c>
       <c r="B508" t="s">
-        <v>1637</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1639</v>
+        <v>2477</v>
       </c>
       <c r="B509" t="s">
-        <v>1638</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1632</v>
+        <v>2479</v>
       </c>
       <c r="B510" t="s">
-        <v>1640</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1641</v>
+        <v>2481</v>
       </c>
       <c r="B511" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1645</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1646</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1648</v>
+        <v>1455</v>
       </c>
       <c r="B515" t="s">
-        <v>1647</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1649</v>
+        <v>2584</v>
       </c>
       <c r="B516" t="s">
-        <v>1650</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1651</v>
+        <v>1589</v>
       </c>
       <c r="B517" t="s">
-        <v>1652</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1653</v>
+        <v>1566</v>
       </c>
       <c r="B518" t="s">
-        <v>1654</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1655</v>
+        <v>1602</v>
       </c>
       <c r="B519" t="s">
-        <v>1656</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>2150</v>
+        <v>1150</v>
       </c>
       <c r="B520" t="s">
-        <v>2151</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>2591</v>
+        <v>1219</v>
       </c>
       <c r="B521" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1683</v>
+        <v>1597</v>
       </c>
       <c r="B522" t="s">
-        <v>2621</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
         <v>1593</v>
       </c>
-      <c r="B523" t="s">
-        <v>2662</v>
+      <c r="B524" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B526" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B527" t="s">
+        <v>2603</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1659</v>
+        <v>1388</v>
+      </c>
+      <c r="B528" t="s">
+        <v>2987</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1661</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1663</v>
+        <v>1520</v>
       </c>
       <c r="B533" t="s">
-        <v>1662</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1639</v>
+        <v>1388</v>
       </c>
       <c r="B534" t="s">
-        <v>1664</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="B535" t="s">
-        <v>1665</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="B536" t="s">
-        <v>1666</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1667</v>
+        <v>1641</v>
       </c>
       <c r="B537" t="s">
-        <v>1668</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1160</v>
+        <v>1644</v>
       </c>
       <c r="B538" t="s">
-        <v>1669</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="B539" t="s">
-        <v>1670</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1388</v>
+        <v>1560</v>
       </c>
       <c r="B540" t="s">
-        <v>1671</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1632</v>
+        <v>1648</v>
       </c>
       <c r="B541" t="s">
-        <v>1672</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1520</v>
+        <v>1649</v>
       </c>
       <c r="B542" t="s">
-        <v>1673</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1674</v>
+        <v>1651</v>
       </c>
       <c r="B543" t="s">
-        <v>1675</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1677</v>
+        <v>1653</v>
       </c>
       <c r="B544" t="s">
-        <v>1676</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1679</v>
+        <v>1655</v>
       </c>
       <c r="B545" t="s">
-        <v>1678</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1681</v>
+        <v>2150</v>
       </c>
       <c r="B546" t="s">
-        <v>1680</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1644</v>
+        <v>2591</v>
       </c>
       <c r="B547" t="s">
-        <v>1682</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -21640,871 +21821,1044 @@
         <v>1683</v>
       </c>
       <c r="B548" t="s">
-        <v>1684</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1482</v>
+        <v>1593</v>
       </c>
       <c r="B549" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B550" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B551" t="s">
-        <v>2641</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1685</v>
+        <v>1451</v>
       </c>
       <c r="B555" t="s">
-        <v>1686</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1523</v>
+        <v>1447</v>
       </c>
       <c r="B556" t="s">
-        <v>1687</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B557" t="s">
-        <v>1688</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1689</v>
+        <v>1660</v>
       </c>
       <c r="B558" t="s">
-        <v>1690</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1691</v>
+        <v>1663</v>
       </c>
       <c r="B559" t="s">
-        <v>1692</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1693</v>
+        <v>1639</v>
       </c>
       <c r="B560" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1696</v>
+        <v>1651</v>
       </c>
       <c r="B561" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1459</v>
+        <v>1641</v>
       </c>
       <c r="B562" t="s">
-        <v>1697</v>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>2394</v>
+        <v>1160</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1698</v>
+        <v>1459</v>
       </c>
       <c r="B565" t="s">
-        <v>1729</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1699</v>
+        <v>1388</v>
       </c>
       <c r="B566" t="s">
-        <v>1730</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1483</v>
+        <v>1632</v>
       </c>
       <c r="B567" t="s">
-        <v>1731</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1700</v>
+        <v>1520</v>
       </c>
       <c r="B568" t="s">
-        <v>1732</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1701</v>
+        <v>1674</v>
       </c>
       <c r="B569" t="s">
-        <v>1733</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1703</v>
+        <v>1677</v>
       </c>
       <c r="B570" t="s">
-        <v>1702</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1667</v>
+        <v>1679</v>
       </c>
       <c r="B571" t="s">
-        <v>1747</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1704</v>
+        <v>1681</v>
       </c>
       <c r="B572" t="s">
-        <v>1705</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1706</v>
+        <v>1644</v>
       </c>
       <c r="B573" t="s">
-        <v>1734</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1707</v>
+        <v>1683</v>
       </c>
       <c r="B574" t="s">
-        <v>1735</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1708</v>
+        <v>1482</v>
       </c>
       <c r="B575" t="s">
-        <v>1709</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1710</v>
+        <v>2152</v>
       </c>
       <c r="B576" t="s">
-        <v>1736</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1459</v>
+        <v>1699</v>
       </c>
       <c r="B577" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1738</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1739</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1714</v>
+        <v>1685</v>
       </c>
       <c r="B581" t="s">
-        <v>1713</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1696</v>
+        <v>1523</v>
       </c>
       <c r="B582" t="s">
-        <v>1740</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1715</v>
+        <v>1524</v>
       </c>
       <c r="B583" t="s">
-        <v>1741</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1717</v>
+        <v>1689</v>
       </c>
       <c r="B584" t="s">
-        <v>1716</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B585" t="s">
-        <v>1742</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1524</v>
+        <v>1693</v>
       </c>
       <c r="B586" t="s">
-        <v>1743</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1718</v>
+        <v>1696</v>
       </c>
       <c r="B587" t="s">
-        <v>1744</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1720</v>
+        <v>1459</v>
       </c>
       <c r="B588" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1745</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1722</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1725</v>
+        <v>1698</v>
       </c>
       <c r="B591" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1726</v>
+        <v>1699</v>
       </c>
       <c r="B592" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1728</v>
+        <v>1483</v>
       </c>
       <c r="B593" t="s">
-        <v>1727</v>
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2395</v>
+        <v>1701</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1762</v>
+        <v>1703</v>
       </c>
       <c r="B596" t="s">
-        <v>1763</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1764</v>
+        <v>1667</v>
       </c>
       <c r="B597" t="s">
-        <v>1765</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="B598" t="s">
-        <v>1870</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1872</v>
+        <v>1706</v>
       </c>
       <c r="B599" t="s">
-        <v>1871</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1533</v>
+        <v>1707</v>
       </c>
       <c r="B600" t="s">
-        <v>1873</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1160</v>
+        <v>1708</v>
       </c>
       <c r="B601" t="s">
-        <v>1874</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1875</v>
+        <v>1710</v>
       </c>
       <c r="B602" t="s">
-        <v>1876</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1877</v>
+        <v>1459</v>
       </c>
       <c r="B603" t="s">
-        <v>1878</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1880</v>
+        <v>1689</v>
       </c>
       <c r="B604" t="s">
-        <v>1879</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1881</v>
+        <v>1712</v>
       </c>
       <c r="B605" t="s">
-        <v>1882</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1718</v>
+        <v>1160</v>
       </c>
       <c r="B606" t="s">
-        <v>1883</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1885</v>
+        <v>1714</v>
       </c>
       <c r="B607" t="s">
-        <v>1884</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1451</v>
+        <v>1696</v>
       </c>
       <c r="B608" t="s">
-        <v>1886</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1887</v>
+        <v>1715</v>
       </c>
       <c r="B609" t="s">
-        <v>1888</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1889</v>
+        <v>1717</v>
       </c>
       <c r="B610" t="s">
-        <v>1890</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1891</v>
+        <v>1693</v>
       </c>
       <c r="B611" t="s">
-        <v>1892</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1893</v>
+        <v>1524</v>
       </c>
       <c r="B612" t="s">
-        <v>1894</v>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>2396</v>
+        <v>1720</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1161</v>
+        <v>1721</v>
       </c>
       <c r="B615" t="s">
-        <v>1904</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1906</v>
+        <v>1723</v>
       </c>
       <c r="B616" t="s">
-        <v>1905</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1203</v>
+        <v>1725</v>
       </c>
       <c r="B617" t="s">
-        <v>1907</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1236</v>
+        <v>1726</v>
       </c>
       <c r="B618" t="s">
-        <v>1908</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1408</v>
+        <v>1728</v>
       </c>
       <c r="B619" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1910</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>252</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1911</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1187</v>
+        <v>1762</v>
       </c>
       <c r="B622" t="s">
-        <v>1912</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1238</v>
+        <v>1764</v>
       </c>
       <c r="B623" t="s">
-        <v>1913</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1181</v>
+        <v>1689</v>
       </c>
       <c r="B624" t="s">
-        <v>1914</v>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2397</v>
+        <v>1533</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1915</v>
+        <v>1160</v>
       </c>
       <c r="B627" t="s">
-        <v>1916</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1756</v>
+        <v>1875</v>
       </c>
       <c r="B628" t="s">
-        <v>1917</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1919</v>
+        <v>1877</v>
       </c>
       <c r="B629" t="s">
-        <v>1918</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1921</v>
+        <v>1880</v>
       </c>
       <c r="B630" t="s">
-        <v>1920</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1923</v>
+        <v>1881</v>
       </c>
       <c r="B631" t="s">
-        <v>1922</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1925</v>
+        <v>1718</v>
       </c>
       <c r="B632" t="s">
-        <v>1924</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="B633" t="s">
-        <v>1927</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1929</v>
+        <v>1451</v>
       </c>
       <c r="B634" t="s">
-        <v>1928</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1402</v>
+        <v>1887</v>
       </c>
       <c r="B635" t="s">
-        <v>1930</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1934</v>
+        <v>1889</v>
       </c>
       <c r="B636" t="s">
-        <v>1931</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1933</v>
+        <v>1891</v>
       </c>
       <c r="B637" t="s">
-        <v>1932</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1936</v>
+        <v>1893</v>
       </c>
       <c r="B638" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1937</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1938</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1941</v>
+        <v>1161</v>
       </c>
       <c r="B641" t="s">
-        <v>1940</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1299</v>
+        <v>1906</v>
       </c>
       <c r="B642" t="s">
-        <v>1942</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1943</v>
+        <v>1203</v>
       </c>
       <c r="B643" t="s">
-        <v>1944</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1946</v>
+        <v>1236</v>
       </c>
       <c r="B644" t="s">
-        <v>1945</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1948</v>
+        <v>1408</v>
       </c>
       <c r="B645" t="s">
-        <v>1947</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1950</v>
+        <v>1230</v>
       </c>
       <c r="B646" t="s">
-        <v>1949</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1952</v>
+        <v>252</v>
       </c>
       <c r="B647" t="s">
-        <v>1951</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1953</v>
+        <v>1187</v>
       </c>
       <c r="B648" t="s">
-        <v>1954</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1956</v>
+        <v>1238</v>
       </c>
       <c r="B649" t="s">
-        <v>1955</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1958</v>
+        <v>1181</v>
       </c>
       <c r="B650" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1959</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1961</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1963</v>
+        <v>1915</v>
       </c>
       <c r="B653" t="s">
-        <v>1962</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1503</v>
+        <v>1756</v>
       </c>
       <c r="B654" t="s">
-        <v>1964</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1965</v>
+        <v>1919</v>
       </c>
       <c r="B655" t="s">
-        <v>1966</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1968</v>
+        <v>1921</v>
       </c>
       <c r="B656" t="s">
-        <v>1967</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1970</v>
+        <v>1923</v>
       </c>
       <c r="B657" t="s">
-        <v>1969</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1972</v>
+        <v>1925</v>
       </c>
       <c r="B658" t="s">
-        <v>1971</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1973</v>
+        <v>1926</v>
       </c>
       <c r="B659" t="s">
-        <v>1974</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="B660" t="s">
-        <v>1975</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1978</v>
+        <v>1402</v>
       </c>
       <c r="B661" t="s">
-        <v>1977</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1980</v>
+        <v>1934</v>
       </c>
       <c r="B662" t="s">
-        <v>1979</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1982</v>
+        <v>1933</v>
       </c>
       <c r="B663" t="s">
-        <v>1981</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
         <v>2962</v>
       </c>
-      <c r="B664" t="s">
+      <c r="B690" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="3101">
   <si>
     <t>Base Set</t>
   </si>
@@ -9182,6 +9182,159 @@
   </si>
   <si>
     <t>https://2.bp.blogspot.com/-SqIaZwZRFpY/WAalIpEjkWI/AAAAAAAAKYo/BrH-owuR2vEelon_OfqIo569A1mN2NyewCLcB/s1600/76%2Btopps%2Bsports%2Bclub%2Bmorgan.jpg</t>
+  </si>
+  <si>
+    <t>Cliff Lee 2009 Sweet Spot</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_YDwUVuuwoC8/TQgefWrprDI/AAAAAAAAE_A/hj4YJ5i1THw/s1600/2009+Sweet+Spot+%252322+Lee.JPG</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TQA-U2WS9PI/AAAAAAAAE-c/DxVksc7M6Wk/s1600/1992+O-Pee-Chee+Premier+%252316+Amaro.JPG</t>
+  </si>
+  <si>
+    <t>Ruben Amaro 1992 O-Pee-Chee</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TPW03YutNQI/AAAAAAAAE-E/8zbwQOhp00U/s1600/2007+Fleer+%2523104+Moyer.JPG</t>
+  </si>
+  <si>
+    <t>Jamie Moyer 2007 Fleer</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TPPQMWXq4CI/AAAAAAAAE-A/9DyoRrJ87TA/s1600/1987+Topps+%2523PR4+Easler.jpg</t>
+  </si>
+  <si>
+    <t>Mike Easler 1987 Topps - Not Real</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TO3TkD4ZHlI/AAAAAAAAE94/aYOdTQqCH6Q/s1600/1997+Upper+Deck+%2523454+Hudler.JPG</t>
+  </si>
+  <si>
+    <t>Rex Hudler 1997 Upper Deck</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TOCdFOxNGKI/AAAAAAAAE88/O-AYuFbx998/s1600/1986+Topps+%2523PR13+Roenicke.jpg</t>
+  </si>
+  <si>
+    <t>Ron Roenicke 1986 Topps - Not Real</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TN7cozdlQYI/AAAAAAAAE8w/nq-7Yrc5TaE/s1600/2010+Topps+Update+%2523US-95+Moyer.JPG</t>
+  </si>
+  <si>
+    <t>Jamie Moyer 2010 Topps Update</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TNDJyeEv0WI/AAAAAAAAE7A/-14ZTIN-vcM/s1600/2001+Ultra+%2368+Person.JPG</t>
+  </si>
+  <si>
+    <t>Robert Person 2001 Ultra</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TNDJp_OhoVI/AAAAAAAAE64/Tc_D_mddoYk/s1600/2001+Upper+Deck+Vintage+%23302+Wolf.JPG</t>
+  </si>
+  <si>
+    <t>Randy Wolf 2001 Upper Deck</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TMOw94GQfTI/AAAAAAAAE6M/OWtzCvebc0s/s1600/2010_Phillies_Team_Issue_Phanatic.JPG</t>
+  </si>
+  <si>
+    <t>Phillie Phanatic 2010 Team Issue</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TMEFcmZiEuI/AAAAAAAAE54/inahdNbi3UQ/s1600/2010+Topps+Factory+Set+Phillies+Team+Bonus+%23PHI5+Werth.JPG</t>
+  </si>
+  <si>
+    <t>Jayson Werth 2010 Topps Factory</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TLmwGo456EI/AAAAAAAAE4A/d_A5j8Rvrms/s1600/1975+Topps+%23PR1+Maddox.jpg</t>
+  </si>
+  <si>
+    <t>Garry Maddox 1975 Topps Not Real</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TLKK8LHNqaI/AAAAAAAAE3E/IS4g8Wt9MpU/s1600/2010+Topps+Heritage+%23480+Hamels.JPG</t>
+  </si>
+  <si>
+    <t>Cole Hamels 2010 Heritage</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TKTFYgDySWI/AAAAAAAAE00/DMVrsKpZoWs/s1600/2010+Phillies+Team+Issue+2+%2310+Francisco.JPG</t>
+  </si>
+  <si>
+    <t>Ben Francisco 2010 Team Issue</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TKMrQxp9lQI/AAAAAAAAEzo/nmI8sBYZTKw/s1600/1993+Score+%23224+Brink.JPG</t>
+  </si>
+  <si>
+    <t>Brad Brink 1993 Score</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TKCSBNByqkI/AAAAAAAAEzY/n9HeAXP-cgE/s1600/1968+Topps+%23122+Mauch.JPG</t>
+  </si>
+  <si>
+    <t>Gene Mauch 1968 Topps</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TJ6iUZXlFWI/AAAAAAAAEyw/X3fimWCSBjw/s1600/1954+Topps+%2345+Ashburn.JPG</t>
+  </si>
+  <si>
+    <t>Richie Ashburn 1954 Topps</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TJ1SVYuUTQI/AAAAAAAAEyM/AnkUlOhMjfw/s1600/2010+Topps+206+%238+Victorino.JPG</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TJilOelftNI/AAAAAAAAEw4/LHh_Bf40UU8/s1600/1974+Kellogg%27s+%2326+Twitchell.JPG</t>
+  </si>
+  <si>
+    <t>Wayne Twitchell 1974 Kelloggs</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TJbFoer5-8I/AAAAAAAAEwY/9pxoO-J6sjs/s1600/1992+Topps+Debut+%2791+%2320+Brantley.JPG</t>
+  </si>
+  <si>
+    <t>Cliff Brantley 1992 Topps Debut</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_YDwUVuuwoC8/TJKrqWyVNZI/AAAAAAAAEvI/PG9DXj-kPyM/s1600/2010+Topps+%23424+Herndon.JPG</t>
+  </si>
+  <si>
+    <t>David Herndon 2010 Topps</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TIL_qxxoKXI/AAAAAAAAErg/a73srXRQgzQ/s1600/1985+Topps+%23PR9+Toliver.jpg</t>
+  </si>
+  <si>
+    <t>Fred Toliver 1985 Topps Not Real</t>
+  </si>
+  <si>
+    <t>Rich Surgoff 1985 Topps Not Real</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/_YDwUVuuwoC8/TIMAI0f0AFI/AAAAAAAAEro/Ebz2iE87F20/s1600/1985+Topps+%23PR8+Surhoff.jpg</t>
+  </si>
+  <si>
+    <t>Rocky Childress 1985 Topps Not Real</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TIMAYLM2blI/AAAAAAAAErw/pkNrkicsPpg/s1600/1985+Topps+%23PR1+Childress.jpg</t>
+  </si>
+  <si>
+    <t>2008 Topps Heritage #408 Keystone Combo</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/TH79dDY3WRI/AAAAAAAAEqg/0gIZE0G0hMw/s1600/2008+Topps+Heritage+%23408+Utley+%26+Rollins.JPG</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_YDwUVuuwoC8/THXIGXgfzfI/AAAAAAAAEmc/Chc6t4-o0tY/s1600/2010+Topps+Heritage+%2377+Happ.JPG</t>
+  </si>
+  <si>
+    <t>J.A. Happ 2010 Heritage</t>
   </si>
 </sst>
 </file>
@@ -17656,10 +17809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="B425" sqref="B425"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19707,2230 +19860,2225 @@
         <v>3008</v>
       </c>
     </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3051</v>
+      </c>
+    </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>3011</v>
+        <v>3053</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3052</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1</v>
+        <v>3055</v>
       </c>
       <c r="B264" t="s">
-        <v>3012</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2042</v>
+        <v>3057</v>
       </c>
       <c r="B265" t="s">
-        <v>3013</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>3015</v>
+        <v>3059</v>
       </c>
       <c r="B266" t="s">
-        <v>3014</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1442</v>
+        <v>3061</v>
       </c>
       <c r="B267" t="s">
-        <v>3016</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>3063</v>
       </c>
       <c r="B268" t="s">
-        <v>3017</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>22</v>
+        <v>3065</v>
       </c>
       <c r="B269" t="s">
-        <v>3018</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>3067</v>
       </c>
       <c r="B270" t="s">
-        <v>3019</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>3021</v>
+        <v>3069</v>
       </c>
       <c r="B271" t="s">
-        <v>3020</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>3022</v>
+        <v>3071</v>
       </c>
       <c r="B272" t="s">
-        <v>3023</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1859</v>
+        <v>3073</v>
       </c>
       <c r="B273" t="s">
-        <v>3024</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>14</v>
+        <v>3075</v>
       </c>
       <c r="B274" t="s">
-        <v>3025</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>15</v>
+        <v>3077</v>
       </c>
       <c r="B275" t="s">
-        <v>3026</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>3028</v>
+        <v>3079</v>
       </c>
       <c r="B276" t="s">
-        <v>3027</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2567</v>
+        <v>3081</v>
       </c>
       <c r="B277" t="s">
-        <v>3029</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1440</v>
+        <v>3083</v>
       </c>
       <c r="B278" t="s">
-        <v>3030</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>3031</v>
+        <v>1136</v>
       </c>
       <c r="B279" t="s">
-        <v>3032</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2462</v>
+        <v>3086</v>
       </c>
       <c r="B280" t="s">
-        <v>2486</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>209</v>
+        <v>3088</v>
       </c>
       <c r="B281" t="s">
-        <v>3033</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>2065</v>
+        <v>3090</v>
       </c>
       <c r="B282" t="s">
-        <v>3034</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>143</v>
+        <v>3092</v>
       </c>
       <c r="B283" t="s">
-        <v>3035</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>3036</v>
+        <v>3093</v>
       </c>
       <c r="B284" t="s">
-        <v>1609</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2044</v>
+        <v>3095</v>
       </c>
       <c r="B285" t="s">
-        <v>3037</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>16</v>
+        <v>3097</v>
       </c>
       <c r="B286" t="s">
-        <v>3038</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>3100</v>
       </c>
       <c r="B287" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>259</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1500</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1504</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1507</v>
+        <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>1505</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1506</v>
+        <v>2042</v>
       </c>
       <c r="B296" t="s">
-        <v>1508</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1514</v>
+        <v>3015</v>
       </c>
       <c r="B297" t="s">
-        <v>1513</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1535</v>
+        <v>1442</v>
       </c>
       <c r="B298" t="s">
-        <v>1536</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1537</v>
+        <v>10</v>
       </c>
       <c r="B299" t="s">
-        <v>1538</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1777</v>
+        <v>22</v>
       </c>
       <c r="B300" t="s">
-        <v>1778</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1898</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>1899</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1900</v>
+        <v>3021</v>
       </c>
       <c r="B302" t="s">
-        <v>1901</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1610</v>
+        <v>3022</v>
       </c>
       <c r="B303" t="s">
-        <v>1609</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1614</v>
+        <v>1859</v>
       </c>
       <c r="B304" t="s">
-        <v>1615</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1618</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>1619</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1616</v>
+        <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>1617</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1620</v>
+        <v>3028</v>
       </c>
       <c r="B307" t="s">
-        <v>1621</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2001</v>
+        <v>2567</v>
       </c>
       <c r="B308" t="s">
-        <v>2002</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2158</v>
+        <v>1440</v>
       </c>
       <c r="B309" t="s">
-        <v>2159</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>2172</v>
+        <v>3031</v>
       </c>
       <c r="B310" t="s">
-        <v>2173</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2174</v>
+        <v>2462</v>
       </c>
       <c r="B311" t="s">
-        <v>2175</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2176</v>
+        <v>209</v>
       </c>
       <c r="B312" t="s">
-        <v>2177</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>2184</v>
+        <v>2065</v>
       </c>
       <c r="B313" t="s">
-        <v>2185</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>2196</v>
+        <v>143</v>
       </c>
       <c r="B314" t="s">
-        <v>2197</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>2204</v>
+        <v>3036</v>
       </c>
       <c r="B315" t="s">
-        <v>2205</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>2206</v>
+        <v>2044</v>
       </c>
       <c r="B316" t="s">
-        <v>2207</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>2222</v>
+        <v>16</v>
       </c>
       <c r="B317" t="s">
-        <v>2223</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>2224</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B319" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B320" t="s">
-        <v>2229</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B321" t="s">
-        <v>2230</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2231</v>
+        <v>1518</v>
       </c>
       <c r="B322" t="s">
-        <v>2232</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2234</v>
+        <v>1490</v>
       </c>
       <c r="B323" t="s">
-        <v>2235</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2242</v>
+        <v>259</v>
       </c>
       <c r="B324" t="s">
-        <v>2243</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2342</v>
+        <v>1503</v>
       </c>
       <c r="B325" t="s">
-        <v>2343</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>2344</v>
+        <v>1507</v>
       </c>
       <c r="B326" t="s">
-        <v>2345</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>2346</v>
+        <v>1506</v>
       </c>
       <c r="B327" t="s">
-        <v>2347</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2324</v>
+        <v>1514</v>
       </c>
       <c r="B328" t="s">
-        <v>2325</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2326</v>
+        <v>1535</v>
       </c>
       <c r="B329" t="s">
-        <v>2327</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>2298</v>
+        <v>1537</v>
       </c>
       <c r="B330" t="s">
-        <v>2299</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2300</v>
+        <v>1777</v>
       </c>
       <c r="B331" t="s">
-        <v>2301</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>2304</v>
+        <v>1898</v>
       </c>
       <c r="B332" t="s">
-        <v>2305</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>2306</v>
+        <v>1900</v>
       </c>
       <c r="B333" t="s">
-        <v>2307</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2308</v>
+        <v>1610</v>
       </c>
       <c r="B334" t="s">
-        <v>2309</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2312</v>
+        <v>1614</v>
       </c>
       <c r="B335" t="s">
-        <v>2313</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2290</v>
+        <v>1618</v>
       </c>
       <c r="B336" t="s">
-        <v>2291</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2350</v>
+        <v>1616</v>
       </c>
       <c r="B337" t="s">
-        <v>2351</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2352</v>
+        <v>1620</v>
       </c>
       <c r="B338" t="s">
-        <v>2353</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2356</v>
+        <v>2001</v>
       </c>
       <c r="B339" t="s">
-        <v>2357</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2360</v>
+        <v>2158</v>
       </c>
       <c r="B340" t="s">
-        <v>2361</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2362</v>
+        <v>2172</v>
       </c>
       <c r="B341" t="s">
-        <v>2363</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2364</v>
+        <v>2174</v>
       </c>
       <c r="B342" t="s">
-        <v>2365</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2368</v>
+        <v>2176</v>
       </c>
       <c r="B343" t="s">
-        <v>2369</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2370</v>
+        <v>2184</v>
       </c>
       <c r="B344" t="s">
-        <v>2371</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2376</v>
+        <v>2196</v>
       </c>
       <c r="B345" t="s">
-        <v>2377</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2485</v>
+        <v>2204</v>
       </c>
       <c r="B346" t="s">
-        <v>2486</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2489</v>
+        <v>2206</v>
       </c>
       <c r="B347" t="s">
-        <v>2490</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2997</v>
+        <v>2222</v>
       </c>
       <c r="B348" t="s">
-        <v>2998</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2491</v>
+        <v>2224</v>
       </c>
       <c r="B349" t="s">
-        <v>2492</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2497</v>
+        <v>2226</v>
       </c>
       <c r="B350" t="s">
-        <v>2498</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2501</v>
+        <v>2228</v>
       </c>
       <c r="B351" t="s">
-        <v>2502</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2503</v>
+        <v>1514</v>
       </c>
       <c r="B352" t="s">
-        <v>2504</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2505</v>
+        <v>2231</v>
       </c>
       <c r="B353" t="s">
-        <v>2506</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2507</v>
+        <v>2234</v>
       </c>
       <c r="B354" t="s">
-        <v>2508</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2515</v>
+        <v>2242</v>
       </c>
       <c r="B355" t="s">
-        <v>2516</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2517</v>
+        <v>2342</v>
       </c>
       <c r="B356" t="s">
-        <v>2518</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2523</v>
+        <v>2344</v>
       </c>
       <c r="B357" t="s">
-        <v>2524</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2525</v>
+        <v>2346</v>
       </c>
       <c r="B358" t="s">
-        <v>2526</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2529</v>
+        <v>2324</v>
       </c>
       <c r="B359" t="s">
-        <v>2530</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2537</v>
+        <v>2326</v>
       </c>
       <c r="B360" t="s">
-        <v>2538</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2539</v>
+        <v>2298</v>
       </c>
       <c r="B361" t="s">
-        <v>2540</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2541</v>
+        <v>2300</v>
       </c>
       <c r="B362" t="s">
-        <v>2542</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2563</v>
+        <v>2304</v>
       </c>
       <c r="B363" t="s">
-        <v>2561</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2560</v>
+        <v>2306</v>
       </c>
       <c r="B364" t="s">
-        <v>2562</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2576</v>
+        <v>2308</v>
       </c>
       <c r="B365" t="s">
-        <v>2577</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2578</v>
+        <v>2312</v>
       </c>
       <c r="B366" t="s">
-        <v>2579</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2580</v>
+        <v>2290</v>
       </c>
       <c r="B367" t="s">
-        <v>2581</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2594</v>
+        <v>2350</v>
       </c>
       <c r="B368" t="s">
-        <v>2595</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2598</v>
+        <v>2352</v>
       </c>
       <c r="B369" t="s">
-        <v>2599</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2651</v>
+        <v>2356</v>
       </c>
       <c r="B370" t="s">
-        <v>2650</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1388</v>
+        <v>2360</v>
       </c>
       <c r="B371" t="s">
-        <v>2652</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2653</v>
+        <v>2362</v>
       </c>
       <c r="B372" t="s">
-        <v>2654</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2655</v>
+        <v>2364</v>
       </c>
       <c r="B373" t="s">
-        <v>2656</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2660</v>
+        <v>2368</v>
       </c>
       <c r="B374" t="s">
-        <v>2659</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2671</v>
+        <v>2370</v>
       </c>
       <c r="B375" t="s">
-        <v>2672</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2673</v>
+        <v>2376</v>
       </c>
       <c r="B376" t="s">
-        <v>2674</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2678</v>
+        <v>2485</v>
       </c>
       <c r="B377" t="s">
-        <v>2677</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2746</v>
+        <v>2489</v>
       </c>
       <c r="B378" t="s">
-        <v>2747</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2771</v>
+        <v>2997</v>
       </c>
       <c r="B379" t="s">
-        <v>2772</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2799</v>
+        <v>2491</v>
       </c>
       <c r="B380" t="s">
-        <v>2800</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2802</v>
+        <v>2497</v>
       </c>
       <c r="B381" t="s">
-        <v>2801</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2814</v>
+        <v>2501</v>
       </c>
       <c r="B382" t="s">
-        <v>2815</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2855</v>
+        <v>2503</v>
       </c>
       <c r="B383" t="s">
-        <v>2856</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2858</v>
+        <v>2505</v>
       </c>
       <c r="B384" t="s">
-        <v>2857</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2859</v>
+        <v>2507</v>
       </c>
       <c r="B385" t="s">
-        <v>2860</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2863</v>
+        <v>2515</v>
       </c>
       <c r="B386" t="s">
-        <v>2864</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2865</v>
+        <v>2517</v>
       </c>
       <c r="B387" t="s">
-        <v>2866</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2870</v>
+        <v>2523</v>
       </c>
       <c r="B388" t="s">
-        <v>2869</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2901</v>
+        <v>2525</v>
       </c>
       <c r="B389" t="s">
-        <v>2902</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2904</v>
+        <v>2529</v>
       </c>
       <c r="B390" t="s">
-        <v>2903</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2905</v>
+        <v>2537</v>
       </c>
       <c r="B391" t="s">
-        <v>2906</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2907</v>
+        <v>2539</v>
       </c>
       <c r="B392" t="s">
-        <v>2908</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2909</v>
+        <v>2541</v>
       </c>
       <c r="B393" t="s">
-        <v>2911</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2910</v>
+        <v>2563</v>
       </c>
       <c r="B394" t="s">
-        <v>2912</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2914</v>
+        <v>2560</v>
       </c>
       <c r="B395" t="s">
-        <v>2913</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2915</v>
+        <v>2576</v>
       </c>
       <c r="B396" t="s">
-        <v>2916</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2919</v>
+        <v>2578</v>
       </c>
       <c r="B397" t="s">
-        <v>2917</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2918</v>
+        <v>2580</v>
       </c>
       <c r="B398" t="s">
-        <v>2922</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2921</v>
+        <v>2594</v>
       </c>
       <c r="B399" t="s">
-        <v>2920</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1889</v>
+        <v>2598</v>
       </c>
       <c r="B400" t="s">
-        <v>2923</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2925</v>
+        <v>2651</v>
       </c>
       <c r="B401" t="s">
-        <v>2924</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>2927</v>
+        <v>1388</v>
       </c>
       <c r="B402" t="s">
-        <v>2926</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2929</v>
+        <v>2653</v>
       </c>
       <c r="B403" t="s">
-        <v>2928</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2931</v>
+        <v>2655</v>
       </c>
       <c r="B404" t="s">
-        <v>2930</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2933</v>
+        <v>2660</v>
       </c>
       <c r="B405" t="s">
-        <v>2932</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2934</v>
+        <v>2671</v>
       </c>
       <c r="B406" t="s">
-        <v>2935</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2936</v>
+        <v>2673</v>
       </c>
       <c r="B407" t="s">
-        <v>2937</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2939</v>
+        <v>2678</v>
       </c>
       <c r="B408" t="s">
-        <v>2938</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2941</v>
+        <v>2746</v>
       </c>
       <c r="B409" t="s">
-        <v>2940</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2943</v>
+        <v>2771</v>
       </c>
       <c r="B410" t="s">
-        <v>2942</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2945</v>
+        <v>2799</v>
       </c>
       <c r="B411" t="s">
-        <v>2944</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2947</v>
+        <v>2802</v>
       </c>
       <c r="B412" t="s">
-        <v>2946</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2949</v>
+        <v>2814</v>
       </c>
       <c r="B413" t="s">
-        <v>2948</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2953</v>
+        <v>2855</v>
       </c>
       <c r="B414" t="s">
-        <v>2954</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2955</v>
+        <v>2858</v>
       </c>
       <c r="B415" t="s">
-        <v>2956</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2957</v>
+        <v>2859</v>
       </c>
       <c r="B416" t="s">
-        <v>2958</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2019</v>
+        <v>2863</v>
       </c>
       <c r="B417" t="s">
-        <v>2959</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2036</v>
+        <v>2865</v>
       </c>
       <c r="B418" t="s">
-        <v>2960</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2970</v>
+        <v>2870</v>
       </c>
       <c r="B419" t="s">
-        <v>2971</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2972</v>
+        <v>2901</v>
       </c>
       <c r="B420" t="s">
-        <v>2973</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>2975</v>
+        <v>2904</v>
       </c>
       <c r="B421" t="s">
-        <v>2974</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2983</v>
+        <v>2905</v>
       </c>
       <c r="B422" t="s">
-        <v>2984</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2985</v>
+        <v>2907</v>
       </c>
       <c r="B423" t="s">
-        <v>2986</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2999</v>
+        <v>2909</v>
       </c>
       <c r="B424" t="s">
-        <v>3000</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>3048</v>
+        <v>2910</v>
       </c>
       <c r="B425" t="s">
-        <v>3049</v>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2913</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2447</v>
+        <v>2915</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2916</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2354</v>
+        <v>2919</v>
       </c>
       <c r="B428" t="s">
-        <v>2355</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2372</v>
+        <v>2918</v>
       </c>
       <c r="B429" t="s">
-        <v>2373</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2994</v>
+        <v>2921</v>
       </c>
       <c r="B430" t="s">
-        <v>2993</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>2965</v>
+        <v>1889</v>
       </c>
       <c r="B431" t="s">
-        <v>2964</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>2978</v>
+        <v>2925</v>
       </c>
       <c r="B432" t="s">
-        <v>2979</v>
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2935</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2809</v>
+        <v>2936</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2937</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>2810</v>
+        <v>2939</v>
       </c>
       <c r="B439" t="s">
-        <v>2811</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>2812</v>
+        <v>2941</v>
       </c>
       <c r="B440" t="s">
-        <v>2813</v>
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2942</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>2867</v>
+        <v>2945</v>
+      </c>
+      <c r="B442" t="s">
+        <v>2944</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1982</v>
+        <v>2947</v>
       </c>
       <c r="B443" t="s">
-        <v>2868</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2118</v>
+        <v>2949</v>
       </c>
       <c r="B444" t="s">
-        <v>2117</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1543</v>
+        <v>2953</v>
       </c>
       <c r="B445" t="s">
-        <v>1544</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1578</v>
+        <v>2955</v>
       </c>
       <c r="B446" t="s">
-        <v>2871</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1972</v>
+        <v>2957</v>
       </c>
       <c r="B447" t="s">
-        <v>2872</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1936</v>
+        <v>2019</v>
       </c>
       <c r="B448" t="s">
-        <v>2873</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2875</v>
+        <v>2036</v>
       </c>
       <c r="B449" t="s">
-        <v>2874</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>2877</v>
+        <v>2970</v>
       </c>
       <c r="B450" t="s">
-        <v>2876</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1593</v>
+        <v>2972</v>
       </c>
       <c r="B451" t="s">
-        <v>2878</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2880</v>
+        <v>2975</v>
       </c>
       <c r="B452" t="s">
-        <v>2879</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2882</v>
+        <v>2983</v>
       </c>
       <c r="B453" t="s">
-        <v>2881</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1402</v>
+        <v>2985</v>
       </c>
       <c r="B454" t="s">
-        <v>2883</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2885</v>
+        <v>2999</v>
       </c>
       <c r="B455" t="s">
-        <v>2884</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>2887</v>
+        <v>3048</v>
       </c>
       <c r="B456" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B457" t="s">
-        <v>2889</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B458" t="s">
-        <v>2890</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>2028</v>
+        <v>2354</v>
       </c>
       <c r="B459" t="s">
-        <v>2891</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1299</v>
+        <v>2372</v>
       </c>
       <c r="B460" t="s">
-        <v>2892</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>2893</v>
+        <v>2994</v>
       </c>
       <c r="B461" t="s">
-        <v>2894</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1965</v>
+        <v>2965</v>
       </c>
       <c r="B462" t="s">
-        <v>2895</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>2896</v>
+        <v>2978</v>
       </c>
       <c r="B463" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B464" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B465" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B466" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B467" t="s">
-        <v>2171</v>
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>2809</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2389</v>
+        <v>2810</v>
+      </c>
+      <c r="B470" t="s">
+        <v>2811</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1455</v>
+        <v>2812</v>
       </c>
       <c r="B471" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1546</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1548</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1551</v>
+        <v>1982</v>
       </c>
       <c r="B474" t="s">
-        <v>1550</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1553</v>
+        <v>2118</v>
       </c>
       <c r="B475" t="s">
-        <v>1552</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="B476" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1482</v>
+        <v>1578</v>
       </c>
       <c r="B477" t="s">
-        <v>1556</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1558</v>
+        <v>1972</v>
       </c>
       <c r="B478" t="s">
-        <v>1557</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1606</v>
+        <v>1936</v>
       </c>
       <c r="B479" t="s">
-        <v>1607</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1560</v>
+        <v>2875</v>
       </c>
       <c r="B480" t="s">
-        <v>1559</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1562</v>
+        <v>2877</v>
       </c>
       <c r="B481" t="s">
-        <v>1561</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1564</v>
+        <v>1593</v>
       </c>
       <c r="B482" t="s">
-        <v>1563</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1566</v>
+        <v>2880</v>
       </c>
       <c r="B483" t="s">
-        <v>1565</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1567</v>
+        <v>2882</v>
       </c>
       <c r="B484" t="s">
-        <v>1568</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1570</v>
+        <v>1402</v>
       </c>
       <c r="B485" t="s">
-        <v>1569</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1571</v>
+        <v>2885</v>
       </c>
       <c r="B486" t="s">
-        <v>1572</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1575</v>
+        <v>2887</v>
       </c>
       <c r="B487" t="s">
-        <v>1573</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1574</v>
+        <v>2888</v>
       </c>
       <c r="B488" t="s">
-        <v>1576</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1578</v>
+        <v>1460</v>
       </c>
       <c r="B489" t="s">
-        <v>1577</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1388</v>
+        <v>2028</v>
       </c>
       <c r="B490" t="s">
-        <v>1579</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1581</v>
+        <v>1299</v>
       </c>
       <c r="B491" t="s">
-        <v>1580</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1583</v>
+        <v>2893</v>
       </c>
       <c r="B492" t="s">
-        <v>1582</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1585</v>
+        <v>1965</v>
       </c>
       <c r="B493" t="s">
-        <v>1584</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1587</v>
+        <v>2896</v>
       </c>
       <c r="B494" t="s">
-        <v>1586</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1589</v>
+        <v>2545</v>
       </c>
       <c r="B495" t="s">
-        <v>1588</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1591</v>
+        <v>2899</v>
       </c>
       <c r="B496" t="s">
-        <v>1590</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="B497" t="s">
-        <v>1592</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1595</v>
+        <v>2170</v>
       </c>
       <c r="B498" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1598</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1601</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1602</v>
+        <v>1455</v>
       </c>
       <c r="B502" t="s">
-        <v>1604</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1603</v>
+        <v>1547</v>
       </c>
       <c r="B503" t="s">
-        <v>1605</v>
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>2472</v>
+        <v>1553</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>2473</v>
+        <v>1555</v>
       </c>
       <c r="B507" t="s">
-        <v>2474</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>2475</v>
+        <v>1482</v>
       </c>
       <c r="B508" t="s">
-        <v>2476</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>2477</v>
+        <v>1558</v>
       </c>
       <c r="B509" t="s">
-        <v>2478</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>2479</v>
+        <v>1606</v>
       </c>
       <c r="B510" t="s">
-        <v>2480</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>2481</v>
+        <v>1560</v>
       </c>
       <c r="B511" t="s">
-        <v>2482</v>
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>2582</v>
+        <v>1566</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1455</v>
+        <v>1567</v>
       </c>
       <c r="B515" t="s">
-        <v>2583</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>2584</v>
+        <v>1570</v>
       </c>
       <c r="B516" t="s">
-        <v>2585</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1589</v>
+        <v>1571</v>
       </c>
       <c r="B517" t="s">
-        <v>2586</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1566</v>
+        <v>1575</v>
       </c>
       <c r="B518" t="s">
-        <v>2587</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1602</v>
+        <v>1574</v>
       </c>
       <c r="B519" t="s">
-        <v>2588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1150</v>
+        <v>1578</v>
       </c>
       <c r="B520" t="s">
-        <v>2589</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1219</v>
+        <v>1388</v>
       </c>
       <c r="B521" t="s">
-        <v>2592</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="B522" t="s">
-        <v>2593</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>2597</v>
+        <v>1583</v>
       </c>
       <c r="B523" t="s">
-        <v>2596</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="B524" t="s">
-        <v>2600</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1560</v>
+        <v>1587</v>
       </c>
       <c r="B525" t="s">
-        <v>2601</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B526" t="s">
-        <v>2602</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1549</v>
+        <v>1591</v>
       </c>
       <c r="B527" t="s">
-        <v>2603</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1388</v>
+        <v>1593</v>
       </c>
       <c r="B528" t="s">
-        <v>2987</v>
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>2391</v>
+        <v>1599</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1520</v>
+        <v>1602</v>
       </c>
       <c r="B533" t="s">
-        <v>1636</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1388</v>
+        <v>1603</v>
       </c>
       <c r="B534" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1640</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1642</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1644</v>
+        <v>2473</v>
       </c>
       <c r="B538" t="s">
-        <v>1643</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1451</v>
+        <v>2475</v>
       </c>
       <c r="B539" t="s">
-        <v>1645</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1560</v>
+        <v>2477</v>
       </c>
       <c r="B540" t="s">
-        <v>1646</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1648</v>
+        <v>2479</v>
       </c>
       <c r="B541" t="s">
-        <v>1647</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1649</v>
+        <v>2481</v>
       </c>
       <c r="B542" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1654</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1656</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>2150</v>
+        <v>1455</v>
       </c>
       <c r="B546" t="s">
-        <v>2151</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>2591</v>
+        <v>2584</v>
       </c>
       <c r="B547" t="s">
-        <v>2590</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1683</v>
+        <v>1589</v>
       </c>
       <c r="B548" t="s">
-        <v>2621</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1593</v>
+        <v>1566</v>
       </c>
       <c r="B549" t="s">
-        <v>2662</v>
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B550" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B551" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B552" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B553" t="s">
+        <v>2593</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2392</v>
+        <v>2597</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2596</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1451</v>
+        <v>1593</v>
       </c>
       <c r="B555" t="s">
-        <v>1657</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1447</v>
+        <v>1560</v>
       </c>
       <c r="B556" t="s">
-        <v>1658</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1521</v>
+        <v>1595</v>
       </c>
       <c r="B557" t="s">
-        <v>1659</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1660</v>
+        <v>1549</v>
       </c>
       <c r="B558" t="s">
-        <v>1661</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1663</v>
+        <v>1388</v>
       </c>
       <c r="B559" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1666</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1668</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1160</v>
+        <v>1520</v>
       </c>
       <c r="B564" t="s">
-        <v>1669</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1459</v>
+        <v>1388</v>
       </c>
       <c r="B565" t="s">
-        <v>1670</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1388</v>
+        <v>1639</v>
       </c>
       <c r="B566" t="s">
-        <v>1671</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -21938,927 +22086,1140 @@
         <v>1632</v>
       </c>
       <c r="B567" t="s">
-        <v>1672</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1520</v>
+        <v>1641</v>
       </c>
       <c r="B568" t="s">
-        <v>1673</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1674</v>
+        <v>1644</v>
       </c>
       <c r="B569" t="s">
-        <v>1675</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1677</v>
+        <v>1451</v>
       </c>
       <c r="B570" t="s">
-        <v>1676</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1679</v>
+        <v>1560</v>
       </c>
       <c r="B571" t="s">
-        <v>1678</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1681</v>
+        <v>1648</v>
       </c>
       <c r="B572" t="s">
-        <v>1680</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="B573" t="s">
-        <v>1682</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1683</v>
+        <v>1651</v>
       </c>
       <c r="B574" t="s">
-        <v>1684</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1482</v>
+        <v>1653</v>
       </c>
       <c r="B575" t="s">
-        <v>1865</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>2152</v>
+        <v>1655</v>
       </c>
       <c r="B576" t="s">
-        <v>2153</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1699</v>
+        <v>2150</v>
       </c>
       <c r="B577" t="s">
-        <v>2641</v>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B578" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B579" t="s">
+        <v>2621</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1690</v>
+        <v>1593</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2662</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1692</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1693</v>
+        <v>1451</v>
       </c>
       <c r="B586" t="s">
-        <v>1694</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1696</v>
+        <v>1447</v>
       </c>
       <c r="B587" t="s">
-        <v>1695</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1459</v>
+        <v>1521</v>
       </c>
       <c r="B588" t="s">
-        <v>1697</v>
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2394</v>
+        <v>1663</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1698</v>
+        <v>1639</v>
       </c>
       <c r="B591" t="s">
-        <v>1729</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1699</v>
+        <v>1651</v>
       </c>
       <c r="B592" t="s">
-        <v>1730</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1483</v>
+        <v>1641</v>
       </c>
       <c r="B593" t="s">
-        <v>1731</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1700</v>
+        <v>1667</v>
       </c>
       <c r="B594" t="s">
-        <v>1732</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1701</v>
+        <v>1160</v>
       </c>
       <c r="B595" t="s">
-        <v>1733</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1703</v>
+        <v>1459</v>
       </c>
       <c r="B596" t="s">
-        <v>1702</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1667</v>
+        <v>1388</v>
       </c>
       <c r="B597" t="s">
-        <v>1747</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1704</v>
+        <v>1632</v>
       </c>
       <c r="B598" t="s">
-        <v>1705</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1706</v>
+        <v>1520</v>
       </c>
       <c r="B599" t="s">
-        <v>1734</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1707</v>
+        <v>1674</v>
       </c>
       <c r="B600" t="s">
-        <v>1735</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1708</v>
+        <v>1677</v>
       </c>
       <c r="B601" t="s">
-        <v>1709</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1710</v>
+        <v>1679</v>
       </c>
       <c r="B602" t="s">
-        <v>1736</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1459</v>
+        <v>1681</v>
       </c>
       <c r="B603" t="s">
-        <v>1711</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1689</v>
+        <v>1644</v>
       </c>
       <c r="B604" t="s">
-        <v>1737</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1712</v>
+        <v>1683</v>
       </c>
       <c r="B605" t="s">
-        <v>1738</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1160</v>
+        <v>1482</v>
       </c>
       <c r="B606" t="s">
-        <v>1739</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1714</v>
+        <v>2152</v>
       </c>
       <c r="B607" t="s">
-        <v>1713</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="B608" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1716</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1742</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1524</v>
+        <v>1685</v>
       </c>
       <c r="B612" t="s">
-        <v>1743</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1718</v>
+        <v>1523</v>
       </c>
       <c r="B613" t="s">
-        <v>1744</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1720</v>
+        <v>1524</v>
       </c>
       <c r="B614" t="s">
-        <v>1719</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1721</v>
+        <v>1689</v>
       </c>
       <c r="B615" t="s">
-        <v>1745</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1723</v>
+        <v>1691</v>
       </c>
       <c r="B616" t="s">
-        <v>1722</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1725</v>
+        <v>1693</v>
       </c>
       <c r="B617" t="s">
-        <v>1724</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1726</v>
+        <v>1696</v>
       </c>
       <c r="B618" t="s">
-        <v>1746</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1728</v>
+        <v>1459</v>
       </c>
       <c r="B619" t="s">
-        <v>1727</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1762</v>
+        <v>1698</v>
       </c>
       <c r="B622" t="s">
-        <v>1763</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1764</v>
+        <v>1699</v>
       </c>
       <c r="B623" t="s">
-        <v>1765</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1689</v>
+        <v>1483</v>
       </c>
       <c r="B624" t="s">
-        <v>1870</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1872</v>
+        <v>1700</v>
       </c>
       <c r="B625" t="s">
-        <v>1871</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1533</v>
+        <v>1701</v>
       </c>
       <c r="B626" t="s">
-        <v>1873</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1160</v>
+        <v>1703</v>
       </c>
       <c r="B627" t="s">
-        <v>1874</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1875</v>
+        <v>1667</v>
       </c>
       <c r="B628" t="s">
-        <v>1876</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1877</v>
+        <v>1704</v>
       </c>
       <c r="B629" t="s">
-        <v>1878</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1880</v>
+        <v>1706</v>
       </c>
       <c r="B630" t="s">
-        <v>1879</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1881</v>
+        <v>1707</v>
       </c>
       <c r="B631" t="s">
-        <v>1882</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="B632" t="s">
-        <v>1883</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1885</v>
+        <v>1710</v>
       </c>
       <c r="B633" t="s">
-        <v>1884</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1451</v>
+        <v>1459</v>
       </c>
       <c r="B634" t="s">
-        <v>1886</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1887</v>
+        <v>1689</v>
       </c>
       <c r="B635" t="s">
-        <v>1888</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1889</v>
+        <v>1712</v>
       </c>
       <c r="B636" t="s">
-        <v>1890</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1891</v>
+        <v>1160</v>
       </c>
       <c r="B637" t="s">
-        <v>1892</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1893</v>
+        <v>1714</v>
       </c>
       <c r="B638" t="s">
-        <v>1894</v>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2396</v>
+        <v>1715</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1161</v>
+        <v>1717</v>
       </c>
       <c r="B641" t="s">
-        <v>1904</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1906</v>
+        <v>1693</v>
       </c>
       <c r="B642" t="s">
-        <v>1905</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1203</v>
+        <v>1524</v>
       </c>
       <c r="B643" t="s">
-        <v>1907</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1236</v>
+        <v>1718</v>
       </c>
       <c r="B644" t="s">
-        <v>1908</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1408</v>
+        <v>1720</v>
       </c>
       <c r="B645" t="s">
-        <v>1909</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1230</v>
+        <v>1721</v>
       </c>
       <c r="B646" t="s">
-        <v>1910</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>252</v>
+        <v>1723</v>
       </c>
       <c r="B647" t="s">
-        <v>1911</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1187</v>
+        <v>1725</v>
       </c>
       <c r="B648" t="s">
-        <v>1912</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1238</v>
+        <v>1726</v>
       </c>
       <c r="B649" t="s">
-        <v>1913</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1181</v>
+        <v>1728</v>
       </c>
       <c r="B650" t="s">
-        <v>1914</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1915</v>
+        <v>1762</v>
       </c>
       <c r="B653" t="s">
-        <v>1916</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="B654" t="s">
-        <v>1917</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1919</v>
+        <v>1689</v>
       </c>
       <c r="B655" t="s">
-        <v>1918</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1921</v>
+        <v>1872</v>
       </c>
       <c r="B656" t="s">
-        <v>1920</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1923</v>
+        <v>1533</v>
       </c>
       <c r="B657" t="s">
-        <v>1922</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1925</v>
+        <v>1160</v>
       </c>
       <c r="B658" t="s">
-        <v>1924</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1926</v>
+        <v>1875</v>
       </c>
       <c r="B659" t="s">
-        <v>1927</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1929</v>
+        <v>1877</v>
       </c>
       <c r="B660" t="s">
-        <v>1928</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1402</v>
+        <v>1880</v>
       </c>
       <c r="B661" t="s">
-        <v>1930</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1934</v>
+        <v>1881</v>
       </c>
       <c r="B662" t="s">
-        <v>1931</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1933</v>
+        <v>1718</v>
       </c>
       <c r="B663" t="s">
-        <v>1932</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1936</v>
+        <v>1885</v>
       </c>
       <c r="B664" t="s">
-        <v>1935</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1578</v>
+        <v>1451</v>
       </c>
       <c r="B665" t="s">
-        <v>1937</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1939</v>
+        <v>1887</v>
       </c>
       <c r="B666" t="s">
-        <v>1938</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1941</v>
+        <v>1889</v>
       </c>
       <c r="B667" t="s">
-        <v>1940</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1299</v>
+        <v>1891</v>
       </c>
       <c r="B668" t="s">
-        <v>1942</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1943</v>
+        <v>1893</v>
       </c>
       <c r="B669" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1945</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1947</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1950</v>
+        <v>1161</v>
       </c>
       <c r="B672" t="s">
-        <v>1949</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1952</v>
+        <v>1906</v>
       </c>
       <c r="B673" t="s">
-        <v>1951</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1953</v>
+        <v>1203</v>
       </c>
       <c r="B674" t="s">
-        <v>1954</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1956</v>
+        <v>1236</v>
       </c>
       <c r="B675" t="s">
-        <v>1955</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1958</v>
+        <v>1408</v>
       </c>
       <c r="B676" t="s">
-        <v>1957</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1960</v>
+        <v>1230</v>
       </c>
       <c r="B677" t="s">
-        <v>1959</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1287</v>
+        <v>252</v>
       </c>
       <c r="B678" t="s">
-        <v>1961</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1963</v>
+        <v>1187</v>
       </c>
       <c r="B679" t="s">
-        <v>1962</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1503</v>
+        <v>1238</v>
       </c>
       <c r="B680" t="s">
-        <v>1964</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1965</v>
+        <v>1181</v>
       </c>
       <c r="B681" t="s">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1967</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1969</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1972</v>
+        <v>1915</v>
       </c>
       <c r="B684" t="s">
-        <v>1971</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1973</v>
+        <v>1756</v>
       </c>
       <c r="B685" t="s">
-        <v>1974</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1976</v>
+        <v>1919</v>
       </c>
       <c r="B686" t="s">
-        <v>1975</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1978</v>
+        <v>1921</v>
       </c>
       <c r="B687" t="s">
-        <v>1977</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1980</v>
+        <v>1923</v>
       </c>
       <c r="B688" t="s">
-        <v>1979</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1982</v>
+        <v>1925</v>
       </c>
       <c r="B689" t="s">
-        <v>1981</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>2962</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B721" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -9,30 +9,31 @@
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
     <sheet name="1970" sheetId="13" r:id="rId2"/>
-    <sheet name="Misc" sheetId="14" r:id="rId3"/>
-    <sheet name="2005" sheetId="3" r:id="rId4"/>
-    <sheet name="2006" sheetId="4" r:id="rId5"/>
-    <sheet name="2007" sheetId="5" r:id="rId6"/>
-    <sheet name="2008" sheetId="6" r:id="rId7"/>
-    <sheet name="2009" sheetId="7" r:id="rId8"/>
-    <sheet name="2010" sheetId="8" r:id="rId9"/>
-    <sheet name="2011" sheetId="9" r:id="rId10"/>
-    <sheet name="2012" sheetId="10" r:id="rId11"/>
-    <sheet name="2013" sheetId="11" r:id="rId12"/>
-    <sheet name="2014" sheetId="12" r:id="rId13"/>
-    <sheet name="2015" sheetId="2" r:id="rId14"/>
-    <sheet name="2016 Team Issue" sheetId="16" r:id="rId15"/>
-    <sheet name="Missing Links" sheetId="17" r:id="rId16"/>
-    <sheet name="2016 Archives" sheetId="18" r:id="rId17"/>
-    <sheet name="1973 Topps" sheetId="19" r:id="rId18"/>
-    <sheet name="1963 Topps" sheetId="20" r:id="rId19"/>
+    <sheet name="2017" sheetId="21" r:id="rId3"/>
+    <sheet name="Misc" sheetId="14" r:id="rId4"/>
+    <sheet name="2005" sheetId="3" r:id="rId5"/>
+    <sheet name="2006" sheetId="4" r:id="rId6"/>
+    <sheet name="2007" sheetId="5" r:id="rId7"/>
+    <sheet name="2008" sheetId="6" r:id="rId8"/>
+    <sheet name="2009" sheetId="7" r:id="rId9"/>
+    <sheet name="2010" sheetId="8" r:id="rId10"/>
+    <sheet name="2011" sheetId="9" r:id="rId11"/>
+    <sheet name="2012" sheetId="10" r:id="rId12"/>
+    <sheet name="2013" sheetId="11" r:id="rId13"/>
+    <sheet name="2014" sheetId="12" r:id="rId14"/>
+    <sheet name="2015" sheetId="2" r:id="rId15"/>
+    <sheet name="2016 Team Issue" sheetId="16" r:id="rId16"/>
+    <sheet name="Missing Links" sheetId="17" r:id="rId17"/>
+    <sheet name="2016 Archives" sheetId="18" r:id="rId18"/>
+    <sheet name="1973 Topps" sheetId="19" r:id="rId19"/>
+    <sheet name="1963 Topps" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="3101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="3106">
   <si>
     <t>Base Set</t>
   </si>
@@ -9335,6 +9336,21 @@
   </si>
   <si>
     <t>J.A. Happ 2010 Heritage</t>
+  </si>
+  <si>
+    <t>Johnny Callison Montage</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-9TCdzPoACaA/WBzb6SEGqGI/AAAAAAAAKSo/fHL7pZXBUMoeRsNCD9snw3z45obwqmyxwCLcB/s1600/All%2Bof%2Bhim%2B-%2BCallison.jpg</t>
+  </si>
+  <si>
+    <t>New Additons</t>
+  </si>
+  <si>
+    <t>Pat Neshek</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-DZfFivPvfMs/WB4TpjsGDrI/AAAAAAAAehI/by981xMRBxQ20guLg5Vi55aKmSXPwTHjgCLcB/s1600/2017%2BChachi%2BNew%2BAdditions%2B%25231%2BNeshek.jpg</t>
   </si>
 </sst>
 </file>
@@ -10924,6 +10940,929 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="100.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(ISTEXT(B3), CONCATENATE("} , { ""name"" : """,A3,""", ""link"" : """,B3,""""), "")</f>
+        <v>} , { "name" : "Jimmy Rollins", "link" : "https://lh3.googleusercontent.com/3jSDzLb7jh-EY6B-d_vJAMUpswMvcaqO0VNT7lePchI=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C67" si="0">IF(ISTEXT(B4), CONCATENATE("} , { ""name"" : """,A4,""", ""link"" : """,B4,""""), "")</f>
+        <v>} , { "name" : "Placido Polanco", "link" : "https://lh3.googleusercontent.com/qHT5wJ_uTIKJhPoI26FDtdXt_iOerVBJwS5yhd2hcIE=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Chase Utley", "link" : "https://lh3.googleusercontent.com/cR9xHvZoHNBr0zZka5I7SIxpnXQ00bqc4xkEE4tgD9g=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Ryan Howard", "link" : "https://lh3.googleusercontent.com/1kFhIIr45WUQS9sFCTn5i2yPAHreHrVYN8runaDhVRo=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Jayson Werth", "link" : "https://lh3.googleusercontent.com/yY1I8-ig-fgcoVJ12ixgDijd_T3c2vaC41VdZvG8U6o=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Raul Ibanez", "link" : "https://lh3.googleusercontent.com/I71i-ARqUSe0UnJiViGr_-IuHPaHPLCASAFmAKvfCHg=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Shane Victorino", "link" : "https://lh3.googleusercontent.com/dRR6MPChEZaP4yRnEZDd5A0hPKtT-zW_tkLnuuCQRDw=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Carlos Ruiz", "link" : "https://lh3.googleusercontent.com/npHTGH23jNr0fX7di9Abk8DOJm_-Xkia972IWVoSlRc=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Roy Halladay", "link" : "https://lh3.googleusercontent.com/PjwVVMvoqZimWiRfqhLQ4R_gSyFphM4YJUr3bz4Ls2U=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Brian Schneider", "link" : "https://lh3.googleusercontent.com/1F-aQKQkABqbdZSPjkgk78KUqM-kYDbav68yBotbqRw=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>757</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Ross Gload", "link" : "https://lh3.googleusercontent.com/w-kjc41tDsxeOjE43SrSKDG6MspAembzNJhViAcAYKc=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B14" t="s">
+        <v>758</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Juan Castro", "link" : "https://lh3.googleusercontent.com/jMINd3ncf0oksUM9Gl8l8jaj8alcpRD6a-a8sxKIL_E=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>759</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Greg Dobbs", "link" : "https://lh3.googleusercontent.com/lKtSvPPdhhWKLbU2hr0KQuUxLwcpSiQgMd21qZdiFas=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Ben Francisco", "link" : "https://lh3.googleusercontent.com/R9XZRbQl8vWKW28ZOQSZBuLRUXn-iNwTf1aKAtu-1q8=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Cole Hamels", "link" : "https://lh3.googleusercontent.com/tkfR6_55r2Pz8C3ydwW4GLFyvlTzCwF-ETg7KINFXnM=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Kyle Kendrick", "link" : "https://lh3.googleusercontent.com/-I9AUdiP_h9OMFJftPcvwgAlOXCCXDFYfstZJBEy0Vs=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "J.A. Happ", "link" : "https://lh3.googleusercontent.com/UtIuJlCszupcqNuDoHheKHtbVzUG4PRIer66LOjrXk0=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Jamie Moyer", "link" : "https://lh3.googleusercontent.com/4Hx-jrwUMj6sLRIlm8reUUJ2Opr8prOnNlSAObNvmRQ=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B21" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Drew Carpenter", "link" : "https://lh3.googleusercontent.com/oYrQ_siLXx6Q8VPnSuDofF2aP8KzW6p8zotH_wGGY_g=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B22" t="s">
+        <v>766</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "David Herndon", "link" : "https://lh3.googleusercontent.com/3RXBDj_pFgpnrAUAaWsn8EqXPE19mn8t98ZBj9x7yLQ=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Antonio Bastardo", "link" : "https://lh3.googleusercontent.com/jihLD6KTnTaAWE93ZrsZ1q9oqmIkR1pVUsqNMx4ggLI=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B24" t="s">
+        <v>768</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Chad Durbin", "link" : "https://lh3.googleusercontent.com/j9YhmMYa82NudX7enu3pdY0u5EFclzm8hLi-wPBqXdw=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Jose Contreras", "link" : "https://lh3.googleusercontent.com/nqjK_JHCAqIAY_qT2K9rp-xBKhX9dBvgkVFJjAB2OtU=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Danys Baez", "link" : "https://lh3.googleusercontent.com/32DZ3JJwXnRqsnscpLWiY5zhHz7I53tQycrL4AvybJ0=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>771</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Ryan Madson", "link" : "https://lh3.googleusercontent.com/vrk9U5g6N3JC0yOiMgyfZ8uK0nXS5C8KgCFk0sUfX6s=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Team Picture", "link" : "https://lh3.googleusercontent.com/PemGCMZMf2uIDSZSxbH7fnNBB0oMpePspqDqA9pex-0=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Manager and Coaches", "link" : "https://lh3.googleusercontent.com/bGQziDt4vhVq0IvofBes0ybaopQMPDAd5GnkGSJdu6A=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Davey Lopes", "link" : "https://lh3.googleusercontent.com/1v7h6uiDI7efmzSdl6wIxz4gi8CgdYZsCqlodSNF5z4=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Milt Thompson", "link" : "https://lh3.googleusercontent.com/jdeYxdjDOxcIhBn2KYPsGYdB-O3VwdEr-EBOjg0igC4=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B32" t="s">
+        <v>776</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Nelson Figueroa", "link" : "https://lh3.googleusercontent.com/H0nvUN3w5X77jHmdpHncy_m9hs5o-1J5PDu01x5SPp8=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B33" t="s">
+        <v>777</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Wilson Valdez", "link" : "https://lh3.googleusercontent.com/s8T5zQsG85zd_QJ_ollPCLoIlrOt_w-cRF1wbwiJvo0=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B34" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "J.C. Romero", "link" : "https://lh3.googleusercontent.com/C4z_4qEnSpgjPgGi56JAh-VWhygU85zFOaVeLrHIBSE=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>779</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Brad Lidge", "link" : "https://lh3.googleusercontent.com/Q_0XOc-1qcijf7xeOpEv916-2K-qu6FXl_4NCaSO2fk=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Joe Blanton", "link" : "https://lh3.googleusercontent.com/KTTNHtahO0ecWtp2ePtNo40UcEfVtJyzJ4TZQUQXbVs=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "HL - Jamie Moyer Oldest to Toss Shutout", "link" : "https://lh3.googleusercontent.com/JCO73n-3wja_dY4OcjxQHL5eEaMNBrF_GxTNnUUJo7M=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Paul Hoover", "link" : "https://lh3.googleusercontent.com/SrM2YHZlnFySBmum_4We4vCRCCpXVUVgY0Iu36hckco=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>783</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "HL - Roy Halladay Perfect Game", "link" : "https://lh3.googleusercontent.com/VnZTYNd3BEFpHnWWmcjpKXlhdyv3vhEmCUMQErRa6k4=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Scott Mathieson", "link" : "https://lh3.googleusercontent.com/4EI3qs6SNAGnqBP-jgoaFVRpSYNZ0GOLQb2Yg6Vj38Y=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B41" t="s">
+        <v>785</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Dane Sardinha", "link" : "https://lh3.googleusercontent.com/RdD4J18WnwY3OxIWQMLZcr33B91nji3iLjYeUX_Wy0E=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>786</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Mike Zagurski", "link" : "https://lh3.googleusercontent.com/gJVlZzr5qaxdnlhjYRU4SsXS_5RTtKxT9CX6-ukF0OM=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>787</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Brian Bocock", "link" : "https://lh3.googleusercontent.com/KN2P9kovM_ycQlBIuMrPCJCsBe-K4YAuBayzcXjQzMg=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B44" t="s">
+        <v>788</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Cody Ransom", "link" : "https://lh3.googleusercontent.com/6vkZ6feU5JRtVJFabhRQyEL1V_lJApcIjzWnmGDkdXo=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>789</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Manual, Utley All Stars", "link" : "https://lh3.googleusercontent.com/w77kntr2QCZlM76g2S4WJ_E5rkL_T0e4wQQ0pbZQhXk=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B46" t="s">
+        <v>790</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Howard, Halladay All Stars", "link" : "https://lh3.googleusercontent.com/w-nzXiqMuGGrK8k2s8gbC3y75TrlqGTBOT9LfJbvHbU=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>791</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Vance Worley", "link" : "https://lh3.googleusercontent.com/vyZgaQrxYhTEUKR2iEpjQ3PlRokf0j9cTvVgRhEDmDM=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B48" t="s">
+        <v>792</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Greg Gross", "link" : "https://lh3.googleusercontent.com/UzN8JbRvH_KnfFusRZmACoBoKXcieNYowo0CVRSv22A=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B49" t="s">
+        <v>793</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Dominick Brown", "link" : "https://lh3.googleusercontent.com/Mfd6dZvWc9PcT98DRQZ3OhxCmQSUUXzFfTsrd66mZtQ=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B50" t="s">
+        <v>794</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Roy Oswalt", "link" : "https://lh3.googleusercontent.com/hHDlVJ3pafd12nQwhxTUmCTixE_0ible3juY2vRS17w=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>795</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "John Mayberry, Jr", "link" : "https://lh3.googleusercontent.com/8JGJZUegd8qvjXjInhfpWjGooWpNDpe6SdZCWjJsCQs=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>796</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Mike Sweeney", "link" : "https://lh3.googleusercontent.com/zoOnGvQGgI3klK4C6xSPG2YRRogNi2WNIRLxn41L1YM=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>797</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Nate Robertson", "link" : "https://lh3.googleusercontent.com/JDxSSXa6QFGQeIqrFWNran62M8pN2yyP4E3BGum-L98=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B54" t="s">
+        <v>798</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "HL - Phils Clinch NL East", "link" : "https://lh3.googleusercontent.com/67gF72yq1_896-msSbf14j3crjz5tQS9NEtSEYKGU20=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>799</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Batting Leaders", "link" : "https://lh3.googleusercontent.com/TTY-pNBZym2Grt_X-duUqQ2H-xuhQ-kwm_M-y8QyClQ=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Home Run Leaders", "link" : "https://lh3.googleusercontent.com/DNTkOHQA4lKns67WjcGT4ZyRPHrsz1vg44Lv4y1_udQ=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "RBI Leaders", "link" : "https://lh3.googleusercontent.com/r7ywPzKVx4XSETG_jMMGX1o70MF19AaDiZj2QTcxc1Q=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>802</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Stolen Base Leaders", "link" : "https://lh3.googleusercontent.com/G5pVHJlSHuAP90W9rbof9CI-HeP2RwOB3mBy_Du04Rg=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>803</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Victory Leaders", "link" : "https://lh3.googleusercontent.com/W9LDOVsuqKPCTOe9NCQGSCFJAtjJBAzgev-4kGgM3cU=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B60" t="s">
+        <v>804</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "ERA Leaders", "link" : "https://lh3.googleusercontent.com/SGZLzOtkVIJS5uz55yhuBPl6DdsGc2_dPjLgeB68wG0=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B61" t="s">
+        <v>805</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Strikeout Leaders", "link" : "https://lh3.googleusercontent.com/enbhXqAjUjt40erOM48wg7mtXUHH2LJIc-TgOpzSyew=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B62" t="s">
+        <v>806</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "Leading Firemen", "link" : "https://lh3.googleusercontent.com/uexe89frQ4uNPycFrqrQIFAg2Y7zpGGYFFCdgCJs3HA=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B63" t="s">
+        <v>807</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "NLDS Game 1", "link" : "https://lh3.googleusercontent.com/H5QBWrT7tdtFwtnWD6JGEpXe4j8B8_6w6TJLunLtiAQ=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B64" t="s">
+        <v>808</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "NLDS Game 2", "link" : "https://lh3.googleusercontent.com/2S4uW9mb0T0ZHDCF-Hva443rS6YV_6PngELRIwxfWlo=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>809</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "NLDS Game 3", "link" : "https://lh3.googleusercontent.com/IUDWo2GLuQtpmtJDkCPawqfQmxWiV9CZqGJwWYVSyhY=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B66" t="s">
+        <v>810</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "HL - Phillies Sweep NLDS", "link" : "https://lh3.googleusercontent.com/wa4zNP-jGBFmuXJPtS74nQZeEvaMmGIyGLynKHwbKR8=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>811</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>} , { "name" : "NLCS Game 1", "link" : "https://lh3.googleusercontent.com/ZJeZieUG_903mVjXKukvdn04cfHmeOFucxhIlozFnEk=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>812</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C76" si="1">IF(ISTEXT(B68), CONCATENATE("} , { ""name"" : """,A68,""", ""link"" : """,B68,""""), "")</f>
+        <v>} , { "name" : "NLCS Game 2", "link" : "https://lh3.googleusercontent.com/KVmqbX9kBv5e_m36rKjOhS7NSoSUcqFjEBZ1aSHAbrI=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>813</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "NLCS Game 3", "link" : "https://lh3.googleusercontent.com/1O0FaFpnIUxOOt-4P4BcMgfH5BAjIvUM5BdUdymWH04=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B70" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "NLCS Game 4", "link" : "https://lh3.googleusercontent.com/Hg1IC1eODW_ClrDTqK5ILmB2eczjfegfsOX6LvHj8Is=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B71" t="s">
+        <v>815</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "NLCS Game 5", "link" : "https://lh3.googleusercontent.com/Arqsob6WFGBAp0rAIct0V75-hKdGiwCwccGSzQVBxxI=w321-h225-p-no"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B72" t="s">
+        <v>816</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "NLCS Game 6", "link" : "https://lh3.googleusercontent.com/ML3QCuczdJ5iDeXZQ68RptE3x5xl3VZqWsOD_dUgRhw=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B73" t="s">
+        <v>817</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "HL - Victorino Gold Glove", "link" : "https://lh3.googleusercontent.com/szwKW52j7_MjDV7HvxIYye6xJXSI1tuzapqQ4jmy36c=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>818</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "HL - Roy Halladay Cy Young", "link" : "https://lh3.googleusercontent.com/WVkoqVjvRF8iXM6NsNWaWl240JjVGWkQEXVneYZpzss=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>819</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "HL - Cliff Lee Returns", "link" : "https://lh3.googleusercontent.com/jvZO9W9R8s6Hdw2tgZ9wQ6xFemB_jt5I5VtRhzBbQVE=w225-h321-p-no"</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B76" t="s">
+        <v>820</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>} , { "name" : "Checklist", "link" : "https://lh3.googleusercontent.com/2Xvt_zIDcwZhKmJrG1LyuL9GhkIkdtyg5A8arT0Vwhw=w225-h321-p-no"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11665,7 +12604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
@@ -12528,7 +13467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
@@ -13439,7 +14378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
@@ -14355,7 +15294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C123"/>
   <sheetViews>
@@ -15780,7 +16719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -16204,7 +17143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -16574,7 +17513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -16722,7 +17661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -16890,130 +17829,6 @@
       </c>
       <c r="B20" t="s">
         <v>1634</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2149</v>
       </c>
     </row>
   </sheetData>
@@ -17807,12 +18622,172 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20068,6 +21043,14 @@
         <v>3099</v>
       </c>
     </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3102</v>
+      </c>
+    </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3011</v>
@@ -23228,7 +24211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
@@ -24004,7 +24987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
@@ -24735,7 +25718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
@@ -25647,7 +26630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
@@ -26666,7 +27649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
@@ -27671,927 +28654,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="100.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C3" t="str">
-        <f>IF(ISTEXT(B3), CONCATENATE("} , { ""name"" : """,A3,""", ""link"" : """,B3,""""), "")</f>
-        <v>} , { "name" : "Jimmy Rollins", "link" : "https://lh3.googleusercontent.com/3jSDzLb7jh-EY6B-d_vJAMUpswMvcaqO0VNT7lePchI=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="0">IF(ISTEXT(B4), CONCATENATE("} , { ""name"" : """,A4,""", ""link"" : """,B4,""""), "")</f>
-        <v>} , { "name" : "Placido Polanco", "link" : "https://lh3.googleusercontent.com/qHT5wJ_uTIKJhPoI26FDtdXt_iOerVBJwS5yhd2hcIE=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>749</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Chase Utley", "link" : "https://lh3.googleusercontent.com/cR9xHvZoHNBr0zZka5I7SIxpnXQ00bqc4xkEE4tgD9g=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Ryan Howard", "link" : "https://lh3.googleusercontent.com/1kFhIIr45WUQS9sFCTn5i2yPAHreHrVYN8runaDhVRo=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>751</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Jayson Werth", "link" : "https://lh3.googleusercontent.com/yY1I8-ig-fgcoVJ12ixgDijd_T3c2vaC41VdZvG8U6o=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Raul Ibanez", "link" : "https://lh3.googleusercontent.com/I71i-ARqUSe0UnJiViGr_-IuHPaHPLCASAFmAKvfCHg=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>753</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Shane Victorino", "link" : "https://lh3.googleusercontent.com/dRR6MPChEZaP4yRnEZDd5A0hPKtT-zW_tkLnuuCQRDw=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Carlos Ruiz", "link" : "https://lh3.googleusercontent.com/npHTGH23jNr0fX7di9Abk8DOJm_-Xkia972IWVoSlRc=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B11" t="s">
-        <v>755</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Roy Halladay", "link" : "https://lh3.googleusercontent.com/PjwVVMvoqZimWiRfqhLQ4R_gSyFphM4YJUr3bz4Ls2U=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B12" t="s">
-        <v>756</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Brian Schneider", "link" : "https://lh3.googleusercontent.com/1F-aQKQkABqbdZSPjkgk78KUqM-kYDbav68yBotbqRw=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B13" t="s">
-        <v>757</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Ross Gload", "link" : "https://lh3.googleusercontent.com/w-kjc41tDsxeOjE43SrSKDG6MspAembzNJhViAcAYKc=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B14" t="s">
-        <v>758</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Juan Castro", "link" : "https://lh3.googleusercontent.com/jMINd3ncf0oksUM9Gl8l8jaj8alcpRD6a-a8sxKIL_E=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>759</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Greg Dobbs", "link" : "https://lh3.googleusercontent.com/lKtSvPPdhhWKLbU2hr0KQuUxLwcpSiQgMd21qZdiFas=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B16" t="s">
-        <v>760</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Ben Francisco", "link" : "https://lh3.googleusercontent.com/R9XZRbQl8vWKW28ZOQSZBuLRUXn-iNwTf1aKAtu-1q8=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" t="s">
-        <v>761</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Cole Hamels", "link" : "https://lh3.googleusercontent.com/tkfR6_55r2Pz8C3ydwW4GLFyvlTzCwF-ETg7KINFXnM=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" t="s">
-        <v>762</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Kyle Kendrick", "link" : "https://lh3.googleusercontent.com/-I9AUdiP_h9OMFJftPcvwgAlOXCCXDFYfstZJBEy0Vs=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B19" t="s">
-        <v>763</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "J.A. Happ", "link" : "https://lh3.googleusercontent.com/UtIuJlCszupcqNuDoHheKHtbVzUG4PRIer66LOjrXk0=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B20" t="s">
-        <v>764</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Jamie Moyer", "link" : "https://lh3.googleusercontent.com/4Hx-jrwUMj6sLRIlm8reUUJ2Opr8prOnNlSAObNvmRQ=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B21" t="s">
-        <v>765</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Drew Carpenter", "link" : "https://lh3.googleusercontent.com/oYrQ_siLXx6Q8VPnSuDofF2aP8KzW6p8zotH_wGGY_g=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>766</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "David Herndon", "link" : "https://lh3.googleusercontent.com/3RXBDj_pFgpnrAUAaWsn8EqXPE19mn8t98ZBj9x7yLQ=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" t="s">
-        <v>767</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Antonio Bastardo", "link" : "https://lh3.googleusercontent.com/jihLD6KTnTaAWE93ZrsZ1q9oqmIkR1pVUsqNMx4ggLI=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B24" t="s">
-        <v>768</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Chad Durbin", "link" : "https://lh3.googleusercontent.com/j9YhmMYa82NudX7enu3pdY0u5EFclzm8hLi-wPBqXdw=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B25" t="s">
-        <v>769</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Jose Contreras", "link" : "https://lh3.googleusercontent.com/nqjK_JHCAqIAY_qT2K9rp-xBKhX9dBvgkVFJjAB2OtU=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B26" t="s">
-        <v>770</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Danys Baez", "link" : "https://lh3.googleusercontent.com/32DZ3JJwXnRqsnscpLWiY5zhHz7I53tQycrL4AvybJ0=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>771</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Ryan Madson", "link" : "https://lh3.googleusercontent.com/vrk9U5g6N3JC0yOiMgyfZ8uK0nXS5C8KgCFk0sUfX6s=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B28" t="s">
-        <v>772</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Team Picture", "link" : "https://lh3.googleusercontent.com/PemGCMZMf2uIDSZSxbH7fnNBB0oMpePspqDqA9pex-0=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B29" t="s">
-        <v>773</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Manager and Coaches", "link" : "https://lh3.googleusercontent.com/bGQziDt4vhVq0IvofBes0ybaopQMPDAd5GnkGSJdu6A=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B30" t="s">
-        <v>774</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Davey Lopes", "link" : "https://lh3.googleusercontent.com/1v7h6uiDI7efmzSdl6wIxz4gi8CgdYZsCqlodSNF5z4=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B31" t="s">
-        <v>775</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Milt Thompson", "link" : "https://lh3.googleusercontent.com/jdeYxdjDOxcIhBn2KYPsGYdB-O3VwdEr-EBOjg0igC4=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B32" t="s">
-        <v>776</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Nelson Figueroa", "link" : "https://lh3.googleusercontent.com/H0nvUN3w5X77jHmdpHncy_m9hs5o-1J5PDu01x5SPp8=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B33" t="s">
-        <v>777</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Wilson Valdez", "link" : "https://lh3.googleusercontent.com/s8T5zQsG85zd_QJ_ollPCLoIlrOt_w-cRF1wbwiJvo0=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B34" t="s">
-        <v>778</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "J.C. Romero", "link" : "https://lh3.googleusercontent.com/C4z_4qEnSpgjPgGi56JAh-VWhygU85zFOaVeLrHIBSE=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B35" t="s">
-        <v>779</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Brad Lidge", "link" : "https://lh3.googleusercontent.com/Q_0XOc-1qcijf7xeOpEv916-2K-qu6FXl_4NCaSO2fk=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B36" t="s">
-        <v>780</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Joe Blanton", "link" : "https://lh3.googleusercontent.com/KTTNHtahO0ecWtp2ePtNo40UcEfVtJyzJ4TZQUQXbVs=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B37" t="s">
-        <v>781</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "HL - Jamie Moyer Oldest to Toss Shutout", "link" : "https://lh3.googleusercontent.com/JCO73n-3wja_dY4OcjxQHL5eEaMNBrF_GxTNnUUJo7M=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B38" t="s">
-        <v>782</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Paul Hoover", "link" : "https://lh3.googleusercontent.com/SrM2YHZlnFySBmum_4We4vCRCCpXVUVgY0Iu36hckco=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B39" t="s">
-        <v>783</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "HL - Roy Halladay Perfect Game", "link" : "https://lh3.googleusercontent.com/VnZTYNd3BEFpHnWWmcjpKXlhdyv3vhEmCUMQErRa6k4=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B40" t="s">
-        <v>784</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Scott Mathieson", "link" : "https://lh3.googleusercontent.com/4EI3qs6SNAGnqBP-jgoaFVRpSYNZ0GOLQb2Yg6Vj38Y=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B41" t="s">
-        <v>785</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Dane Sardinha", "link" : "https://lh3.googleusercontent.com/RdD4J18WnwY3OxIWQMLZcr33B91nji3iLjYeUX_Wy0E=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B42" t="s">
-        <v>786</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Mike Zagurski", "link" : "https://lh3.googleusercontent.com/gJVlZzr5qaxdnlhjYRU4SsXS_5RTtKxT9CX6-ukF0OM=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B43" t="s">
-        <v>787</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Brian Bocock", "link" : "https://lh3.googleusercontent.com/KN2P9kovM_ycQlBIuMrPCJCsBe-K4YAuBayzcXjQzMg=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B44" t="s">
-        <v>788</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Cody Ransom", "link" : "https://lh3.googleusercontent.com/6vkZ6feU5JRtVJFabhRQyEL1V_lJApcIjzWnmGDkdXo=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B45" t="s">
-        <v>789</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Manual, Utley All Stars", "link" : "https://lh3.googleusercontent.com/w77kntr2QCZlM76g2S4WJ_E5rkL_T0e4wQQ0pbZQhXk=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B46" t="s">
-        <v>790</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Howard, Halladay All Stars", "link" : "https://lh3.googleusercontent.com/w-nzXiqMuGGrK8k2s8gbC3y75TrlqGTBOT9LfJbvHbU=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B47" t="s">
-        <v>791</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Vance Worley", "link" : "https://lh3.googleusercontent.com/vyZgaQrxYhTEUKR2iEpjQ3PlRokf0j9cTvVgRhEDmDM=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B48" t="s">
-        <v>792</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Greg Gross", "link" : "https://lh3.googleusercontent.com/UzN8JbRvH_KnfFusRZmACoBoKXcieNYowo0CVRSv22A=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B49" t="s">
-        <v>793</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Dominick Brown", "link" : "https://lh3.googleusercontent.com/Mfd6dZvWc9PcT98DRQZ3OhxCmQSUUXzFfTsrd66mZtQ=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B50" t="s">
-        <v>794</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Roy Oswalt", "link" : "https://lh3.googleusercontent.com/hHDlVJ3pafd12nQwhxTUmCTixE_0ible3juY2vRS17w=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B51" t="s">
-        <v>795</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "John Mayberry, Jr", "link" : "https://lh3.googleusercontent.com/8JGJZUegd8qvjXjInhfpWjGooWpNDpe6SdZCWjJsCQs=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B52" t="s">
-        <v>796</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Mike Sweeney", "link" : "https://lh3.googleusercontent.com/zoOnGvQGgI3klK4C6xSPG2YRRogNi2WNIRLxn41L1YM=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B53" t="s">
-        <v>797</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Nate Robertson", "link" : "https://lh3.googleusercontent.com/JDxSSXa6QFGQeIqrFWNran62M8pN2yyP4E3BGum-L98=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B54" t="s">
-        <v>798</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "HL - Phils Clinch NL East", "link" : "https://lh3.googleusercontent.com/67gF72yq1_896-msSbf14j3crjz5tQS9NEtSEYKGU20=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B55" t="s">
-        <v>799</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Batting Leaders", "link" : "https://lh3.googleusercontent.com/TTY-pNBZym2Grt_X-duUqQ2H-xuhQ-kwm_M-y8QyClQ=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B56" t="s">
-        <v>800</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Home Run Leaders", "link" : "https://lh3.googleusercontent.com/DNTkOHQA4lKns67WjcGT4ZyRPHrsz1vg44Lv4y1_udQ=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B57" t="s">
-        <v>801</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "RBI Leaders", "link" : "https://lh3.googleusercontent.com/r7ywPzKVx4XSETG_jMMGX1o70MF19AaDiZj2QTcxc1Q=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B58" t="s">
-        <v>802</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Stolen Base Leaders", "link" : "https://lh3.googleusercontent.com/G5pVHJlSHuAP90W9rbof9CI-HeP2RwOB3mBy_Du04Rg=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>803</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Victory Leaders", "link" : "https://lh3.googleusercontent.com/W9LDOVsuqKPCTOe9NCQGSCFJAtjJBAzgev-4kGgM3cU=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B60" t="s">
-        <v>804</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "ERA Leaders", "link" : "https://lh3.googleusercontent.com/SGZLzOtkVIJS5uz55yhuBPl6DdsGc2_dPjLgeB68wG0=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B61" t="s">
-        <v>805</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Strikeout Leaders", "link" : "https://lh3.googleusercontent.com/enbhXqAjUjt40erOM48wg7mtXUHH2LJIc-TgOpzSyew=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B62" t="s">
-        <v>806</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "Leading Firemen", "link" : "https://lh3.googleusercontent.com/uexe89frQ4uNPycFrqrQIFAg2Y7zpGGYFFCdgCJs3HA=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B63" t="s">
-        <v>807</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "NLDS Game 1", "link" : "https://lh3.googleusercontent.com/H5QBWrT7tdtFwtnWD6JGEpXe4j8B8_6w6TJLunLtiAQ=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B64" t="s">
-        <v>808</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "NLDS Game 2", "link" : "https://lh3.googleusercontent.com/2S4uW9mb0T0ZHDCF-Hva443rS6YV_6PngELRIwxfWlo=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B65" t="s">
-        <v>809</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "NLDS Game 3", "link" : "https://lh3.googleusercontent.com/IUDWo2GLuQtpmtJDkCPawqfQmxWiV9CZqGJwWYVSyhY=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B66" t="s">
-        <v>810</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "HL - Phillies Sweep NLDS", "link" : "https://lh3.googleusercontent.com/wa4zNP-jGBFmuXJPtS74nQZeEvaMmGIyGLynKHwbKR8=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B67" t="s">
-        <v>811</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="0"/>
-        <v>} , { "name" : "NLCS Game 1", "link" : "https://lh3.googleusercontent.com/ZJeZieUG_903mVjXKukvdn04cfHmeOFucxhIlozFnEk=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B68" t="s">
-        <v>812</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" ref="C68:C76" si="1">IF(ISTEXT(B68), CONCATENATE("} , { ""name"" : """,A68,""", ""link"" : """,B68,""""), "")</f>
-        <v>} , { "name" : "NLCS Game 2", "link" : "https://lh3.googleusercontent.com/KVmqbX9kBv5e_m36rKjOhS7NSoSUcqFjEBZ1aSHAbrI=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B69" t="s">
-        <v>813</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "NLCS Game 3", "link" : "https://lh3.googleusercontent.com/1O0FaFpnIUxOOt-4P4BcMgfH5BAjIvUM5BdUdymWH04=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B70" t="s">
-        <v>814</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "NLCS Game 4", "link" : "https://lh3.googleusercontent.com/Hg1IC1eODW_ClrDTqK5ILmB2eczjfegfsOX6LvHj8Is=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B71" t="s">
-        <v>815</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "NLCS Game 5", "link" : "https://lh3.googleusercontent.com/Arqsob6WFGBAp0rAIct0V75-hKdGiwCwccGSzQVBxxI=w321-h225-p-no"</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B72" t="s">
-        <v>816</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "NLCS Game 6", "link" : "https://lh3.googleusercontent.com/ML3QCuczdJ5iDeXZQ68RptE3x5xl3VZqWsOD_dUgRhw=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B73" t="s">
-        <v>817</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "HL - Victorino Gold Glove", "link" : "https://lh3.googleusercontent.com/szwKW52j7_MjDV7HvxIYye6xJXSI1tuzapqQ4jmy36c=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B74" t="s">
-        <v>818</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "HL - Roy Halladay Cy Young", "link" : "https://lh3.googleusercontent.com/WVkoqVjvRF8iXM6NsNWaWl240JjVGWkQEXVneYZpzss=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B75" t="s">
-        <v>819</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "HL - Cliff Lee Returns", "link" : "https://lh3.googleusercontent.com/jvZO9W9R8s6Hdw2tgZ9wQ6xFemB_jt5I5VtRhzBbQVE=w225-h321-p-no"</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B76" t="s">
-        <v>820</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>} , { "name" : "Checklist", "link" : "https://lh3.googleusercontent.com/2Xvt_zIDcwZhKmJrG1LyuL9GhkIkdtyg5A8arT0Vwhw=w225-h321-p-no"</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="3106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3112">
   <si>
     <t>Base Set</t>
   </si>
@@ -9351,6 +9351,24 @@
   </si>
   <si>
     <t>https://4.bp.blogspot.com/-DZfFivPvfMs/WB4TpjsGDrI/AAAAAAAAehI/by981xMRBxQ20guLg5Vi55aKmSXPwTHjgCLcB/s1600/2017%2BChachi%2BNew%2BAdditions%2B%25231%2BNeshek.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-iSb15Kk_OLg/WCkB1YhswfI/AAAAAAAAer0/FTrQ21yWiD80b50uaGExPaEPu1JJB1aKgCLcB/s1600/2017%2BChachi%2BNew%2BAdditions%2B%25232%2BKendrick.jpg</t>
+  </si>
+  <si>
+    <t>Howie Kendrick</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-kThA736mf10/WCkB1WZUfOI/AAAAAAAAers/k1I86im0FgMzkQT59oCIisNi6dUGe0-EwCLcB/s1600/2017%2BChachi%2BDepartures%2B%25231%2BRuf.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-i5CgxW8ss6A/WCkB1cZ08UI/AAAAAAAAerw/PdtrFuCppr4fDxOeJFq0xudhgSG6vN4CACLcB/s1600/2017%2BChachi%2BDepartures%2B%25232%2BSweeney.jpg</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz Mariners</t>
+  </si>
+  <si>
+    <t>https://shlabotnikreport.files.wordpress.com/2016/11/2016-tsr-expansion40-1-carlos-ruiz.jpg?w=216&amp;h=300</t>
   </si>
 </sst>
 </file>
@@ -18748,10 +18766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18777,6 +18795,35 @@
         <v>3105</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18786,8 +18833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21049,6 +21096,14 @@
       </c>
       <c r="B288" t="s">
         <v>3102</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3111</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="1" r:id="rId1"/>
-    <sheet name="1970" sheetId="13" r:id="rId2"/>
-    <sheet name="2017" sheetId="21" r:id="rId3"/>
+    <sheet name="2017" sheetId="21" r:id="rId1"/>
+    <sheet name="2016" sheetId="1" r:id="rId2"/>
+    <sheet name="1970" sheetId="13" r:id="rId3"/>
     <sheet name="Misc" sheetId="14" r:id="rId4"/>
     <sheet name="2005" sheetId="3" r:id="rId5"/>
     <sheet name="2006" sheetId="4" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="3112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="3143">
   <si>
     <t>Base Set</t>
   </si>
@@ -9369,6 +9369,99 @@
   </si>
   <si>
     <t>https://shlabotnikreport.files.wordpress.com/2016/11/2016-tsr-expansion40-1-carlos-ruiz.jpg?w=216&amp;h=300</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-wej1BybCOpI/V-_8z4U1s_I/AAAAAAAAeQk/c5D4X0uYNggb_8lyJ-qRW_Flh5l0oqcTgCLcB/s1600/Herrera.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Zc8a8dLz6cI/V-_8zRWjG-I/AAAAAAAAeQQ/Je6SRf-EZ_89lglDnlxWuKnJKEABIy6AwCLcB/s1600/Altherr.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-umWxQJHDwcM/V-_8zYAAzNI/AAAAAAAAeQU/mcW3Ne9RB1wyXnLRjxuMPIsArvFEMThhwCLcB/s1600/Franco.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-YG7X9hItuY8/V-_8zpiOfdI/AAAAAAAAeQY/S9U9M01L-RUgJtEv4XZS27cl7ABkgeSIACLcB/s1600/Galvis.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-qFozyhBmkzc/V-_8zjYQQmI/AAAAAAAAeQg/xXr_zgQ3OsYSwfvSe50M9TX3p1O9SSvcQCLcB/s1600/Hernandez%2BC.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-txw4DT-5m5w/V-_8zzr1-wI/AAAAAAAAeQo/deBqMOfO6KwQ-IIfvwoTwKwe6ZVgbFHrQCLcB/s1600/Joseph.jpg</t>
+  </si>
+  <si>
+    <t>Jared Eichoff</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-h5sYX6YU-Dk/V-_8zeJvozI/AAAAAAAAeQM/IVdR03M1h9I9UlNbnjN_6nNGi5FrXwu3QCLcB/s1600/Eickhoff.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-KXpulpcYHZw/V-_80Nn34dI/AAAAAAAAeQs/xD4A9ui763cdtQo8389aFs0hL09P1v42QCLcB/s1600/Nola.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-hab4_lEAl5s/V-_80dDDGTI/AAAAAAAAeQ4/2T6dGiOnVqA5tQfG08YHXPB_Gk9xYLksQCLcB/s1600/Velasquez.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-wXbHGBrRqNs/V-_80F2SiII/AAAAAAAAeQ0/rwa_j7U8KsolAft4Mh-yYC95WRGv_fhbACLcB/s1600/Thompson.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-BJ_88jHr1mE/V-_98ORJkUI/AAAAAAAAeRA/WNDzOsNleI4d5OMYpqEBbEY9FPyhw3-TACLcB/s1600/Rupp.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-3YrjNQAsgys/V_AD0n8cdMI/AAAAAAAAeRU/l2JBa4YMmlwrQtNFyLkniqG27wizKlPcQCLcB/s1600/Alfaro.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-laVjlONrMsM/V_AEcM4P3uI/AAAAAAAAeRw/DPhtWQ2M8yIN3q1LTMSkXTpeR42lri_YgCLcB/s1600/Asche.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-3PBOzg3RA04/V_AD0_Wy-nI/AAAAAAAAeRg/GuDY7mMRwEgdWzgRoGfiVoKphGFWHu9hACLcB/s1600/Goeddel.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-O3aQZLpdQZE/V-_80DFHyYI/AAAAAAAAeQw/GgugWbMsK4Q1eVisZrdrn2ET_sxbMTq5gCLcB/s1600/Quinn.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-HLgNnuiFpsU/V_AGC9fVehI/AAAAAAAAeSI/4Yxr1R2G0GMweXhmPbZiyq87QXPxC2M5ACLcB/s1600/Araujo.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-QeOaULZ8I90/V_AGC1AfuHI/AAAAAAAAeSE/DUsEi-3tLtQ5DGMUh8ulbkU8MmF9mOXSACLcB/s1600/Asher.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-Mzt_lvk6Ml4/V_AGC4vacYI/AAAAAAAAeSM/sXLaIPYljNck2XgjaUGFfsVjpctYUv7sQCLcB/s1600/Buchanan.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-O-hA49I8bcU/V_AGDFSABwI/AAAAAAAAeSQ/WGNxYDaRZokCqyJ8BLuqM0SWcE9urwZKwCLcB/s1600/Cordero.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-jTmCj0Px_u0/V_AGDcdnPQI/AAAAAAAAeSU/x9v67fJ5gRgDUvrdAI_FwiNoESo-n2uNACLcB/s1600/Eflin.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-urGNP8QrdsU/V_AGDStHmTI/AAAAAAAAeSY/t-dzxdgyDXg0AYpo373qLkRdMjS61JwRwCLcB/s1600/Garcia.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-AcYeDOHUAqQ/V_AGDTyAapI/AAAAAAAAeSc/W01x_DTccMcttca9NOYzOsdL5QwiSTVLwCLcB/s1600/Gomez.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-LSb8b0_zsU8/V_AGDsaWmlI/AAAAAAAAeSg/uKtR7xOr-Zk8bhxf70HMjeikcuFYmZe4gCLcB/s1600/Gonzalez.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-oPdxfSm7RsA/V_AGEDYGw3I/AAAAAAAAeS0/LyxLD21_ot0xf_-PdNEBhztGdry0zMhGwCLcB/s1600/Klein.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-xtmOQplwPb0/V_AGELIjHDI/AAAAAAAAeS4/Tq0VBQ4P5_kOZ0CU4SS_4Q0jt4uZ7vrZgCLcB/s1600/Mariot.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-4bvZc1bQrbA/V_AGEHqPZMI/AAAAAAAAeS8/fNx8WjodI1QDPN7DLOK1lHMPCb0Sy5jsQCLcB/s1600/Morgan.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-u80_aR_5674/V_AGEjiodgI/AAAAAAAAeTM/nzK5ztcpaKsfdKe91sfCKYmApqVuQKTJACLcB/s1600/Neris.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-tpPhX5judOM/V_AGEobkIiI/AAAAAAAAeTI/ow_ZiG1Aje043FYLtp8GvKREpuW9UT7cwCLcB/s1600/Ramos.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-9KAK774lYSY/V_AGEhA2jfI/AAAAAAAAeTQ/j6qD0fTL6SUo6uHeFlTJelDZuvNVkm8CACLcB/s1600/Rodriguez.jpg</t>
+  </si>
+  <si>
+    <t>2017 Chachi</t>
   </si>
 </sst>
 </file>
@@ -9736,16 +9829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="154.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -9756,1199 +9848,283 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2398</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>2044</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3118</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>3036</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>2458</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>2646</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>2837</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>2060</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>2462</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1440</v>
+        <v>2460</v>
       </c>
       <c r="B28" t="s">
-        <v>1441</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1442</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>1443</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>1444</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>2063</v>
       </c>
       <c r="B31" t="s">
-        <v>1515</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2062</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2063</v>
-      </c>
       <c r="B39" t="s">
-        <v>2064</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2065</v>
+        <v>3104</v>
       </c>
       <c r="B40" t="s">
-        <v>2066</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2067</v>
+        <v>3107</v>
       </c>
       <c r="B41" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2462</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2463</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>130</v>
-      </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2547</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>2548</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2567</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2646</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2464</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2533</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2456</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2804</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>150</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>2838</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>2611</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>38</v>
-      </c>
-      <c r="B120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>39</v>
-      </c>
-      <c r="B121" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>44</v>
-      </c>
-      <c r="B126" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>45</v>
-      </c>
-      <c r="B127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>47</v>
-      </c>
-      <c r="B129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>48</v>
-      </c>
-      <c r="B130" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>49</v>
-      </c>
-      <c r="B131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B133" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>52</v>
-      </c>
-      <c r="B134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>53</v>
-      </c>
-      <c r="B135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>55</v>
-      </c>
-      <c r="B137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>56</v>
-      </c>
-      <c r="B138" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>58</v>
-      </c>
-      <c r="B140" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>59</v>
-      </c>
-      <c r="B141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>61</v>
-      </c>
-      <c r="B143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>63</v>
-      </c>
-      <c r="B145" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>64</v>
-      </c>
-      <c r="B146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>65</v>
-      </c>
-      <c r="B147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>66</v>
-      </c>
-      <c r="B148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>67</v>
-      </c>
-      <c r="B149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>86</v>
-      </c>
-      <c r="B152" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>87</v>
-      </c>
-      <c r="B153" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>88</v>
-      </c>
-      <c r="B154" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>89</v>
-      </c>
-      <c r="B155" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>90</v>
-      </c>
-      <c r="B156" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>91</v>
-      </c>
-      <c r="B157" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2790</v>
+        <v>3109</v>
       </c>
     </row>
   </sheetData>
@@ -17856,16 +17032,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="154.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17877,762 +17053,1198 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2411</v>
+      <c r="A2" s="1" t="s">
+        <v>2398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1859</v>
+      </c>
       <c r="B3" t="s">
-        <v>1445</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1766</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>2707</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1677</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2687</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1447</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1449</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1451</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>1453</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1455</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>1458</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1459</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>1461</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1464</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>1465</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1482</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>1481</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1518</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>1528</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1519</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>1529</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1520</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>1530</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1521</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>1531</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1866</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>1867</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1648</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>2003</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2004</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>2005</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1639</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>2006</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1641</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>2007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1632</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>2008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1644</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>2009</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2016</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>2017</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2453</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>2454</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1712</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>2544</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1663</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>2566</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1699</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>2622</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1691</v>
+        <v>1440</v>
       </c>
       <c r="B28" t="s">
-        <v>2631</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1667</v>
+        <v>1442</v>
       </c>
       <c r="B29" t="s">
-        <v>2661</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2675</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>2676</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2683</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>2684</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2700</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>2701</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2702</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>2703</v>
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2045</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2046</v>
+      </c>
       <c r="B35" t="s">
-        <v>1446</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1558</v>
+        <v>2048</v>
       </c>
       <c r="B36" t="s">
-        <v>2018</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2019</v>
+        <v>2060</v>
       </c>
       <c r="B37" t="s">
-        <v>2020</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1161</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>2021</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2022</v>
+        <v>2063</v>
       </c>
       <c r="B39" t="s">
-        <v>2023</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2024</v>
+        <v>2065</v>
       </c>
       <c r="B40" t="s">
-        <v>2025</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2026</v>
+        <v>2067</v>
       </c>
       <c r="B41" t="s">
-        <v>2027</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1448</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>1450</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1452</v>
+        <v>2458</v>
       </c>
       <c r="B43" t="s">
-        <v>1454</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1456</v>
+        <v>2460</v>
       </c>
       <c r="B44" t="s">
-        <v>1457</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1460</v>
+        <v>2462</v>
       </c>
       <c r="B45" t="s">
-        <v>1462</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1463</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>1466</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1483</v>
+        <v>2547</v>
       </c>
       <c r="B47" t="s">
-        <v>1484</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1522</v>
+        <v>2567</v>
       </c>
       <c r="B48" t="s">
-        <v>1525</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1523</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>1526</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1524</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>1527</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1533</v>
+        <v>2627</v>
       </c>
       <c r="B51" t="s">
-        <v>1534</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1771</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>1773</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1772</v>
+        <v>2646</v>
       </c>
       <c r="B53" t="s">
-        <v>1774</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1714</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>1848</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1845</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>1849</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1846</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>1850</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1847</v>
+        <v>2821</v>
       </c>
       <c r="B57" t="s">
-        <v>1851</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2010</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>2011</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2012</v>
+        <v>1541</v>
       </c>
       <c r="B59" t="s">
-        <v>2013</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2014</v>
+        <v>2822</v>
       </c>
       <c r="B60" t="s">
-        <v>2015</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2028</v>
+        <v>1400</v>
       </c>
       <c r="B61" t="s">
-        <v>2029</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2030</v>
+        <v>2464</v>
       </c>
       <c r="B62" t="s">
-        <v>2031</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2032</v>
+        <v>2533</v>
       </c>
       <c r="B63" t="s">
-        <v>2033</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2034</v>
+        <v>2534</v>
       </c>
       <c r="B64" t="s">
-        <v>2035</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2036</v>
+        <v>2456</v>
       </c>
       <c r="B65" t="s">
-        <v>2037</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2038</v>
+        <v>2531</v>
       </c>
       <c r="B66" t="s">
-        <v>2039</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2040</v>
+        <v>2803</v>
       </c>
       <c r="B67" t="s">
-        <v>2041</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1725</v>
+        <v>2720</v>
       </c>
       <c r="B68" t="s">
-        <v>2448</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2449</v>
+        <v>2823</v>
       </c>
       <c r="B69" t="s">
-        <v>2450</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2451</v>
+        <v>2824</v>
       </c>
       <c r="B70" t="s">
-        <v>2452</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1581</v>
+        <v>2825</v>
       </c>
       <c r="B71" t="s">
-        <v>2455</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1593</v>
+        <v>2826</v>
       </c>
       <c r="B72" t="s">
-        <v>2543</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2545</v>
+        <v>2827</v>
       </c>
       <c r="B73" t="s">
-        <v>2546</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2564</v>
+        <v>2828</v>
       </c>
       <c r="B74" t="s">
-        <v>2565</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1718</v>
+        <v>2829</v>
       </c>
       <c r="B75" t="s">
-        <v>2623</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2632</v>
+        <v>1147</v>
       </c>
       <c r="B76" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2642</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2643</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>2685</v>
-      </c>
       <c r="B78" t="s">
-        <v>2686</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2688</v>
+        <v>2058</v>
       </c>
       <c r="B79" t="s">
-        <v>2689</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2690</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>2691</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2693</v>
+        <v>2830</v>
       </c>
       <c r="B81" t="s">
-        <v>2692</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1595</v>
+        <v>2831</v>
       </c>
       <c r="B82" t="s">
-        <v>2694</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>2597</v>
+        <v>2050</v>
       </c>
       <c r="B83" t="s">
-        <v>2695</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>2697</v>
+        <v>2052</v>
       </c>
       <c r="B84" t="s">
-        <v>2696</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2698</v>
+        <v>2054</v>
       </c>
       <c r="B85" t="s">
-        <v>2699</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2705</v>
+        <v>2056</v>
       </c>
       <c r="B86" t="s">
-        <v>2704</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1620</v>
+        <v>2832</v>
       </c>
       <c r="B87" t="s">
-        <v>2706</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2743</v>
+        <v>2833</v>
       </c>
       <c r="B88" t="s">
-        <v>2742</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1571</v>
+        <v>2834</v>
       </c>
       <c r="B89" t="s">
-        <v>2773</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2775</v>
+        <v>2835</v>
       </c>
       <c r="B90" t="s">
-        <v>2774</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2777</v>
+        <v>2836</v>
       </c>
       <c r="B91" t="s">
-        <v>2776</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1585</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>2778</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2779</v>
+        <v>2837</v>
       </c>
       <c r="B93" t="s">
-        <v>2780</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2781</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>2782</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2783</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>2784</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1696</v>
+        <v>2838</v>
       </c>
       <c r="B96" t="s">
-        <v>2785</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2786</v>
+        <v>2839</v>
       </c>
       <c r="B97" t="s">
-        <v>2787</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2788</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>2789</v>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>87</v>
+      </c>
+      <c r="B153" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>88</v>
+      </c>
+      <c r="B154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2790</v>
       </c>
     </row>
   </sheetData>
@@ -18766,62 +18378,783 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2017</v>
+      <c r="A2" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1766</v>
+      </c>
       <c r="B4" t="s">
-        <v>3103</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3104</v>
+        <v>1677</v>
       </c>
       <c r="B5" t="s">
-        <v>3105</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3107</v>
+        <v>1447</v>
       </c>
       <c r="B6" t="s">
-        <v>3106</v>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1482</v>
+      </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>1518</v>
       </c>
       <c r="B12" t="s">
-        <v>3108</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>1519</v>
       </c>
       <c r="B13" t="s">
-        <v>3109</v>
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2789</v>
       </c>
     </row>
   </sheetData>
@@ -18833,7 +19166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3154">
   <si>
     <t>Base Set</t>
   </si>
@@ -9462,6 +9462,39 @@
   </si>
   <si>
     <t>2017 Chachi</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-qbSjKZNE-Es/WCzr7wlFUrI/AAAAAAAAlIk/ToGbZMoBnVQA8NF92u6K-T4Xf3vxTrkTQCLcB/s1600/imh992.jpg</t>
+  </si>
+  <si>
+    <t>Pat Neshek 2011 Topps Padres</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-pNke_dxqUeA/WCzr8YPv5GI/AAAAAAAAlIw/9AG4Q_sBAfUiqIBGwF90zgB5PwcV2fySwCLcB/s1600/imh994.jpg</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo 2011 Finest</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-tSVsiozwNTA/WCzr8tzaV-I/AAAAAAAAlI4/TDplSZOZOe8xlRqBaI2JffwREJ58Gi8_gCLcB/s1600/imh995.jpg</t>
+  </si>
+  <si>
+    <t>Tadahito Iguchi 2008 Topps Heritage</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-hgRHvoGDQaM/WC5KVcNFtMI/AAAAAAABpwc/YsYl0_MZ2QMn26CnAgFKCQBrmEEdq1xxwCLcB/s1600/hhn-1%253D1.jpg</t>
+  </si>
+  <si>
+    <t>Enrique Hernandez</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-Nqia8ccHhxM/WC8AlEepu7I/AAAAAAAAes8/AaLvgKxp3F4oSMWtk_wKwA3r3gWXYk_uwCLcB/s1600/2017%2BChachi%2BDepartures%2B%25234%2BMorton.jpg</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-4rreGmUhQBw/WC8AlAJHNiI/AAAAAAAAes4/5ssQJAvj6J4SE5ksxAsbDRUuO2dFfdi6wCLcB/s1600/2017%2BChachi%2BDepartures%2B%25231%2BSchuster.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Ebx0MoFkEqY/WC6DyZMCNVI/AAAAAAABpww/R3BsPS6xe5MEXuVz8LI2S-kndFHsXxfQACLcB/s1600/Wise%2B71T.jpg</t>
   </si>
 </sst>
 </file>
@@ -9829,10 +9862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10125,6 +10158,22 @@
       </c>
       <c r="B48" t="s">
         <v>3109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3152</v>
       </c>
     </row>
   </sheetData>
@@ -19164,10 +19213,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B721"/>
+  <dimension ref="A1:B728"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="B616" sqref="B616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19541,6 +19590,14 @@
         <v>3047</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3149</v>
+      </c>
+    </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2386</v>
@@ -22721,1876 +22778,1908 @@
         <v>3049</v>
       </c>
     </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B457" t="s">
+        <v>3143</v>
+      </c>
+    </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>2447</v>
+        <v>3146</v>
+      </c>
+      <c r="B458" t="s">
+        <v>3145</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B459" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>2354</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B466" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
         <v>2372</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B467" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
         <v>2994</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B468" t="s">
         <v>2993</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B462" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B463" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>2809</v>
+        <v>2965</v>
+      </c>
+      <c r="B469" t="s">
+        <v>2964</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>2810</v>
+        <v>2978</v>
       </c>
       <c r="B470" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B471" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B474" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B475" t="s">
-        <v>2117</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1544</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1578</v>
+        <v>2810</v>
       </c>
       <c r="B477" t="s">
-        <v>2871</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1972</v>
+        <v>2812</v>
       </c>
       <c r="B478" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B479" t="s">
-        <v>2873</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B480" t="s">
-        <v>2874</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>2877</v>
+        <v>1982</v>
       </c>
       <c r="B481" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1593</v>
+        <v>2118</v>
       </c>
       <c r="B482" t="s">
-        <v>2878</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>2880</v>
+        <v>1543</v>
       </c>
       <c r="B483" t="s">
-        <v>2879</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>2882</v>
+        <v>1578</v>
       </c>
       <c r="B484" t="s">
-        <v>2881</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1402</v>
+        <v>1972</v>
       </c>
       <c r="B485" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>2885</v>
+        <v>1936</v>
       </c>
       <c r="B486" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2887</v>
+        <v>2875</v>
       </c>
       <c r="B487" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2888</v>
+        <v>2877</v>
       </c>
       <c r="B488" t="s">
-        <v>2889</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B489" t="s">
-        <v>2890</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2028</v>
+        <v>2880</v>
       </c>
       <c r="B490" t="s">
-        <v>2891</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1299</v>
+        <v>2882</v>
       </c>
       <c r="B491" t="s">
-        <v>2892</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>2893</v>
+        <v>1402</v>
       </c>
       <c r="B492" t="s">
-        <v>2894</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1965</v>
+        <v>2885</v>
       </c>
       <c r="B493" t="s">
-        <v>2895</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>2896</v>
+        <v>2887</v>
       </c>
       <c r="B494" t="s">
-        <v>2897</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2545</v>
+        <v>2888</v>
       </c>
       <c r="B495" t="s">
-        <v>2898</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>2899</v>
+        <v>1460</v>
       </c>
       <c r="B496" t="s">
-        <v>2900</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1597</v>
+        <v>2028</v>
       </c>
       <c r="B497" t="s">
-        <v>2471</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>2170</v>
+        <v>1299</v>
       </c>
       <c r="B498" t="s">
-        <v>2171</v>
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B500" t="s">
+        <v>2895</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>2389</v>
+        <v>2896</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2897</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1455</v>
+        <v>2545</v>
       </c>
       <c r="B502" t="s">
-        <v>1545</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1547</v>
+        <v>2899</v>
       </c>
       <c r="B503" t="s">
-        <v>1546</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1549</v>
+        <v>1597</v>
       </c>
       <c r="B504" t="s">
-        <v>1548</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1551</v>
+        <v>2170</v>
       </c>
       <c r="B505" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1554</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1556</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1558</v>
+        <v>1455</v>
       </c>
       <c r="B509" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1606</v>
+        <v>1547</v>
       </c>
       <c r="B510" t="s">
-        <v>1607</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="B511" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="B512" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="B513" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="B514" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="B515" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="B516" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1571</v>
+        <v>1606</v>
       </c>
       <c r="B517" t="s">
-        <v>1572</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="B518" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="B519" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="B520" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1388</v>
+        <v>1566</v>
       </c>
       <c r="B521" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="B522" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="B523" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="B524" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="B525" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="B526" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="B527" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1593</v>
+        <v>1388</v>
       </c>
       <c r="B528" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="B529" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1597</v>
+        <v>1583</v>
       </c>
       <c r="B530" t="s">
-        <v>1596</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="B531" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="B532" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="B533" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="B534" t="s">
-        <v>1605</v>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>2472</v>
+        <v>1597</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>2473</v>
+        <v>1600</v>
       </c>
       <c r="B538" t="s">
-        <v>2474</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>2475</v>
+        <v>1599</v>
       </c>
       <c r="B539" t="s">
-        <v>2476</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>2477</v>
+        <v>1602</v>
       </c>
       <c r="B540" t="s">
-        <v>2478</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>2479</v>
+        <v>1603</v>
       </c>
       <c r="B541" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>2481</v>
-      </c>
-      <c r="B542" t="s">
-        <v>2482</v>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>2472</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>2582</v>
+        <v>2473</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2474</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1455</v>
+        <v>2475</v>
       </c>
       <c r="B546" t="s">
-        <v>2583</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>2584</v>
+        <v>2477</v>
       </c>
       <c r="B547" t="s">
-        <v>2585</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1589</v>
+        <v>2479</v>
       </c>
       <c r="B548" t="s">
-        <v>2586</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1566</v>
+        <v>2481</v>
       </c>
       <c r="B549" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B550" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B551" t="s">
-        <v>2589</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B552" t="s">
-        <v>2592</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1597</v>
+        <v>1455</v>
       </c>
       <c r="B553" t="s">
-        <v>2593</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2597</v>
+        <v>2584</v>
       </c>
       <c r="B554" t="s">
-        <v>2596</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B555" t="s">
-        <v>2600</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="B556" t="s">
-        <v>2601</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
       <c r="B557" t="s">
-        <v>2602</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1549</v>
+        <v>1150</v>
       </c>
       <c r="B558" t="s">
-        <v>2603</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1388</v>
+        <v>1219</v>
       </c>
       <c r="B559" t="s">
-        <v>2987</v>
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B560" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B561" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2600</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>2391</v>
+        <v>1560</v>
+      </c>
+      <c r="B563" t="s">
+        <v>2601</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1520</v>
+        <v>1595</v>
       </c>
       <c r="B564" t="s">
-        <v>1636</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1388</v>
+        <v>1549</v>
       </c>
       <c r="B565" t="s">
-        <v>1637</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1639</v>
+        <v>1388</v>
       </c>
       <c r="B566" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1643</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1645</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1560</v>
+        <v>1520</v>
       </c>
       <c r="B571" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1648</v>
+        <v>1388</v>
       </c>
       <c r="B572" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="B573" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1651</v>
+        <v>1632</v>
       </c>
       <c r="B574" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="B575" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="B576" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>2150</v>
+        <v>1451</v>
       </c>
       <c r="B577" t="s">
-        <v>2151</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>2591</v>
+        <v>1560</v>
       </c>
       <c r="B578" t="s">
-        <v>2590</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1683</v>
+        <v>1648</v>
       </c>
       <c r="B579" t="s">
-        <v>2621</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1593</v>
+        <v>1649</v>
       </c>
       <c r="B580" t="s">
-        <v>2662</v>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B584" t="s">
+        <v>2151</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2392</v>
+        <v>2591</v>
+      </c>
+      <c r="B585" t="s">
+        <v>2590</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1451</v>
+        <v>1683</v>
       </c>
       <c r="B586" t="s">
-        <v>1657</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1447</v>
+        <v>1593</v>
       </c>
       <c r="B587" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1664</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1665</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1641</v>
+        <v>1451</v>
       </c>
       <c r="B593" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1667</v>
+        <v>1447</v>
       </c>
       <c r="B594" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1160</v>
+        <v>1521</v>
       </c>
       <c r="B595" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1459</v>
+        <v>1660</v>
       </c>
       <c r="B596" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1388</v>
+        <v>1663</v>
       </c>
       <c r="B597" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="B598" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1520</v>
+        <v>1651</v>
       </c>
       <c r="B599" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1674</v>
+        <v>1641</v>
       </c>
       <c r="B600" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="B601" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1679</v>
+        <v>1160</v>
       </c>
       <c r="B602" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1681</v>
+        <v>1459</v>
       </c>
       <c r="B603" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1644</v>
+        <v>1388</v>
       </c>
       <c r="B604" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1683</v>
+        <v>1632</v>
       </c>
       <c r="B605" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1482</v>
+        <v>1520</v>
       </c>
       <c r="B606" t="s">
-        <v>1865</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2152</v>
+        <v>1674</v>
       </c>
       <c r="B607" t="s">
-        <v>2153</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1699</v>
+        <v>1677</v>
       </c>
       <c r="B608" t="s">
-        <v>2641</v>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2393</v>
+        <v>1644</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B612" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1523</v>
+        <v>1482</v>
       </c>
       <c r="B613" t="s">
-        <v>1687</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1524</v>
+        <v>2152</v>
       </c>
       <c r="B614" t="s">
-        <v>1688</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="B615" t="s">
-        <v>1690</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1691</v>
+        <v>1712</v>
       </c>
       <c r="B616" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1694</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1695</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1459</v>
+        <v>1685</v>
       </c>
       <c r="B619" t="s">
-        <v>1697</v>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2394</v>
+        <v>1524</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="B622" t="s">
-        <v>1729</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="B623" t="s">
-        <v>1730</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1483</v>
+        <v>1693</v>
       </c>
       <c r="B624" t="s">
-        <v>1731</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B625" t="s">
-        <v>1732</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1701</v>
+        <v>1459</v>
       </c>
       <c r="B626" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1747</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="B629" t="s">
-        <v>1705</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="B630" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1707</v>
+        <v>1483</v>
       </c>
       <c r="B631" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="B632" t="s">
-        <v>1709</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="B633" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1459</v>
+        <v>1703</v>
       </c>
       <c r="B634" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1689</v>
+        <v>1667</v>
       </c>
       <c r="B635" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="B636" t="s">
-        <v>1738</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1160</v>
+        <v>1706</v>
       </c>
       <c r="B637" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="B638" t="s">
-        <v>1713</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1696</v>
+        <v>1708</v>
       </c>
       <c r="B639" t="s">
-        <v>1740</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="B640" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1717</v>
+        <v>1459</v>
       </c>
       <c r="B641" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="B642" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1524</v>
+        <v>1712</v>
       </c>
       <c r="B643" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1718</v>
+        <v>1160</v>
       </c>
       <c r="B644" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="B645" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1721</v>
+        <v>1696</v>
       </c>
       <c r="B646" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="B647" t="s">
-        <v>1722</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="B648" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1726</v>
+        <v>1693</v>
       </c>
       <c r="B649" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1728</v>
+        <v>1524</v>
       </c>
       <c r="B650" t="s">
-        <v>1727</v>
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2395</v>
+        <v>1720</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1762</v>
+        <v>1721</v>
       </c>
       <c r="B653" t="s">
-        <v>1763</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1764</v>
+        <v>1723</v>
       </c>
       <c r="B654" t="s">
-        <v>1765</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1689</v>
+        <v>1725</v>
       </c>
       <c r="B655" t="s">
-        <v>1870</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1872</v>
+        <v>1726</v>
       </c>
       <c r="B656" t="s">
-        <v>1871</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1533</v>
+        <v>1728</v>
       </c>
       <c r="B657" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1874</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1876</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1877</v>
+        <v>1762</v>
       </c>
       <c r="B660" t="s">
-        <v>1878</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1880</v>
+        <v>1764</v>
       </c>
       <c r="B661" t="s">
-        <v>1879</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1881</v>
+        <v>1689</v>
       </c>
       <c r="B662" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1718</v>
+        <v>1872</v>
       </c>
       <c r="B663" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1885</v>
+        <v>1533</v>
       </c>
       <c r="B664" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1451</v>
+        <v>1160</v>
       </c>
       <c r="B665" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="B666" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="B667" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="B668" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1893</v>
+        <v>1881</v>
       </c>
       <c r="B669" t="s">
-        <v>1894</v>
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>2396</v>
+        <v>1885</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1161</v>
+        <v>1451</v>
       </c>
       <c r="B672" t="s">
-        <v>1904</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="B673" t="s">
-        <v>1905</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1203</v>
+        <v>1889</v>
       </c>
       <c r="B674" t="s">
-        <v>1907</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1236</v>
+        <v>1891</v>
       </c>
       <c r="B675" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1408</v>
+        <v>1893</v>
       </c>
       <c r="B676" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>252</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
       <c r="B679" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1238</v>
+        <v>1906</v>
       </c>
       <c r="B680" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1181</v>
+        <v>1203</v>
       </c>
       <c r="B681" t="s">
-        <v>1914</v>
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>2397</v>
+        <v>1408</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1915</v>
+        <v>1230</v>
       </c>
       <c r="B684" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1756</v>
+        <v>252</v>
       </c>
       <c r="B685" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1919</v>
+        <v>1187</v>
       </c>
       <c r="B686" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1921</v>
+        <v>1238</v>
       </c>
       <c r="B687" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1923</v>
+        <v>1181</v>
       </c>
       <c r="B688" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>1925</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1927</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1929</v>
+        <v>1915</v>
       </c>
       <c r="B691" t="s">
-        <v>1928</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1402</v>
+        <v>1756</v>
       </c>
       <c r="B692" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="B693" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1933</v>
+        <v>1921</v>
       </c>
       <c r="B694" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="B695" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1578</v>
+        <v>1925</v>
       </c>
       <c r="B696" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1939</v>
+        <v>1926</v>
       </c>
       <c r="B697" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="B698" t="s">
-        <v>1940</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1299</v>
+        <v>1402</v>
       </c>
       <c r="B699" t="s">
-        <v>1942</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="B700" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1946</v>
+        <v>1933</v>
       </c>
       <c r="B701" t="s">
-        <v>1945</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1948</v>
+        <v>1936</v>
       </c>
       <c r="B702" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1950</v>
+        <v>1578</v>
       </c>
       <c r="B703" t="s">
-        <v>1949</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1952</v>
+        <v>1939</v>
       </c>
       <c r="B704" t="s">
-        <v>1951</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="B705" t="s">
-        <v>1954</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1956</v>
+        <v>1299</v>
       </c>
       <c r="B706" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="B707" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1960</v>
+        <v>1946</v>
       </c>
       <c r="B708" t="s">
-        <v>1959</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1287</v>
+        <v>1948</v>
       </c>
       <c r="B709" t="s">
-        <v>1961</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="B710" t="s">
-        <v>1962</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1503</v>
+        <v>1952</v>
       </c>
       <c r="B711" t="s">
-        <v>1964</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
       <c r="B712" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1968</v>
+        <v>1956</v>
       </c>
       <c r="B713" t="s">
-        <v>1967</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="B714" t="s">
-        <v>1969</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="B715" t="s">
-        <v>1971</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1973</v>
+        <v>1287</v>
       </c>
       <c r="B716" t="s">
-        <v>1974</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1976</v>
+        <v>1963</v>
       </c>
       <c r="B717" t="s">
-        <v>1975</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1978</v>
+        <v>1503</v>
       </c>
       <c r="B718" t="s">
-        <v>1977</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="B719" t="s">
-        <v>1979</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1982</v>
+        <v>1968</v>
       </c>
       <c r="B720" t="s">
-        <v>1981</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
         <v>2962</v>
       </c>
-      <c r="B721" t="s">
+      <c r="B728" t="s">
         <v>2961</v>
       </c>
     </row>

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="3154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="3174">
   <si>
     <t>Base Set</t>
   </si>
@@ -9419,9 +9419,6 @@
     <t>https://4.bp.blogspot.com/-O3aQZLpdQZE/V-_80DFHyYI/AAAAAAAAeQw/GgugWbMsK4Q1eVisZrdrn2ET_sxbMTq5gCLcB/s1600/Quinn.jpg</t>
   </si>
   <si>
-    <t>https://1.bp.blogspot.com/-HLgNnuiFpsU/V_AGC9fVehI/AAAAAAAAeSI/4Yxr1R2G0GMweXhmPbZiyq87QXPxC2M5ACLcB/s1600/Araujo.jpg</t>
-  </si>
-  <si>
     <t>https://3.bp.blogspot.com/-QeOaULZ8I90/V_AGC1AfuHI/AAAAAAAAeSE/DUsEi-3tLtQ5DGMUh8ulbkU8MmF9mOXSACLcB/s1600/Asher.jpg</t>
   </si>
   <si>
@@ -9495,6 +9492,69 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-Ebx0MoFkEqY/WC6DyZMCNVI/AAAAAAABpww/R3BsPS6xe5MEXuVz8LI2S-kndFHsXxfQACLcB/s1600/Wise%2B71T.jpg</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>https://2.bp.blogspot.com/-eu2jZYjUt8I/WDD72FxTwsI/AAAAAAAAevM/47DuEVgy5QQuz9PsYTBnL6hPNgJA5GhgQCLcB/s1600/2017%2BChachi%2BDepartures%2B%25235%2BAraujo.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-AISj3yqom_w/WC721ZeZpuI/AAAAAAAAeso/4EiHnQcorG48zsEDogRLADowAgPJCRgRQCLcB/s1600/Hellickson.jpg</t>
+  </si>
+  <si>
+    <t>Andrew Knapp</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Lg2MGdYKoAU/WDCl_8ex68I/AAAAAAAAetk/3z2inbel8BslqVLPqnONdOkgKYIPkivQQCLcB/s1600/Knapp.jpg</t>
+  </si>
+  <si>
+    <t>Jesmuel Valentin</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-XD1rb1GvnxM/WDCmAE3Q-RI/AAAAAAAAet4/WVOc6wNSTYUUICgBJZAO4Ch-4DmnOFW9ACLcB/s1600/Valentin.jpg</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-uANHTtf780U/WDCl_eASb_I/AAAAAAAAetU/kf8GH3qf9IYdhy3m4nZVjLMNJwnBvuTNwCLcB/s1600/Cozens.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-gSZQY6kNw7M/WDCmATPhZSI/AAAAAAAAet8/Wp27h34YFRIDZQzXPBM7HCeK68DzTkC7QCLcB/s1600/Williams.jpg</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-V4W9vxTcTC0/WDCl_Rt25NI/AAAAAAAAetY/_HrOu20sNhsKi4kAe4tspEDkwzJ61LDQQCLcB/s1600/Anderson.jpg</t>
+  </si>
+  <si>
+    <t>Drew Anderson</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-6K16LKjPVeA/WDCl_YQaqDI/AAAAAAAAetc/cwb8vc1wvkYUcPH1xvfR5MNiXofArO9TQCLcB/s1600/Appel.jpg</t>
+  </si>
+  <si>
+    <t>Elniery Garcia</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-GrnVkIhtH9Q/WDCl_iwidkI/AAAAAAAAetg/izWeyqdbnR0d3jdcR8ZchKATDCWSFiWvwCLcB/s1600/Garcia%2BE.jpg</t>
+  </si>
+  <si>
+    <t>Ben Lively</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-Gx0aFI6LBk4/WDCl_y5i7lI/AAAAAAAAeto/F75SkHodsWcah_0kFJkhY2U4R2oSq1jhgCLcB/s1600/Lively.jpg</t>
+  </si>
+  <si>
+    <t>Ricardo Pinto</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-jAFn9UFS9SY/WDCl_0_vsBI/AAAAAAAAets/EQeA_T3W_UY6FRiayi6977ujLmxu2IFyACLcB/s1600/Pinto.jpg</t>
+  </si>
+  <si>
+    <t>https://4.bp.blogspot.com/-_0eu-0I-Jbg/WDCl_9EnR_I/AAAAAAAAetw/s5XfKEOvtAUDDFnNHL47dgN7T4At_1dLwCLcB/s1600/Pivetta.jpg</t>
+  </si>
+  <si>
+    <t>Alberto Tirado</t>
+  </si>
+  <si>
+    <t>https://1.bp.blogspot.com/-YSqS9NsFPp8/WDCmALSK49I/AAAAAAAAet0/VJYl7MGhrsMNpsuRCy_ujDqMRpPZVMasQCLcB/s1600/Tirado.jpg</t>
   </si>
 </sst>
 </file>
@@ -9862,10 +9922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9883,7 +9943,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10008,7 +10068,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>3128</v>
@@ -10016,164 +10076,265 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>2060</v>
       </c>
       <c r="B20" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2837</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2060</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>2462</v>
       </c>
       <c r="B24" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>2460</v>
       </c>
       <c r="B25" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2462</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2460</v>
+        <v>2063</v>
       </c>
       <c r="B28" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>1859</v>
       </c>
       <c r="B30" t="s">
-        <v>3139</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2063</v>
+        <v>3156</v>
       </c>
       <c r="B31" t="s">
-        <v>3140</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>3158</v>
       </c>
       <c r="B32" t="s">
-        <v>3141</v>
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3168</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3169</v>
+      </c>
       <c r="B39" t="s">
-        <v>3103</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3104</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>3105</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>3107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>3106</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>3108</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>132</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>3109</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>15</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B54" t="s">
         <v>3151</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2627</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3152</v>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3130</v>
       </c>
     </row>
   </sheetData>
@@ -19215,7 +19376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+    <sheetView topLeftCell="A586" workbookViewId="0">
       <selection activeCell="B616" sqref="B616"/>
     </sheetView>
   </sheetViews>
@@ -19592,10 +19753,10 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B47" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -22780,26 +22941,26 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="B457" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B458" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B459" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -23839,7 +24000,7 @@
         <v>1712</v>
       </c>
       <c r="B616" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">

--- a/chachis.xlsx
+++ b/chachis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23460" windowHeight="10695" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="21" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="3257">
   <si>
     <t>Base Set</t>
   </si>
@@ -9555,6 +9555,255 @@
   </si>
   <si>
     <t>https://1.bp.blogspot.com/-YSqS9NsFPp8/WDCmALSK49I/AAAAAAAAet0/VJYl7MGhrsMNpsuRCy_ujDqMRpPZVMasQCLcB/s1600/Tirado.jpg</t>
+  </si>
+  <si>
+    <t>1988 Missing Links</t>
+  </si>
+  <si>
+    <t>Bill Almon</t>
+  </si>
+  <si>
+    <t>Tom Barrett</t>
+  </si>
+  <si>
+    <t>Danny Clay</t>
+  </si>
+  <si>
+    <t>Bob Dernier</t>
+  </si>
+  <si>
+    <t>Marvin Freeman</t>
+  </si>
+  <si>
+    <t>Jackie Guttierrez</t>
+  </si>
+  <si>
+    <t>Greg Harris</t>
+  </si>
+  <si>
+    <t>Ron Jones</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-iyEsAfVrY0Q/Tu0-m4zyewI/AAAAAAAAHdc/aV_TiVwH-WU/s1600/1988+Topps+%2523PR1+Almon.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-pgSaG7xKy5E/Tu0-m3adkjI/AAAAAAAAHdk/_CnDg0fJNk0/s1600/1988+Topps+%2523PR2+Barojas.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-J3L2GS1gpRY/Tu0-nSmqNwI/AAAAAAAAHds/end7hFg0dqg/s1600/1988+Topps+%2523PR3+Barrett.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-FocbqmJomV4/Tu0-nj2tR-I/AAAAAAAAHd0/yGwV6VG9q7U/s1600/1988+Topps+%2523PR4+Clay.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-9_DQlBXrXzw/Tu0-n2777GI/AAAAAAAAHd8/c4MmlCm82gw/s1600/1988+Topps+%2523PR5+Dawley.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-M7RiopQTQnM/Tu0-oKp_aTI/AAAAAAAAHeE/TflWNWCfcRY/s1600/1988+Topps+%2523PR6+Dernier.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-0TaUxcneizo/Tu0-oWGWn2I/AAAAAAAAHeM/o-qs6pSnbj8/s1600/1988+Topps+%2523PR7+Freeman.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-_8Ucu2xSRZg/Tu0-opimZZI/AAAAAAAAHeU/S2nO-5FVJqc/s1600/1988+Topps+%2523PR8+Gutierrez.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-6eDKrRlc50g/Tu0-o9l36rI/AAAAAAAAHec/gs5E2CwzcIc/s1600/1988+Topps+%2523PR9+Harris.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-ThLk3CYnk9k/Tu0-pAGZQ6I/AAAAAAAAHek/FAo_-4A9EBg/s1600/1988+Topps+%2523PR10+Jones.jpg</t>
+  </si>
+  <si>
+    <t>Ricky Jordan</t>
+  </si>
+  <si>
+    <t>Alex Madrid</t>
+  </si>
+  <si>
+    <t>Keith Miller</t>
+  </si>
+  <si>
+    <t>Brad Moore</t>
+  </si>
+  <si>
+    <t>Scott Service</t>
+  </si>
+  <si>
+    <t>Shane Turner</t>
+  </si>
+  <si>
+    <t>Mike Young</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-pwYm_rqcFiE/Tu6hqdzUw7I/AAAAAAAAHew/BYhD6Em63Ts/s1600/1988+Topps+%2523PR11+Jordan.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-UBzvpez76XA/Tu6hqk2cZ_I/AAAAAAAAHe4/KfMsfgZVBzk/s1600/1988+Topps+%2523PR12+Madrid.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-Ovu_pySDud8/Tu6hq2JEyfI/AAAAAAAAHfA/xNGx3qMDiEE/s1600/1988+Topps+%2523PR13+Miller.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-fjdExTDuepc/Tu6hrcicf7I/AAAAAAAAHfI/HaBX9xDo64U/s1600/1988+Topps+%2523PR14+Moore.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-vQAtUKhdBz0/Tu6hrYwh-7I/AAAAAAAAHfQ/a4nogXF4Ew8/s1600/1988+Topps+%2523PR15+Pardo.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-gpE-PHm_zvI/Tu6hrqtTngI/AAAAAAAAHfY/Tp7TAjUkV_k/s1600/1988+Topps+%2523PR16+Scherrer.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-R_MexhkrBAM/Tu6hr1iKaRI/AAAAAAAAHfg/-xc4AVcrLvk/s1600/1988+Topps+%2523PR17+Sebra.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-1XqSXHho_aY/Tu6hsbWIE_I/AAAAAAAAHfo/g5JI6WpcoMU/s1600/1988+Topps+%2523PR18+Service.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-HN3MyFz6JaY/Tu6hsuwuJqI/AAAAAAAAHfw/g2s9esLlBdg/s1600/1988+Topps+%2523PR19+Turner.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-BGB6BtRALWc/Tu6hs7TJMAI/AAAAAAAAHf4/VjQR03HZcrs/s1600/1988+Topps+%2523PR20+Young.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-o3XcYvOkbzI/Tuqa9RQe8PI/AAAAAAAAHdQ/oeyl5h4GRxI/s1600/2012+Chachi+Transactions+%25236+Willis.jpg</t>
+  </si>
+  <si>
+    <t>1987 Missing Links</t>
+  </si>
+  <si>
+    <t>Doug Bair</t>
+  </si>
+  <si>
+    <t>Joe Cowley</t>
+  </si>
+  <si>
+    <t>Ken Dowell</t>
+  </si>
+  <si>
+    <t>Todd Frohworth</t>
+  </si>
+  <si>
+    <t>Ken Jackson</t>
+  </si>
+  <si>
+    <t>Greg Jelks</t>
+  </si>
+  <si>
+    <t>Greg Legg</t>
+  </si>
+  <si>
+    <t>Tom Newell</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-dBMq2IVyeJA/Ttpr-trN8II/AAAAAAAAHZE/7s0oJAPAiqY/s1600/1987+Topps+%2523PR1+Bair.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-WokseWj4aOU/Ttpr_E3HpPI/AAAAAAAAHZM/fBxf5jRfF2E/s1600/1987+Topps+%2523PR2+Cowley.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-Kntxeeg95CU/Ttpr_UC6nII/AAAAAAAAHZU/SInAy1Je28c/s1600/1987+Topps+%2523PR3+Dowell.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-1gzTiC2Pyko/Ttpr_5DoivI/AAAAAAAAHZc/o5XPCj12jvk/s1600/1987+Topps+%2523PR4+Easler.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-49thGnU3ems/TtpsAJGM8bI/AAAAAAAAHZk/cW9CmkLS87U/s1600/1987+Topps+%2523PR5+Frohwirth.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-Bv1X6CHoOUs/TtpsAiFZsNI/AAAAAAAAHZs/bYlwW9ilMNw/s1600/1987+Topps+%2523PR6+Hughes.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ddekycMTiKU/TtpsA89PHBI/AAAAAAAAHZ0/L50D3khW6rg/s1600/1987+Topps+%2523PR7+K.+Jackson.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-CsEzLLvzimc/TtpsBb593eI/AAAAAAAAHZ8/pJg2dibkPLA/s1600/1987+Topps+%2523PR8+M.+Jackson.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-H0gHPNDU5ts/TtpsB7dDTTI/AAAAAAAAHaE/WlnCCif-_-0/s1600/1987+Topps+%2523PR9+Jelks.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-JUOrWAJGW2c/TtpsCCL8AWI/AAAAAAAAHaM/HIkQBrWK6_U/s1600/1987+Topps+%2523PR10+Legg.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-CXzd2LbnRP0/TtpsChgpXVI/AAAAAAAAHaU/m7t9Az6Yd_I/s1600/1987+Topps+%2523PR11+Newell.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-tCUj9U7R8-A/TtWSHJRlyxI/AAAAAAAAHWQ/7Om4IYidYx0/s1600/2006+Topps+52+Signatures+%252352S-SM+Mathieson.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-22PM2z4N21Q/TtRK9DrZWTI/AAAAAAAAHV8/cAVLxWKKFRQ/s1600/2000+Phillies+Team+Issue+%25237+Francona.jpg</t>
+  </si>
+  <si>
+    <t>1986 Missing Links</t>
+  </si>
+  <si>
+    <t>Jeff Bittinger</t>
+  </si>
+  <si>
+    <t>Rocky Childress</t>
+  </si>
+  <si>
+    <t>Joe Lefebvre</t>
+  </si>
+  <si>
+    <t>Randy Lerch</t>
+  </si>
+  <si>
+    <t>Francisco Melendez</t>
+  </si>
+  <si>
+    <t>Ronn Reynolds</t>
+  </si>
+  <si>
+    <t>Dan Schatzeder</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-y4wAILI80Zw/Ts2PHDxD4kI/AAAAAAAAHH8/6cCBn96Ed3U/s1600/1986+Topps+%2523PR1+Bittinger.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-mXBNSoFPf-w/Ts2PHt79MtI/AAAAAAAAHIE/2b0rBWU-qtI/s1600/1986+Topps+%2523PR2+Childress.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-mQKc-__f5y0/Ts2PIOPnHoI/AAAAAAAAHIM/W5qG_p8xnU8/s1600/1986+Topps+%2523PR3+Freeman.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-KM97z8glj3M/Ts2PIyzl4AI/AAAAAAAAHIU/RkpII8IlmdQ/s1600/1986+Topps+%2523PR4+Gorman.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-bTUgFD7q_Do/Ts2RoTAiHqI/AAAAAAAAHIc/saXB-_nqhpc/s1600/1986+Topps+%2523PR5+Jackson.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-WeTrISf7GsE/Ts2RosL6u9I/AAAAAAAAHIk/I_WEenekcyo/s1600/1986+Topps+%2523PR6+James.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-SeK5x7QRYAo/Ts2RpNhR6YI/AAAAAAAAHIs/_sSSLj-ywNs/s1600/1986+Topps+%2523PR7+Lefebvre.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-_cuiLgK2Tio/Ts2RqO6Cm-I/AAAAAAAAHI0/uBFxcq9Fg9k/s1600/1986+Topps+%2523PR8+Legg.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-jGzFrMljzmw/Ts2SON-uquI/AAAAAAAAHI8/-SDZ9J2t438/s1600/1986+Topps+%2523PR9+Lerch.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-zttpEawcLfY/Ts2SOY4X0TI/AAAAAAAAHJE/-F-2-w7JNMw/s1600/1986+Topps+%2523PR10+Maddux.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-fNG-HxjXJQU/Ts2SO7xznsI/AAAAAAAAHJM/0gjvWtSnqtY/s1600/1986+Topps+%2523PR11+Melendez.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-wCVSCvjyEsQ/Ts2SPc9C1nI/AAAAAAAAHJQ/fHG19khkahM/s1600/1986+Topps+%2523PR12+Reynolds.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-lQou74ZBTIk/Ts2SvANpBvI/AAAAAAAAHJc/hCwCSwISND4/s1600/1986+Topps+%2523PR13+Roenicke.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-SwS5IwDA940/Ts2SvkWW3iI/AAAAAAAAHJk/dpBvddVOjlA/s1600/1986+Topps+%2523PR14+Ruffin.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-ZfrOjpysV88/Ts2SwYyzP3I/AAAAAAAAHJs/Yz1m1N9RdHA/s1600/1986+Topps+%2523PR15+Schatzeder.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-YuCLyVqynLU/Ts2Swy8faBI/AAAAAAAAHJ0/qdkLzw8Lv9o/s1600/1986+Topps+%2523PR16+Toliver.jpg</t>
   </si>
 </sst>
 </file>
@@ -9924,7 +10173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
@@ -12010,10 +12259,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12864,6 +13113,11 @@
       <c r="C71" t="str">
         <f t="shared" si="2"/>
         <v>} , { "name" : "Chad Qualls", "link" : "https://lh3.googleusercontent.com/wnBtJWdXCvLMobsNBKGP62e871VvDIyqt0dZCcJzYmc=w225-h321-p-no""</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>3210</v>
       </c>
     </row>
   </sheetData>
@@ -16549,10 +16803,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16910,6 +17164,397 @@
       </c>
       <c r="B47" t="s">
         <v>2399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3256</v>
       </c>
     </row>
   </sheetData>
@@ -19374,10 +20019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B728"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
-    <sheetView topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21854,2993 +22499,3009 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>259</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1508</v>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3232</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1513</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1535</v>
+        <v>1518</v>
       </c>
       <c r="B329" t="s">
-        <v>1536</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1537</v>
+        <v>1490</v>
       </c>
       <c r="B330" t="s">
-        <v>1538</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1777</v>
+        <v>259</v>
       </c>
       <c r="B331" t="s">
-        <v>1778</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1898</v>
+        <v>1503</v>
       </c>
       <c r="B332" t="s">
-        <v>1899</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1900</v>
+        <v>1507</v>
       </c>
       <c r="B333" t="s">
-        <v>1901</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1610</v>
+        <v>1506</v>
       </c>
       <c r="B334" t="s">
-        <v>1609</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1614</v>
+        <v>1514</v>
       </c>
       <c r="B335" t="s">
-        <v>1615</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1618</v>
+        <v>1535</v>
       </c>
       <c r="B336" t="s">
-        <v>1619</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1616</v>
+        <v>1537</v>
       </c>
       <c r="B337" t="s">
-        <v>1617</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1620</v>
+        <v>1777</v>
       </c>
       <c r="B338" t="s">
-        <v>1621</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2001</v>
+        <v>1898</v>
       </c>
       <c r="B339" t="s">
-        <v>2002</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2158</v>
+        <v>1900</v>
       </c>
       <c r="B340" t="s">
-        <v>2159</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2172</v>
+        <v>1610</v>
       </c>
       <c r="B341" t="s">
-        <v>2173</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2174</v>
+        <v>1614</v>
       </c>
       <c r="B342" t="s">
-        <v>2175</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2176</v>
+        <v>1618</v>
       </c>
       <c r="B343" t="s">
-        <v>2177</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2184</v>
+        <v>1616</v>
       </c>
       <c r="B344" t="s">
-        <v>2185</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2196</v>
+        <v>1620</v>
       </c>
       <c r="B345" t="s">
-        <v>2197</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>2204</v>
+        <v>2001</v>
       </c>
       <c r="B346" t="s">
-        <v>2205</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2206</v>
+        <v>2158</v>
       </c>
       <c r="B347" t="s">
-        <v>2207</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2222</v>
+        <v>2172</v>
       </c>
       <c r="B348" t="s">
-        <v>2223</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2224</v>
+        <v>2174</v>
       </c>
       <c r="B349" t="s">
-        <v>2225</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>2226</v>
+        <v>2176</v>
       </c>
       <c r="B350" t="s">
-        <v>2227</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2228</v>
+        <v>2184</v>
       </c>
       <c r="B351" t="s">
-        <v>2229</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1514</v>
+        <v>2196</v>
       </c>
       <c r="B352" t="s">
-        <v>2230</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2231</v>
+        <v>2204</v>
       </c>
       <c r="B353" t="s">
-        <v>2232</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2234</v>
+        <v>2206</v>
       </c>
       <c r="B354" t="s">
-        <v>2235</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>2242</v>
+        <v>2222</v>
       </c>
       <c r="B355" t="s">
-        <v>2243</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>2342</v>
+        <v>2224</v>
       </c>
       <c r="B356" t="s">
-        <v>2343</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>2344</v>
+        <v>2226</v>
       </c>
       <c r="B357" t="s">
-        <v>2345</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2346</v>
+        <v>2228</v>
       </c>
       <c r="B358" t="s">
-        <v>2347</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>2324</v>
+        <v>1514</v>
       </c>
       <c r="B359" t="s">
-        <v>2325</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>2326</v>
+        <v>2231</v>
       </c>
       <c r="B360" t="s">
-        <v>2327</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>2298</v>
+        <v>2234</v>
       </c>
       <c r="B361" t="s">
-        <v>2299</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>2300</v>
+        <v>2242</v>
       </c>
       <c r="B362" t="s">
-        <v>2301</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>2304</v>
+        <v>2342</v>
       </c>
       <c r="B363" t="s">
-        <v>2305</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>2306</v>
+        <v>2344</v>
       </c>
       <c r="B364" t="s">
-        <v>2307</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>2308</v>
+        <v>2346</v>
       </c>
       <c r="B365" t="s">
-        <v>2309</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>2312</v>
+        <v>2324</v>
       </c>
       <c r="B366" t="s">
-        <v>2313</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>2290</v>
+        <v>2326</v>
       </c>
       <c r="B367" t="s">
-        <v>2291</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>2350</v>
+        <v>2298</v>
       </c>
       <c r="B368" t="s">
-        <v>2351</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2352</v>
+        <v>2300</v>
       </c>
       <c r="B369" t="s">
-        <v>2353</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>2356</v>
+        <v>2304</v>
       </c>
       <c r="B370" t="s">
-        <v>2357</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>2360</v>
+        <v>2306</v>
       </c>
       <c r="B371" t="s">
-        <v>2361</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>2362</v>
+        <v>2308</v>
       </c>
       <c r="B372" t="s">
-        <v>2363</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>2364</v>
+        <v>2312</v>
       </c>
       <c r="B373" t="s">
-        <v>2365</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>2368</v>
+        <v>2290</v>
       </c>
       <c r="B374" t="s">
-        <v>2369</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>2370</v>
+        <v>2350</v>
       </c>
       <c r="B375" t="s">
-        <v>2371</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>2376</v>
+        <v>2352</v>
       </c>
       <c r="B376" t="s">
-        <v>2377</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>2485</v>
+        <v>2356</v>
       </c>
       <c r="B377" t="s">
-        <v>2486</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>2489</v>
+        <v>2360</v>
       </c>
       <c r="B378" t="s">
-        <v>2490</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>2997</v>
+        <v>2362</v>
       </c>
       <c r="B379" t="s">
-        <v>2998</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>2491</v>
+        <v>2364</v>
       </c>
       <c r="B380" t="s">
-        <v>2492</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>2497</v>
+        <v>2368</v>
       </c>
       <c r="B381" t="s">
-        <v>2498</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>2501</v>
+        <v>2370</v>
       </c>
       <c r="B382" t="s">
-        <v>2502</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>2503</v>
+        <v>2376</v>
       </c>
       <c r="B383" t="s">
-        <v>2504</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>2505</v>
+        <v>2485</v>
       </c>
       <c r="B384" t="s">
-        <v>2506</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>2507</v>
+        <v>2489</v>
       </c>
       <c r="B385" t="s">
-        <v>2508</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2515</v>
+        <v>2997</v>
       </c>
       <c r="B386" t="s">
-        <v>2516</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2517</v>
+        <v>2491</v>
       </c>
       <c r="B387" t="s">
-        <v>2518</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2523</v>
+        <v>2497</v>
       </c>
       <c r="B388" t="s">
-        <v>2524</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>2525</v>
+        <v>2501</v>
       </c>
       <c r="B389" t="s">
-        <v>2526</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>2529</v>
+        <v>2503</v>
       </c>
       <c r="B390" t="s">
-        <v>2530</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>2537</v>
+        <v>2505</v>
       </c>
       <c r="B391" t="s">
-        <v>2538</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>2539</v>
+        <v>2507</v>
       </c>
       <c r="B392" t="s">
-        <v>2540</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>2541</v>
+        <v>2515</v>
       </c>
       <c r="B393" t="s">
-        <v>2542</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>2563</v>
+        <v>2517</v>
       </c>
       <c r="B394" t="s">
-        <v>2561</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>2560</v>
+        <v>2523</v>
       </c>
       <c r="B395" t="s">
-        <v>2562</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>2576</v>
+        <v>2525</v>
       </c>
       <c r="B396" t="s">
-        <v>2577</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>2578</v>
+        <v>2529</v>
       </c>
       <c r="B397" t="s">
-        <v>2579</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>2580</v>
+        <v>2537</v>
       </c>
       <c r="B398" t="s">
-        <v>2581</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>2594</v>
+        <v>2539</v>
       </c>
       <c r="B399" t="s">
-        <v>2595</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>2598</v>
+        <v>2541</v>
       </c>
       <c r="B400" t="s">
-        <v>2599</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>2651</v>
+        <v>2563</v>
       </c>
       <c r="B401" t="s">
-        <v>2650</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1388</v>
+        <v>2560</v>
       </c>
       <c r="B402" t="s">
-        <v>2652</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2653</v>
+        <v>2576</v>
       </c>
       <c r="B403" t="s">
-        <v>2654</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>2655</v>
+        <v>2578</v>
       </c>
       <c r="B404" t="s">
-        <v>2656</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>2660</v>
+        <v>2580</v>
       </c>
       <c r="B405" t="s">
-        <v>2659</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>2671</v>
+        <v>2594</v>
       </c>
       <c r="B406" t="s">
-        <v>2672</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>2673</v>
+        <v>2598</v>
       </c>
       <c r="B407" t="s">
-        <v>2674</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>2678</v>
+        <v>2651</v>
       </c>
       <c r="B408" t="s">
-        <v>2677</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>2746</v>
+        <v>1388</v>
       </c>
       <c r="B409" t="s">
-        <v>2747</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>2771</v>
+        <v>2653</v>
       </c>
       <c r="B410" t="s">
-        <v>2772</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>2799</v>
+        <v>2655</v>
       </c>
       <c r="B411" t="s">
-        <v>2800</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>2802</v>
+        <v>2660</v>
       </c>
       <c r="B412" t="s">
-        <v>2801</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>2814</v>
+        <v>2671</v>
       </c>
       <c r="B413" t="s">
-        <v>2815</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>2855</v>
+        <v>2673</v>
       </c>
       <c r="B414" t="s">
-        <v>2856</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>2858</v>
+        <v>2678</v>
       </c>
       <c r="B415" t="s">
-        <v>2857</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>2859</v>
+        <v>2746</v>
       </c>
       <c r="B416" t="s">
-        <v>2860</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>2863</v>
+        <v>2771</v>
       </c>
       <c r="B417" t="s">
-        <v>2864</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>2865</v>
+        <v>2799</v>
       </c>
       <c r="B418" t="s">
-        <v>2866</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2870</v>
+        <v>2802</v>
       </c>
       <c r="B419" t="s">
-        <v>2869</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>2901</v>
+        <v>2814</v>
       </c>
       <c r="B420" t="s">
-        <v>2902</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>2904</v>
+        <v>2855</v>
       </c>
       <c r="B421" t="s">
-        <v>2903</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>2905</v>
+        <v>2858</v>
       </c>
       <c r="B422" t="s">
-        <v>2906</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>2907</v>
+        <v>2859</v>
       </c>
       <c r="B423" t="s">
-        <v>2908</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>2909</v>
+        <v>2863</v>
       </c>
       <c r="B424" t="s">
-        <v>2911</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>2910</v>
+        <v>2865</v>
       </c>
       <c r="B425" t="s">
-        <v>2912</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>2914</v>
+        <v>2870</v>
       </c>
       <c r="B426" t="s">
-        <v>2913</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>2915</v>
+        <v>2901</v>
       </c>
       <c r="B427" t="s">
-        <v>2916</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>2919</v>
+        <v>2904</v>
       </c>
       <c r="B428" t="s">
-        <v>2917</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>2918</v>
+        <v>2905</v>
       </c>
       <c r="B429" t="s">
-        <v>2922</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2921</v>
+        <v>2907</v>
       </c>
       <c r="B430" t="s">
-        <v>2920</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1889</v>
+        <v>2909</v>
       </c>
       <c r="B431" t="s">
-        <v>2923</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>2925</v>
+        <v>2910</v>
       </c>
       <c r="B432" t="s">
-        <v>2924</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>2927</v>
+        <v>2914</v>
       </c>
       <c r="B433" t="s">
-        <v>2926</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>2929</v>
+        <v>2915</v>
       </c>
       <c r="B434" t="s">
-        <v>2928</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>2931</v>
+        <v>2919</v>
       </c>
       <c r="B435" t="s">
-        <v>2930</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>2933</v>
+        <v>2918</v>
       </c>
       <c r="B436" t="s">
-        <v>2932</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2934</v>
+        <v>2921</v>
       </c>
       <c r="B437" t="s">
-        <v>2935</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>2936</v>
+        <v>1889</v>
       </c>
       <c r="B438" t="s">
-        <v>2937</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>2939</v>
+        <v>2925</v>
       </c>
       <c r="B439" t="s">
-        <v>2938</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>2941</v>
+        <v>2927</v>
       </c>
       <c r="B440" t="s">
-        <v>2940</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>2943</v>
+        <v>2929</v>
       </c>
       <c r="B441" t="s">
-        <v>2942</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>2945</v>
+        <v>2931</v>
       </c>
       <c r="B442" t="s">
-        <v>2944</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>2947</v>
+        <v>2933</v>
       </c>
       <c r="B443" t="s">
-        <v>2946</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>2949</v>
+        <v>2934</v>
       </c>
       <c r="B444" t="s">
-        <v>2948</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>2953</v>
+        <v>2936</v>
       </c>
       <c r="B445" t="s">
-        <v>2954</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>2955</v>
+        <v>2939</v>
       </c>
       <c r="B446" t="s">
-        <v>2956</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>2957</v>
+        <v>2941</v>
       </c>
       <c r="B447" t="s">
-        <v>2958</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>2019</v>
+        <v>2943</v>
       </c>
       <c r="B448" t="s">
-        <v>2959</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>2036</v>
+        <v>2945</v>
       </c>
       <c r="B449" t="s">
-        <v>2960</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>2970</v>
+        <v>2947</v>
       </c>
       <c r="B450" t="s">
-        <v>2971</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>2972</v>
+        <v>2949</v>
       </c>
       <c r="B451" t="s">
-        <v>2973</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>2975</v>
+        <v>2953</v>
       </c>
       <c r="B452" t="s">
-        <v>2974</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>2983</v>
+        <v>2955</v>
       </c>
       <c r="B453" t="s">
-        <v>2984</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>2985</v>
+        <v>2957</v>
       </c>
       <c r="B454" t="s">
-        <v>2986</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>2999</v>
+        <v>2019</v>
       </c>
       <c r="B455" t="s">
-        <v>3000</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>3048</v>
+        <v>2036</v>
       </c>
       <c r="B456" t="s">
-        <v>3049</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>3143</v>
+        <v>2970</v>
       </c>
       <c r="B457" t="s">
-        <v>3142</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>3145</v>
+        <v>2972</v>
       </c>
       <c r="B458" t="s">
-        <v>3144</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>3147</v>
+        <v>2975</v>
       </c>
       <c r="B459" t="s">
-        <v>3146</v>
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B460" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B461" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B463" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B464" t="s">
+        <v>3142</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>2447</v>
+        <v>3145</v>
+      </c>
+      <c r="B465" t="s">
+        <v>3144</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B466" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>2354</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B473" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>2372</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B474" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>2994</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B475" t="s">
         <v>2993</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B469" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B470" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>2809</v>
+        <v>2965</v>
+      </c>
+      <c r="B476" t="s">
+        <v>2964</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>2810</v>
+        <v>2978</v>
       </c>
       <c r="B477" t="s">
-        <v>2811</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B478" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B481" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B482" t="s">
-        <v>2117</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1544</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1578</v>
+        <v>2810</v>
       </c>
       <c r="B484" t="s">
-        <v>2871</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1972</v>
+        <v>2812</v>
       </c>
       <c r="B485" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B486" t="s">
-        <v>2873</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>2875</v>
-      </c>
-      <c r="B487" t="s">
-        <v>2874</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>2877</v>
+        <v>1982</v>
       </c>
       <c r="B488" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1593</v>
+        <v>2118</v>
       </c>
       <c r="B489" t="s">
-        <v>2878</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>2880</v>
+        <v>1543</v>
       </c>
       <c r="B490" t="s">
-        <v>2879</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>2882</v>
+        <v>1578</v>
       </c>
       <c r="B491" t="s">
-        <v>2881</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1402</v>
+        <v>1972</v>
       </c>
       <c r="B492" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2885</v>
+        <v>1936</v>
       </c>
       <c r="B493" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>2887</v>
+        <v>2875</v>
       </c>
       <c r="B494" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2888</v>
+        <v>2877</v>
       </c>
       <c r="B495" t="s">
-        <v>2889</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1460</v>
+        <v>1593</v>
       </c>
       <c r="B496" t="s">
-        <v>2890</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2028</v>
+        <v>2880</v>
       </c>
       <c r="B497" t="s">
-        <v>2891</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1299</v>
+        <v>2882</v>
       </c>
       <c r="B498" t="s">
-        <v>2892</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>2893</v>
+        <v>1402</v>
       </c>
       <c r="B499" t="s">
-        <v>2894</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1965</v>
+        <v>2885</v>
       </c>
       <c r="B500" t="s">
-        <v>2895</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>2896</v>
+        <v>2887</v>
       </c>
       <c r="B501" t="s">
-        <v>2897</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>2545</v>
+        <v>2888</v>
       </c>
       <c r="B502" t="s">
-        <v>2898</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>2899</v>
+        <v>1460</v>
       </c>
       <c r="B503" t="s">
-        <v>2900</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1597</v>
+        <v>2028</v>
       </c>
       <c r="B504" t="s">
-        <v>2471</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>2170</v>
+        <v>1299</v>
       </c>
       <c r="B505" t="s">
-        <v>2171</v>
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B506" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2895</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>2389</v>
+        <v>2896</v>
+      </c>
+      <c r="B508" t="s">
+        <v>2897</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1455</v>
+        <v>2545</v>
       </c>
       <c r="B509" t="s">
-        <v>1545</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1547</v>
+        <v>2899</v>
       </c>
       <c r="B510" t="s">
-        <v>1546</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1549</v>
+        <v>1597</v>
       </c>
       <c r="B511" t="s">
-        <v>1548</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1551</v>
+        <v>2170</v>
       </c>
       <c r="B512" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1554</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1556</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1558</v>
+        <v>1455</v>
       </c>
       <c r="B516" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1606</v>
+        <v>1547</v>
       </c>
       <c r="B517" t="s">
-        <v>1607</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="B518" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="B519" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="B520" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="B521" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1567</v>
+        <v>1482</v>
       </c>
       <c r="B522" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="B523" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1571</v>
+        <v>1606</v>
       </c>
       <c r="B524" t="s">
-        <v>1572</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="B525" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="B526" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="B527" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1388</v>
+        <v>1566</v>
       </c>
       <c r="B528" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1581</v>
+        <v>1567</v>
       </c>
       <c r="B529" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="B530" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="B531" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="B532" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="B533" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="B534" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1593</v>
+        <v>1388</v>
       </c>
       <c r="B535" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1595</v>
+        <v>1581</v>
       </c>
       <c r="B536" t="s">
-        <v>1594</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1597</v>
+        <v>1583</v>
       </c>
       <c r="B537" t="s">
-        <v>1596</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="B538" t="s">
-        <v>1598</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="B539" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="B540" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="B541" t="s">
-        <v>1605</v>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>2472</v>
+    